--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="341">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t xml:space="preserve">column_ID_2</t>
   </si>
   <si>
+    <t xml:space="preserve">column_ID_SI</t>
+  </si>
+  <si>
     <t xml:space="preserve">num_replicates_control</t>
   </si>
   <si>
@@ -214,6 +217,9 @@
     <t xml:space="preserve">zhang_mhcii_mouse_d10</t>
   </si>
   <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in immunodeficient mice after 10 days</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve">zhang_mhcii_mouse_d45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013_Zhang_2</t>
   </si>
   <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in immunodeficient mice after 45 days</t>
@@ -1098,7 +1107,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,8 +1128,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFF200"/>
       </patternFill>
     </fill>
   </fills>
@@ -1158,7 +1173,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,7 +1210,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,7 +1287,7 @@
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -1304,30 +1327,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BZ66"/>
+  <dimension ref="A1:CA65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O49" activeCellId="0" sqref="O49"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="58.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="115.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="36.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1346,25 +1369,25 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1406,8 +1429,10 @@
       <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="3"/>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1459,44 +1484,45 @@
       <c r="BX1" s="2"/>
       <c r="BY1" s="2"/>
       <c r="BZ1" s="2"/>
+      <c r="CA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="str">
         <f aca="false">CONCATENATE(D2,"_vs_",C2)</f>
         <v>griffin_cholesterol_vs_griffin_glycerol</v>
       </c>
-      <c r="F2" s="5" t="n">
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="n">
+      <c r="H2" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="5" t="n">
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>2011</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1517,19 +1543,21 @@
       <c r="R2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
-      <c r="Y2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="3"/>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
@@ -1581,42 +1609,43 @@
       <c r="BX2" s="5"/>
       <c r="BY2" s="5"/>
       <c r="BZ2" s="5"/>
+      <c r="CA2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="4" t="str">
         <f aca="false">CONCATENATE(D3,"_vs_",C3)</f>
         <v>griffin_glycerol_vs_mbio_H37Rv</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="n">
+      <c r="H3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="5" t="n">
+      <c r="I3" s="8"/>
+      <c r="J3" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>44</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1626,26 +1655,28 @@
         <v>46</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="P3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="5"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="3"/>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
@@ -1697,44 +1728,45 @@
       <c r="BX3" s="5"/>
       <c r="BY3" s="5"/>
       <c r="BZ3" s="5"/>
+      <c r="CA3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="str">
         <f aca="false">CONCATENATE(D4,"_vs_",C4)</f>
         <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="H4" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -1747,25 +1779,27 @@
         <v>57</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="3"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -1817,44 +1851,45 @@
       <c r="BX4" s="5"/>
       <c r="BY4" s="5"/>
       <c r="BZ4" s="5"/>
+      <c r="CA4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="4" t="str">
         <f aca="false">CONCATENATE(D5,"_vs_",C5)</f>
         <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
       </c>
-      <c r="F5" s="5" t="n">
+      <c r="F5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="H5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -1867,25 +1902,27 @@
         <v>57</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="Y5" s="5"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="3"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -1937,44 +1974,45 @@
       <c r="BX5" s="5"/>
       <c r="BY5" s="5"/>
       <c r="BZ5" s="5"/>
+      <c r="CA5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E6" s="4" t="str">
         <f aca="false">CONCATENATE(D6,"_vs_",C6)</f>
         <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="H6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -1987,25 +2025,27 @@
         <v>57</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="Y6" s="5"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="5"/>
       <c r="AC6" s="5"/>
       <c r="AD6" s="5"/>
@@ -2057,44 +2097,45 @@
       <c r="BX6" s="5"/>
       <c r="BY6" s="5"/>
       <c r="BZ6" s="5"/>
+      <c r="CA6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="str">
         <f aca="false">CONCATENATE(D7,"_vs_",C7)</f>
         <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="H7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -2107,25 +2148,27 @@
         <v>57</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="3"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -2177,44 +2220,45 @@
       <c r="BX7" s="5"/>
       <c r="BY7" s="5"/>
       <c r="BZ7" s="5"/>
+      <c r="CA7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="str">
         <f aca="false">CONCATENATE(D8,"_vs_",C8)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>3</v>
+      <c r="F8" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="5" t="n">
+      <c r="H8" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -2224,28 +2268,30 @@
         <v>56</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="S8" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="T8" s="5"/>
-      <c r="U8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="3"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -2297,44 +2343,45 @@
       <c r="BX8" s="5"/>
       <c r="BY8" s="5"/>
       <c r="BZ8" s="5"/>
+      <c r="CA8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="str">
         <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>3</v>
+      <c r="F9" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="5" t="n">
+      <c r="H9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -2344,28 +2391,30 @@
         <v>56</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="S9" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="3"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2417,44 +2466,45 @@
       <c r="BX9" s="5"/>
       <c r="BY9" s="5"/>
       <c r="BZ9" s="5"/>
+      <c r="CA9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>81</v>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="4" t="str">
         <f aca="false">CONCATENATE(D10,"_vs_",C10)</f>
         <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="H10" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I10" s="5" t="n">
+      <c r="I10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -2464,28 +2514,30 @@
         <v>56</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="3"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -2537,44 +2589,45 @@
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
       <c r="BZ10" s="5"/>
+      <c r="CA10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4" t="str">
         <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
         <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>1</v>
+      <c r="F11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I11" s="5" t="n">
+      <c r="H11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -2584,28 +2637,30 @@
         <v>56</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="S11" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="T11" s="5"/>
-      <c r="U11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="3"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
@@ -2657,44 +2712,45 @@
       <c r="BX11" s="5"/>
       <c r="BY11" s="5"/>
       <c r="BZ11" s="5"/>
+      <c r="CA11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4" t="str">
         <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
         <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>1</v>
+      <c r="F12" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="5" t="n">
+      <c r="H12" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -2704,28 +2760,30 @@
         <v>56</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S12" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -2777,44 +2835,45 @@
       <c r="BX12" s="5"/>
       <c r="BY12" s="5"/>
       <c r="BZ12" s="5"/>
+      <c r="CA12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4" t="str">
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
         <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>2</v>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" s="5" t="n">
+      <c r="H13" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="5" t="n">
         <v>2013</v>
       </c>
-      <c r="J13" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="7" t="s">
         <v>54</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -2824,28 +2883,30 @@
         <v>56</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>47</v>
+        <v>57</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="3"/>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -2897,77 +2958,78 @@
       <c r="BX13" s="5"/>
       <c r="BY13" s="5"/>
       <c r="BZ13" s="5"/>
+      <c r="CA13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E14" s="4" t="str">
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
         <v>kieser_dPonA1_vs_mbio_H37Rv</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="H14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="J14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>103</v>
+      <c r="K14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5" t="s">
-        <v>105</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="5"/>
       <c r="T14" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V14" s="5"/>
+        <v>109</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="3"/>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -3019,73 +3081,74 @@
       <c r="BX14" s="5"/>
       <c r="BY14" s="5"/>
       <c r="BZ14" s="5"/>
+      <c r="CA14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
         <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F15" s="4"/>
       <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J15" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="J15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>113</v>
+      <c r="K15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V15" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="3"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -3137,77 +3200,80 @@
       <c r="BX15" s="5"/>
       <c r="BY15" s="5"/>
       <c r="BZ15" s="5"/>
+      <c r="CA15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
         <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>1</v>
+      <c r="F16" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I16" s="5" t="n">
+      <c r="H16" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="5" t="n">
         <v>2016</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>31</v>
+      <c r="K16" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5" t="s">
-        <v>126</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V16" s="5"/>
+        <v>130</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="3"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -3259,305 +3325,308 @@
       <c r="BX16" s="5"/>
       <c r="BY16" s="5"/>
       <c r="BZ16" s="5"/>
+      <c r="CA16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="10" t="n">
+        <v>131</v>
+      </c>
+      <c r="B17" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>130</v>
+      <c r="C17" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
         <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="4"/>
+      <c r="G17" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="H17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="13"/>
+      <c r="J17" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="K17" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V17" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
-      <c r="AS17" s="10"/>
-      <c r="AT17" s="10"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="10"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="AZ17" s="10"/>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="10"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10"/>
-      <c r="BO17" s="10"/>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10"/>
-      <c r="BR17" s="10"/>
-      <c r="BS17" s="10"/>
-      <c r="BT17" s="10"/>
-      <c r="BU17" s="10"/>
-      <c r="BV17" s="10"/>
-      <c r="BW17" s="10"/>
-      <c r="BX17" s="10"/>
-      <c r="BY17" s="10"/>
-      <c r="BZ17" s="10"/>
+      <c r="O17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+      <c r="BK17" s="12"/>
+      <c r="BL17" s="12"/>
+      <c r="BM17" s="12"/>
+      <c r="BN17" s="12"/>
+      <c r="BO17" s="12"/>
+      <c r="BP17" s="12"/>
+      <c r="BQ17" s="12"/>
+      <c r="BR17" s="12"/>
+      <c r="BS17" s="12"/>
+      <c r="BT17" s="12"/>
+      <c r="BU17" s="12"/>
+      <c r="BV17" s="12"/>
+      <c r="BW17" s="12"/>
+      <c r="BX17" s="12"/>
+      <c r="BY17" s="12"/>
+      <c r="BZ17" s="12"/>
+      <c r="CA17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="10" t="n">
+        <v>138</v>
+      </c>
+      <c r="B18" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>129</v>
+      <c r="C18" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
         <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="4"/>
+      <c r="G18" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="H18" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W18" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="10" t="n">
-        <v>2017</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
-      <c r="AS18" s="10"/>
-      <c r="AT18" s="10"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="10"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="AZ18" s="10"/>
-      <c r="BA18" s="10"/>
-      <c r="BB18" s="10"/>
-      <c r="BC18" s="10"/>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="10"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10"/>
-      <c r="BO18" s="10"/>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="10"/>
-      <c r="BR18" s="10"/>
-      <c r="BS18" s="10"/>
-      <c r="BT18" s="10"/>
-      <c r="BU18" s="10"/>
-      <c r="BV18" s="10"/>
-      <c r="BW18" s="10"/>
-      <c r="BX18" s="10"/>
-      <c r="BY18" s="10"/>
-      <c r="BZ18" s="10"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="12"/>
+      <c r="AW18" s="12"/>
+      <c r="AX18" s="12"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="12"/>
+      <c r="BA18" s="12"/>
+      <c r="BB18" s="12"/>
+      <c r="BC18" s="12"/>
+      <c r="BD18" s="12"/>
+      <c r="BE18" s="12"/>
+      <c r="BF18" s="12"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="12"/>
+      <c r="BI18" s="12"/>
+      <c r="BJ18" s="12"/>
+      <c r="BK18" s="12"/>
+      <c r="BL18" s="12"/>
+      <c r="BM18" s="12"/>
+      <c r="BN18" s="12"/>
+      <c r="BO18" s="12"/>
+      <c r="BP18" s="12"/>
+      <c r="BQ18" s="12"/>
+      <c r="BR18" s="12"/>
+      <c r="BS18" s="12"/>
+      <c r="BT18" s="12"/>
+      <c r="BU18" s="12"/>
+      <c r="BV18" s="12"/>
+      <c r="BW18" s="12"/>
+      <c r="BX18" s="12"/>
+      <c r="BY18" s="12"/>
+      <c r="BZ18" s="12"/>
+      <c r="CA18" s="12"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
       </c>
-      <c r="F19" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="F19" s="4"/>
       <c r="G19" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="I19" s="5" t="n">
+      <c r="H19" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>133</v>
+      <c r="K19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P19" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W19" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="3"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -3609,309 +3678,312 @@
       <c r="BX19" s="5"/>
       <c r="BY19" s="5"/>
       <c r="BZ19" s="5"/>
+      <c r="CA19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="10" t="n">
+        <v>145</v>
+      </c>
+      <c r="B20" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>130</v>
+      <c r="C20" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E20" s="4" t="str">
         <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="4"/>
+      <c r="G20" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="10" t="n">
+      <c r="H20" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="I20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J20" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="10" t="n">
-        <v>2017</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M20" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
-      <c r="AS20" s="10"/>
-      <c r="AT20" s="10"/>
-      <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="10"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="AZ20" s="10"/>
-      <c r="BA20" s="10"/>
-      <c r="BB20" s="10"/>
-      <c r="BC20" s="10"/>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="10"/>
-      <c r="BJ20" s="10"/>
-      <c r="BK20" s="10"/>
-      <c r="BL20" s="10"/>
-      <c r="BM20" s="10"/>
-      <c r="BN20" s="10"/>
-      <c r="BO20" s="10"/>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="10"/>
-      <c r="BR20" s="10"/>
-      <c r="BS20" s="10"/>
-      <c r="BT20" s="10"/>
-      <c r="BU20" s="10"/>
-      <c r="BV20" s="10"/>
-      <c r="BW20" s="10"/>
-      <c r="BX20" s="10"/>
-      <c r="BY20" s="10"/>
-      <c r="BZ20" s="10"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="12"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="12"/>
+      <c r="AY20" s="12"/>
+      <c r="AZ20" s="12"/>
+      <c r="BA20" s="12"/>
+      <c r="BB20" s="12"/>
+      <c r="BC20" s="12"/>
+      <c r="BD20" s="12"/>
+      <c r="BE20" s="12"/>
+      <c r="BF20" s="12"/>
+      <c r="BG20" s="12"/>
+      <c r="BH20" s="12"/>
+      <c r="BI20" s="12"/>
+      <c r="BJ20" s="12"/>
+      <c r="BK20" s="12"/>
+      <c r="BL20" s="12"/>
+      <c r="BM20" s="12"/>
+      <c r="BN20" s="12"/>
+      <c r="BO20" s="12"/>
+      <c r="BP20" s="12"/>
+      <c r="BQ20" s="12"/>
+      <c r="BR20" s="12"/>
+      <c r="BS20" s="12"/>
+      <c r="BT20" s="12"/>
+      <c r="BU20" s="12"/>
+      <c r="BV20" s="12"/>
+      <c r="BW20" s="12"/>
+      <c r="BX20" s="12"/>
+      <c r="BY20" s="12"/>
+      <c r="BZ20" s="12"/>
+      <c r="CA20" s="12"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="10" t="n">
+        <v>146</v>
+      </c>
+      <c r="B21" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>129</v>
+      <c r="C21" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E21" s="4" t="str">
         <f aca="false">CONCATENATE(D21,"_vs_",C21)</f>
         <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="4"/>
+      <c r="G21" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="10" t="n">
+      <c r="H21" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I21" s="10" t="n">
+      <c r="I21" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J21" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="K21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L21" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
-      <c r="AS21" s="10"/>
-      <c r="AT21" s="10"/>
-      <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="10"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
-      <c r="BA21" s="10"/>
-      <c r="BB21" s="10"/>
-      <c r="BC21" s="10"/>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
-      <c r="BG21" s="10"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="10"/>
-      <c r="BJ21" s="10"/>
-      <c r="BK21" s="10"/>
-      <c r="BL21" s="10"/>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10"/>
-      <c r="BO21" s="10"/>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="10"/>
-      <c r="BR21" s="10"/>
-      <c r="BS21" s="10"/>
-      <c r="BT21" s="10"/>
-      <c r="BU21" s="10"/>
-      <c r="BV21" s="10"/>
-      <c r="BW21" s="10"/>
-      <c r="BX21" s="10"/>
-      <c r="BY21" s="10"/>
-      <c r="BZ21" s="10"/>
+      <c r="O21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
+      <c r="BK21" s="12"/>
+      <c r="BL21" s="12"/>
+      <c r="BM21" s="12"/>
+      <c r="BN21" s="12"/>
+      <c r="BO21" s="12"/>
+      <c r="BP21" s="12"/>
+      <c r="BQ21" s="12"/>
+      <c r="BR21" s="12"/>
+      <c r="BS21" s="12"/>
+      <c r="BT21" s="12"/>
+      <c r="BU21" s="12"/>
+      <c r="BV21" s="12"/>
+      <c r="BW21" s="12"/>
+      <c r="BX21" s="12"/>
+      <c r="BY21" s="12"/>
+      <c r="BZ21" s="12"/>
+      <c r="CA21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E22" s="4" t="str">
         <f aca="false">CONCATENATE(D22,"_vs_",C22)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="4"/>
+      <c r="G22" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="H22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I22" s="5" t="n">
+      <c r="I22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J22" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>133</v>
+      <c r="K22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>46</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P22" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
-      <c r="S22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U22" s="5"/>
       <c r="V22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W22" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="3"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -3963,309 +4035,312 @@
       <c r="BX22" s="5"/>
       <c r="BY22" s="5"/>
       <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="10" t="n">
+        <v>153</v>
+      </c>
+      <c r="B23" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>130</v>
+      <c r="C23" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E23" s="4" t="str">
         <f aca="false">CONCATENATE(D23,"_vs_",C23)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="4"/>
+      <c r="G23" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G23" s="10" t="n">
+      <c r="H23" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I23" s="10" t="n">
+      <c r="I23" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="J23" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="10" t="s">
+      <c r="K23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L23" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
-      <c r="AS23" s="10"/>
-      <c r="AT23" s="10"/>
-      <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="10"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="AZ23" s="10"/>
-      <c r="BA23" s="10"/>
-      <c r="BB23" s="10"/>
-      <c r="BC23" s="10"/>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
-      <c r="BK23" s="10"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
-      <c r="BS23" s="10"/>
-      <c r="BT23" s="10"/>
-      <c r="BU23" s="10"/>
-      <c r="BV23" s="10"/>
-      <c r="BW23" s="10"/>
-      <c r="BX23" s="10"/>
-      <c r="BY23" s="10"/>
-      <c r="BZ23" s="10"/>
+      <c r="O23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
+      <c r="AK23" s="12"/>
+      <c r="AL23" s="12"/>
+      <c r="AM23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AO23" s="12"/>
+      <c r="AP23" s="12"/>
+      <c r="AQ23" s="12"/>
+      <c r="AR23" s="12"/>
+      <c r="AS23" s="12"/>
+      <c r="AT23" s="12"/>
+      <c r="AU23" s="12"/>
+      <c r="AV23" s="12"/>
+      <c r="AW23" s="12"/>
+      <c r="AX23" s="12"/>
+      <c r="AY23" s="12"/>
+      <c r="AZ23" s="12"/>
+      <c r="BA23" s="12"/>
+      <c r="BB23" s="12"/>
+      <c r="BC23" s="12"/>
+      <c r="BD23" s="12"/>
+      <c r="BE23" s="12"/>
+      <c r="BF23" s="12"/>
+      <c r="BG23" s="12"/>
+      <c r="BH23" s="12"/>
+      <c r="BI23" s="12"/>
+      <c r="BJ23" s="12"/>
+      <c r="BK23" s="12"/>
+      <c r="BL23" s="12"/>
+      <c r="BM23" s="12"/>
+      <c r="BN23" s="12"/>
+      <c r="BO23" s="12"/>
+      <c r="BP23" s="12"/>
+      <c r="BQ23" s="12"/>
+      <c r="BR23" s="12"/>
+      <c r="BS23" s="12"/>
+      <c r="BT23" s="12"/>
+      <c r="BU23" s="12"/>
+      <c r="BV23" s="12"/>
+      <c r="BW23" s="12"/>
+      <c r="BX23" s="12"/>
+      <c r="BY23" s="12"/>
+      <c r="BZ23" s="12"/>
+      <c r="CA23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="10" t="n">
+        <v>155</v>
+      </c>
+      <c r="B24" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>129</v>
+      <c r="C24" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4" t="str">
         <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
         <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="4"/>
+      <c r="G24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="10" t="n">
+      <c r="H24" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I24" s="10" t="n">
+      <c r="I24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="J24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="K24" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="10"/>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="10"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
-      <c r="AS24" s="10"/>
-      <c r="AT24" s="10"/>
-      <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="10"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="AZ24" s="10"/>
-      <c r="BA24" s="10"/>
-      <c r="BB24" s="10"/>
-      <c r="BC24" s="10"/>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
-      <c r="BK24" s="10"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
-      <c r="BO24" s="10"/>
-      <c r="BP24" s="10"/>
-      <c r="BQ24" s="10"/>
-      <c r="BR24" s="10"/>
-      <c r="BS24" s="10"/>
-      <c r="BT24" s="10"/>
-      <c r="BU24" s="10"/>
-      <c r="BV24" s="10"/>
-      <c r="BW24" s="10"/>
-      <c r="BX24" s="10"/>
-      <c r="BY24" s="10"/>
-      <c r="BZ24" s="10"/>
+      <c r="O24" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="12"/>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
+      <c r="AK24" s="12"/>
+      <c r="AL24" s="12"/>
+      <c r="AM24" s="12"/>
+      <c r="AN24" s="12"/>
+      <c r="AO24" s="12"/>
+      <c r="AP24" s="12"/>
+      <c r="AQ24" s="12"/>
+      <c r="AR24" s="12"/>
+      <c r="AS24" s="12"/>
+      <c r="AT24" s="12"/>
+      <c r="AU24" s="12"/>
+      <c r="AV24" s="12"/>
+      <c r="AW24" s="12"/>
+      <c r="AX24" s="12"/>
+      <c r="AY24" s="12"/>
+      <c r="AZ24" s="12"/>
+      <c r="BA24" s="12"/>
+      <c r="BB24" s="12"/>
+      <c r="BC24" s="12"/>
+      <c r="BD24" s="12"/>
+      <c r="BE24" s="12"/>
+      <c r="BF24" s="12"/>
+      <c r="BG24" s="12"/>
+      <c r="BH24" s="12"/>
+      <c r="BI24" s="12"/>
+      <c r="BJ24" s="12"/>
+      <c r="BK24" s="12"/>
+      <c r="BL24" s="12"/>
+      <c r="BM24" s="12"/>
+      <c r="BN24" s="12"/>
+      <c r="BO24" s="12"/>
+      <c r="BP24" s="12"/>
+      <c r="BQ24" s="12"/>
+      <c r="BR24" s="12"/>
+      <c r="BS24" s="12"/>
+      <c r="BT24" s="12"/>
+      <c r="BU24" s="12"/>
+      <c r="BV24" s="12"/>
+      <c r="BW24" s="12"/>
+      <c r="BX24" s="12"/>
+      <c r="BY24" s="12"/>
+      <c r="BZ24" s="12"/>
+      <c r="CA24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B25" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E25" s="4" t="str">
         <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="4"/>
+      <c r="G25" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="H25" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I25" s="5" t="n">
+      <c r="I25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>133</v>
+      <c r="K25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>46</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P25" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
-      <c r="S25" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U25" s="5"/>
       <c r="V25" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W25" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="3"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -4317,193 +4392,195 @@
       <c r="BX25" s="5"/>
       <c r="BY25" s="5"/>
       <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="10" t="n">
+        <v>162</v>
+      </c>
+      <c r="B26" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>130</v>
+      <c r="C26" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E26" s="4" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="F26" s="4"/>
+      <c r="G26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G26" s="10" t="n">
+      <c r="H26" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H26" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="10" t="n">
+      <c r="I26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N26" s="10" t="s">
+      <c r="K26" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="N26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
-      <c r="AD26" s="10"/>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="10"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
-      <c r="AS26" s="10"/>
-      <c r="AT26" s="10"/>
-      <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="10"/>
-      <c r="AX26" s="10"/>
-      <c r="AY26" s="10"/>
-      <c r="AZ26" s="10"/>
-      <c r="BA26" s="10"/>
-      <c r="BB26" s="10"/>
-      <c r="BC26" s="10"/>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
-      <c r="BK26" s="10"/>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
-      <c r="BO26" s="10"/>
-      <c r="BP26" s="10"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
-      <c r="BS26" s="10"/>
-      <c r="BT26" s="10"/>
-      <c r="BU26" s="10"/>
-      <c r="BV26" s="10"/>
-      <c r="BW26" s="10"/>
-      <c r="BX26" s="10"/>
-      <c r="BY26" s="10"/>
-      <c r="BZ26" s="10"/>
+      <c r="O26" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+      <c r="AK26" s="12"/>
+      <c r="AL26" s="12"/>
+      <c r="AM26" s="12"/>
+      <c r="AN26" s="12"/>
+      <c r="AO26" s="12"/>
+      <c r="AP26" s="12"/>
+      <c r="AQ26" s="12"/>
+      <c r="AR26" s="12"/>
+      <c r="AS26" s="12"/>
+      <c r="AT26" s="12"/>
+      <c r="AU26" s="12"/>
+      <c r="AV26" s="12"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
+      <c r="AZ26" s="12"/>
+      <c r="BA26" s="12"/>
+      <c r="BB26" s="12"/>
+      <c r="BC26" s="12"/>
+      <c r="BD26" s="12"/>
+      <c r="BE26" s="12"/>
+      <c r="BF26" s="12"/>
+      <c r="BG26" s="12"/>
+      <c r="BH26" s="12"/>
+      <c r="BI26" s="12"/>
+      <c r="BJ26" s="12"/>
+      <c r="BK26" s="12"/>
+      <c r="BL26" s="12"/>
+      <c r="BM26" s="12"/>
+      <c r="BN26" s="12"/>
+      <c r="BO26" s="12"/>
+      <c r="BP26" s="12"/>
+      <c r="BQ26" s="12"/>
+      <c r="BR26" s="12"/>
+      <c r="BS26" s="12"/>
+      <c r="BT26" s="12"/>
+      <c r="BU26" s="12"/>
+      <c r="BV26" s="12"/>
+      <c r="BW26" s="12"/>
+      <c r="BX26" s="12"/>
+      <c r="BY26" s="12"/>
+      <c r="BZ26" s="12"/>
+      <c r="CA26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E27" s="4" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
         <v>xu_van_16_vs_xu_van_0</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I27" s="5" t="n">
+      <c r="H27" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J27" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>166</v>
+      <c r="K27" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V27" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="3"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -4555,75 +4632,76 @@
       <c r="BX27" s="5"/>
       <c r="BY27" s="5"/>
       <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E28" s="4" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
         <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="F28" s="4"/>
       <c r="G28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="I28" s="5" t="n">
+      <c r="H28" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>166</v>
+      <c r="K28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="S28" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="T28" s="5"/>
-      <c r="U28" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="3"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -4675,75 +4753,76 @@
       <c r="BX28" s="5"/>
       <c r="BY28" s="5"/>
       <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B29" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" s="4" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
         <v>xu_inh_02_vs_xu_inh_0</v>
       </c>
-      <c r="F29" s="5" t="n">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="H29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I29" s="5" t="n">
+      <c r="I29" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>166</v>
+      <c r="K29" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="S29" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="T29" s="5"/>
-      <c r="U29" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="3"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -4795,75 +4874,76 @@
       <c r="BX29" s="5"/>
       <c r="BY29" s="5"/>
       <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B30" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E30" s="4" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
         <v>xu_inh_025_vs_xu_inh_0</v>
       </c>
-      <c r="F30" s="5" t="n">
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G30" s="5" t="n">
+      <c r="H30" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" s="5" t="n">
+      <c r="I30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>166</v>
+      <c r="K30" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="S30" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="T30" s="5"/>
-      <c r="U30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="3"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -4915,75 +4995,76 @@
       <c r="BX30" s="5"/>
       <c r="BY30" s="5"/>
       <c r="BZ30" s="5"/>
+      <c r="CA30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E31" s="4" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
         <v>xu_emb_2.5_vs_xu_emb_0</v>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="5" t="n">
+      <c r="H31" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>166</v>
+      <c r="K31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="S31" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="T31" s="5"/>
-      <c r="U31" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="3"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -5035,75 +5116,76 @@
       <c r="BX31" s="5"/>
       <c r="BY31" s="5"/>
       <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E32" s="4" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
         <v>xu_emb_3_vs_xu_emb_0</v>
       </c>
-      <c r="F32" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="F32" s="4"/>
       <c r="G32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I32" s="5" t="n">
+      <c r="H32" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J32" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>166</v>
+      <c r="K32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="S32" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="T32" s="5"/>
-      <c r="U32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="3"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -5155,75 +5237,76 @@
       <c r="BX32" s="5"/>
       <c r="BY32" s="5"/>
       <c r="BZ32" s="5"/>
+      <c r="CA32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
         <v>xu_mero_2.5_vs_xu_mero_0</v>
       </c>
-      <c r="F33" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F33" s="4"/>
       <c r="G33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="I33" s="5" t="n">
+      <c r="H33" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>166</v>
+      <c r="K33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="S33" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>197</v>
+      </c>
       <c r="T33" s="5"/>
-      <c r="U33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="3"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -5275,71 +5358,74 @@
       <c r="BX33" s="5"/>
       <c r="BY33" s="5"/>
       <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>197</v>
+      <c r="C34" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="E34" s="4" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
         <v>mishra_C3H_vs_mishra_B6</v>
       </c>
-      <c r="F34" s="5" t="n">
+      <c r="F34" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="H34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="4"/>
+      <c r="J34" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>200</v>
+      <c r="K34" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P34" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5" t="s">
+      <c r="U34" s="5"/>
+      <c r="V34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="3"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -5391,71 +5477,74 @@
       <c r="BX34" s="5"/>
       <c r="BY34" s="5"/>
       <c r="BZ34" s="5"/>
+      <c r="CA34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>204</v>
+      <c r="C35" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="E35" s="4" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
         <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
-      <c r="F35" s="5" t="n">
+      <c r="F35" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G35" s="5" t="n">
+      <c r="H35" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H35" s="4"/>
-      <c r="I35" s="5" t="n">
+      <c r="I35" s="4"/>
+      <c r="J35" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L35" s="5" t="s">
-        <v>200</v>
+      <c r="K35" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P35" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5" t="s">
+      <c r="U35" s="5"/>
+      <c r="V35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA35" s="3"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -5507,70 +5596,71 @@
       <c r="BX35" s="5"/>
       <c r="BY35" s="5"/>
       <c r="BZ35" s="5"/>
+      <c r="CA35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>204</v>
+      <c r="C36" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>207</v>
       </c>
       <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
         <v>mishra_NOS2_vs_mishra_C3H</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="5" t="n">
+      <c r="H36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>200</v>
+      <c r="K36" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P36" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5" t="s">
+      <c r="U36" s="5"/>
+      <c r="V36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="Z36" s="3"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
@@ -5623,75 +5713,76 @@
       <c r="BX36" s="3"/>
       <c r="BY36" s="3"/>
       <c r="BZ36" s="3"/>
+      <c r="CA36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B37" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
         <v>carey_621_vs_mbio_H37Rv</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="4"/>
+      <c r="G37" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="H37" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="J37" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>213</v>
+      <c r="K37" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R37" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
-      <c r="U37" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
-      <c r="Y37" s="5" t="n">
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5" t="n">
         <v>621</v>
       </c>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="5"/>
+      <c r="AA37" s="3"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -5743,75 +5834,76 @@
       <c r="BX37" s="5"/>
       <c r="BY37" s="5"/>
       <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B38" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
         <v>carey_630_vs_mbio_H37Rv</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="4"/>
+      <c r="G38" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G38" s="5" t="n">
+      <c r="H38" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="I38" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O38" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I38" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="O38" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="P38" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R38" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
-      <c r="U38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
-      <c r="Y38" s="5" t="n">
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="5"/>
+      <c r="AA38" s="3"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -5863,75 +5955,76 @@
       <c r="BX38" s="5"/>
       <c r="BY38" s="5"/>
       <c r="BZ38" s="5"/>
+      <c r="CA38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
         <v>carey_631_vs_mbio_H37Rv</v>
       </c>
-      <c r="F39" s="5" t="n">
+      <c r="F39" s="4"/>
+      <c r="G39" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="H39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="I39" s="5" t="n">
+      <c r="I39" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J39" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L39" s="5" t="s">
-        <v>213</v>
+      <c r="K39" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R39" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
-      <c r="U39" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
-      <c r="Y39" s="5" t="n">
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5" t="n">
         <v>631</v>
       </c>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="5"/>
+      <c r="AA39" s="3"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -5983,75 +6076,76 @@
       <c r="BX39" s="5"/>
       <c r="BY39" s="5"/>
       <c r="BZ39" s="5"/>
+      <c r="CA39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
         <v>carey_632_vs_mbio_H37Rv</v>
       </c>
-      <c r="F40" s="5" t="n">
+      <c r="F40" s="4"/>
+      <c r="G40" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="H40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>213</v>
+      <c r="K40" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R40" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
-      <c r="U40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
-      <c r="Y40" s="5" t="n">
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5" t="n">
         <v>632</v>
       </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="5"/>
+      <c r="AA40" s="3"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -6103,75 +6197,76 @@
       <c r="BX40" s="5"/>
       <c r="BY40" s="5"/>
       <c r="BZ40" s="5"/>
+      <c r="CA40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
         <v>carey_641_vs_mbio_H37Rv</v>
       </c>
-      <c r="F41" s="5" t="n">
+      <c r="F41" s="4"/>
+      <c r="G41" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="H41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="I41" s="5" t="n">
+      <c r="I41" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J41" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L41" s="5" t="s">
-        <v>213</v>
+      <c r="K41" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R41" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
-      <c r="Y41" s="5" t="n">
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5" t="n">
         <v>641</v>
       </c>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="5"/>
+      <c r="AA41" s="3"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -6223,75 +6318,76 @@
       <c r="BX41" s="5"/>
       <c r="BY41" s="5"/>
       <c r="BZ41" s="5"/>
+      <c r="CA41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
         <v>carey_662_vs_mbio_H37Rv</v>
       </c>
-      <c r="F42" s="5" t="n">
+      <c r="F42" s="4"/>
+      <c r="G42" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G42" s="5" t="n">
+      <c r="H42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="I42" s="5" t="n">
+      <c r="I42" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J42" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L42" s="5" t="s">
-        <v>213</v>
+      <c r="K42" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R42" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
-      <c r="U42" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
-      <c r="Y42" s="5" t="n">
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5" t="n">
         <v>662</v>
       </c>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="5"/>
+      <c r="AA42" s="3"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -6343,75 +6439,76 @@
       <c r="BX42" s="5"/>
       <c r="BY42" s="5"/>
       <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
         <v>carey_663_vs_mbio_H37Rv</v>
       </c>
-      <c r="F43" s="5" t="n">
+      <c r="F43" s="4"/>
+      <c r="G43" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="H43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>213</v>
+      <c r="K43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R43" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
-      <c r="Y43" s="5" t="n">
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5" t="n">
         <v>663</v>
       </c>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="5"/>
+      <c r="AA43" s="3"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -6463,75 +6560,76 @@
       <c r="BX43" s="5"/>
       <c r="BY43" s="5"/>
       <c r="BZ43" s="5"/>
+      <c r="CA43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
         <v>carey_667_vs_mbio_H37Rv</v>
       </c>
-      <c r="F44" s="5" t="n">
+      <c r="F44" s="4"/>
+      <c r="G44" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G44" s="5" t="n">
+      <c r="H44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="I44" s="5" t="n">
+      <c r="I44" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>213</v>
+      <c r="K44" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>215</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R44" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
-      <c r="U44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="V44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
-      <c r="Y44" s="5" t="n">
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5" t="n">
         <v>667</v>
       </c>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="5"/>
+      <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -6583,79 +6681,80 @@
       <c r="BX44" s="5"/>
       <c r="BY44" s="5"/>
       <c r="BZ44" s="5"/>
+      <c r="CA44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
         <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
-      <c r="F45" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I45" s="5" t="n">
+      <c r="H45" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="J45" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J45" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>243</v>
+      <c r="K45" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>34</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="S45" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>248</v>
+      </c>
       <c r="T45" s="5"/>
-      <c r="U45" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U45" s="5"/>
       <c r="V45" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W45" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W45" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X45" s="5"/>
-      <c r="Y45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -6707,79 +6806,80 @@
       <c r="BX45" s="5"/>
       <c r="BY45" s="5"/>
       <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
         <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
       </c>
-      <c r="F46" s="5" t="n">
+      <c r="F46" s="4"/>
+      <c r="G46" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="H46" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="J46" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L46" s="5" t="s">
-        <v>243</v>
+      <c r="K46" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>34</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="S46" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>252</v>
+      </c>
       <c r="T46" s="5"/>
-      <c r="U46" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U46" s="5"/>
       <c r="V46" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W46" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X46" s="5"/>
-      <c r="Y46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA46" s="3"/>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -6831,73 +6931,74 @@
       <c r="BX46" s="5"/>
       <c r="BY46" s="5"/>
       <c r="BZ46" s="5"/>
+      <c r="CA46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
         <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
-      <c r="F47" s="5" t="n">
+      <c r="F47" s="4"/>
+      <c r="G47" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="H47" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="5" t="n">
+      <c r="I47" s="4"/>
+      <c r="J47" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="J47" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L47" s="5" t="s">
-        <v>255</v>
+      <c r="K47" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P47" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U47" s="5"/>
       <c r="V47" s="5" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA47" s="3"/>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
@@ -6949,73 +7050,74 @@
       <c r="BX47" s="5"/>
       <c r="BY47" s="5"/>
       <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
         <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
-      <c r="F48" s="5" t="n">
+      <c r="F48" s="4"/>
+      <c r="G48" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="G48" s="5" t="n">
+      <c r="H48" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="5" t="n">
+      <c r="I48" s="4"/>
+      <c r="J48" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="5" t="s">
-        <v>255</v>
+      <c r="K48" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P48" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
-      <c r="U48" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U48" s="5"/>
       <c r="V48" s="5" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA48" s="3"/>
       <c r="AB48" s="5"/>
       <c r="AC48" s="5"/>
       <c r="AD48" s="5"/>
@@ -7067,73 +7169,74 @@
       <c r="BX48" s="5"/>
       <c r="BY48" s="5"/>
       <c r="BZ48" s="5"/>
+      <c r="CA48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
         <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
-      <c r="F49" s="5" t="n">
-        <v>5</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="5" t="n">
+      <c r="H49" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="L49" s="5" t="s">
-        <v>255</v>
+      <c r="K49" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L49" s="18" t="s">
+        <v>257</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>33</v>
+        <v>259</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P49" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
-      <c r="U49" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U49" s="5"/>
       <c r="V49" s="5" t="s">
-        <v>134</v>
+        <v>39</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA49" s="3"/>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -7185,73 +7288,74 @@
       <c r="BX49" s="5"/>
       <c r="BY49" s="5"/>
       <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
         <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F50" s="4"/>
       <c r="G50" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="5" t="n">
+      <c r="H50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="L50" s="5" t="s">
-        <v>266</v>
+      <c r="K50" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>269</v>
+        <v>35</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="R50" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W50" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W50" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="3"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -7303,79 +7407,80 @@
       <c r="BX50" s="5"/>
       <c r="BY50" s="5"/>
       <c r="BZ50" s="5"/>
+      <c r="CA50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
         <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
-      <c r="F51" s="5" t="n">
+      <c r="F51" s="4"/>
+      <c r="G51" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="H51" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>275</v>
+      <c r="I51" s="4" t="s">
+        <v>277</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W51" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W51" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X51" s="5"/>
-      <c r="Y51" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA51" s="3"/>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -7427,79 +7532,80 @@
       <c r="BX51" s="5"/>
       <c r="BY51" s="5"/>
       <c r="BZ51" s="5"/>
+      <c r="CA51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
         <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
-      <c r="F52" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F52" s="4"/>
       <c r="G52" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>275</v>
+      <c r="H52" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>283</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W52" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W52" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X52" s="5"/>
-      <c r="Y52" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA52" s="3"/>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -7551,75 +7657,76 @@
       <c r="BX52" s="5"/>
       <c r="BY52" s="5"/>
       <c r="BZ52" s="5"/>
+      <c r="CA52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>287</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
         <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
-      <c r="F53" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F53" s="4"/>
       <c r="G53" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H53" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M53" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O53" s="5"/>
       <c r="P53" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5" t="s">
-        <v>286</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S53" s="5"/>
       <c r="T53" s="5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W53" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X53" s="5"/>
-      <c r="Y53" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -7671,75 +7778,76 @@
       <c r="BX53" s="5"/>
       <c r="BY53" s="5"/>
       <c r="BZ53" s="5"/>
+      <c r="CA53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>289</v>
+        <v>291</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
         <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="F54" s="4"/>
       <c r="G54" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H54" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H54" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M54" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O54" s="5"/>
       <c r="P54" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5" t="s">
-        <v>291</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S54" s="5"/>
       <c r="T54" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W54" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X54" s="5"/>
-      <c r="Y54" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA54" s="3"/>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -7791,75 +7899,76 @@
       <c r="BX54" s="5"/>
       <c r="BY54" s="5"/>
       <c r="BZ54" s="5"/>
+      <c r="CA54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>293</v>
+        <v>286</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>296</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
         <v>Rv1096_KO_vs_CB_WT</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F55" s="4"/>
       <c r="G55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H55" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M55" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N55" s="5"/>
-      <c r="O55" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O55" s="5"/>
       <c r="P55" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5" t="s">
-        <v>295</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S55" s="5"/>
       <c r="T55" s="5" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W55" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X55" s="5"/>
-      <c r="Y55" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA55" s="3"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -7911,75 +8020,76 @@
       <c r="BX55" s="5"/>
       <c r="BY55" s="5"/>
       <c r="BZ55" s="5"/>
+      <c r="CA55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>297</v>
+      <c r="C56" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>300</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
         <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="4"/>
+      <c r="G56" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="H56" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="I56" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M56" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N56" s="5"/>
-      <c r="O56" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O56" s="5"/>
       <c r="P56" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5" t="s">
-        <v>299</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S56" s="5"/>
       <c r="T56" s="5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="V56" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W56" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X56" s="5"/>
-      <c r="Y56" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA56" s="3"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -8031,75 +8141,76 @@
       <c r="BX56" s="5"/>
       <c r="BY56" s="5"/>
       <c r="BZ56" s="5"/>
+      <c r="CA56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>305</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
         <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
-      <c r="F57" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F57" s="4"/>
       <c r="G57" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H57" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M57" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N57" s="5"/>
-      <c r="O57" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O57" s="5"/>
       <c r="P57" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5" t="s">
-        <v>304</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S57" s="5"/>
       <c r="T57" s="5" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W57" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X57" s="5"/>
-      <c r="Y57" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
@@ -8151,75 +8262,76 @@
       <c r="BX57" s="5"/>
       <c r="BY57" s="5"/>
       <c r="BZ57" s="5"/>
+      <c r="CA57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>306</v>
+        <v>286</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>309</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
         <v>Rv3684_KO_vs_CB_WT</v>
       </c>
-      <c r="F58" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F58" s="4"/>
       <c r="G58" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M58" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O58" s="5"/>
       <c r="P58" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5" t="s">
-        <v>308</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>38</v>
+        <v>311</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W58" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X58" s="5"/>
-      <c r="Y58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA58" s="3"/>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -8271,75 +8383,76 @@
       <c r="BX58" s="5"/>
       <c r="BY58" s="5"/>
       <c r="BZ58" s="5"/>
+      <c r="CA58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>310</v>
+        <v>304</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>313</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
         <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F59" s="4"/>
       <c r="G59" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M59" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O59" s="5"/>
       <c r="P59" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5" t="s">
-        <v>312</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>38</v>
+        <v>315</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W59" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X59" s="5"/>
-      <c r="Y59" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA59" s="3"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -8391,75 +8504,76 @@
       <c r="BX59" s="5"/>
       <c r="BY59" s="5"/>
       <c r="BZ59" s="5"/>
+      <c r="CA59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>314</v>
+        <v>304</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>317</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
         <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="F60" s="4"/>
       <c r="G60" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H60" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M60" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O60" s="5"/>
       <c r="P60" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5" t="s">
-        <v>316</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W60" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X60" s="5"/>
-      <c r="Y60" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA60" s="3"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -8511,73 +8625,74 @@
       <c r="BX60" s="5"/>
       <c r="BY60" s="5"/>
       <c r="BZ60" s="5"/>
+      <c r="CA60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C61" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>319</v>
+      <c r="C61" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>322</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
         <v>marP_KO_vs_marP_WT</v>
       </c>
-      <c r="F61" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="F61" s="4"/>
       <c r="G61" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="H61" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M61" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N61" s="5"/>
-      <c r="O61" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O61" s="5"/>
       <c r="P61" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R61" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S61" s="5"/>
-      <c r="T61" s="5" t="s">
-        <v>321</v>
-      </c>
+      <c r="T61" s="5"/>
       <c r="U61" s="5" t="s">
-        <v>38</v>
+        <v>324</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W61" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X61" s="5"/>
-      <c r="Y61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA61" s="3"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
@@ -8629,73 +8744,74 @@
       <c r="BX61" s="5"/>
       <c r="BY61" s="5"/>
       <c r="BZ61" s="5"/>
+      <c r="CA61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>323</v>
+        <v>42</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>326</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
         <v>eccD1_KO_vs_mbio_H37Rv</v>
       </c>
-      <c r="F62" s="5" t="n">
+      <c r="F62" s="4"/>
+      <c r="G62" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G62" s="5" t="n">
+      <c r="H62" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="I62" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M62" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O62" s="5"/>
       <c r="P62" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R62" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S62" s="5"/>
-      <c r="T62" s="5" t="s">
-        <v>325</v>
-      </c>
+      <c r="T62" s="5"/>
       <c r="U62" s="5" t="s">
-        <v>38</v>
+        <v>328</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W62" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X62" s="5"/>
-      <c r="Y62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA62" s="3"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
@@ -8747,73 +8863,74 @@
       <c r="BX62" s="5"/>
       <c r="BY62" s="5"/>
       <c r="BZ62" s="5"/>
+      <c r="CA62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>327</v>
+        <v>42</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>330</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
         <v>espI_KO_vs_mbio_H37Rv</v>
       </c>
-      <c r="F63" s="5" t="n">
+      <c r="F63" s="4"/>
+      <c r="G63" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G63" s="5" t="n">
+      <c r="H63" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="I63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M63" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N63" s="5"/>
-      <c r="O63" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O63" s="5"/>
       <c r="P63" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R63" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S63" s="5"/>
-      <c r="T63" s="5" t="s">
-        <v>329</v>
-      </c>
+      <c r="T63" s="5"/>
       <c r="U63" s="5" t="s">
-        <v>38</v>
+        <v>332</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W63" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X63" s="5"/>
-      <c r="Y63" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA63" s="3"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -8865,73 +8982,74 @@
       <c r="BX63" s="5"/>
       <c r="BY63" s="5"/>
       <c r="BZ63" s="5"/>
+      <c r="CA63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>331</v>
+        <v>42</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
         <v>PE35_KO_vs_mbio_H37Rv</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="4"/>
+      <c r="G64" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="H64" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="I64" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M64" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N64" s="5"/>
-      <c r="O64" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O64" s="5"/>
       <c r="P64" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R64" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S64" s="5"/>
-      <c r="T64" s="5" t="s">
-        <v>333</v>
-      </c>
+      <c r="T64" s="5"/>
       <c r="U64" s="5" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W64" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X64" s="5"/>
-      <c r="Y64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA64" s="3"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
@@ -8983,73 +9101,74 @@
       <c r="BX64" s="5"/>
       <c r="BY64" s="5"/>
       <c r="BZ64" s="5"/>
+      <c r="CA64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>335</v>
+        <v>42</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>338</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
         <v>PPE68_KO_vs_mbio_H37Rv</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="4"/>
+      <c r="G65" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="G65" s="5" t="n">
+      <c r="H65" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="H65" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="I65" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="M65" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="N65" s="5"/>
-      <c r="O65" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="O65" s="5"/>
       <c r="P65" s="5" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="R65" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="S65" s="5"/>
-      <c r="T65" s="5" t="s">
-        <v>337</v>
-      </c>
+      <c r="T65" s="5"/>
       <c r="U65" s="5" t="s">
-        <v>38</v>
+        <v>340</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="W65" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="X65" s="5"/>
-      <c r="Y65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA65" s="3"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
@@ -9101,974 +9220,59 @@
       <c r="BX65" s="5"/>
       <c r="BY65" s="5"/>
       <c r="BZ65" s="5"/>
+      <c r="CA65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="220" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="225" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="226" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="228" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="231" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="233" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="234" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="235" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="237" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="238" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="240" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="241" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="242" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="243" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="244" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="245" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="246" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="247" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="248" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="249" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="250" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="251" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="253" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="254" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="255" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="256" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="257" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="258" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="259" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="260" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="261" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="262" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="263" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="264" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="265" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="266" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="267" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="268" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="269" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="270" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="271" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="272" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="273" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="274" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="275" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="276" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="277" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="278" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="279" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="280" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="281" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="282" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="283" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="284" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="285" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="286" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="287" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="288" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="289" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="290" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="291" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="292" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="293" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="294" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="295" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="296" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="297" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="298" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="299" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="300" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="301" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="302" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="303" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="304" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="305" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="306" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="307" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="308" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="309" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="310" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="313" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="314" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="315" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="316" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="317" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="318" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="319" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="320" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="321" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="322" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="323" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="324" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="325" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="326" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="327" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="328" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="329" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="330" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="331" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="332" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="333" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="334" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="335" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="336" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="338" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="339" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="340" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="342" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="343" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="344" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="345" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="346" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="347" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="348" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="363" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="364" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="365" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="366" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="367" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="368" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="369" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="370" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="371" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="372" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="373" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="374" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="375" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="376" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="377" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="378" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="379" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="380" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="381" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="382" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="383" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="384" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="385" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="386" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="387" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="388" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="389" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="390" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="391" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="392" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="393" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="394" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="395" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="396" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="397" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="398" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="399" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="400" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="401" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="402" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="403" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="404" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="405" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="406" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="407" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="408" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="409" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="410" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="411" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="412" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="413" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="414" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="415" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="416" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="417" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="418" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="419" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="420" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="422" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="423" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="424" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="425" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="426" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="427" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="428" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="429" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="430" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="431" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="432" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="433" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="434" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="435" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="436" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="437" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="438" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="439" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="440" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="441" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="442" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="443" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="444" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="445" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="446" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="447" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="448" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="449" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="450" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="451" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="452" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="453" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="454" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="455" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="456" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="457" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="458" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="459" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="460" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="461" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="462" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="463" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="464" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="465" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="466" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="467" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="468" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="469" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="470" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="471" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="472" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="473" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="474" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="475" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="476" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="477" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="478" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="479" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="480" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="481" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="482" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="483" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="484" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="485" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="486" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="487" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="488" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="489" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="490" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="491" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="492" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="493" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="494" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="495" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="496" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="497" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="498" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="499" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="500" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="501" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="502" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="503" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="504" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="505" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="506" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="507" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="508" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="509" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="510" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="511" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="512" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="513" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="514" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="515" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="516" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="517" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="518" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="519" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="520" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="521" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="522" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="523" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="524" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="525" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="526" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="527" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="528" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="529" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="530" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="531" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="532" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="533" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="534" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="535" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="536" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="537" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="538" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="539" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="540" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="541" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="542" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="543" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="544" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="545" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="546" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="547" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="548" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="549" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="550" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="551" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="552" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="553" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="554" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="555" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="556" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="557" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="558" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="559" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="560" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="561" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="562" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="563" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="564" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="565" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="566" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="567" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="568" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="569" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="570" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="571" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="572" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="573" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="574" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="575" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="576" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="577" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="578" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="579" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="580" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="581" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="582" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="583" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="584" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="585" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="586" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="590" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="591" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="592" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="593" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="594" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="595" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="596" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="597" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="598" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="599" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="600" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="601" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="602" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="603" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="604" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="605" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="606" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="607" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="608" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="609" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="610" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="611" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="615" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="616" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="617" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="618" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="619" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="620" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="621" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="622" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="623" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="624" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="625" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="626" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="627" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="628" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="629" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="630" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="631" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="632" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="633" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="634" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="635" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="636" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="637" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="638" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="639" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="640" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="641" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="642" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="643" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="644" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="645" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="646" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="647" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="648" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="649" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="650" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="651" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="652" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="653" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="654" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="655" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="656" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="657" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="658" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="659" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="660" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="661" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="662" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="663" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="664" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="665" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="666" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="667" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="668" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="669" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="670" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="671" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="672" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="673" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="674" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="675" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="676" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="677" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="678" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="679" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="680" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="681" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="682" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="683" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="684" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="685" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="686" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="687" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="688" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="689" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="690" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="691" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="692" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="693" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="694" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="695" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="696" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="697" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="698" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="699" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="700" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="701" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="702" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="703" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="704" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="705" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="706" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="707" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="708" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="709" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="710" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="711" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="712" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="713" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="714" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="715" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="716" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="717" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="718" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="719" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="720" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="721" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="722" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="723" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="724" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="725" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="726" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="727" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="728" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="729" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="730" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="731" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="732" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="733" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="734" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="735" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="736" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="737" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="738" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="739" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="740" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="741" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="742" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="743" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="744" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="745" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="746" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="747" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="748" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="749" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="750" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="751" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="752" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="753" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="754" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="755" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="756" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="757" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="758" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="759" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="760" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="761" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="762" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="763" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="764" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="765" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="766" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="767" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="768" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="769" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="770" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="771" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="772" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="773" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="774" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="775" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="776" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="777" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="778" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="779" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="780" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="781" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="782" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="783" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="784" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="785" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="786" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="787" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="788" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="789" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="790" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="791" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="792" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="793" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="794" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="795" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="796" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="797" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="798" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="799" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="800" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="801" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="802" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="803" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="804" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="805" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="806" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="807" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="808" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="809" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="810" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="812" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="813" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="814" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="815" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="816" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="817" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="818" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="819" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="820" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="821" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="822" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="823" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="824" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="825" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="826" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="827" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="828" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="829" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="830" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="831" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="832" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="833" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="834" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="835" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="836" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="837" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="838" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="839" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="840" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="841" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="842" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="843" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="844" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="845" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="846" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="847" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="848" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="849" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="850" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="851" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="852" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="853" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="854" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="855" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="856" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="857" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="858" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="859" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="860" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="861" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="862" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="863" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="864" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="865" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="866" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="867" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="868" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="869" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="870" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="871" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="872" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="873" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="874" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="875" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="876" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="877" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="878" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="879" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="880" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="881" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="882" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="883" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="884" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="885" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="886" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="887" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="888" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="889" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="890" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="891" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="892" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="893" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="894" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="895" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="896" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="897" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="898" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="899" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="900" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="901" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="902" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="903" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="904" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="905" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="906" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="907" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="908" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="909" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="910" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="911" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="912" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="913" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="914" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="915" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="916" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="917" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="918" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="919" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="920" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="921" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="922" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="923" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="924" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="925" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="926" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="927" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="928" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="929" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="930" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="931" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="932" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="933" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="934" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="935" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="936" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="937" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="938" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="939" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="940" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="941" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="942" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="943" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="944" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="945" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="946" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="947" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="948" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="949" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="950" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="951" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="952" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="953" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="954" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="955" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="956" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="957" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="958" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="959" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="960" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="961" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="962" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="963" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="964" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="965" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="966" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="967" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="968" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="969" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="970" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="971" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="972" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="973" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="974" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="975" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="976" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="977" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="978" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="979" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="980" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="981" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
-    <hyperlink ref="K3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
-    <hyperlink ref="K4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K9" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K11" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K12" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K13" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="K14" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
-    <hyperlink ref="K15" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
-    <hyperlink ref="K16" r:id="rId15" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
-    <hyperlink ref="K17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K21" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K22" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K23" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K24" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K25" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K26" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="K27" r:id="rId26" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K28" r:id="rId27" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K29" r:id="rId28" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K30" r:id="rId29" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K31" r:id="rId30" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K32" r:id="rId31" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K33" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="K34" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="K35" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="K36" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="K37" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K38" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K39" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K43" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K44" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="K45" r:id="rId44" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="K46" r:id="rId45" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="K47" r:id="rId46" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="K48" r:id="rId47" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="K49" r:id="rId48" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="K50" r:id="rId49" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
+    <hyperlink ref="L3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
+    <hyperlink ref="L4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L9" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L11" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L12" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L13" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L14" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
+    <hyperlink ref="L15" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
+    <hyperlink ref="L16" r:id="rId15" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
+    <hyperlink ref="L17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L21" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L22" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L23" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L24" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L25" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L26" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L27" r:id="rId26" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L28" r:id="rId27" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L29" r:id="rId28" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L30" r:id="rId29" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L31" r:id="rId30" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L32" r:id="rId31" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L33" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L34" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L35" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L36" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L37" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L38" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L39" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L43" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L44" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L45" r:id="rId44" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L46" r:id="rId45" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L47" r:id="rId46" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L48" r:id="rId47" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L49" r:id="rId48" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L50" r:id="rId49" display="https://msystems.asm.org/content/4/4/e00070-19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="349">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -331,6 +331,9 @@
     <t xml:space="preserve">kieser_dPonA1</t>
   </si>
   <si>
+    <t xml:space="preserve">2015_Kieser_GI_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ponA1, a major peptidoglycan biosynthetic enzyme. </t>
   </si>
   <si>
@@ -361,6 +364,9 @@
     <t xml:space="preserve">nambi_2015_ctpC</t>
   </si>
   <si>
+    <t xml:space="preserve">2016_Nambi</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in mouse infection model (spleen) in the absence of gene ctpC</t>
   </si>
   <si>
@@ -520,6 +526,9 @@
     <t xml:space="preserve">xu_van_16</t>
   </si>
   <si>
+    <t xml:space="preserve">2017_Xu_1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in presence of vancomycin</t>
   </si>
   <si>
@@ -553,6 +562,9 @@
     <t xml:space="preserve">xu_rif_4</t>
   </si>
   <si>
+    <t xml:space="preserve">2017_Xu_1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in presence of rifampin</t>
   </si>
   <si>
@@ -568,6 +580,9 @@
     <t xml:space="preserve">xu_inh_02</t>
   </si>
   <si>
+    <t xml:space="preserve">2017_Xu_1C</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in presence of isoniazid</t>
   </si>
   <si>
@@ -589,6 +604,9 @@
     <t xml:space="preserve">xu_emb_2.5</t>
   </si>
   <si>
+    <t xml:space="preserve">2017_Xu_1D</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in presence of ethambutol</t>
   </si>
   <si>
@@ -751,6 +769,9 @@
     <t xml:space="preserve">ritterhaus_hypoxia_H3</t>
   </si>
   <si>
+    <t xml:space="preserve">2018_Rittershaus_1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in hypoxic culture (as measured after 3 weeks of culture) (compared to input pool)</t>
   </si>
   <si>
@@ -773,6 +794,9 @@
   </si>
   <si>
     <t xml:space="preserve">ritterhaus_hypoxia_H6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018_Rittershaus_1A</t>
   </si>
   <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in hypoxic culture (as measured after 6 weeks of culture) (compared to input pool)</t>
@@ -1330,11 +1354,11 @@
   <dimension ref="A1:CA65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F34" activeCellId="0" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2978,7 +3002,9 @@
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
         <v>kieser_dPonA1_vs_mbio_H37Rv</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="G14" s="5" t="n">
         <v>14</v>
       </c>
@@ -2986,22 +3012,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>57</v>
@@ -3017,10 +3043,10 @@
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>39</v>
@@ -3085,23 +3111,25 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
         <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
@@ -3109,22 +3137,22 @@
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>34</v>
@@ -3136,10 +3164,10 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
       <c r="T15" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>39</v>
@@ -3204,24 +3232,24 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
         <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1</v>
@@ -3230,41 +3258,41 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q16" s="11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>48</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>39</v>
@@ -3329,17 +3357,17 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B17" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
@@ -3357,13 +3385,13 @@
         <v>2017</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>46</v>
@@ -3383,7 +3411,7 @@
         <v>39</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -3444,17 +3472,17 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B18" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
@@ -3468,19 +3496,19 @@
         <v>3</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J18" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>46</v>
@@ -3495,14 +3523,14 @@
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -3563,17 +3591,17 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
@@ -3587,19 +3615,19 @@
         <v>3</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>46</v>
@@ -3614,14 +3642,14 @@
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
@@ -3682,17 +3710,17 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B20" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E20" s="4" t="str">
         <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
@@ -3706,19 +3734,19 @@
         <v>3</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J20" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>46</v>
@@ -3733,14 +3761,14 @@
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U20" s="12"/>
       <c r="V20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
@@ -3801,17 +3829,17 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B21" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4" t="str">
         <f aca="false">CONCATENATE(D21,"_vs_",C21)</f>
@@ -3825,19 +3853,19 @@
         <v>2</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J21" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>46</v>
@@ -3852,14 +3880,14 @@
       <c r="R21" s="12"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U21" s="12"/>
       <c r="V21" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X21" s="12"/>
       <c r="Y21" s="12"/>
@@ -3920,17 +3948,17 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E22" s="4" t="str">
         <f aca="false">CONCATENATE(D22,"_vs_",C22)</f>
@@ -3944,19 +3972,19 @@
         <v>3</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>46</v>
@@ -3971,14 +3999,14 @@
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
       <c r="T22" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U22" s="5"/>
       <c r="V22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
@@ -4039,17 +4067,17 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B23" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E23" s="4" t="str">
         <f aca="false">CONCATENATE(D23,"_vs_",C23)</f>
@@ -4063,19 +4091,19 @@
         <v>3</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N23" s="12" t="s">
         <v>46</v>
@@ -4090,14 +4118,14 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -4158,17 +4186,17 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B24" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E24" s="4" t="str">
         <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
@@ -4182,19 +4210,19 @@
         <v>2</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J24" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N24" s="12" t="s">
         <v>46</v>
@@ -4209,14 +4237,14 @@
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="U24" s="12"/>
       <c r="V24" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="12"/>
@@ -4277,17 +4305,17 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B25" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E25" s="4" t="str">
         <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
@@ -4301,19 +4329,19 @@
         <v>3</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>46</v>
@@ -4328,14 +4356,14 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
@@ -4396,17 +4424,17 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B26" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E26" s="4" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
@@ -4420,19 +4448,19 @@
         <v>3</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>2017</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>46</v>
@@ -4447,14 +4475,14 @@
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="U26" s="12"/>
       <c r="V26" s="12" t="s">
         <v>39</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -4515,23 +4543,25 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E27" s="4" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
         <v>xu_van_16_vs_xu_van_0</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="G27" s="5" t="n">
         <v>3</v>
       </c>
@@ -4539,37 +4569,37 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="5"/>
@@ -4636,23 +4666,25 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E28" s="4" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
         <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="G28" s="5" t="n">
         <v>3</v>
       </c>
@@ -4660,37 +4692,37 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
@@ -4757,23 +4789,25 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B29" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E29" s="4" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
         <v>xu_inh_02_vs_xu_inh_0</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="10" t="s">
+        <v>186</v>
+      </c>
       <c r="G29" s="5" t="n">
         <v>4</v>
       </c>
@@ -4781,37 +4815,37 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q29" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R29" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -4878,23 +4912,23 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B30" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E30" s="4" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
         <v>xu_inh_025_vs_xu_inh_0</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="10"/>
       <c r="G30" s="5" t="n">
         <v>4</v>
       </c>
@@ -4902,37 +4936,37 @@
         <v>3</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P30" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q30" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
@@ -4999,23 +5033,25 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E31" s="4" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
         <v>xu_emb_2.5_vs_xu_emb_0</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="10" t="s">
+        <v>194</v>
+      </c>
       <c r="G31" s="5" t="n">
         <v>3</v>
       </c>
@@ -5023,37 +5059,37 @@
         <v>3</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q31" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R31" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -5120,23 +5156,23 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E32" s="4" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
         <v>xu_emb_3_vs_xu_emb_0</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="10"/>
       <c r="G32" s="5" t="n">
         <v>3</v>
       </c>
@@ -5144,37 +5180,37 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P32" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S32" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -5241,23 +5277,25 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
         <v>xu_mero_2.5_vs_xu_mero_0</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="10" t="s">
+        <v>199</v>
+      </c>
       <c r="G33" s="5" t="n">
         <v>2</v>
       </c>
@@ -5265,37 +5303,37 @@
         <v>2</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
@@ -5362,24 +5400,24 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E34" s="4" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
         <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>3</v>
@@ -5392,16 +5430,16 @@
         <v>2017</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>34</v>
@@ -5419,7 +5457,7 @@
       </c>
       <c r="W34" s="5"/>
       <c r="X34" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5" t="s">
@@ -5481,24 +5519,24 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E35" s="4" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
         <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>3</v>
@@ -5511,16 +5549,16 @@
         <v>2017</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O35" s="5" t="s">
         <v>34</v>
@@ -5538,7 +5576,7 @@
       </c>
       <c r="W35" s="5"/>
       <c r="X35" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5" t="s">
@@ -5600,17 +5638,17 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
@@ -5628,16 +5666,16 @@
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="O36" s="5" t="s">
         <v>34</v>
@@ -5655,7 +5693,7 @@
       </c>
       <c r="W36" s="5"/>
       <c r="X36" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5" t="s">
@@ -5717,7 +5755,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B37" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -5727,13 +5765,15 @@
         <v>42</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
         <v>carey_621_vs_mbio_H37Rv</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="G37" s="5" t="n">
         <v>14</v>
       </c>
@@ -5741,25 +5781,25 @@
         <v>2</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>35</v>
@@ -5838,7 +5878,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B38" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -5848,13 +5888,15 @@
         <v>42</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
         <v>carey_630_vs_mbio_H37Rv</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="G38" s="5" t="n">
         <v>14</v>
       </c>
@@ -5862,25 +5904,25 @@
         <v>2</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>35</v>
@@ -5959,7 +6001,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -5969,13 +6011,15 @@
         <v>42</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
         <v>carey_631_vs_mbio_H37Rv</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="G39" s="5" t="n">
         <v>14</v>
       </c>
@@ -5983,25 +6027,25 @@
         <v>2</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>35</v>
@@ -6080,7 +6124,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6090,13 +6134,15 @@
         <v>42</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
         <v>carey_632_vs_mbio_H37Rv</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="G40" s="5" t="n">
         <v>14</v>
       </c>
@@ -6104,25 +6150,25 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>35</v>
@@ -6201,7 +6247,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6211,13 +6257,15 @@
         <v>42</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
         <v>carey_641_vs_mbio_H37Rv</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="G41" s="5" t="n">
         <v>14</v>
       </c>
@@ -6225,25 +6273,25 @@
         <v>2</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>35</v>
@@ -6322,7 +6370,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6332,13 +6380,15 @@
         <v>42</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
         <v>carey_662_vs_mbio_H37Rv</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="G42" s="5" t="n">
         <v>14</v>
       </c>
@@ -6346,25 +6396,25 @@
         <v>2</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>35</v>
@@ -6443,7 +6493,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6453,13 +6503,15 @@
         <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
         <v>carey_663_vs_mbio_H37Rv</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="G43" s="5" t="n">
         <v>14</v>
       </c>
@@ -6467,25 +6519,25 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>35</v>
@@ -6564,7 +6616,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6574,13 +6626,15 @@
         <v>42</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
         <v>carey_667_vs_mbio_H37Rv</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="G44" s="5" t="n">
         <v>14</v>
       </c>
@@ -6588,25 +6642,25 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>35</v>
@@ -6685,23 +6739,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
         <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="G45" s="5" t="n">
         <v>8</v>
       </c>
@@ -6709,22 +6765,22 @@
         <v>8</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O45" s="5" t="s">
         <v>34</v>
@@ -6733,13 +6789,13 @@
         <v>35</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -6747,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="W45" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
@@ -6810,23 +6866,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
         <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="G46" s="5" t="n">
         <v>8</v>
       </c>
@@ -6834,22 +6892,22 @@
         <v>6</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O46" s="5" t="s">
         <v>34</v>
@@ -6858,13 +6916,13 @@
         <v>35</v>
       </c>
       <c r="Q46" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>48</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -6872,7 +6930,7 @@
         <v>39</v>
       </c>
       <c r="W46" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
@@ -6935,17 +6993,17 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
@@ -6963,16 +7021,16 @@
         <v>2019</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="O47" s="5" t="s">
         <v>34</v>
@@ -6989,10 +7047,10 @@
         <v>39</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5" t="s">
@@ -7054,17 +7112,17 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
@@ -7082,16 +7140,16 @@
         <v>2019</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="O48" s="5" t="s">
         <v>34</v>
@@ -7108,10 +7166,10 @@
         <v>39</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5" t="s">
@@ -7173,17 +7231,17 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
@@ -7201,16 +7259,16 @@
         <v>2019</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="O49" s="5" t="s">
         <v>34</v>
@@ -7227,10 +7285,10 @@
         <v>39</v>
       </c>
       <c r="W49" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5" t="s">
@@ -7292,17 +7350,17 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
@@ -7320,28 +7378,28 @@
         <v>2019</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>35</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
@@ -7350,7 +7408,7 @@
         <v>39</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
@@ -7411,17 +7469,17 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
@@ -7435,19 +7493,19 @@
         <v>3</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>46</v>
@@ -7466,14 +7524,14 @@
       </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
@@ -7536,17 +7594,17 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
@@ -7560,19 +7618,19 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>46</v>
@@ -7591,14 +7649,14 @@
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
@@ -7661,17 +7719,17 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
@@ -7685,17 +7743,17 @@
         <v>1</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
@@ -7710,16 +7768,16 @@
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="V53" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
@@ -7782,17 +7840,17 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
@@ -7806,17 +7864,17 @@
         <v>2</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N54" s="5"/>
       <c r="O54" s="5"/>
@@ -7831,16 +7889,16 @@
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="V54" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
@@ -7903,17 +7961,17 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
@@ -7927,17 +7985,17 @@
         <v>1</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -7952,16 +8010,16 @@
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="V55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
@@ -8024,17 +8082,17 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
@@ -8048,17 +8106,17 @@
         <v>2</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -8073,16 +8131,16 @@
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="V56" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
@@ -8145,17 +8203,17 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
@@ -8169,17 +8227,17 @@
         <v>1</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -8194,16 +8252,16 @@
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="V57" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -8266,17 +8324,17 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
@@ -8290,17 +8348,17 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -8315,16 +8373,16 @@
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="V58" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -8387,17 +8445,17 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
@@ -8411,17 +8469,17 @@
         <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -8436,16 +8494,16 @@
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -8508,17 +8566,17 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
@@ -8532,17 +8590,17 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -8557,16 +8615,16 @@
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
@@ -8629,17 +8687,17 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
@@ -8653,17 +8711,17 @@
         <v>4</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -8679,13 +8737,13 @@
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
@@ -8748,7 +8806,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -8758,7 +8816,7 @@
         <v>42</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
@@ -8772,17 +8830,17 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -8798,13 +8856,13 @@
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -8867,7 +8925,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -8877,7 +8935,7 @@
         <v>42</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
@@ -8891,17 +8949,17 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -8917,13 +8975,13 @@
       <c r="S63" s="5"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -8986,7 +9044,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -8996,7 +9054,7 @@
         <v>42</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
@@ -9010,17 +9068,17 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -9036,13 +9094,13 @@
       <c r="S64" s="5"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -9105,7 +9163,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -9115,7 +9173,7 @@
         <v>42</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
@@ -9129,17 +9187,17 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -9155,13 +9213,13 @@
       <c r="S65" s="5"/>
       <c r="T65" s="5"/>
       <c r="U65" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="369">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -100,6 +100,90 @@
     <t xml:space="preserve">Mtb_strain</t>
   </si>
   <si>
+    <t xml:space="preserve">2003A_Sassetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genes required for mycobacterial growth defined by high density mutagenesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molecular_microbiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sassetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_vitro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7H10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glycerol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">microarray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003B_Sassetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic requirements for mycobacterial survival during infection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC240732/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PNAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005_Rengarajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genome-wide requirements for Mycobacterium tuberculosis adaptation and survival in macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1142121/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rengarajan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in_cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006_Joshi_GI_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characterization of mycobacterial virulence genes through genetic interaction mapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rv0173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006_Joshi_GI_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rv3502c</t>
+  </si>
+  <si>
     <t xml:space="preserve">2011_Griffin_2</t>
   </si>
   <si>
@@ -124,21 +208,12 @@
     <t xml:space="preserve">Griffin</t>
   </si>
   <si>
-    <t xml:space="preserve">Sassetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vitro</t>
-  </si>
-  <si>
     <t xml:space="preserve">minimal_media</t>
   </si>
   <si>
     <t xml:space="preserve">cholesterol</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
     <t xml:space="preserve">TnSeq</t>
   </si>
   <si>
@@ -166,9 +241,6 @@
     <t xml:space="preserve">Ioerger</t>
   </si>
   <si>
-    <t xml:space="preserve">glycerol</t>
-  </si>
-  <si>
     <t xml:space="preserve">2013_Zhang_1A</t>
   </si>
   <si>
@@ -193,12 +265,6 @@
     <t xml:space="preserve">Zhang</t>
   </si>
   <si>
-    <t xml:space="preserve">Rubin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vivo</t>
-  </si>
-  <si>
     <t xml:space="preserve">WT</t>
   </si>
   <si>
@@ -250,9 +316,6 @@
     <t xml:space="preserve">Mutants exhibiting altered fitness under acid stress</t>
   </si>
   <si>
-    <t xml:space="preserve">7H10</t>
-  </si>
-  <si>
     <t xml:space="preserve">acid stress</t>
   </si>
   <si>
@@ -341,9 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNAS</t>
   </si>
   <si>
     <t xml:space="preserve">Kieser</t>
@@ -1140,6 +1200,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
@@ -1148,12 +1214,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF200"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -1222,7 +1282,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1230,15 +1294,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1246,23 +1306,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1351,24 +1411,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CA65"/>
+  <dimension ref="A1:CA70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F47" activeCellId="0" sqref="F47"/>
+      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
@@ -1514,684 +1574,606 @@
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="4" t="str">
-        <f aca="false">CONCATENATE(D2,"_vs_",C2)</f>
-        <v>griffin_cholesterol_vs_griffin_glycerol</v>
-      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="5" t="n">
-        <v>2011</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
       <c r="AA2" s="3"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
-      <c r="BS2" s="5"/>
-      <c r="BT2" s="5"/>
-      <c r="BU2" s="5"/>
-      <c r="BV2" s="5"/>
-      <c r="BW2" s="5"/>
-      <c r="BX2" s="5"/>
-      <c r="BY2" s="5"/>
-      <c r="BZ2" s="5"/>
-      <c r="CA2" s="5"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="2"/>
+      <c r="BX2" s="2"/>
+      <c r="BY2" s="2"/>
+      <c r="BZ2" s="2"/>
+      <c r="CA2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5" t="n">
+        <v>2003</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f aca="false">CONCATENATE(D3,"_vs_",C3)</f>
-        <v>griffin_glycerol_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="5"/>
       <c r="R3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="3"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
-      <c r="AZ3" s="5"/>
-      <c r="BA3" s="5"/>
-      <c r="BB3" s="5"/>
-      <c r="BC3" s="5"/>
-      <c r="BD3" s="5"/>
-      <c r="BE3" s="5"/>
-      <c r="BF3" s="5"/>
-      <c r="BG3" s="5"/>
-      <c r="BH3" s="5"/>
-      <c r="BI3" s="5"/>
-      <c r="BJ3" s="5"/>
-      <c r="BK3" s="5"/>
-      <c r="BL3" s="5"/>
-      <c r="BM3" s="5"/>
-      <c r="BN3" s="5"/>
-      <c r="BO3" s="5"/>
-      <c r="BP3" s="5"/>
-      <c r="BQ3" s="5"/>
-      <c r="BR3" s="5"/>
-      <c r="BS3" s="5"/>
-      <c r="BT3" s="5"/>
-      <c r="BU3" s="5"/>
-      <c r="BV3" s="5"/>
-      <c r="BW3" s="5"/>
-      <c r="BX3" s="5"/>
-      <c r="BY3" s="5"/>
-      <c r="BZ3" s="5"/>
-      <c r="CA3" s="5"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="2"/>
+      <c r="BX3" s="2"/>
+      <c r="BY3" s="2"/>
+      <c r="BZ3" s="2"/>
+      <c r="CA3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4" t="str">
-        <f aca="false">CONCATENATE(D4,"_vs_",C4)</f>
-        <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6"/>
       <c r="J4" s="5" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="3"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-      <c r="AZ4" s="5"/>
-      <c r="BA4" s="5"/>
-      <c r="BB4" s="5"/>
-      <c r="BC4" s="5"/>
-      <c r="BD4" s="5"/>
-      <c r="BE4" s="5"/>
-      <c r="BF4" s="5"/>
-      <c r="BG4" s="5"/>
-      <c r="BH4" s="5"/>
-      <c r="BI4" s="5"/>
-      <c r="BJ4" s="5"/>
-      <c r="BK4" s="5"/>
-      <c r="BL4" s="5"/>
-      <c r="BM4" s="5"/>
-      <c r="BN4" s="5"/>
-      <c r="BO4" s="5"/>
-      <c r="BP4" s="5"/>
-      <c r="BQ4" s="5"/>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4" t="str">
-        <f aca="false">CONCATENATE(D5,"_vs_",C5)</f>
-        <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="5" t="n">
-        <v>2013</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="O5" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="T5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
-      <c r="AZ5" s="5"/>
-      <c r="BA5" s="5"/>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5"/>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="4" t="str">
-        <f aca="false">CONCATENATE(D6,"_vs_",C6)</f>
-        <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="5" t="n">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="3"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
-      <c r="AZ6" s="5"/>
-      <c r="BA6" s="5"/>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5"/>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4" t="str">
         <f aca="false">CONCATENATE(D7,"_vs_",C7)</f>
-        <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>70</v>
+        <v>griffin_cholesterol_vs_griffin_glycerol</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>71</v>
+      <c r="I7" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S7" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W7" s="5"/>
-      <c r="X7" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="Z7" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA7" s="3"/>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
@@ -2248,68 +2230,64 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E8" s="4" t="str">
         <f aca="false">CONCATENATE(D8,"_vs_",C8)</f>
-        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
+        <v>griffin_glycerol_vs_mbio_H37Rv</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>75</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I8" s="9"/>
       <c r="J8" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="P8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -2371,71 +2349,71 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="str">
         <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
-        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
+        <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="R9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>81</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="3"/>
@@ -2500,65 +2478,65 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="E10" s="4" t="str">
         <f aca="false">CONCATENATE(D10,"_vs_",C10)</f>
-        <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="R10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>86</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
       <c r="AA10" s="3"/>
@@ -2617,71 +2595,71 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="str">
         <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
-        <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
+        <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q11" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="R11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>91</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="X11" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
       <c r="AA11" s="3"/>
@@ -2740,71 +2718,71 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="4" t="str">
         <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
-        <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q12" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="R12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>95</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
+      <c r="X12" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
       <c r="AA12" s="3"/>
@@ -2863,68 +2841,68 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="str">
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
-        <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
+        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>77</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>76</v>
+        <v>32</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -2986,70 +2964,68 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="str">
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
-        <v>kieser_dPonA1_vs_mbio_H37Rv</v>
+        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>106</v>
+        <v>77</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
       <c r="V14" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -3111,66 +3087,68 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>113</v>
+      <c r="C15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
-        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>114</v>
+        <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>117</v>
+        <v>77</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="O15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="S15" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -3232,24 +3210,24 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
-        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
+        <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1</v>
@@ -3258,44 +3236,42 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>127</v>
+        <v>77</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="M16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N16" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="Q16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
       <c r="V16" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -3356,301 +3332,319 @@
       <c r="CA16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="12" t="n">
+      <c r="A17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>135</v>
+      <c r="C17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
-        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="12"/>
-      <c r="AN17" s="12"/>
-      <c r="AO17" s="12"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="12"/>
-      <c r="AR17" s="12"/>
-      <c r="AS17" s="12"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="12"/>
-      <c r="AV17" s="12"/>
-      <c r="AW17" s="12"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="12"/>
-      <c r="AZ17" s="12"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="12"/>
-      <c r="BC17" s="12"/>
-      <c r="BD17" s="12"/>
-      <c r="BE17" s="12"/>
-      <c r="BF17" s="12"/>
-      <c r="BG17" s="12"/>
-      <c r="BH17" s="12"/>
-      <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
-      <c r="BK17" s="12"/>
-      <c r="BL17" s="12"/>
-      <c r="BM17" s="12"/>
-      <c r="BN17" s="12"/>
-      <c r="BO17" s="12"/>
-      <c r="BP17" s="12"/>
-      <c r="BQ17" s="12"/>
-      <c r="BR17" s="12"/>
-      <c r="BS17" s="12"/>
-      <c r="BT17" s="12"/>
-      <c r="BU17" s="12"/>
-      <c r="BV17" s="12"/>
-      <c r="BW17" s="12"/>
-      <c r="BX17" s="12"/>
-      <c r="BY17" s="12"/>
-      <c r="BZ17" s="12"/>
-      <c r="CA17" s="12"/>
+        <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="5"/>
+      <c r="AM17" s="5"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
+      <c r="AS17" s="5"/>
+      <c r="AT17" s="5"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
+      <c r="AZ17" s="5"/>
+      <c r="BA17" s="5"/>
+      <c r="BB17" s="5"/>
+      <c r="BC17" s="5"/>
+      <c r="BD17" s="5"/>
+      <c r="BE17" s="5"/>
+      <c r="BF17" s="5"/>
+      <c r="BG17" s="5"/>
+      <c r="BH17" s="5"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="BR17" s="5"/>
+      <c r="BS17" s="5"/>
+      <c r="BT17" s="5"/>
+      <c r="BU17" s="5"/>
+      <c r="BV17" s="5"/>
+      <c r="BW17" s="5"/>
+      <c r="BX17" s="5"/>
+      <c r="BY17" s="5"/>
+      <c r="BZ17" s="5"/>
+      <c r="CA17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="12" t="n">
+      <c r="A18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>141</v>
+      <c r="C18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
-        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="12" t="n">
+        <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="12"/>
-      <c r="AN18" s="12"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="12"/>
-      <c r="AR18" s="12"/>
-      <c r="AS18" s="12"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="12"/>
-      <c r="AV18" s="12"/>
-      <c r="AW18" s="12"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="12"/>
-      <c r="AZ18" s="12"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="12"/>
-      <c r="BC18" s="12"/>
-      <c r="BD18" s="12"/>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="12"/>
-      <c r="BH18" s="12"/>
-      <c r="BI18" s="12"/>
-      <c r="BJ18" s="12"/>
-      <c r="BK18" s="12"/>
-      <c r="BL18" s="12"/>
-      <c r="BM18" s="12"/>
-      <c r="BN18" s="12"/>
-      <c r="BO18" s="12"/>
-      <c r="BP18" s="12"/>
-      <c r="BQ18" s="12"/>
-      <c r="BR18" s="12"/>
-      <c r="BS18" s="12"/>
-      <c r="BT18" s="12"/>
-      <c r="BU18" s="12"/>
-      <c r="BV18" s="12"/>
-      <c r="BW18" s="12"/>
-      <c r="BX18" s="12"/>
-      <c r="BY18" s="12"/>
-      <c r="BZ18" s="12"/>
-      <c r="CA18" s="12"/>
+      <c r="H18" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
+      <c r="AS18" s="5"/>
+      <c r="AT18" s="5"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
+      <c r="AZ18" s="5"/>
+      <c r="BA18" s="5"/>
+      <c r="BB18" s="5"/>
+      <c r="BC18" s="5"/>
+      <c r="BD18" s="5"/>
+      <c r="BE18" s="5"/>
+      <c r="BF18" s="5"/>
+      <c r="BG18" s="5"/>
+      <c r="BH18" s="5"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="BR18" s="5"/>
+      <c r="BS18" s="5"/>
+      <c r="BT18" s="5"/>
+      <c r="BU18" s="5"/>
+      <c r="BV18" s="5"/>
+      <c r="BW18" s="5"/>
+      <c r="BX18" s="5"/>
+      <c r="BY18" s="5"/>
+      <c r="BZ18" s="5"/>
+      <c r="CA18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
-      </c>
-      <c r="F19" s="4"/>
+        <v>kieser_dPonA1_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="G19" s="5" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="U19" s="5"/>
+        <v>129</v>
+      </c>
+      <c r="U19" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="V19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
@@ -3709,423 +3703,427 @@
       <c r="CA19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="12" t="n">
+      <c r="A20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>145</v>
+      <c r="C20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E20" s="4" t="str">
         <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H20" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K20" s="6" t="s">
+        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L20" s="14" t="s">
+      <c r="L20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W20" s="12" t="s">
+      <c r="N20" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="15"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="12"/>
-      <c r="AN20" s="12"/>
-      <c r="AO20" s="12"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="12"/>
-      <c r="AR20" s="12"/>
-      <c r="AS20" s="12"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="12"/>
-      <c r="AV20" s="12"/>
-      <c r="AW20" s="12"/>
-      <c r="AX20" s="12"/>
-      <c r="AY20" s="12"/>
-      <c r="AZ20" s="12"/>
-      <c r="BA20" s="12"/>
-      <c r="BB20" s="12"/>
-      <c r="BC20" s="12"/>
-      <c r="BD20" s="12"/>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="12"/>
-      <c r="BH20" s="12"/>
-      <c r="BI20" s="12"/>
-      <c r="BJ20" s="12"/>
-      <c r="BK20" s="12"/>
-      <c r="BL20" s="12"/>
-      <c r="BM20" s="12"/>
-      <c r="BN20" s="12"/>
-      <c r="BO20" s="12"/>
-      <c r="BP20" s="12"/>
-      <c r="BQ20" s="12"/>
-      <c r="BR20" s="12"/>
-      <c r="BS20" s="12"/>
-      <c r="BT20" s="12"/>
-      <c r="BU20" s="12"/>
-      <c r="BV20" s="12"/>
-      <c r="BW20" s="12"/>
-      <c r="BX20" s="12"/>
-      <c r="BY20" s="12"/>
-      <c r="BZ20" s="12"/>
-      <c r="CA20" s="12"/>
+      <c r="O20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="U20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="5"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
+      <c r="AS20" s="5"/>
+      <c r="AT20" s="5"/>
+      <c r="AU20" s="5"/>
+      <c r="AV20" s="5"/>
+      <c r="AW20" s="5"/>
+      <c r="AX20" s="5"/>
+      <c r="AY20" s="5"/>
+      <c r="AZ20" s="5"/>
+      <c r="BA20" s="5"/>
+      <c r="BB20" s="5"/>
+      <c r="BC20" s="5"/>
+      <c r="BD20" s="5"/>
+      <c r="BE20" s="5"/>
+      <c r="BF20" s="5"/>
+      <c r="BG20" s="5"/>
+      <c r="BH20" s="5"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="BR20" s="5"/>
+      <c r="BS20" s="5"/>
+      <c r="BT20" s="5"/>
+      <c r="BU20" s="5"/>
+      <c r="BV20" s="5"/>
+      <c r="BW20" s="5"/>
+      <c r="BX20" s="5"/>
+      <c r="BY20" s="5"/>
+      <c r="BZ20" s="5"/>
+      <c r="CA20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="12" t="n">
+      <c r="A21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>149</v>
+      <c r="C21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="E21" s="4" t="str">
         <f aca="false">CONCATENATE(D21,"_vs_",C21)</f>
-        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" s="6" t="s">
+        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q21" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="J21" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12" t="s">
+      <c r="R21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W21" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="15"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
-      <c r="AM21" s="12"/>
-      <c r="AN21" s="12"/>
-      <c r="AO21" s="12"/>
-      <c r="AP21" s="12"/>
-      <c r="AQ21" s="12"/>
-      <c r="AR21" s="12"/>
-      <c r="AS21" s="12"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="12"/>
-      <c r="AV21" s="12"/>
-      <c r="AW21" s="12"/>
-      <c r="AX21" s="12"/>
-      <c r="AY21" s="12"/>
-      <c r="AZ21" s="12"/>
-      <c r="BA21" s="12"/>
-      <c r="BB21" s="12"/>
-      <c r="BC21" s="12"/>
-      <c r="BD21" s="12"/>
-      <c r="BE21" s="12"/>
-      <c r="BF21" s="12"/>
-      <c r="BG21" s="12"/>
-      <c r="BH21" s="12"/>
-      <c r="BI21" s="12"/>
-      <c r="BJ21" s="12"/>
-      <c r="BK21" s="12"/>
-      <c r="BL21" s="12"/>
-      <c r="BM21" s="12"/>
-      <c r="BN21" s="12"/>
-      <c r="BO21" s="12"/>
-      <c r="BP21" s="12"/>
-      <c r="BQ21" s="12"/>
-      <c r="BR21" s="12"/>
-      <c r="BS21" s="12"/>
-      <c r="BT21" s="12"/>
-      <c r="BU21" s="12"/>
-      <c r="BV21" s="12"/>
-      <c r="BW21" s="12"/>
-      <c r="BX21" s="12"/>
-      <c r="BY21" s="12"/>
-      <c r="BZ21" s="12"/>
-      <c r="CA21" s="12"/>
+      <c r="U21" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="5"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
+      <c r="AS21" s="5"/>
+      <c r="AT21" s="5"/>
+      <c r="AU21" s="5"/>
+      <c r="AV21" s="5"/>
+      <c r="AW21" s="5"/>
+      <c r="AX21" s="5"/>
+      <c r="AY21" s="5"/>
+      <c r="AZ21" s="5"/>
+      <c r="BA21" s="5"/>
+      <c r="BB21" s="5"/>
+      <c r="BC21" s="5"/>
+      <c r="BD21" s="5"/>
+      <c r="BE21" s="5"/>
+      <c r="BF21" s="5"/>
+      <c r="BG21" s="5"/>
+      <c r="BH21" s="5"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="BR21" s="5"/>
+      <c r="BS21" s="5"/>
+      <c r="BT21" s="5"/>
+      <c r="BU21" s="5"/>
+      <c r="BV21" s="5"/>
+      <c r="BW21" s="5"/>
+      <c r="BX21" s="5"/>
+      <c r="BY21" s="5"/>
+      <c r="BZ21" s="5"/>
+      <c r="CA21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="5" t="n">
+      <c r="A22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>153</v>
+      <c r="C22" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="E22" s="4" t="str">
         <f aca="false">CONCATENATE(D22,"_vs_",C22)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
+        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="H22" s="5" t="n">
+      <c r="H22" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I22" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J22" s="5" t="n">
+      <c r="I22" s="13"/>
+      <c r="J22" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="5"/>
-      <c r="BL22" s="5"/>
-      <c r="BM22" s="5"/>
-      <c r="BN22" s="5"/>
-      <c r="BO22" s="5"/>
-      <c r="BP22" s="5"/>
-      <c r="BQ22" s="5"/>
-      <c r="BR22" s="5"/>
-      <c r="BS22" s="5"/>
-      <c r="BT22" s="5"/>
-      <c r="BU22" s="5"/>
-      <c r="BV22" s="5"/>
-      <c r="BW22" s="5"/>
-      <c r="BX22" s="5"/>
-      <c r="BY22" s="5"/>
-      <c r="BZ22" s="5"/>
-      <c r="CA22" s="5"/>
+      <c r="K22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
+      <c r="AK22" s="12"/>
+      <c r="AL22" s="12"/>
+      <c r="AM22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AO22" s="12"/>
+      <c r="AP22" s="12"/>
+      <c r="AQ22" s="12"/>
+      <c r="AR22" s="12"/>
+      <c r="AS22" s="12"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="12"/>
+      <c r="AV22" s="12"/>
+      <c r="AW22" s="12"/>
+      <c r="AX22" s="12"/>
+      <c r="AY22" s="12"/>
+      <c r="AZ22" s="12"/>
+      <c r="BA22" s="12"/>
+      <c r="BB22" s="12"/>
+      <c r="BC22" s="12"/>
+      <c r="BD22" s="12"/>
+      <c r="BE22" s="12"/>
+      <c r="BF22" s="12"/>
+      <c r="BG22" s="12"/>
+      <c r="BH22" s="12"/>
+      <c r="BI22" s="12"/>
+      <c r="BJ22" s="12"/>
+      <c r="BK22" s="12"/>
+      <c r="BL22" s="12"/>
+      <c r="BM22" s="12"/>
+      <c r="BN22" s="12"/>
+      <c r="BO22" s="12"/>
+      <c r="BP22" s="12"/>
+      <c r="BQ22" s="12"/>
+      <c r="BR22" s="12"/>
+      <c r="BS22" s="12"/>
+      <c r="BT22" s="12"/>
+      <c r="BU22" s="12"/>
+      <c r="BV22" s="12"/>
+      <c r="BW22" s="12"/>
+      <c r="BX22" s="12"/>
+      <c r="BY22" s="12"/>
+      <c r="BZ22" s="12"/>
+      <c r="CA22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>155</v>
+      <c r="A23" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="B23" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="E23" s="4" t="str">
         <f aca="false">CONCATENATE(D23,"_vs_",C23)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
+        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>156</v>
+      <c r="I23" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="J23" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>137</v>
+      <c r="K23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X23" s="12"/>
       <c r="Y23" s="12"/>
@@ -4185,304 +4183,304 @@
       <c r="CA23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B24" s="12" t="n">
+      <c r="A24" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>158</v>
+      <c r="C24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="E24" s="4" t="str">
         <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
-        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="G24" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="15"/>
-      <c r="AB24" s="12"/>
-      <c r="AC24" s="12"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="12"/>
-      <c r="AG24" s="12"/>
-      <c r="AH24" s="12"/>
-      <c r="AI24" s="12"/>
-      <c r="AJ24" s="12"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="12"/>
-      <c r="AN24" s="12"/>
-      <c r="AO24" s="12"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="12"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
-      <c r="AV24" s="12"/>
-      <c r="AW24" s="12"/>
-      <c r="AX24" s="12"/>
-      <c r="AY24" s="12"/>
-      <c r="AZ24" s="12"/>
-      <c r="BA24" s="12"/>
-      <c r="BB24" s="12"/>
-      <c r="BC24" s="12"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="12"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="12"/>
-      <c r="BH24" s="12"/>
-      <c r="BI24" s="12"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="12"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="12"/>
-      <c r="BP24" s="12"/>
-      <c r="BQ24" s="12"/>
-      <c r="BR24" s="12"/>
-      <c r="BS24" s="12"/>
-      <c r="BT24" s="12"/>
-      <c r="BU24" s="12"/>
-      <c r="BV24" s="12"/>
-      <c r="BW24" s="12"/>
-      <c r="BX24" s="12"/>
-      <c r="BY24" s="12"/>
-      <c r="BZ24" s="12"/>
-      <c r="CA24" s="12"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="5" t="n">
+      <c r="A25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>162</v>
+      <c r="C25" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="E25" s="4" t="str">
         <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H25" s="5" t="n">
+      <c r="G25" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="12" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-      <c r="AV25" s="5"/>
-      <c r="AW25" s="5"/>
-      <c r="AX25" s="5"/>
-      <c r="AY25" s="5"/>
-      <c r="AZ25" s="5"/>
-      <c r="BA25" s="5"/>
-      <c r="BB25" s="5"/>
-      <c r="BC25" s="5"/>
-      <c r="BD25" s="5"/>
-      <c r="BE25" s="5"/>
-      <c r="BF25" s="5"/>
-      <c r="BG25" s="5"/>
-      <c r="BH25" s="5"/>
-      <c r="BI25" s="5"/>
-      <c r="BJ25" s="5"/>
-      <c r="BK25" s="5"/>
-      <c r="BL25" s="5"/>
-      <c r="BM25" s="5"/>
-      <c r="BN25" s="5"/>
-      <c r="BO25" s="5"/>
-      <c r="BP25" s="5"/>
-      <c r="BQ25" s="5"/>
-      <c r="BR25" s="5"/>
-      <c r="BS25" s="5"/>
-      <c r="BT25" s="5"/>
-      <c r="BU25" s="5"/>
-      <c r="BV25" s="5"/>
-      <c r="BW25" s="5"/>
-      <c r="BX25" s="5"/>
-      <c r="BY25" s="5"/>
-      <c r="BZ25" s="5"/>
-      <c r="CA25" s="5"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+      <c r="AK25" s="12"/>
+      <c r="AL25" s="12"/>
+      <c r="AM25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AO25" s="12"/>
+      <c r="AP25" s="12"/>
+      <c r="AQ25" s="12"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
+      <c r="AV25" s="12"/>
+      <c r="AW25" s="12"/>
+      <c r="AX25" s="12"/>
+      <c r="AY25" s="12"/>
+      <c r="AZ25" s="12"/>
+      <c r="BA25" s="12"/>
+      <c r="BB25" s="12"/>
+      <c r="BC25" s="12"/>
+      <c r="BD25" s="12"/>
+      <c r="BE25" s="12"/>
+      <c r="BF25" s="12"/>
+      <c r="BG25" s="12"/>
+      <c r="BH25" s="12"/>
+      <c r="BI25" s="12"/>
+      <c r="BJ25" s="12"/>
+      <c r="BK25" s="12"/>
+      <c r="BL25" s="12"/>
+      <c r="BM25" s="12"/>
+      <c r="BN25" s="12"/>
+      <c r="BO25" s="12"/>
+      <c r="BP25" s="12"/>
+      <c r="BQ25" s="12"/>
+      <c r="BR25" s="12"/>
+      <c r="BS25" s="12"/>
+      <c r="BT25" s="12"/>
+      <c r="BU25" s="12"/>
+      <c r="BV25" s="12"/>
+      <c r="BW25" s="12"/>
+      <c r="BX25" s="12"/>
+      <c r="BY25" s="12"/>
+      <c r="BZ25" s="12"/>
+      <c r="CA25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>164</v>
+      <c r="A26" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="B26" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>162</v>
+        <v>154</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="E26" s="4" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
+        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>159</v>
+        <v>2</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="J26" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>136</v>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="M26" s="12" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="12"/>
       <c r="T26" s="12" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="U26" s="12"/>
       <c r="V26" s="12" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X26" s="12"/>
       <c r="Y26" s="12"/>
@@ -4543,70 +4541,66 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E27" s="4" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
-        <v>xu_van_16_vs_xu_van_0</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>168</v>
-      </c>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
+      </c>
+      <c r="F27" s="4"/>
       <c r="G27" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R27" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S27" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="T27" s="3"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W27" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="W27" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
@@ -4665,315 +4659,305 @@
       <c r="CA27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28" s="5" t="n">
+      <c r="A28" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>179</v>
+      <c r="C28" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="E28" s="4" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
-        <v>xu_rif_4_vs_xu_rif_0</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="G28" s="5" t="n">
+        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J28" s="5" t="n">
+      <c r="I28" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="K28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N28" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="O28" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S28" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-      <c r="AV28" s="5"/>
-      <c r="AW28" s="5"/>
-      <c r="AX28" s="5"/>
-      <c r="AY28" s="5"/>
-      <c r="AZ28" s="5"/>
-      <c r="BA28" s="5"/>
-      <c r="BB28" s="5"/>
-      <c r="BC28" s="5"/>
-      <c r="BD28" s="5"/>
-      <c r="BE28" s="5"/>
-      <c r="BF28" s="5"/>
-      <c r="BG28" s="5"/>
-      <c r="BH28" s="5"/>
-      <c r="BI28" s="5"/>
-      <c r="BJ28" s="5"/>
-      <c r="BK28" s="5"/>
-      <c r="BL28" s="5"/>
-      <c r="BM28" s="5"/>
-      <c r="BN28" s="5"/>
-      <c r="BO28" s="5"/>
-      <c r="BP28" s="5"/>
-      <c r="BQ28" s="5"/>
-      <c r="BR28" s="5"/>
-      <c r="BS28" s="5"/>
-      <c r="BT28" s="5"/>
-      <c r="BU28" s="5"/>
-      <c r="BV28" s="5"/>
-      <c r="BW28" s="5"/>
-      <c r="BX28" s="5"/>
-      <c r="BY28" s="5"/>
-      <c r="BZ28" s="5"/>
-      <c r="CA28" s="5"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="12"/>
+      <c r="BY28" s="12"/>
+      <c r="BZ28" s="12"/>
+      <c r="CA28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="5" t="n">
+      <c r="A29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>185</v>
+      <c r="C29" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="E29" s="4" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
-        <v>xu_inh_02_vs_xu_inh_0</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J29" s="5" t="n">
+        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J29" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K29" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N29" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="O29" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S29" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
-      <c r="AZ29" s="5"/>
-      <c r="BA29" s="5"/>
-      <c r="BB29" s="5"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
-      <c r="BG29" s="5"/>
-      <c r="BH29" s="5"/>
-      <c r="BI29" s="5"/>
-      <c r="BJ29" s="5"/>
-      <c r="BK29" s="5"/>
-      <c r="BL29" s="5"/>
-      <c r="BM29" s="5"/>
-      <c r="BN29" s="5"/>
-      <c r="BO29" s="5"/>
-      <c r="BP29" s="5"/>
-      <c r="BQ29" s="5"/>
-      <c r="BR29" s="5"/>
-      <c r="BS29" s="5"/>
-      <c r="BT29" s="5"/>
-      <c r="BU29" s="5"/>
-      <c r="BV29" s="5"/>
-      <c r="BW29" s="5"/>
-      <c r="BX29" s="5"/>
-      <c r="BY29" s="5"/>
-      <c r="BZ29" s="5"/>
-      <c r="CA29" s="5"/>
+      <c r="K29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="12"/>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="12"/>
+      <c r="AM29" s="12"/>
+      <c r="AN29" s="12"/>
+      <c r="AO29" s="12"/>
+      <c r="AP29" s="12"/>
+      <c r="AQ29" s="12"/>
+      <c r="AR29" s="12"/>
+      <c r="AS29" s="12"/>
+      <c r="AT29" s="12"/>
+      <c r="AU29" s="12"/>
+      <c r="AV29" s="12"/>
+      <c r="AW29" s="12"/>
+      <c r="AX29" s="12"/>
+      <c r="AY29" s="12"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="12"/>
+      <c r="BE29" s="12"/>
+      <c r="BF29" s="12"/>
+      <c r="BG29" s="12"/>
+      <c r="BH29" s="12"/>
+      <c r="BI29" s="12"/>
+      <c r="BJ29" s="12"/>
+      <c r="BK29" s="12"/>
+      <c r="BL29" s="12"/>
+      <c r="BM29" s="12"/>
+      <c r="BN29" s="12"/>
+      <c r="BO29" s="12"/>
+      <c r="BP29" s="12"/>
+      <c r="BQ29" s="12"/>
+      <c r="BR29" s="12"/>
+      <c r="BS29" s="12"/>
+      <c r="BT29" s="12"/>
+      <c r="BU29" s="12"/>
+      <c r="BV29" s="12"/>
+      <c r="BW29" s="12"/>
+      <c r="BX29" s="12"/>
+      <c r="BY29" s="12"/>
+      <c r="BZ29" s="12"/>
+      <c r="CA29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B30" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E30" s="4" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
-        <v>xu_inh_025_vs_xu_inh_0</v>
-      </c>
-      <c r="F30" s="10"/>
+        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R30" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="T30" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W30" s="5"/>
+        <v>64</v>
+      </c>
+      <c r="W30" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
@@ -5032,147 +5016,145 @@
       <c r="CA30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="5" t="n">
+      <c r="A31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="12" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>193</v>
+      <c r="C31" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="E31" s="4" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
-        <v>xu_emb_2.5_vs_xu_emb_0</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G31" s="5" t="n">
+        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J31" s="5" t="n">
+      <c r="I31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="12" t="n">
         <v>2017</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="O31" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-      <c r="BH31" s="5"/>
-      <c r="BI31" s="5"/>
-      <c r="BJ31" s="5"/>
-      <c r="BK31" s="5"/>
-      <c r="BL31" s="5"/>
-      <c r="BM31" s="5"/>
-      <c r="BN31" s="5"/>
-      <c r="BO31" s="5"/>
-      <c r="BP31" s="5"/>
-      <c r="BQ31" s="5"/>
-      <c r="BR31" s="5"/>
-      <c r="BS31" s="5"/>
-      <c r="BT31" s="5"/>
-      <c r="BU31" s="5"/>
-      <c r="BV31" s="5"/>
-      <c r="BW31" s="5"/>
-      <c r="BX31" s="5"/>
-      <c r="BY31" s="5"/>
-      <c r="BZ31" s="5"/>
-      <c r="CA31" s="5"/>
+      <c r="K31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="12"/>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="12"/>
+      <c r="AL31" s="12"/>
+      <c r="AM31" s="12"/>
+      <c r="AN31" s="12"/>
+      <c r="AO31" s="12"/>
+      <c r="AP31" s="12"/>
+      <c r="AQ31" s="12"/>
+      <c r="AR31" s="12"/>
+      <c r="AS31" s="12"/>
+      <c r="AT31" s="12"/>
+      <c r="AU31" s="12"/>
+      <c r="AV31" s="12"/>
+      <c r="AW31" s="12"/>
+      <c r="AX31" s="12"/>
+      <c r="AY31" s="12"/>
+      <c r="AZ31" s="12"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
+      <c r="BE31" s="12"/>
+      <c r="BF31" s="12"/>
+      <c r="BG31" s="12"/>
+      <c r="BH31" s="12"/>
+      <c r="BI31" s="12"/>
+      <c r="BJ31" s="12"/>
+      <c r="BK31" s="12"/>
+      <c r="BL31" s="12"/>
+      <c r="BM31" s="12"/>
+      <c r="BN31" s="12"/>
+      <c r="BO31" s="12"/>
+      <c r="BP31" s="12"/>
+      <c r="BQ31" s="12"/>
+      <c r="BR31" s="12"/>
+      <c r="BS31" s="12"/>
+      <c r="BT31" s="12"/>
+      <c r="BU31" s="12"/>
+      <c r="BV31" s="12"/>
+      <c r="BW31" s="12"/>
+      <c r="BX31" s="12"/>
+      <c r="BY31" s="12"/>
+      <c r="BZ31" s="12"/>
+      <c r="CA31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E32" s="4" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
-        <v>xu_emb_3_vs_xu_emb_0</v>
-      </c>
-      <c r="F32" s="10"/>
+        <v>xu_van_16_vs_xu_van_0</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>188</v>
+      </c>
       <c r="G32" s="5" t="n">
         <v>3</v>
       </c>
@@ -5180,42 +5162,42 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="R32" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S32" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="T32" s="5"/>
+      <c r="T32" s="3"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -5277,68 +5259,68 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
-        <v>xu_mero_2.5_vs_xu_mero_0</v>
+        <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -5398,71 +5380,75 @@
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="E34" s="4" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
-        <v>mishra_C3H_vs_mishra_B6</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>204</v>
+        <v>xu_inh_02_vs_xu_inh_0</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>206</v>
       </c>
       <c r="G34" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="J34" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L34" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q34" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S34" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="M34" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N34" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W34" s="5"/>
-      <c r="X34" s="5" t="s">
-        <v>211</v>
-      </c>
+      <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z34" s="5"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
@@ -5517,71 +5503,73 @@
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>213</v>
+      <c r="C35" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="E35" s="4" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
-        <v>mishra_NOS2_vs_mishra_B6</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>212</v>
-      </c>
+        <v>xu_inh_025_vs_xu_inh_0</v>
+      </c>
+      <c r="F35" s="10"/>
       <c r="G35" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="J35" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L35" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q35" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S35" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="N35" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W35" s="5"/>
-      <c r="X35" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z35" s="5"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -5636,124 +5624,130 @@
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="C36" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
-        <v>mishra_NOS2_vs_mishra_C3H</v>
-      </c>
-      <c r="F36" s="4"/>
+        <v>xu_emb_2.5_vs_xu_emb_0</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="G36" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="O36" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W36" s="5"/>
-      <c r="X36" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z36" s="5"/>
       <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="3"/>
-      <c r="AY36" s="3"/>
-      <c r="AZ36" s="3"/>
-      <c r="BA36" s="3"/>
-      <c r="BB36" s="3"/>
-      <c r="BC36" s="3"/>
-      <c r="BD36" s="3"/>
-      <c r="BE36" s="3"/>
-      <c r="BF36" s="3"/>
-      <c r="BG36" s="3"/>
-      <c r="BH36" s="3"/>
-      <c r="BI36" s="3"/>
-      <c r="BJ36" s="3"/>
-      <c r="BK36" s="3"/>
-      <c r="BL36" s="3"/>
-      <c r="BM36" s="3"/>
-      <c r="BN36" s="3"/>
-      <c r="BO36" s="3"/>
-      <c r="BP36" s="3"/>
-      <c r="BQ36" s="3"/>
-      <c r="BR36" s="3"/>
-      <c r="BS36" s="3"/>
-      <c r="BT36" s="3"/>
-      <c r="BU36" s="3"/>
-      <c r="BV36" s="3"/>
-      <c r="BW36" s="3"/>
-      <c r="BX36" s="3"/>
-      <c r="BY36" s="3"/>
-      <c r="BZ36" s="3"/>
-      <c r="CA36" s="3"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="5"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="5"/>
+      <c r="BW36" s="5"/>
+      <c r="BX36" s="5"/>
+      <c r="BY36" s="5"/>
+      <c r="BZ36" s="5"/>
+      <c r="CA36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>217</v>
       </c>
@@ -5762,66 +5756,64 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
-        <v>carey_621_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>217</v>
-      </c>
+        <v>xu_emb_3_vs_xu_emb_0</v>
+      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="R37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S37" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="5" t="n">
-        <v>621</v>
-      </c>
+      <c r="Z37" s="5"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -5876,75 +5868,75 @@
       <c r="BZ37" s="5"/>
       <c r="CA37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B38" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>220</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
-        <v>carey_630_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>225</v>
+        <v>xu_mero_2.5_vs_xu_mero_0</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>2</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>221</v>
+        <v>190</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="N38" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S38" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="P38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5" t="n">
-        <v>630</v>
-      </c>
+      <c r="Z38" s="5"/>
       <c r="AA38" s="3"/>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
@@ -6001,72 +5993,68 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>229</v>
+      <c r="C39" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>226</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
-        <v>carey_631_vs_mbio_H37Rv</v>
+        <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="J39" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="N39" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="O39" s="5" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R39" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
+      <c r="X39" s="5" t="s">
+        <v>231</v>
+      </c>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5" t="n">
-        <v>631</v>
+      <c r="Z39" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA39" s="3"/>
       <c r="AB39" s="5"/>
@@ -6124,72 +6112,68 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>232</v>
+      <c r="C40" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
-        <v>carey_632_vs_mbio_H37Rv</v>
+        <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="I40" s="4"/>
       <c r="J40" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
+      <c r="X40" s="5" t="s">
+        <v>234</v>
+      </c>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5" t="n">
-        <v>632</v>
+      <c r="Z40" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="5"/>
@@ -6247,126 +6231,120 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>235</v>
+      <c r="C41" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>233</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
-        <v>carey_641_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>234</v>
-      </c>
+        <v>mishra_NOS2_vs_mishra_C3H</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>236</v>
-      </c>
+      <c r="I41" s="4"/>
       <c r="J41" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
       <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
+      <c r="X41" s="5" t="s">
+        <v>236</v>
+      </c>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5" t="n">
-        <v>641</v>
+      <c r="Z41" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA41" s="3"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-      <c r="AV41" s="5"/>
-      <c r="AW41" s="5"/>
-      <c r="AX41" s="5"/>
-      <c r="AY41" s="5"/>
-      <c r="AZ41" s="5"/>
-      <c r="BA41" s="5"/>
-      <c r="BB41" s="5"/>
-      <c r="BC41" s="5"/>
-      <c r="BD41" s="5"/>
-      <c r="BE41" s="5"/>
-      <c r="BF41" s="5"/>
-      <c r="BG41" s="5"/>
-      <c r="BH41" s="5"/>
-      <c r="BI41" s="5"/>
-      <c r="BJ41" s="5"/>
-      <c r="BK41" s="5"/>
-      <c r="BL41" s="5"/>
-      <c r="BM41" s="5"/>
-      <c r="BN41" s="5"/>
-      <c r="BO41" s="5"/>
-      <c r="BP41" s="5"/>
-      <c r="BQ41" s="5"/>
-      <c r="BR41" s="5"/>
-      <c r="BS41" s="5"/>
-      <c r="BT41" s="5"/>
-      <c r="BU41" s="5"/>
-      <c r="BV41" s="5"/>
-      <c r="BW41" s="5"/>
-      <c r="BX41" s="5"/>
-      <c r="BY41" s="5"/>
-      <c r="BZ41" s="5"/>
-      <c r="CA41" s="5"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="3"/>
+      <c r="AK41" s="3"/>
+      <c r="AL41" s="3"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="3"/>
+      <c r="AP41" s="3"/>
+      <c r="AQ41" s="3"/>
+      <c r="AR41" s="3"/>
+      <c r="AS41" s="3"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="3"/>
+      <c r="AW41" s="3"/>
+      <c r="AX41" s="3"/>
+      <c r="AY41" s="3"/>
+      <c r="AZ41" s="3"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="3"/>
+      <c r="BD41" s="3"/>
+      <c r="BE41" s="3"/>
+      <c r="BF41" s="3"/>
+      <c r="BG41" s="3"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="3"/>
+      <c r="BK41" s="3"/>
+      <c r="BL41" s="3"/>
+      <c r="BM41" s="3"/>
+      <c r="BN41" s="3"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="3"/>
+      <c r="BR41" s="3"/>
+      <c r="BS41" s="3"/>
+      <c r="BT41" s="3"/>
+      <c r="BU41" s="3"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="3"/>
+      <c r="BY41" s="3"/>
+      <c r="BZ41" s="3"/>
+      <c r="CA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
@@ -6377,14 +6355,14 @@
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>238</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
-        <v>carey_662_vs_mbio_H37Rv</v>
+        <v>carey_621_vs_mbio_H37Rv</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>237</v>
@@ -6402,40 +6380,40 @@
         <v>2018</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5" t="n">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="AA42" s="3"/>
       <c r="AB42" s="5"/>
@@ -6493,24 +6471,24 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
-        <v>carey_663_vs_mbio_H37Rv</v>
+        <v>carey_630_vs_mbio_H37Rv</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>14</v>
@@ -6519,46 +6497,46 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5" t="n">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="5"/>
@@ -6616,24 +6594,24 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
-        <v>carey_667_vs_mbio_H37Rv</v>
+        <v>carey_631_vs_mbio_H37Rv</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>14</v>
@@ -6642,46 +6620,46 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5" t="n">
-        <v>667</v>
+        <v>631</v>
       </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
@@ -6739,76 +6717,72 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
-        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_632_vs_mbio_H37Rv</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O45" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P45" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S45" s="5" t="s">
-        <v>255</v>
-      </c>
+      <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W45" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5" t="s">
-        <v>40</v>
+      <c r="Z45" s="5" t="n">
+        <v>632</v>
       </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
@@ -6866,76 +6840,72 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>247</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
-        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_641_vs_mbio_H37Rv</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="O46" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P46" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S46" s="5" t="s">
-        <v>260</v>
-      </c>
+      <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W46" s="5" t="s">
-        <v>139</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W46" s="5"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="5" t="s">
-        <v>40</v>
+      <c r="Z46" s="5" t="n">
+        <v>641</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="5"/>
@@ -6993,68 +6963,72 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
-        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F47" s="4"/>
+        <v>carey_662_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="G47" s="5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I47" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="J47" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L47" s="18" t="s">
-        <v>265</v>
+        <v>240</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="O47" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W47" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X47" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="5" t="s">
-        <v>40</v>
+      <c r="Z47" s="5" t="n">
+        <v>662</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="5"/>
@@ -7112,68 +7086,72 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F48" s="4"/>
+        <v>carey_663_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>260</v>
+      </c>
       <c r="G48" s="5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I48" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="J48" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L48" s="18" t="s">
-        <v>265</v>
+        <v>240</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="O48" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W48" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X48" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="5" t="s">
-        <v>40</v>
+      <c r="Z48" s="5" t="n">
+        <v>663</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="5"/>
@@ -7231,68 +7209,72 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>263</v>
+        <v>67</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
-      </c>
-      <c r="F49" s="4"/>
+        <v>carey_667_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="G49" s="5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I49" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="J49" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="L49" s="18" t="s">
-        <v>265</v>
+        <v>240</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="O49" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W49" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>268</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="5" t="s">
-        <v>40</v>
+      <c r="Z49" s="5" t="n">
+        <v>667</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="5"/>
@@ -7350,69 +7332,77 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
-        <v>minato_minimal_plate_vs_minato_rich_plate</v>
-      </c>
-      <c r="F50" s="4"/>
+        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="G50" s="5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="J50" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S50" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="L50" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="N50" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="O50" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q50" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="R50" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W50" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
+      <c r="Z50" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
@@ -7469,74 +7459,76 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
-        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
-      </c>
-      <c r="F51" s="4"/>
+        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="G51" s="5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J51" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5" t="s">
-        <v>287</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="5"/>
@@ -7594,74 +7586,68 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
-        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
+        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L52" s="5" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>286</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>46</v>
+        <v>287</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R52" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="5" t="s">
-        <v>292</v>
-      </c>
+      <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X52" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="5"/>
@@ -7719,70 +7705,68 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>295</v>
+        <v>282</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
-        <v>Rv0950c_KO_vs_CB_WT</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L53" s="5" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="N53" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="P53" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q53" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R53" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="U53" s="5" t="s">
-        <v>297</v>
-      </c>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
       <c r="V53" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X53" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="5"/>
@@ -7840,70 +7824,68 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>300</v>
+        <v>283</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>290</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
-        <v>Rv0954_KO_vs_RJ_WT</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L54" s="5" t="s">
-        <v>286</v>
+        <v>5</v>
+      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="N54" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="P54" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q54" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="R54" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="U54" s="5" t="s">
-        <v>302</v>
-      </c>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="X54" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="5"/>
@@ -7961,71 +7943,69 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
-        <v>Rv1096_KO_vs_CB_WT</v>
+        <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>286</v>
+        <v>2</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L55" s="18" t="s">
+        <v>296</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+        <v>297</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="P55" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>48</v>
+        <v>301</v>
       </c>
       <c r="S55" s="5"/>
-      <c r="T55" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="U55" s="5" t="s">
-        <v>306</v>
-      </c>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
       <c r="V55" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="Z55" s="5"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -8082,70 +8062,74 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C56" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>308</v>
+      <c r="C56" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
-        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
+        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H56" s="5" t="n">
-        <v>2</v>
-      </c>
       <c r="I56" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>305</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="K56" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="P56" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="U56" s="5" t="s">
-        <v>310</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="U56" s="5"/>
       <c r="V56" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA56" s="3"/>
       <c r="AB56" s="5"/>
@@ -8203,70 +8187,74 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
-        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
+        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J57" s="5"/>
+        <v>311</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="K57" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+        <v>306</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="P57" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="U57" s="5" t="s">
-        <v>315</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA57" s="3"/>
       <c r="AB57" s="5"/>
@@ -8324,21 +8312,21 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
-        <v>Rv3684_KO_vs_CB_WT</v>
+        <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="n">
@@ -8348,46 +8336,46 @@
         <v>1</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J58" s="5"/>
       <c r="K58" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA58" s="3"/>
       <c r="AB58" s="5"/>
@@ -8445,70 +8433,70 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
-        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA59" s="3"/>
       <c r="AB59" s="5"/>
@@ -8566,21 +8554,21 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
-        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv1096_KO_vs_CB_WT</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="n">
@@ -8590,46 +8578,46 @@
         <v>1</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA60" s="3"/>
       <c r="AB60" s="5"/>
@@ -8687,68 +8675,70 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
-        <v>marP_KO_vs_marP_WT</v>
+        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S61" s="5"/>
-      <c r="T61" s="5"/>
+      <c r="T61" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="U61" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA61" s="3"/>
       <c r="AB61" s="5"/>
@@ -8806,68 +8796,70 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
-        <v>eccD1_KO_vs_mbio_H37Rv</v>
+        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
+      <c r="T62" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="U62" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA62" s="3"/>
       <c r="AB62" s="5"/>
@@ -8925,68 +8917,70 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
+        <v>314</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
-        <v>espI_KO_vs_mbio_H37Rv</v>
+        <v>Rv3684_KO_vs_CB_WT</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
+      <c r="T63" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="U63" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA63" s="3"/>
       <c r="AB63" s="5"/>
@@ -9044,68 +9038,70 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
-        <v>PE35_KO_vs_mbio_H37Rv</v>
+        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
+      <c r="T64" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="U64" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA64" s="3"/>
       <c r="AB64" s="5"/>
@@ -9163,68 +9159,70 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>332</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
-        <v>PPE68_KO_vs_mbio_H37Rv</v>
+        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
+      <c r="T65" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="U65" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AA65" s="3"/>
       <c r="AB65" s="5"/>
@@ -9280,57 +9278,657 @@
       <c r="BZ65" s="5"/>
       <c r="CA65" s="5"/>
     </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B66" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>349</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
+        <v>marP_KO_vs_marP_WT</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA66" s="3"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="5"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="5"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="5"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="5"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="5"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="5"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="5"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="5"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="5"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="5"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="5"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="5"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="5"/>
+      <c r="BK66" s="5"/>
+      <c r="BL66" s="5"/>
+      <c r="BM66" s="5"/>
+      <c r="BN66" s="5"/>
+      <c r="BO66" s="5"/>
+      <c r="BP66" s="5"/>
+      <c r="BQ66" s="5"/>
+      <c r="BR66" s="5"/>
+      <c r="BS66" s="5"/>
+      <c r="BT66" s="5"/>
+      <c r="BU66" s="5"/>
+      <c r="BV66" s="5"/>
+      <c r="BW66" s="5"/>
+      <c r="BX66" s="5"/>
+      <c r="BY66" s="5"/>
+      <c r="BZ66" s="5"/>
+      <c r="CA66" s="5"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="E67" s="4" t="str">
+        <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
+        <v>eccD1_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="5"/>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="5"/>
+      <c r="AE67" s="5"/>
+      <c r="AF67" s="5"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
+      <c r="AJ67" s="5"/>
+      <c r="AK67" s="5"/>
+      <c r="AL67" s="5"/>
+      <c r="AM67" s="5"/>
+      <c r="AN67" s="5"/>
+      <c r="AO67" s="5"/>
+      <c r="AP67" s="5"/>
+      <c r="AQ67" s="5"/>
+      <c r="AR67" s="5"/>
+      <c r="AS67" s="5"/>
+      <c r="AT67" s="5"/>
+      <c r="AU67" s="5"/>
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+      <c r="AX67" s="5"/>
+      <c r="AY67" s="5"/>
+      <c r="AZ67" s="5"/>
+      <c r="BA67" s="5"/>
+      <c r="BB67" s="5"/>
+      <c r="BC67" s="5"/>
+      <c r="BD67" s="5"/>
+      <c r="BE67" s="5"/>
+      <c r="BF67" s="5"/>
+      <c r="BG67" s="5"/>
+      <c r="BH67" s="5"/>
+      <c r="BI67" s="5"/>
+      <c r="BJ67" s="5"/>
+      <c r="BK67" s="5"/>
+      <c r="BL67" s="5"/>
+      <c r="BM67" s="5"/>
+      <c r="BN67" s="5"/>
+      <c r="BO67" s="5"/>
+      <c r="BP67" s="5"/>
+      <c r="BQ67" s="5"/>
+      <c r="BR67" s="5"/>
+      <c r="BS67" s="5"/>
+      <c r="BT67" s="5"/>
+      <c r="BU67" s="5"/>
+      <c r="BV67" s="5"/>
+      <c r="BW67" s="5"/>
+      <c r="BX67" s="5"/>
+      <c r="BY67" s="5"/>
+      <c r="BZ67" s="5"/>
+      <c r="CA67" s="5"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B68" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="4" t="str">
+        <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
+        <v>espI_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F68" s="4"/>
+      <c r="G68" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA68" s="3"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="5"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="5"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="5"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="5"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="5"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="5"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="5"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="5"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="5"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="5"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="5"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="5"/>
+      <c r="BI68" s="5"/>
+      <c r="BJ68" s="5"/>
+      <c r="BK68" s="5"/>
+      <c r="BL68" s="5"/>
+      <c r="BM68" s="5"/>
+      <c r="BN68" s="5"/>
+      <c r="BO68" s="5"/>
+      <c r="BP68" s="5"/>
+      <c r="BQ68" s="5"/>
+      <c r="BR68" s="5"/>
+      <c r="BS68" s="5"/>
+      <c r="BT68" s="5"/>
+      <c r="BU68" s="5"/>
+      <c r="BV68" s="5"/>
+      <c r="BW68" s="5"/>
+      <c r="BX68" s="5"/>
+      <c r="BY68" s="5"/>
+      <c r="BZ68" s="5"/>
+      <c r="CA68" s="5"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B69" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="E69" s="4" t="str">
+        <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
+        <v>PE35_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F69" s="4"/>
+      <c r="G69" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W69" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA69" s="3"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="5"/>
+      <c r="AH69" s="5"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="5"/>
+      <c r="AK69" s="5"/>
+      <c r="AL69" s="5"/>
+      <c r="AM69" s="5"/>
+      <c r="AN69" s="5"/>
+      <c r="AO69" s="5"/>
+      <c r="AP69" s="5"/>
+      <c r="AQ69" s="5"/>
+      <c r="AR69" s="5"/>
+      <c r="AS69" s="5"/>
+      <c r="AT69" s="5"/>
+      <c r="AU69" s="5"/>
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="5"/>
+      <c r="AX69" s="5"/>
+      <c r="AY69" s="5"/>
+      <c r="AZ69" s="5"/>
+      <c r="BA69" s="5"/>
+      <c r="BB69" s="5"/>
+      <c r="BC69" s="5"/>
+      <c r="BD69" s="5"/>
+      <c r="BE69" s="5"/>
+      <c r="BF69" s="5"/>
+      <c r="BG69" s="5"/>
+      <c r="BH69" s="5"/>
+      <c r="BI69" s="5"/>
+      <c r="BJ69" s="5"/>
+      <c r="BK69" s="5"/>
+      <c r="BL69" s="5"/>
+      <c r="BM69" s="5"/>
+      <c r="BN69" s="5"/>
+      <c r="BO69" s="5"/>
+      <c r="BP69" s="5"/>
+      <c r="BQ69" s="5"/>
+      <c r="BR69" s="5"/>
+      <c r="BS69" s="5"/>
+      <c r="BT69" s="5"/>
+      <c r="BU69" s="5"/>
+      <c r="BV69" s="5"/>
+      <c r="BW69" s="5"/>
+      <c r="BX69" s="5"/>
+      <c r="BY69" s="5"/>
+      <c r="BZ69" s="5"/>
+      <c r="CA69" s="5"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B70" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E70" s="4" t="str">
+        <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
+        <v>PPE68_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="5"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="5"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="5"/>
+      <c r="BM70" s="5"/>
+      <c r="BN70" s="5"/>
+      <c r="BO70" s="5"/>
+      <c r="BP70" s="5"/>
+      <c r="BQ70" s="5"/>
+      <c r="BR70" s="5"/>
+      <c r="BS70" s="5"/>
+      <c r="BT70" s="5"/>
+      <c r="BU70" s="5"/>
+      <c r="BV70" s="5"/>
+      <c r="BW70" s="5"/>
+      <c r="BX70" s="5"/>
+      <c r="BY70" s="5"/>
+      <c r="BZ70" s="5"/>
+      <c r="CA70" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
-    <hyperlink ref="L3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
-    <hyperlink ref="L4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x"/>
+    <hyperlink ref="L3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC240732/"/>
+    <hyperlink ref="L4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1142121/"/>
+    <hyperlink ref="L5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
+    <hyperlink ref="L6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
+    <hyperlink ref="L7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
+    <hyperlink ref="L8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
     <hyperlink ref="L9" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L11" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L12" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L13" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L14" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
-    <hyperlink ref="L15" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
-    <hyperlink ref="L16" r:id="rId15" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
-    <hyperlink ref="L17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L21" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L14" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L15" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L16" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
+    <hyperlink ref="L20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
+    <hyperlink ref="L21" r:id="rId20" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
     <hyperlink ref="L22" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L23" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L24" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L25" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L26" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L27" r:id="rId26" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L28" r:id="rId27" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L29" r:id="rId28" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L30" r:id="rId29" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L31" r:id="rId30" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L27" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L28" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L29" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L30" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L31" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L32" r:id="rId31" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L33" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L34" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L35" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L36" r:id="rId35" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L37" r:id="rId36" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L38" r:id="rId37" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L39" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L34" r:id="rId33" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L35" r:id="rId34" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L36" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L37" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L38" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L39" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
     <hyperlink ref="L42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L43" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L44" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L45" r:id="rId44" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L46" r:id="rId45" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L47" r:id="rId46" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L48" r:id="rId47" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L49" r:id="rId48" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L50" r:id="rId49" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L45" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L46" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L47" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L48" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L49" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L50" r:id="rId49" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L51" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L52" r:id="rId51" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L53" r:id="rId52" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L54" r:id="rId53" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L55" r:id="rId54" display="https://msystems.asm.org/content/4/4/e00070-19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="378">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -283,9 +283,6 @@
     <t xml:space="preserve">zhang_mhcii_mouse_d10</t>
   </si>
   <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in immunodeficient mice after 10 days</t>
   </si>
   <si>
@@ -415,6 +412,27 @@
     <t xml:space="preserve">ponA1</t>
   </si>
   <si>
+    <t xml:space="preserve">2015_Mendum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipid metabolism and Type VII secretion systems dominate the genome scale virulence profile of Mycobacterium tuberculosis in human dendritic cells.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMC_genomics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stewart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC</t>
+  </si>
+  <si>
     <t xml:space="preserve">2015_Nambi_1</t>
   </si>
   <si>
@@ -526,6 +544,9 @@
     <t xml:space="preserve">2017B_DeJesus_2C</t>
   </si>
   <si>
+    <t xml:space="preserve">2017B_DeJesus_1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017B_DeJesus_3A</t>
   </si>
   <si>
@@ -550,6 +571,9 @@
     <t xml:space="preserve">2017B_DeJesus_3C</t>
   </si>
   <si>
+    <t xml:space="preserve">2017B_DeJesus_1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c</t>
   </si>
   <si>
@@ -575,6 +599,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017B_DeJesus_4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017B_DeJesus_1C</t>
   </si>
   <si>
     <t xml:space="preserve">2017_Xu_1</t>
@@ -1257,7 +1284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1294,6 +1321,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1306,23 +1337,27 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1411,14 +1446,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CA70"/>
+  <dimension ref="A1:CA71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2246,16 +2281,14 @@
         <f aca="false">CONCATENATE(D8,"_vs_",C8)</f>
         <v>griffin_glycerol_vs_mbio_H37Rv</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>66</v>
-      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="5" t="n">
         <v>14</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="5" t="n">
         <v>2013</v>
       </c>
@@ -2611,9 +2644,7 @@
         <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
         <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="5" t="n">
         <v>3</v>
       </c>
@@ -2621,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2013</v>
@@ -2658,7 +2689,7 @@
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -2718,7 +2749,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -2728,14 +2759,14 @@
         <v>83</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="4" t="str">
         <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
         <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>92</v>
+      <c r="F12" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>3</v>
@@ -2744,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2013</v>
@@ -2781,7 +2812,7 @@
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -2841,24 +2872,24 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="4" t="str">
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3</v>
@@ -2867,7 +2898,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2013</v>
@@ -2897,7 +2928,7 @@
         <v>34</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
@@ -2964,24 +2995,24 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E14" s="4" t="str">
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>3</v>
@@ -2990,7 +3021,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2013</v>
@@ -3020,7 +3051,7 @@
         <v>34</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
@@ -3087,24 +3118,24 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
         <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>103</v>
+      <c r="F15" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>2</v>
@@ -3113,7 +3144,7 @@
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2013</v>
@@ -3143,7 +3174,7 @@
         <v>34</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -3210,24 +3241,24 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
         <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1</v>
@@ -3236,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2013</v>
@@ -3266,7 +3297,7 @@
         <v>34</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -3333,25 +3364,23 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B17" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
         <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="F17" s="4"/>
       <c r="G17" s="5" t="n">
         <v>1</v>
       </c>
@@ -3359,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2013</v>
@@ -3382,14 +3411,14 @@
       <c r="P17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="12" t="s">
         <v>33</v>
       </c>
       <c r="R17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
@@ -3456,25 +3485,23 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
         <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="F18" s="4"/>
       <c r="G18" s="5" t="n">
         <v>2</v>
       </c>
@@ -3482,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2013</v>
@@ -3505,14 +3532,14 @@
       <c r="P18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="12" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -3579,7 +3606,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -3589,14 +3616,14 @@
         <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
         <v>kieser_dPonA1_vs_mbio_H37Rv</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>14</v>
@@ -3605,22 +3632,22 @@
         <v>1</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="8" t="s">
         <v>126</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>31</v>
@@ -3636,10 +3663,10 @@
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="U19" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="V19" s="5" t="s">
         <v>64</v>
@@ -3704,69 +3731,51 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="L20" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="4" t="str">
-        <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
-        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="M20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="N20" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="5" t="n">
-        <v>2015</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="O20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="T20" s="5"/>
       <c r="U20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="V20" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
+      <c r="X20" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="3"/>
@@ -3825,67 +3834,63 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B21" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E21" s="4" t="str">
         <f aca="false">CONCATENATE(D21,"_vs_",C21)</f>
-        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
+        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="L21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="J21" s="5" t="n">
-        <v>2016</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>148</v>
-      </c>
       <c r="O21" s="5" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
       <c r="S21" s="5"/>
       <c r="T21" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>64</v>
@@ -3949,1334 +3954,1342 @@
       <c r="CA21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="12" t="n">
+      <c r="A22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>155</v>
+      <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="E22" s="4" t="str">
         <f aca="false">CONCATENATE(D22,"_vs_",C22)</f>
-        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H22" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K22" s="7" t="s">
+        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q22" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="14" t="s">
+      <c r="R22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="U22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="N22" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12" t="s">
+      <c r="V22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W22" s="12" t="s">
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="5"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
+      <c r="AS22" s="5"/>
+      <c r="AT22" s="5"/>
+      <c r="AU22" s="5"/>
+      <c r="AV22" s="5"/>
+      <c r="AW22" s="5"/>
+      <c r="AX22" s="5"/>
+      <c r="AY22" s="5"/>
+      <c r="AZ22" s="5"/>
+      <c r="BA22" s="5"/>
+      <c r="BB22" s="5"/>
+      <c r="BC22" s="5"/>
+      <c r="BD22" s="5"/>
+      <c r="BE22" s="5"/>
+      <c r="BF22" s="5"/>
+      <c r="BG22" s="5"/>
+      <c r="BH22" s="5"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="BR22" s="5"/>
+      <c r="BS22" s="5"/>
+      <c r="BT22" s="5"/>
+      <c r="BU22" s="5"/>
+      <c r="BV22" s="5"/>
+      <c r="BW22" s="5"/>
+      <c r="BX22" s="5"/>
+      <c r="BY22" s="5"/>
+      <c r="BZ22" s="5"/>
+      <c r="CA22" s="5"/>
+    </row>
+    <row r="23" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="15"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="12"/>
-      <c r="AL22" s="12"/>
-      <c r="AM22" s="12"/>
-      <c r="AN22" s="12"/>
-      <c r="AO22" s="12"/>
-      <c r="AP22" s="12"/>
-      <c r="AQ22" s="12"/>
-      <c r="AR22" s="12"/>
-      <c r="AS22" s="12"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="12"/>
-      <c r="AV22" s="12"/>
-      <c r="AW22" s="12"/>
-      <c r="AX22" s="12"/>
-      <c r="AY22" s="12"/>
-      <c r="AZ22" s="12"/>
-      <c r="BA22" s="12"/>
-      <c r="BB22" s="12"/>
-      <c r="BC22" s="12"/>
-      <c r="BD22" s="12"/>
-      <c r="BE22" s="12"/>
-      <c r="BF22" s="12"/>
-      <c r="BG22" s="12"/>
-      <c r="BH22" s="12"/>
-      <c r="BI22" s="12"/>
-      <c r="BJ22" s="12"/>
-      <c r="BK22" s="12"/>
-      <c r="BL22" s="12"/>
-      <c r="BM22" s="12"/>
-      <c r="BN22" s="12"/>
-      <c r="BO22" s="12"/>
-      <c r="BP22" s="12"/>
-      <c r="BQ22" s="12"/>
-      <c r="BR22" s="12"/>
-      <c r="BS22" s="12"/>
-      <c r="BT22" s="12"/>
-      <c r="BU22" s="12"/>
-      <c r="BV22" s="12"/>
-      <c r="BW22" s="12"/>
-      <c r="BX22" s="12"/>
-      <c r="BY22" s="12"/>
-      <c r="BZ22" s="12"/>
-      <c r="CA22" s="12"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="12" t="n">
+      <c r="B23" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="4" t="str">
+      <c r="E23" s="9" t="str">
         <f aca="false">CONCATENATE(D23,"_vs_",C23)</f>
-        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="12" t="n">
+        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="12" t="n">
+      <c r="H23" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="14"/>
+      <c r="J23" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J23" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N23" s="12" t="s">
+      <c r="L23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N23" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="O23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="P23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12" t="s">
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="15"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="12"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
-      <c r="AV23" s="12"/>
-      <c r="AW23" s="12"/>
-      <c r="AX23" s="12"/>
-      <c r="AY23" s="12"/>
-      <c r="AZ23" s="12"/>
-      <c r="BA23" s="12"/>
-      <c r="BB23" s="12"/>
-      <c r="BC23" s="12"/>
-      <c r="BD23" s="12"/>
-      <c r="BE23" s="12"/>
-      <c r="BF23" s="12"/>
-      <c r="BG23" s="12"/>
-      <c r="BH23" s="12"/>
-      <c r="BI23" s="12"/>
-      <c r="BJ23" s="12"/>
-      <c r="BK23" s="12"/>
-      <c r="BL23" s="12"/>
-      <c r="BM23" s="12"/>
-      <c r="BN23" s="12"/>
-      <c r="BO23" s="12"/>
-      <c r="BP23" s="12"/>
-      <c r="BQ23" s="12"/>
-      <c r="BR23" s="12"/>
-      <c r="BS23" s="12"/>
-      <c r="BT23" s="12"/>
-      <c r="BU23" s="12"/>
-      <c r="BV23" s="12"/>
-      <c r="BW23" s="12"/>
-      <c r="BX23" s="12"/>
-      <c r="BY23" s="12"/>
-      <c r="BZ23" s="12"/>
-      <c r="CA23" s="12"/>
+      <c r="W23" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="13"/>
+      <c r="AM23" s="13"/>
+      <c r="AN23" s="13"/>
+      <c r="AO23" s="13"/>
+      <c r="AP23" s="13"/>
+      <c r="AQ23" s="13"/>
+      <c r="AR23" s="13"/>
+      <c r="AS23" s="13"/>
+      <c r="AT23" s="13"/>
+      <c r="AU23" s="13"/>
+      <c r="AV23" s="13"/>
+      <c r="AW23" s="13"/>
+      <c r="AX23" s="13"/>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13"/>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="13"/>
+      <c r="BH23" s="13"/>
+      <c r="BI23" s="13"/>
+      <c r="BJ23" s="13"/>
+      <c r="BK23" s="13"/>
+      <c r="BL23" s="13"/>
+      <c r="BM23" s="13"/>
+      <c r="BN23" s="13"/>
+      <c r="BO23" s="13"/>
+      <c r="BP23" s="13"/>
+      <c r="BQ23" s="13"/>
+      <c r="BR23" s="13"/>
+      <c r="BS23" s="13"/>
+      <c r="BT23" s="13"/>
+      <c r="BU23" s="13"/>
+      <c r="BV23" s="13"/>
+      <c r="BW23" s="13"/>
+      <c r="BX23" s="13"/>
+      <c r="BY23" s="13"/>
+      <c r="BZ23" s="13"/>
+      <c r="CA23" s="13"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B24" s="5" t="n">
+    <row r="24" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
+        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E24" s="4" t="str">
-        <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="J24" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="5"/>
-      <c r="BL24" s="5"/>
-      <c r="BM24" s="5"/>
-      <c r="BN24" s="5"/>
-      <c r="BO24" s="5"/>
-      <c r="BP24" s="5"/>
-      <c r="BQ24" s="5"/>
-      <c r="BR24" s="5"/>
-      <c r="BS24" s="5"/>
-      <c r="BT24" s="5"/>
-      <c r="BU24" s="5"/>
-      <c r="BV24" s="5"/>
-      <c r="BW24" s="5"/>
-      <c r="BX24" s="5"/>
-      <c r="BY24" s="5"/>
-      <c r="BZ24" s="5"/>
-      <c r="CA24" s="5"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13"/>
+      <c r="AI24" s="13"/>
+      <c r="AJ24" s="13"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="13"/>
+      <c r="AM24" s="13"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="13"/>
+      <c r="AR24" s="13"/>
+      <c r="AS24" s="13"/>
+      <c r="AT24" s="13"/>
+      <c r="AU24" s="13"/>
+      <c r="AV24" s="13"/>
+      <c r="AW24" s="13"/>
+      <c r="AX24" s="13"/>
+      <c r="AY24" s="13"/>
+      <c r="AZ24" s="13"/>
+      <c r="BA24" s="13"/>
+      <c r="BB24" s="13"/>
+      <c r="BC24" s="13"/>
+      <c r="BD24" s="13"/>
+      <c r="BE24" s="13"/>
+      <c r="BF24" s="13"/>
+      <c r="BG24" s="13"/>
+      <c r="BH24" s="13"/>
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="13"/>
+      <c r="BK24" s="13"/>
+      <c r="BL24" s="13"/>
+      <c r="BM24" s="13"/>
+      <c r="BN24" s="13"/>
+      <c r="BO24" s="13"/>
+      <c r="BP24" s="13"/>
+      <c r="BQ24" s="13"/>
+      <c r="BR24" s="13"/>
+      <c r="BS24" s="13"/>
+      <c r="BT24" s="13"/>
+      <c r="BU24" s="13"/>
+      <c r="BV24" s="13"/>
+      <c r="BW24" s="13"/>
+      <c r="BX24" s="13"/>
+      <c r="BY24" s="13"/>
+      <c r="BZ24" s="13"/>
+      <c r="CA24" s="13"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B25" s="12" t="n">
+    <row r="25" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
+        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W25" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="4" t="str">
-        <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="J25" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="15"/>
-      <c r="AB25" s="12"/>
-      <c r="AC25" s="12"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="12"/>
-      <c r="AG25" s="12"/>
-      <c r="AH25" s="12"/>
-      <c r="AI25" s="12"/>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="12"/>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
-      <c r="BA25" s="12"/>
-      <c r="BB25" s="12"/>
-      <c r="BC25" s="12"/>
-      <c r="BD25" s="12"/>
-      <c r="BE25" s="12"/>
-      <c r="BF25" s="12"/>
-      <c r="BG25" s="12"/>
-      <c r="BH25" s="12"/>
-      <c r="BI25" s="12"/>
-      <c r="BJ25" s="12"/>
-      <c r="BK25" s="12"/>
-      <c r="BL25" s="12"/>
-      <c r="BM25" s="12"/>
-      <c r="BN25" s="12"/>
-      <c r="BO25" s="12"/>
-      <c r="BP25" s="12"/>
-      <c r="BQ25" s="12"/>
-      <c r="BR25" s="12"/>
-      <c r="BS25" s="12"/>
-      <c r="BT25" s="12"/>
-      <c r="BU25" s="12"/>
-      <c r="BV25" s="12"/>
-      <c r="BW25" s="12"/>
-      <c r="BX25" s="12"/>
-      <c r="BY25" s="12"/>
-      <c r="BZ25" s="12"/>
-      <c r="CA25" s="12"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13"/>
+      <c r="AI25" s="13"/>
+      <c r="AJ25" s="13"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="13"/>
+      <c r="AM25" s="13"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="13"/>
+      <c r="AQ25" s="13"/>
+      <c r="AR25" s="13"/>
+      <c r="AS25" s="13"/>
+      <c r="AT25" s="13"/>
+      <c r="AU25" s="13"/>
+      <c r="AV25" s="13"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="13"/>
+      <c r="BE25" s="13"/>
+      <c r="BF25" s="13"/>
+      <c r="BG25" s="13"/>
+      <c r="BH25" s="13"/>
+      <c r="BI25" s="13"/>
+      <c r="BJ25" s="13"/>
+      <c r="BK25" s="13"/>
+      <c r="BL25" s="13"/>
+      <c r="BM25" s="13"/>
+      <c r="BN25" s="13"/>
+      <c r="BO25" s="13"/>
+      <c r="BP25" s="13"/>
+      <c r="BQ25" s="13"/>
+      <c r="BR25" s="13"/>
+      <c r="BS25" s="13"/>
+      <c r="BT25" s="13"/>
+      <c r="BU25" s="13"/>
+      <c r="BV25" s="13"/>
+      <c r="BW25" s="13"/>
+      <c r="BX25" s="13"/>
+      <c r="BY25" s="13"/>
+      <c r="BZ25" s="13"/>
+      <c r="CA25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B26" s="12" t="n">
+    <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B26" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="11" t="str">
+        <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
+        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="4" t="str">
-        <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
-        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H26" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U26" s="12"/>
-      <c r="V26" s="12" t="s">
+      <c r="U26" s="13"/>
+      <c r="V26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X26" s="12"/>
-      <c r="Y26" s="12"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="12"/>
-      <c r="AC26" s="12"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
-      <c r="AG26" s="12"/>
-      <c r="AH26" s="12"/>
-      <c r="AI26" s="12"/>
-      <c r="AJ26" s="12"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="12"/>
-      <c r="AN26" s="12"/>
-      <c r="AO26" s="12"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="12"/>
-      <c r="AR26" s="12"/>
-      <c r="AS26" s="12"/>
-      <c r="AT26" s="12"/>
-      <c r="AU26" s="12"/>
-      <c r="AV26" s="12"/>
-      <c r="AW26" s="12"/>
-      <c r="AX26" s="12"/>
-      <c r="AY26" s="12"/>
-      <c r="AZ26" s="12"/>
-      <c r="BA26" s="12"/>
-      <c r="BB26" s="12"/>
-      <c r="BC26" s="12"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="12"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="12"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="12"/>
-      <c r="BJ26" s="12"/>
-      <c r="BK26" s="12"/>
-      <c r="BL26" s="12"/>
-      <c r="BM26" s="12"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="12"/>
-      <c r="BP26" s="12"/>
-      <c r="BQ26" s="12"/>
-      <c r="BR26" s="12"/>
-      <c r="BS26" s="12"/>
-      <c r="BT26" s="12"/>
-      <c r="BU26" s="12"/>
-      <c r="BV26" s="12"/>
-      <c r="BW26" s="12"/>
-      <c r="BX26" s="12"/>
-      <c r="BY26" s="12"/>
-      <c r="BZ26" s="12"/>
-      <c r="CA26" s="12"/>
+      <c r="W26" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="13"/>
+      <c r="AM26" s="13"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
+      <c r="AP26" s="13"/>
+      <c r="AQ26" s="13"/>
+      <c r="AR26" s="13"/>
+      <c r="AS26" s="13"/>
+      <c r="AT26" s="13"/>
+      <c r="AU26" s="13"/>
+      <c r="AV26" s="13"/>
+      <c r="AW26" s="13"/>
+      <c r="AX26" s="13"/>
+      <c r="AY26" s="13"/>
+      <c r="AZ26" s="13"/>
+      <c r="BA26" s="13"/>
+      <c r="BB26" s="13"/>
+      <c r="BC26" s="13"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+      <c r="BK26" s="13"/>
+      <c r="BL26" s="13"/>
+      <c r="BM26" s="13"/>
+      <c r="BN26" s="13"/>
+      <c r="BO26" s="13"/>
+      <c r="BP26" s="13"/>
+      <c r="BQ26" s="13"/>
+      <c r="BR26" s="13"/>
+      <c r="BS26" s="13"/>
+      <c r="BT26" s="13"/>
+      <c r="BU26" s="13"/>
+      <c r="BV26" s="13"/>
+      <c r="BW26" s="13"/>
+      <c r="BX26" s="13"/>
+      <c r="BY26" s="13"/>
+      <c r="BZ26" s="13"/>
+      <c r="CA26" s="13"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B27" s="5" t="n">
+    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B27" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E27" s="4" t="str">
+      <c r="C27" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="9" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="5" t="n">
+        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J27" s="5" t="n">
+      <c r="H27" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J27" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N27" s="5" t="s">
+      <c r="K27" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N27" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P27" s="5" t="s">
+      <c r="P27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5" t="s">
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
-      <c r="BL27" s="5"/>
-      <c r="BM27" s="5"/>
-      <c r="BN27" s="5"/>
-      <c r="BO27" s="5"/>
-      <c r="BP27" s="5"/>
-      <c r="BQ27" s="5"/>
-      <c r="BR27" s="5"/>
-      <c r="BS27" s="5"/>
-      <c r="BT27" s="5"/>
-      <c r="BU27" s="5"/>
-      <c r="BV27" s="5"/>
-      <c r="BW27" s="5"/>
-      <c r="BX27" s="5"/>
-      <c r="BY27" s="5"/>
-      <c r="BZ27" s="5"/>
-      <c r="CA27" s="5"/>
+      <c r="W27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13"/>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="13"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="13"/>
+      <c r="AM27" s="13"/>
+      <c r="AN27" s="13"/>
+      <c r="AO27" s="13"/>
+      <c r="AP27" s="13"/>
+      <c r="AQ27" s="13"/>
+      <c r="AR27" s="13"/>
+      <c r="AS27" s="13"/>
+      <c r="AT27" s="13"/>
+      <c r="AU27" s="13"/>
+      <c r="AV27" s="13"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="13"/>
+      <c r="BH27" s="13"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="13"/>
+      <c r="BK27" s="13"/>
+      <c r="BL27" s="13"/>
+      <c r="BM27" s="13"/>
+      <c r="BN27" s="13"/>
+      <c r="BO27" s="13"/>
+      <c r="BP27" s="13"/>
+      <c r="BQ27" s="13"/>
+      <c r="BR27" s="13"/>
+      <c r="BS27" s="13"/>
+      <c r="BT27" s="13"/>
+      <c r="BU27" s="13"/>
+      <c r="BV27" s="13"/>
+      <c r="BW27" s="13"/>
+      <c r="BX27" s="13"/>
+      <c r="BY27" s="13"/>
+      <c r="BZ27" s="13"/>
+      <c r="CA27" s="13"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="12" t="n">
+    <row r="28" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="4" t="str">
+      <c r="C28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="9" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="12" t="n">
+        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J28" s="12" t="n">
+      <c r="I28" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="J28" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L28" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M28" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N28" s="12" t="s">
+      <c r="K28" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N28" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="12" t="s">
+      <c r="O28" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="P28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12" t="s">
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W28" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="12"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="12"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="12"/>
-      <c r="BO28" s="12"/>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="12"/>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="12"/>
-      <c r="BW28" s="12"/>
-      <c r="BX28" s="12"/>
-      <c r="BY28" s="12"/>
-      <c r="BZ28" s="12"/>
-      <c r="CA28" s="12"/>
+      <c r="W28" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="13"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+      <c r="BK28" s="13"/>
+      <c r="BL28" s="13"/>
+      <c r="BM28" s="13"/>
+      <c r="BN28" s="13"/>
+      <c r="BO28" s="13"/>
+      <c r="BP28" s="13"/>
+      <c r="BQ28" s="13"/>
+      <c r="BR28" s="13"/>
+      <c r="BS28" s="13"/>
+      <c r="BT28" s="13"/>
+      <c r="BU28" s="13"/>
+      <c r="BV28" s="13"/>
+      <c r="BW28" s="13"/>
+      <c r="BX28" s="13"/>
+      <c r="BY28" s="13"/>
+      <c r="BZ28" s="13"/>
+      <c r="CA28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B29" s="12" t="n">
+    <row r="29" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="C29" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="11" t="str">
+        <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H29" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J29" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="4" t="str">
-        <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
-        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" s="12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J29" s="12" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M29" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12" t="s">
+      <c r="U29" s="13"/>
+      <c r="V29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="12"/>
-      <c r="AC29" s="12"/>
-      <c r="AD29" s="12"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
-      <c r="AH29" s="12"/>
-      <c r="AI29" s="12"/>
-      <c r="AJ29" s="12"/>
-      <c r="AK29" s="12"/>
-      <c r="AL29" s="12"/>
-      <c r="AM29" s="12"/>
-      <c r="AN29" s="12"/>
-      <c r="AO29" s="12"/>
-      <c r="AP29" s="12"/>
-      <c r="AQ29" s="12"/>
-      <c r="AR29" s="12"/>
-      <c r="AS29" s="12"/>
-      <c r="AT29" s="12"/>
-      <c r="AU29" s="12"/>
-      <c r="AV29" s="12"/>
-      <c r="AW29" s="12"/>
-      <c r="AX29" s="12"/>
-      <c r="AY29" s="12"/>
-      <c r="AZ29" s="12"/>
-      <c r="BA29" s="12"/>
-      <c r="BB29" s="12"/>
-      <c r="BC29" s="12"/>
-      <c r="BD29" s="12"/>
-      <c r="BE29" s="12"/>
-      <c r="BF29" s="12"/>
-      <c r="BG29" s="12"/>
-      <c r="BH29" s="12"/>
-      <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
-      <c r="BK29" s="12"/>
-      <c r="BL29" s="12"/>
-      <c r="BM29" s="12"/>
-      <c r="BN29" s="12"/>
-      <c r="BO29" s="12"/>
-      <c r="BP29" s="12"/>
-      <c r="BQ29" s="12"/>
-      <c r="BR29" s="12"/>
-      <c r="BS29" s="12"/>
-      <c r="BT29" s="12"/>
-      <c r="BU29" s="12"/>
-      <c r="BV29" s="12"/>
-      <c r="BW29" s="12"/>
-      <c r="BX29" s="12"/>
-      <c r="BY29" s="12"/>
-      <c r="BZ29" s="12"/>
-      <c r="CA29" s="12"/>
+      <c r="W29" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="13"/>
+      <c r="AL29" s="13"/>
+      <c r="AM29" s="13"/>
+      <c r="AN29" s="13"/>
+      <c r="AO29" s="13"/>
+      <c r="AP29" s="13"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="13"/>
+      <c r="AS29" s="13"/>
+      <c r="AT29" s="13"/>
+      <c r="AU29" s="13"/>
+      <c r="AV29" s="13"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="13"/>
+      <c r="BH29" s="13"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+      <c r="BK29" s="13"/>
+      <c r="BL29" s="13"/>
+      <c r="BM29" s="13"/>
+      <c r="BN29" s="13"/>
+      <c r="BO29" s="13"/>
+      <c r="BP29" s="13"/>
+      <c r="BQ29" s="13"/>
+      <c r="BR29" s="13"/>
+      <c r="BS29" s="13"/>
+      <c r="BT29" s="13"/>
+      <c r="BU29" s="13"/>
+      <c r="BV29" s="13"/>
+      <c r="BW29" s="13"/>
+      <c r="BX29" s="13"/>
+      <c r="BY29" s="13"/>
+      <c r="BZ29" s="13"/>
+      <c r="CA29" s="13"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" s="5" t="n">
+    <row r="30" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="4" t="str">
+      <c r="C30" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="9" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="n">
+        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J30" s="5" t="n">
+      <c r="H30" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="J30" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="N30" s="5" t="s">
+      <c r="K30" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N30" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="5" t="s">
+      <c r="O30" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P30" s="5" t="s">
+      <c r="P30" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5" t="s">
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W30" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-      <c r="BD30" s="5"/>
-      <c r="BE30" s="5"/>
-      <c r="BF30" s="5"/>
-      <c r="BG30" s="5"/>
-      <c r="BH30" s="5"/>
-      <c r="BI30" s="5"/>
-      <c r="BJ30" s="5"/>
-      <c r="BK30" s="5"/>
-      <c r="BL30" s="5"/>
-      <c r="BM30" s="5"/>
-      <c r="BN30" s="5"/>
-      <c r="BO30" s="5"/>
-      <c r="BP30" s="5"/>
-      <c r="BQ30" s="5"/>
-      <c r="BR30" s="5"/>
-      <c r="BS30" s="5"/>
-      <c r="BT30" s="5"/>
-      <c r="BU30" s="5"/>
-      <c r="BV30" s="5"/>
-      <c r="BW30" s="5"/>
-      <c r="BX30" s="5"/>
-      <c r="BY30" s="5"/>
-      <c r="BZ30" s="5"/>
-      <c r="CA30" s="5"/>
+      <c r="W30" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="16"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="13"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="13"/>
+      <c r="BE30" s="13"/>
+      <c r="BF30" s="13"/>
+      <c r="BG30" s="13"/>
+      <c r="BH30" s="13"/>
+      <c r="BI30" s="13"/>
+      <c r="BJ30" s="13"/>
+      <c r="BK30" s="13"/>
+      <c r="BL30" s="13"/>
+      <c r="BM30" s="13"/>
+      <c r="BN30" s="13"/>
+      <c r="BO30" s="13"/>
+      <c r="BP30" s="13"/>
+      <c r="BQ30" s="13"/>
+      <c r="BR30" s="13"/>
+      <c r="BS30" s="13"/>
+      <c r="BT30" s="13"/>
+      <c r="BU30" s="13"/>
+      <c r="BV30" s="13"/>
+      <c r="BW30" s="13"/>
+      <c r="BX30" s="13"/>
+      <c r="BY30" s="13"/>
+      <c r="BZ30" s="13"/>
+      <c r="CA30" s="13"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="12" t="n">
+    <row r="31" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="4" t="str">
+      <c r="C31" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="9" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="12" t="n">
+        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H31" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="J31" s="12" t="n">
+      <c r="I31" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M31" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="N31" s="12" t="s">
+      <c r="K31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="O31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="P31" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12" t="s">
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W31" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="12"/>
-      <c r="AC31" s="12"/>
-      <c r="AD31" s="12"/>
-      <c r="AE31" s="12"/>
-      <c r="AF31" s="12"/>
-      <c r="AG31" s="12"/>
-      <c r="AH31" s="12"/>
-      <c r="AI31" s="12"/>
-      <c r="AJ31" s="12"/>
-      <c r="AK31" s="12"/>
-      <c r="AL31" s="12"/>
-      <c r="AM31" s="12"/>
-      <c r="AN31" s="12"/>
-      <c r="AO31" s="12"/>
-      <c r="AP31" s="12"/>
-      <c r="AQ31" s="12"/>
-      <c r="AR31" s="12"/>
-      <c r="AS31" s="12"/>
-      <c r="AT31" s="12"/>
-      <c r="AU31" s="12"/>
-      <c r="AV31" s="12"/>
-      <c r="AW31" s="12"/>
-      <c r="AX31" s="12"/>
-      <c r="AY31" s="12"/>
-      <c r="AZ31" s="12"/>
-      <c r="BA31" s="12"/>
-      <c r="BB31" s="12"/>
-      <c r="BC31" s="12"/>
-      <c r="BD31" s="12"/>
-      <c r="BE31" s="12"/>
-      <c r="BF31" s="12"/>
-      <c r="BG31" s="12"/>
-      <c r="BH31" s="12"/>
-      <c r="BI31" s="12"/>
-      <c r="BJ31" s="12"/>
-      <c r="BK31" s="12"/>
-      <c r="BL31" s="12"/>
-      <c r="BM31" s="12"/>
-      <c r="BN31" s="12"/>
-      <c r="BO31" s="12"/>
-      <c r="BP31" s="12"/>
-      <c r="BQ31" s="12"/>
-      <c r="BR31" s="12"/>
-      <c r="BS31" s="12"/>
-      <c r="BT31" s="12"/>
-      <c r="BU31" s="12"/>
-      <c r="BV31" s="12"/>
-      <c r="BW31" s="12"/>
-      <c r="BX31" s="12"/>
-      <c r="BY31" s="12"/>
-      <c r="BZ31" s="12"/>
-      <c r="CA31" s="12"/>
+      <c r="W31" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="16"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="13"/>
+      <c r="AM31" s="13"/>
+      <c r="AN31" s="13"/>
+      <c r="AO31" s="13"/>
+      <c r="AP31" s="13"/>
+      <c r="AQ31" s="13"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="13"/>
+      <c r="AT31" s="13"/>
+      <c r="AU31" s="13"/>
+      <c r="AV31" s="13"/>
+      <c r="AW31" s="13"/>
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="13"/>
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13"/>
+      <c r="BE31" s="13"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="13"/>
+      <c r="BH31" s="13"/>
+      <c r="BI31" s="13"/>
+      <c r="BJ31" s="13"/>
+      <c r="BK31" s="13"/>
+      <c r="BL31" s="13"/>
+      <c r="BM31" s="13"/>
+      <c r="BN31" s="13"/>
+      <c r="BO31" s="13"/>
+      <c r="BP31" s="13"/>
+      <c r="BQ31" s="13"/>
+      <c r="BR31" s="13"/>
+      <c r="BS31" s="13"/>
+      <c r="BT31" s="13"/>
+      <c r="BU31" s="13"/>
+      <c r="BV31" s="13"/>
+      <c r="BW31" s="13"/>
+      <c r="BX31" s="13"/>
+      <c r="BY31" s="13"/>
+      <c r="BZ31" s="13"/>
+      <c r="CA31" s="13"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B32" s="5" t="n">
+    <row r="32" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="11" t="str">
+        <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
+        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="4" t="str">
-        <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
-        <v>xu_van_16_vs_xu_van_0</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="J32" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L32" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G32" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H32" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O32" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="P32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="R32" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S32" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5" t="s">
+      <c r="U32" s="13"/>
+      <c r="V32" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
-      <c r="AZ32" s="5"/>
-      <c r="BA32" s="5"/>
-      <c r="BB32" s="5"/>
-      <c r="BC32" s="5"/>
-      <c r="BD32" s="5"/>
-      <c r="BE32" s="5"/>
-      <c r="BF32" s="5"/>
-      <c r="BG32" s="5"/>
-      <c r="BH32" s="5"/>
-      <c r="BI32" s="5"/>
-      <c r="BJ32" s="5"/>
-      <c r="BK32" s="5"/>
-      <c r="BL32" s="5"/>
-      <c r="BM32" s="5"/>
-      <c r="BN32" s="5"/>
-      <c r="BO32" s="5"/>
-      <c r="BP32" s="5"/>
-      <c r="BQ32" s="5"/>
-      <c r="BR32" s="5"/>
-      <c r="BS32" s="5"/>
-      <c r="BT32" s="5"/>
-      <c r="BU32" s="5"/>
-      <c r="BV32" s="5"/>
-      <c r="BW32" s="5"/>
-      <c r="BX32" s="5"/>
-      <c r="BY32" s="5"/>
-      <c r="BZ32" s="5"/>
-      <c r="CA32" s="5"/>
+      <c r="W32" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="16"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="13"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="13"/>
+      <c r="AM32" s="13"/>
+      <c r="AN32" s="13"/>
+      <c r="AO32" s="13"/>
+      <c r="AP32" s="13"/>
+      <c r="AQ32" s="13"/>
+      <c r="AR32" s="13"/>
+      <c r="AS32" s="13"/>
+      <c r="AT32" s="13"/>
+      <c r="AU32" s="13"/>
+      <c r="AV32" s="13"/>
+      <c r="AW32" s="13"/>
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="13"/>
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="13"/>
+      <c r="BB32" s="13"/>
+      <c r="BC32" s="13"/>
+      <c r="BD32" s="13"/>
+      <c r="BE32" s="13"/>
+      <c r="BF32" s="13"/>
+      <c r="BG32" s="13"/>
+      <c r="BH32" s="13"/>
+      <c r="BI32" s="13"/>
+      <c r="BJ32" s="13"/>
+      <c r="BK32" s="13"/>
+      <c r="BL32" s="13"/>
+      <c r="BM32" s="13"/>
+      <c r="BN32" s="13"/>
+      <c r="BO32" s="13"/>
+      <c r="BP32" s="13"/>
+      <c r="BQ32" s="13"/>
+      <c r="BR32" s="13"/>
+      <c r="BS32" s="13"/>
+      <c r="BT32" s="13"/>
+      <c r="BU32" s="13"/>
+      <c r="BV32" s="13"/>
+      <c r="BW32" s="13"/>
+      <c r="BX32" s="13"/>
+      <c r="BY32" s="13"/>
+      <c r="BZ32" s="13"/>
+      <c r="CA32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
-        <v>xu_rif_4_vs_xu_rif_0</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>200</v>
+        <v>xu_van_16_vs_xu_van_0</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>3</v>
@@ -5285,39 +5298,39 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q33" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="T33" s="5"/>
+        <v>205</v>
+      </c>
+      <c r="T33" s="3"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5" t="s">
         <v>64</v>
@@ -5382,63 +5395,63 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B34" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E34" s="4" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
-        <v>xu_inh_02_vs_xu_inh_0</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>206</v>
+        <v>xu_rif_4_vs_xu_rif_0</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>209</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P34" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
@@ -5505,23 +5518,25 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E35" s="4" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
-        <v>xu_inh_025_vs_xu_inh_0</v>
-      </c>
-      <c r="F35" s="10"/>
+        <v>xu_inh_02_vs_xu_inh_0</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>215</v>
+      </c>
       <c r="G35" s="5" t="n">
         <v>4</v>
       </c>
@@ -5529,37 +5544,37 @@
         <v>3</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
@@ -5626,63 +5641,61 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
-        <v>xu_emb_2.5_vs_xu_emb_0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>214</v>
-      </c>
+        <v>xu_inh_025_vs_xu_inh_0</v>
+      </c>
+      <c r="F36" s="11"/>
       <c r="G36" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
@@ -5749,23 +5762,25 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B37" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
-        <v>xu_emb_3_vs_xu_emb_0</v>
-      </c>
-      <c r="F37" s="10"/>
+        <v>xu_emb_2.5_vs_xu_emb_0</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>223</v>
+      </c>
       <c r="G37" s="5" t="n">
         <v>3</v>
       </c>
@@ -5773,37 +5788,37 @@
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S37" s="5" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
@@ -5870,63 +5885,61 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="B38" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
-        <v>xu_mero_2.5_vs_xu_mero_0</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>219</v>
-      </c>
+        <v>xu_emb_3_vs_xu_emb_0</v>
+      </c>
+      <c r="F38" s="11"/>
       <c r="G38" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -5991,71 +6004,75 @@
       <c r="BZ38" s="5"/>
       <c r="CA38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>226</v>
+      <c r="C39" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
-        <v>mishra_C3H_vs_mishra_B6</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>224</v>
+        <v>xu_mero_2.5_vs_xu_mero_0</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I39" s="4"/>
+      <c r="I39" s="4" t="s">
+        <v>231</v>
+      </c>
       <c r="J39" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>30</v>
+        <v>203</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>232</v>
+      </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W39" s="5"/>
-      <c r="X39" s="5" t="s">
-        <v>231</v>
-      </c>
+      <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z39" s="5"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
@@ -6112,24 +6129,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>233</v>
+      <c r="C40" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>235</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
-        <v>mishra_NOS2_vs_mishra_B6</v>
+        <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>3</v>
@@ -6142,16 +6159,16 @@
         <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O40" s="5" t="s">
         <v>30</v>
@@ -6169,7 +6186,7 @@
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5" t="s">
@@ -6231,25 +6248,27 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>233</v>
+      <c r="C41" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
-        <v>mishra_NOS2_vs_mishra_C3H</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>mishra_NOS2_vs_mishra_B6</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="G41" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>2</v>
@@ -6259,16 +6278,16 @@
         <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="O41" s="5" t="s">
         <v>30</v>
@@ -6286,123 +6305,115 @@
       </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5" t="s">
         <v>65</v>
       </c>
       <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
-      <c r="AX41" s="3"/>
-      <c r="AY41" s="3"/>
-      <c r="AZ41" s="3"/>
-      <c r="BA41" s="3"/>
-      <c r="BB41" s="3"/>
-      <c r="BC41" s="3"/>
-      <c r="BD41" s="3"/>
-      <c r="BE41" s="3"/>
-      <c r="BF41" s="3"/>
-      <c r="BG41" s="3"/>
-      <c r="BH41" s="3"/>
-      <c r="BI41" s="3"/>
-      <c r="BJ41" s="3"/>
-      <c r="BK41" s="3"/>
-      <c r="BL41" s="3"/>
-      <c r="BM41" s="3"/>
-      <c r="BN41" s="3"/>
-      <c r="BO41" s="3"/>
-      <c r="BP41" s="3"/>
-      <c r="BQ41" s="3"/>
-      <c r="BR41" s="3"/>
-      <c r="BS41" s="3"/>
-      <c r="BT41" s="3"/>
-      <c r="BU41" s="3"/>
-      <c r="BV41" s="3"/>
-      <c r="BW41" s="3"/>
-      <c r="BX41" s="3"/>
-      <c r="BY41" s="3"/>
-      <c r="BZ41" s="3"/>
-      <c r="CA41" s="3"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+      <c r="BQ41" s="5"/>
+      <c r="BR41" s="5"/>
+      <c r="BS41" s="5"/>
+      <c r="BT41" s="5"/>
+      <c r="BU41" s="5"/>
+      <c r="BV41" s="5"/>
+      <c r="BW41" s="5"/>
+      <c r="BX41" s="5"/>
+      <c r="BY41" s="5"/>
+      <c r="BZ41" s="5"/>
+      <c r="CA41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>238</v>
+      <c r="C42" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>242</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
-        <v>carey_621_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>237</v>
-      </c>
+        <v>mishra_NOS2_vs_mishra_C3H</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="4"/>
+      <c r="J42" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="N42" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J42" s="5" t="n">
-        <v>2018</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="M42" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="N42" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="O42" s="5" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q42" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R42" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
       <c r="S42" s="5"/>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -6410,68 +6421,70 @@
         <v>64</v>
       </c>
       <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
+      <c r="X42" s="5" t="s">
+        <v>245</v>
+      </c>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5" t="n">
-        <v>621</v>
+      <c r="Z42" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA42" s="3"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="5"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="5"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="5"/>
-      <c r="AZ42" s="5"/>
-      <c r="BA42" s="5"/>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="5"/>
-      <c r="BD42" s="5"/>
-      <c r="BE42" s="5"/>
-      <c r="BF42" s="5"/>
-      <c r="BG42" s="5"/>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="5"/>
-      <c r="BJ42" s="5"/>
-      <c r="BK42" s="5"/>
-      <c r="BL42" s="5"/>
-      <c r="BM42" s="5"/>
-      <c r="BN42" s="5"/>
-      <c r="BO42" s="5"/>
-      <c r="BP42" s="5"/>
-      <c r="BQ42" s="5"/>
-      <c r="BR42" s="5"/>
-      <c r="BS42" s="5"/>
-      <c r="BT42" s="5"/>
-      <c r="BU42" s="5"/>
-      <c r="BV42" s="5"/>
-      <c r="BW42" s="5"/>
-      <c r="BX42" s="5"/>
-      <c r="BY42" s="5"/>
-      <c r="BZ42" s="5"/>
-      <c r="CA42" s="5"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="3"/>
+      <c r="AI42" s="3"/>
+      <c r="AJ42" s="3"/>
+      <c r="AK42" s="3"/>
+      <c r="AL42" s="3"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="3"/>
+      <c r="AP42" s="3"/>
+      <c r="AQ42" s="3"/>
+      <c r="AR42" s="3"/>
+      <c r="AS42" s="3"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="3"/>
+      <c r="AW42" s="3"/>
+      <c r="AX42" s="3"/>
+      <c r="AY42" s="3"/>
+      <c r="AZ42" s="3"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="3"/>
+      <c r="BD42" s="3"/>
+      <c r="BE42" s="3"/>
+      <c r="BF42" s="3"/>
+      <c r="BG42" s="3"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="3"/>
+      <c r="BK42" s="3"/>
+      <c r="BL42" s="3"/>
+      <c r="BM42" s="3"/>
+      <c r="BN42" s="3"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="3"/>
+      <c r="BR42" s="3"/>
+      <c r="BS42" s="3"/>
+      <c r="BT42" s="3"/>
+      <c r="BU42" s="3"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="3"/>
+      <c r="BY42" s="3"/>
+      <c r="BZ42" s="3"/>
+      <c r="CA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6481,14 +6494,14 @@
         <v>67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
-        <v>carey_630_vs_mbio_H37Rv</v>
+        <v>carey_621_vs_mbio_H37Rv</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>14</v>
@@ -6497,25 +6510,25 @@
         <v>2</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P43" s="5" t="s">
         <v>32</v>
@@ -6536,7 +6549,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5" t="n">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="5"/>
@@ -6594,7 +6607,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6604,14 +6617,14 @@
         <v>67</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
-        <v>carey_631_vs_mbio_H37Rv</v>
+        <v>carey_630_vs_mbio_H37Rv</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>14</v>
@@ -6620,25 +6633,25 @@
         <v>2</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P44" s="5" t="s">
         <v>32</v>
@@ -6659,7 +6672,7 @@
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5" t="n">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
@@ -6717,7 +6730,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6727,14 +6740,14 @@
         <v>67</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
-        <v>carey_632_vs_mbio_H37Rv</v>
+        <v>carey_631_vs_mbio_H37Rv</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>14</v>
@@ -6743,25 +6756,25 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>32</v>
@@ -6782,7 +6795,7 @@
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AA45" s="3"/>
       <c r="AB45" s="5"/>
@@ -6840,7 +6853,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6850,14 +6863,14 @@
         <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
-        <v>carey_641_vs_mbio_H37Rv</v>
+        <v>carey_632_vs_mbio_H37Rv</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>14</v>
@@ -6866,25 +6879,25 @@
         <v>2</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>32</v>
@@ -6905,7 +6918,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5" t="n">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="5"/>
@@ -6963,7 +6976,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -6973,14 +6986,14 @@
         <v>67</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
-        <v>carey_662_vs_mbio_H37Rv</v>
+        <v>carey_641_vs_mbio_H37Rv</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>14</v>
@@ -6989,25 +7002,25 @@
         <v>2</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>32</v>
@@ -7028,7 +7041,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5" t="n">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="5"/>
@@ -7086,7 +7099,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -7096,14 +7109,14 @@
         <v>67</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
-        <v>carey_663_vs_mbio_H37Rv</v>
+        <v>carey_662_vs_mbio_H37Rv</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>14</v>
@@ -7112,25 +7125,25 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>32</v>
@@ -7151,7 +7164,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5" t="n">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="5"/>
@@ -7209,7 +7222,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -7219,14 +7232,14 @@
         <v>67</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
-        <v>carey_667_vs_mbio_H37Rv</v>
+        <v>carey_663_vs_mbio_H37Rv</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>14</v>
@@ -7235,25 +7248,25 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>32</v>
@@ -7274,7 +7287,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5" t="n">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="5"/>
@@ -7332,76 +7345,72 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
-        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_667_vs_mbio_H37Rv</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>195</v>
+        <v>33</v>
       </c>
       <c r="R50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S50" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W50" s="5" t="s">
-        <v>159</v>
-      </c>
+      <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5" t="s">
-        <v>65</v>
+      <c r="Z50" s="5" t="n">
+        <v>667</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="5"/>
@@ -7459,21 +7468,21 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>277</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
-        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>278</v>
@@ -7482,7 +7491,7 @@
         <v>8</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>279</v>
@@ -7491,16 +7500,16 @@
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="O51" s="5" t="s">
         <v>30</v>
@@ -7509,13 +7518,13 @@
         <v>32</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -7523,7 +7532,7 @@
         <v>64</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
@@ -7586,65 +7595,73 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
-        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F52" s="4"/>
+        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="G52" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="J52" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O52" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X52" s="5" t="s">
-        <v>288</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5" t="s">
         <v>65</v>
@@ -7705,21 +7722,21 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
+        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="5" t="n">
@@ -7733,16 +7750,16 @@
         <v>2019</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>285</v>
+        <v>293</v>
+      </c>
+      <c r="L53" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O53" s="5" t="s">
         <v>30</v>
@@ -7759,10 +7776,10 @@
         <v>64</v>
       </c>
       <c r="W53" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5" t="s">
@@ -7824,25 +7841,25 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>5</v>
@@ -7852,16 +7869,16 @@
         <v>2019</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>285</v>
+        <v>293</v>
+      </c>
+      <c r="L54" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>30</v>
@@ -7878,10 +7895,10 @@
         <v>64</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X54" s="5" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5" t="s">
@@ -7943,57 +7960,53 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
-        <v>minato_minimal_plate_vs_minato_rich_plate</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="5" t="n">
         <v>2019</v>
       </c>
       <c r="K55" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="L55" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="M55" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="L55" s="18" t="s">
+      <c r="N55" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="M55" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>298</v>
-      </c>
       <c r="O55" s="5" t="s">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="R55" s="5" t="s">
-        <v>301</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -8001,11 +8014,15 @@
         <v>64</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="X55" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
+      <c r="Z55" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA55" s="3"/>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
@@ -8062,75 +8079,69 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
-        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
+        <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I56" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="L56" s="20" t="s">
         <v>305</v>
-      </c>
-      <c r="J56" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="K56" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="L56" s="5" t="s">
-        <v>306</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>306</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="P56" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>34</v>
+        <v>310</v>
       </c>
       <c r="S56" s="5"/>
-      <c r="T56" s="5" t="s">
-        <v>307</v>
-      </c>
+      <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z56" s="5"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -8187,43 +8198,43 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
-        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
+        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>71</v>
@@ -8242,14 +8253,14 @@
       </c>
       <c r="S57" s="5"/>
       <c r="T57" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
@@ -8312,44 +8323,50 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>315</v>
+        <v>318</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
-        <v>Rv0950c_KO_vs_CB_WT</v>
+        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="K58" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
+        <v>315</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="P58" s="5" t="s">
         <v>32</v>
       </c>
@@ -8361,16 +8378,14 @@
       </c>
       <c r="S58" s="5"/>
       <c r="T58" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="U58" s="5" t="s">
-        <v>317</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
@@ -8433,41 +8448,41 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>320</v>
+        <v>323</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>324</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
-        <v>Rv0954_KO_vs_RJ_WT</v>
+        <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -8482,16 +8497,16 @@
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="V59" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
@@ -8554,41 +8569,41 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>324</v>
+        <v>328</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
-        <v>Rv1096_KO_vs_CB_WT</v>
+        <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="J60" s="5"/>
       <c r="K60" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
@@ -8603,16 +8618,16 @@
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="V60" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
@@ -8675,41 +8690,41 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>328</v>
+      <c r="C61" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
-        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
+        <v>Rv1096_KO_vs_CB_WT</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
@@ -8724,16 +8739,16 @@
       </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="V61" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
@@ -8796,41 +8811,41 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>333</v>
+      <c r="C62" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>337</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
-        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -8845,16 +8860,16 @@
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -8917,21 +8932,21 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>337</v>
+        <v>341</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
-        <v>Rv3684_KO_vs_CB_WT</v>
+        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="n">
@@ -8941,17 +8956,17 @@
         <v>1</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -8966,16 +8981,16 @@
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -9038,21 +9053,21 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>341</v>
+        <v>323</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>346</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
-        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3684_KO_vs_CB_WT</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5" t="n">
@@ -9062,17 +9077,17 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -9087,16 +9102,16 @@
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -9159,21 +9174,21 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
-        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5" t="n">
@@ -9183,17 +9198,17 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -9208,16 +9223,16 @@
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
@@ -9280,41 +9295,41 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>350</v>
+      <c r="C66" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>354</v>
       </c>
       <c r="E66" s="4" t="str">
         <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
-        <v>marP_KO_vs_marP_WT</v>
+        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -9328,15 +9343,17 @@
         <v>34</v>
       </c>
       <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
+      <c r="T66" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="U66" s="5" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -9399,41 +9416,41 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>354</v>
+      <c r="C67" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>359</v>
       </c>
       <c r="E67" s="4" t="str">
         <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
-        <v>eccD1_KO_vs_mbio_H37Rv</v>
+        <v>marP_KO_vs_marP_WT</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -9449,13 +9466,13 @@
       <c r="S67" s="5"/>
       <c r="T67" s="5"/>
       <c r="U67" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -9518,7 +9535,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -9527,12 +9544,12 @@
       <c r="C68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D68" s="17" t="s">
-        <v>358</v>
+      <c r="D68" s="19" t="s">
+        <v>363</v>
       </c>
       <c r="E68" s="4" t="str">
         <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
-        <v>espI_KO_vs_mbio_H37Rv</v>
+        <v>eccD1_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="n">
@@ -9542,17 +9559,17 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -9568,13 +9585,13 @@
       <c r="S68" s="5"/>
       <c r="T68" s="5"/>
       <c r="U68" s="5" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
@@ -9637,7 +9654,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -9646,12 +9663,12 @@
       <c r="C69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>362</v>
+      <c r="D69" s="19" t="s">
+        <v>367</v>
       </c>
       <c r="E69" s="4" t="str">
         <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
-        <v>PE35_KO_vs_mbio_H37Rv</v>
+        <v>espI_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="5" t="n">
@@ -9661,17 +9678,17 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -9687,13 +9704,13 @@
       <c r="S69" s="5"/>
       <c r="T69" s="5"/>
       <c r="U69" s="5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
@@ -9756,7 +9773,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -9765,12 +9782,12 @@
       <c r="C70" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="17" t="s">
-        <v>366</v>
+      <c r="D70" s="19" t="s">
+        <v>371</v>
       </c>
       <c r="E70" s="4" t="str">
         <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
-        <v>PPE68_KO_vs_mbio_H37Rv</v>
+        <v>PE35_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="n">
@@ -9780,17 +9797,17 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -9806,13 +9823,13 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
@@ -9873,6 +9890,125 @@
       <c r="BZ70" s="5"/>
       <c r="CA70" s="5"/>
     </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="4" t="str">
+        <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
+        <v>PPE68_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W71" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="5"/>
+      <c r="AH71" s="5"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+      <c r="BH71" s="5"/>
+      <c r="BI71" s="5"/>
+      <c r="BJ71" s="5"/>
+      <c r="BK71" s="5"/>
+      <c r="BL71" s="5"/>
+      <c r="BM71" s="5"/>
+      <c r="BN71" s="5"/>
+      <c r="BO71" s="5"/>
+      <c r="BP71" s="5"/>
+      <c r="BQ71" s="5"/>
+      <c r="BR71" s="5"/>
+      <c r="BS71" s="5"/>
+      <c r="BT71" s="5"/>
+      <c r="BU71" s="5"/>
+      <c r="BV71" s="5"/>
+      <c r="BW71" s="5"/>
+      <c r="BX71" s="5"/>
+      <c r="BY71" s="5"/>
+      <c r="BZ71" s="5"/>
+      <c r="CA71" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x"/>
@@ -9893,9 +10029,9 @@
     <hyperlink ref="L17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
     <hyperlink ref="L19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
-    <hyperlink ref="L20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
-    <hyperlink ref="L21" r:id="rId20" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
-    <hyperlink ref="L22" r:id="rId21" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="K20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/"/>
+    <hyperlink ref="L21" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
+    <hyperlink ref="L22" r:id="rId21" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
     <hyperlink ref="L23" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L24" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L25" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
@@ -9905,17 +10041,17 @@
     <hyperlink ref="L29" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L30" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L31" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L32" r:id="rId31" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L32" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L33" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L34" r:id="rId33" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L35" r:id="rId34" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L36" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L37" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L38" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L39" r:id="rId38" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L39" r:id="rId38" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
     <hyperlink ref="L41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
     <hyperlink ref="L43" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L44" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L45" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
@@ -9923,12 +10059,13 @@
     <hyperlink ref="L47" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L48" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L49" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L50" r:id="rId49" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L50" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L51" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L52" r:id="rId51" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L52" r:id="rId51" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
     <hyperlink ref="L53" r:id="rId52" display="https://mbio.asm.org/content/10/4/e00663-19"/>
     <hyperlink ref="L54" r:id="rId53" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L55" r:id="rId54" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L55" r:id="rId54" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L56" r:id="rId55" display="https://msystems.asm.org/content/4/4/e00070-19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="392">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -220,6 +220,21 @@
     <t xml:space="preserve">H37Rv</t>
   </si>
   <si>
+    <t xml:space="preserve">2012_Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutants exhibiting altered fitness in growth on 7H10 agar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Assessment of Genomic Regions Required for Growth in Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3460630/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhang</t>
+  </si>
+  <si>
     <t xml:space="preserve">2013_DeJesus</t>
   </si>
   <si>
@@ -262,9 +277,6 @@
     <t xml:space="preserve">Cell</t>
   </si>
   <si>
-    <t xml:space="preserve">Zhang</t>
-  </si>
-  <si>
     <t xml:space="preserve">WT</t>
   </si>
   <si>
@@ -410,6 +422,36 @@
   </si>
   <si>
     <t xml:space="preserve">ponA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_Kieser_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_Kieser_GI_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ponA2, a major peptidoglycan biosynthetic enzyme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rv3682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ponA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_Kieser_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015_Kieser_GI_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ldtB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rv2518c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ldtB</t>
   </si>
   <si>
     <t xml:space="preserve">2015_Mendum</t>
@@ -1446,14 +1488,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CA71"/>
+  <dimension ref="A1:CA74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2267,30 +2309,20 @@
       <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="4" t="str">
-        <f aca="false">CONCATENATE(D8,"_vs_",C8)</f>
-        <v>griffin_glycerol_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="H8" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10"/>
       <c r="J8" s="5" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>68</v>
@@ -2299,18 +2331,20 @@
         <v>69</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="R8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2325,7 +2359,9 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="Z8" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
@@ -2382,71 +2418,65 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="E9" s="4" t="str">
         <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
-        <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>griffin_glycerol_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="5" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" s="10"/>
       <c r="J9" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="P9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W9" s="5"/>
-      <c r="X9" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
       <c r="AA9" s="3"/>
@@ -2505,24 +2535,24 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="str">
         <f aca="false">CONCATENATE(D10,"_vs_",C10)</f>
-        <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
+        <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1</v>
@@ -2531,22 +2561,22 @@
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>31</v>
@@ -2568,7 +2598,7 @@
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
@@ -2628,46 +2658,48 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="str">
         <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
-        <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="G11" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <v>4</v>
-      </c>
       <c r="I11" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>31</v>
@@ -2689,7 +2721,7 @@
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
@@ -2756,18 +2788,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E12" s="4" t="str">
         <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
-        <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>91</v>
-      </c>
+        <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
+      </c>
+      <c r="F12" s="4"/>
       <c r="G12" s="5" t="n">
         <v>3</v>
       </c>
@@ -2775,22 +2805,22 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>31</v>
@@ -2812,7 +2842,7 @@
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
@@ -2879,23 +2909,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E13" s="4" t="str">
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
-        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>93</v>
+        <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>96</v>
@@ -2904,39 +2934,39 @@
         <v>2013</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>31</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>97</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
+      <c r="X13" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
       <c r="AA13" s="3"/>
@@ -2995,24 +3025,24 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E14" s="4" t="str">
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
-        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
+        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>3</v>
@@ -3027,16 +3057,16 @@
         <v>2013</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>31</v>
@@ -3124,42 +3154,42 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>104</v>
+      <c r="D15" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
-        <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
-      </c>
-      <c r="F15" s="11" t="s">
+        <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>102</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>31</v>
@@ -3174,7 +3204,7 @@
         <v>34</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
@@ -3241,48 +3271,48 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
-        <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>107</v>
+        <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>31</v>
@@ -3297,7 +3327,7 @@
         <v>34</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
@@ -3364,23 +3394,25 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
-        <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G17" s="5" t="n">
         <v>1</v>
       </c>
@@ -3394,16 +3426,16 @@
         <v>2013</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>31</v>
@@ -3411,7 +3443,7 @@
       <c r="P17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="5" t="s">
         <v>33</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3492,39 +3524,39 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
-        <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
+        <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>31</v>
@@ -3539,7 +3571,7 @@
         <v>34</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
@@ -3606,48 +3638,46 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>122</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
-        <v>kieser_dPonA1_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F19" s="4" t="s">
+        <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="H19" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="J19" s="5" t="n">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>126</v>
+        <v>83</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>31</v>
@@ -3655,19 +3685,17 @@
       <c r="P19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="12" t="s">
         <v>33</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>129</v>
-      </c>
+      <c r="S19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
         <v>64</v>
       </c>
@@ -3731,51 +3759,73 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
+        <v>kieser_dPonA1_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="4" t="n">
-        <v>2015</v>
-      </c>
-      <c r="J20" s="5" t="s">
+      <c r="M20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="O20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="U20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V20" s="5"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
       <c r="AA20" s="3"/>
@@ -3834,63 +3884,53 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E21" s="4" t="str">
-        <f aca="false">CONCATENATE(D21,"_vs_",C21)</f>
-        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5" t="n">
-        <v>2</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>64</v>
@@ -3955,67 +3995,53 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="4" t="str">
-        <f aca="false">CONCATENATE(D22,"_vs_",C22)</f>
-        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="G22" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="5" t="n">
-        <v>1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
       <c r="I22" s="4" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="P22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="R22" s="12" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="V22" s="5" t="s">
         <v>64</v>
@@ -4078,358 +4104,353 @@
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
     </row>
-    <row r="23" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B23" s="13" t="n">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="J23" s="4" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+      <c r="BQ23" s="5"/>
+      <c r="BR23" s="5"/>
+      <c r="BS23" s="5"/>
+      <c r="BT23" s="5"/>
+      <c r="BU23" s="5"/>
+      <c r="BV23" s="5"/>
+      <c r="BW23" s="5"/>
+      <c r="BX23" s="5"/>
+      <c r="BY23" s="5"/>
+      <c r="BZ23" s="5"/>
+      <c r="CA23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B24" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
+        <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="U24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="9" t="str">
-        <f aca="false">CONCATENATE(D23,"_vs_",C23)</f>
-        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="J23" s="13" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="V24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
+      <c r="BL24" s="5"/>
+      <c r="BM24" s="5"/>
+      <c r="BN24" s="5"/>
+      <c r="BO24" s="5"/>
+      <c r="BP24" s="5"/>
+      <c r="BQ24" s="5"/>
+      <c r="BR24" s="5"/>
+      <c r="BS24" s="5"/>
+      <c r="BT24" s="5"/>
+      <c r="BU24" s="5"/>
+      <c r="BV24" s="5"/>
+      <c r="BW24" s="5"/>
+      <c r="BX24" s="5"/>
+      <c r="BY24" s="5"/>
+      <c r="BZ24" s="5"/>
+      <c r="CA24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="16"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="13"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
-      <c r="AO23" s="13"/>
-      <c r="AP23" s="13"/>
-      <c r="AQ23" s="13"/>
-      <c r="AR23" s="13"/>
-      <c r="AS23" s="13"/>
-      <c r="AT23" s="13"/>
-      <c r="AU23" s="13"/>
-      <c r="AV23" s="13"/>
-      <c r="AW23" s="13"/>
-      <c r="AX23" s="13"/>
-      <c r="AY23" s="13"/>
-      <c r="AZ23" s="13"/>
-      <c r="BA23" s="13"/>
-      <c r="BB23" s="13"/>
-      <c r="BC23" s="13"/>
-      <c r="BD23" s="13"/>
-      <c r="BE23" s="13"/>
-      <c r="BF23" s="13"/>
-      <c r="BG23" s="13"/>
-      <c r="BH23" s="13"/>
-      <c r="BI23" s="13"/>
-      <c r="BJ23" s="13"/>
-      <c r="BK23" s="13"/>
-      <c r="BL23" s="13"/>
-      <c r="BM23" s="13"/>
-      <c r="BN23" s="13"/>
-      <c r="BO23" s="13"/>
-      <c r="BP23" s="13"/>
-      <c r="BQ23" s="13"/>
-      <c r="BR23" s="13"/>
-      <c r="BS23" s="13"/>
-      <c r="BT23" s="13"/>
-      <c r="BU23" s="13"/>
-      <c r="BV23" s="13"/>
-      <c r="BW23" s="13"/>
-      <c r="BX23" s="13"/>
-      <c r="BY23" s="13"/>
-      <c r="BZ23" s="13"/>
-      <c r="CA23" s="13"/>
-    </row>
-    <row r="24" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="13" t="n">
+      <c r="B25" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="D24" s="9" t="s">
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="4" t="str">
+        <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
+        <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L25" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="E24" s="9" t="str">
-        <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
-        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H24" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="M25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="J24" s="13" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13" t="s">
+      <c r="O25" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13" t="s">
+      <c r="P25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
-      <c r="AG24" s="13"/>
-      <c r="AH24" s="13"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
-      <c r="AK24" s="13"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
-      <c r="AR24" s="13"/>
-      <c r="AS24" s="13"/>
-      <c r="AT24" s="13"/>
-      <c r="AU24" s="13"/>
-      <c r="AV24" s="13"/>
-      <c r="AW24" s="13"/>
-      <c r="AX24" s="13"/>
-      <c r="AY24" s="13"/>
-      <c r="AZ24" s="13"/>
-      <c r="BA24" s="13"/>
-      <c r="BB24" s="13"/>
-      <c r="BC24" s="13"/>
-      <c r="BD24" s="13"/>
-      <c r="BE24" s="13"/>
-      <c r="BF24" s="13"/>
-      <c r="BG24" s="13"/>
-      <c r="BH24" s="13"/>
-      <c r="BI24" s="13"/>
-      <c r="BJ24" s="13"/>
-      <c r="BK24" s="13"/>
-      <c r="BL24" s="13"/>
-      <c r="BM24" s="13"/>
-      <c r="BN24" s="13"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="13"/>
-      <c r="BQ24" s="13"/>
-      <c r="BR24" s="13"/>
-      <c r="BS24" s="13"/>
-      <c r="BT24" s="13"/>
-      <c r="BU24" s="13"/>
-      <c r="BV24" s="13"/>
-      <c r="BW24" s="13"/>
-      <c r="BX24" s="13"/>
-      <c r="BY24" s="13"/>
-      <c r="BZ24" s="13"/>
-      <c r="CA24" s="13"/>
-    </row>
-    <row r="25" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="13" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E25" s="9" t="str">
-        <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H25" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="13" t="n">
-        <v>2017</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
-      <c r="AH25" s="13"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
-      <c r="AK25" s="13"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
-      <c r="AR25" s="13"/>
-      <c r="AS25" s="13"/>
-      <c r="AT25" s="13"/>
-      <c r="AU25" s="13"/>
-      <c r="AV25" s="13"/>
-      <c r="AW25" s="13"/>
-      <c r="AX25" s="13"/>
-      <c r="AY25" s="13"/>
-      <c r="AZ25" s="13"/>
-      <c r="BA25" s="13"/>
-      <c r="BB25" s="13"/>
-      <c r="BC25" s="13"/>
-      <c r="BD25" s="13"/>
-      <c r="BE25" s="13"/>
-      <c r="BF25" s="13"/>
-      <c r="BG25" s="13"/>
-      <c r="BH25" s="13"/>
-      <c r="BI25" s="13"/>
-      <c r="BJ25" s="13"/>
-      <c r="BK25" s="13"/>
-      <c r="BL25" s="13"/>
-      <c r="BM25" s="13"/>
-      <c r="BN25" s="13"/>
-      <c r="BO25" s="13"/>
-      <c r="BP25" s="13"/>
-      <c r="BQ25" s="13"/>
-      <c r="BR25" s="13"/>
-      <c r="BS25" s="13"/>
-      <c r="BT25" s="13"/>
-      <c r="BU25" s="13"/>
-      <c r="BV25" s="13"/>
-      <c r="BW25" s="13"/>
-      <c r="BX25" s="13"/>
-      <c r="BY25" s="13"/>
-      <c r="BZ25" s="13"/>
-      <c r="CA25" s="13"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
+      <c r="AS25" s="5"/>
+      <c r="AT25" s="5"/>
+      <c r="AU25" s="5"/>
+      <c r="AV25" s="5"/>
+      <c r="AW25" s="5"/>
+      <c r="AX25" s="5"/>
+      <c r="AY25" s="5"/>
+      <c r="AZ25" s="5"/>
+      <c r="BA25" s="5"/>
+      <c r="BB25" s="5"/>
+      <c r="BC25" s="5"/>
+      <c r="BD25" s="5"/>
+      <c r="BE25" s="5"/>
+      <c r="BF25" s="5"/>
+      <c r="BG25" s="5"/>
+      <c r="BH25" s="5"/>
+      <c r="BI25" s="5"/>
+      <c r="BJ25" s="5"/>
+      <c r="BK25" s="5"/>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+      <c r="BQ25" s="5"/>
+      <c r="BR25" s="5"/>
+      <c r="BS25" s="5"/>
+      <c r="BT25" s="5"/>
+      <c r="BU25" s="5"/>
+      <c r="BV25" s="5"/>
+      <c r="BW25" s="5"/>
+      <c r="BX25" s="5"/>
+      <c r="BY25" s="5"/>
+      <c r="BZ25" s="5"/>
+      <c r="CA25" s="5"/>
     </row>
     <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
@@ -4440,44 +4461,40 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="11" t="str">
+        <v>174</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="9" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
-        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>174</v>
-      </c>
+        <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F26" s="9"/>
       <c r="G26" s="13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I26" s="9" t="s">
-        <v>168</v>
-      </c>
+      <c r="I26" s="14"/>
       <c r="J26" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P26" s="13" t="s">
         <v>41</v>
@@ -4485,15 +4502,13 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
-      <c r="T26" s="13" t="s">
-        <v>169</v>
-      </c>
+      <c r="T26" s="16"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W26" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
@@ -4554,49 +4569,49 @@
     </row>
     <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B27" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E27" s="9" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
-        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
+        <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="13" t="n">
         <v>2</v>
       </c>
       <c r="H27" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="J27" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L27" s="15" t="s">
-        <v>163</v>
+        <v>176</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>177</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P27" s="13" t="s">
         <v>41</v>
@@ -4605,14 +4620,14 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U27" s="13"/>
       <c r="V27" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W27" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
@@ -4673,49 +4688,49 @@
     </row>
     <row r="28" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B28" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E28" s="9" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
+        <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" s="13" t="n">
         <v>3</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J28" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N28" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O28" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>41</v>
@@ -4724,14 +4739,14 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U28" s="13"/>
       <c r="V28" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W28" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
@@ -4792,24 +4807,24 @@
     </row>
     <row r="29" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B29" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E29" s="11" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
+        <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G29" s="13" t="n">
         <v>3</v>
@@ -4818,25 +4833,25 @@
         <v>3</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J29" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P29" s="13" t="s">
         <v>41</v>
@@ -4845,14 +4860,14 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="U29" s="13"/>
       <c r="V29" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
@@ -4913,21 +4928,21 @@
     </row>
     <row r="30" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B30" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E30" s="9" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
-        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="13" t="n">
@@ -4937,25 +4952,25 @@
         <v>2</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J30" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P30" s="13" t="s">
         <v>41</v>
@@ -4964,14 +4979,14 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="U30" s="13"/>
       <c r="V30" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
@@ -5032,21 +5047,21 @@
     </row>
     <row r="31" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B31" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E31" s="9" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="13" t="n">
@@ -5056,25 +5071,25 @@
         <v>3</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J31" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>41</v>
@@ -5083,14 +5098,14 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="U31" s="13"/>
       <c r="V31" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
@@ -5151,24 +5166,24 @@
     </row>
     <row r="32" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="9" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B32" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E32" s="11" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G32" s="13" t="n">
         <v>3</v>
@@ -5177,25 +5192,25 @@
         <v>3</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="J32" s="13" t="n">
         <v>2017</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>41</v>
@@ -5204,14 +5219,14 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="U32" s="13"/>
       <c r="V32" s="13" t="s">
         <v>64</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
@@ -5270,434 +5285,426 @@
       <c r="BZ32" s="13"/>
       <c r="CA32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B33" s="5" t="n">
+    <row r="33" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="4" t="str">
+      <c r="C33" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="9" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
-        <v>xu_van_16_vs_xu_van_0</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="G33" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="H33" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="J33" s="5" t="n">
+        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J33" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K33" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N33" s="5" t="s">
+      <c r="K33" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O33" s="5" t="s">
+      <c r="U33" s="13"/>
+      <c r="V33" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="16"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="13"/>
+      <c r="AM33" s="13"/>
+      <c r="AN33" s="13"/>
+      <c r="AO33" s="13"/>
+      <c r="AP33" s="13"/>
+      <c r="AQ33" s="13"/>
+      <c r="AR33" s="13"/>
+      <c r="AS33" s="13"/>
+      <c r="AT33" s="13"/>
+      <c r="AU33" s="13"/>
+      <c r="AV33" s="13"/>
+      <c r="AW33" s="13"/>
+      <c r="AX33" s="13"/>
+      <c r="AY33" s="13"/>
+      <c r="AZ33" s="13"/>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="13"/>
+      <c r="BE33" s="13"/>
+      <c r="BF33" s="13"/>
+      <c r="BG33" s="13"/>
+      <c r="BH33" s="13"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="13"/>
+      <c r="BK33" s="13"/>
+      <c r="BL33" s="13"/>
+      <c r="BM33" s="13"/>
+      <c r="BN33" s="13"/>
+      <c r="BO33" s="13"/>
+      <c r="BP33" s="13"/>
+      <c r="BQ33" s="13"/>
+      <c r="BR33" s="13"/>
+      <c r="BS33" s="13"/>
+      <c r="BT33" s="13"/>
+      <c r="BU33" s="13"/>
+      <c r="BV33" s="13"/>
+      <c r="BW33" s="13"/>
+      <c r="BX33" s="13"/>
+      <c r="BY33" s="13"/>
+      <c r="BZ33" s="13"/>
+      <c r="CA33" s="13"/>
+    </row>
+    <row r="34" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="P33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S33" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="T33" s="3"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
-      <c r="AZ33" s="5"/>
-      <c r="BA33" s="5"/>
-      <c r="BB33" s="5"/>
-      <c r="BC33" s="5"/>
-      <c r="BD33" s="5"/>
-      <c r="BE33" s="5"/>
-      <c r="BF33" s="5"/>
-      <c r="BG33" s="5"/>
-      <c r="BH33" s="5"/>
-      <c r="BI33" s="5"/>
-      <c r="BJ33" s="5"/>
-      <c r="BK33" s="5"/>
-      <c r="BL33" s="5"/>
-      <c r="BM33" s="5"/>
-      <c r="BN33" s="5"/>
-      <c r="BO33" s="5"/>
-      <c r="BP33" s="5"/>
-      <c r="BQ33" s="5"/>
-      <c r="BR33" s="5"/>
-      <c r="BS33" s="5"/>
-      <c r="BT33" s="5"/>
-      <c r="BU33" s="5"/>
-      <c r="BV33" s="5"/>
-      <c r="BW33" s="5"/>
-      <c r="BX33" s="5"/>
-      <c r="BY33" s="5"/>
-      <c r="BZ33" s="5"/>
-      <c r="CA33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E34" s="4" t="str">
+      <c r="C34" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="9" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
-        <v>xu_rif_4_vs_xu_rif_0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="G34" s="5" t="n">
+        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J34" s="5" t="n">
+      <c r="I34" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M34" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N34" s="5" t="s">
+      <c r="K34" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L34" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="P34" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="R34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S34" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5" t="s">
+      <c r="U34" s="13"/>
+      <c r="V34" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="5"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="5"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="5"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="5"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="5"/>
-      <c r="BJ34" s="5"/>
-      <c r="BK34" s="5"/>
-      <c r="BL34" s="5"/>
-      <c r="BM34" s="5"/>
-      <c r="BN34" s="5"/>
-      <c r="BO34" s="5"/>
-      <c r="BP34" s="5"/>
-      <c r="BQ34" s="5"/>
-      <c r="BR34" s="5"/>
-      <c r="BS34" s="5"/>
-      <c r="BT34" s="5"/>
-      <c r="BU34" s="5"/>
-      <c r="BV34" s="5"/>
-      <c r="BW34" s="5"/>
-      <c r="BX34" s="5"/>
-      <c r="BY34" s="5"/>
-      <c r="BZ34" s="5"/>
-      <c r="CA34" s="5"/>
+      <c r="W34" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="16"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="13"/>
+      <c r="AM34" s="13"/>
+      <c r="AN34" s="13"/>
+      <c r="AO34" s="13"/>
+      <c r="AP34" s="13"/>
+      <c r="AQ34" s="13"/>
+      <c r="AR34" s="13"/>
+      <c r="AS34" s="13"/>
+      <c r="AT34" s="13"/>
+      <c r="AU34" s="13"/>
+      <c r="AV34" s="13"/>
+      <c r="AW34" s="13"/>
+      <c r="AX34" s="13"/>
+      <c r="AY34" s="13"/>
+      <c r="AZ34" s="13"/>
+      <c r="BA34" s="13"/>
+      <c r="BB34" s="13"/>
+      <c r="BC34" s="13"/>
+      <c r="BD34" s="13"/>
+      <c r="BE34" s="13"/>
+      <c r="BF34" s="13"/>
+      <c r="BG34" s="13"/>
+      <c r="BH34" s="13"/>
+      <c r="BI34" s="13"/>
+      <c r="BJ34" s="13"/>
+      <c r="BK34" s="13"/>
+      <c r="BL34" s="13"/>
+      <c r="BM34" s="13"/>
+      <c r="BN34" s="13"/>
+      <c r="BO34" s="13"/>
+      <c r="BP34" s="13"/>
+      <c r="BQ34" s="13"/>
+      <c r="BR34" s="13"/>
+      <c r="BS34" s="13"/>
+      <c r="BT34" s="13"/>
+      <c r="BU34" s="13"/>
+      <c r="BV34" s="13"/>
+      <c r="BW34" s="13"/>
+      <c r="BX34" s="13"/>
+      <c r="BY34" s="13"/>
+      <c r="BZ34" s="13"/>
+      <c r="CA34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" s="5" t="n">
+    <row r="35" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="13" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E35" s="4" t="str">
+      <c r="C35" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="11" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
-        <v>xu_inh_02_vs_xu_inh_0</v>
+        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H35" s="5" t="n">
+        <v>207</v>
+      </c>
+      <c r="G35" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="J35" s="5" t="n">
+      <c r="H35" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="J35" s="13" t="n">
         <v>2017</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N35" s="5" t="s">
+      <c r="K35" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="L35" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="P35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q35" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S35" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5" t="s">
+      <c r="U35" s="13"/>
+      <c r="V35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="5"/>
-      <c r="AT35" s="5"/>
-      <c r="AU35" s="5"/>
-      <c r="AV35" s="5"/>
-      <c r="AW35" s="5"/>
-      <c r="AX35" s="5"/>
-      <c r="AY35" s="5"/>
-      <c r="AZ35" s="5"/>
-      <c r="BA35" s="5"/>
-      <c r="BB35" s="5"/>
-      <c r="BC35" s="5"/>
-      <c r="BD35" s="5"/>
-      <c r="BE35" s="5"/>
-      <c r="BF35" s="5"/>
-      <c r="BG35" s="5"/>
-      <c r="BH35" s="5"/>
-      <c r="BI35" s="5"/>
-      <c r="BJ35" s="5"/>
-      <c r="BK35" s="5"/>
-      <c r="BL35" s="5"/>
-      <c r="BM35" s="5"/>
-      <c r="BN35" s="5"/>
-      <c r="BO35" s="5"/>
-      <c r="BP35" s="5"/>
-      <c r="BQ35" s="5"/>
-      <c r="BR35" s="5"/>
-      <c r="BS35" s="5"/>
-      <c r="BT35" s="5"/>
-      <c r="BU35" s="5"/>
-      <c r="BV35" s="5"/>
-      <c r="BW35" s="5"/>
-      <c r="BX35" s="5"/>
-      <c r="BY35" s="5"/>
-      <c r="BZ35" s="5"/>
-      <c r="CA35" s="5"/>
+      <c r="W35" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="16"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="13"/>
+      <c r="AM35" s="13"/>
+      <c r="AN35" s="13"/>
+      <c r="AO35" s="13"/>
+      <c r="AP35" s="13"/>
+      <c r="AQ35" s="13"/>
+      <c r="AR35" s="13"/>
+      <c r="AS35" s="13"/>
+      <c r="AT35" s="13"/>
+      <c r="AU35" s="13"/>
+      <c r="AV35" s="13"/>
+      <c r="AW35" s="13"/>
+      <c r="AX35" s="13"/>
+      <c r="AY35" s="13"/>
+      <c r="AZ35" s="13"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="13"/>
+      <c r="BF35" s="13"/>
+      <c r="BG35" s="13"/>
+      <c r="BH35" s="13"/>
+      <c r="BI35" s="13"/>
+      <c r="BJ35" s="13"/>
+      <c r="BK35" s="13"/>
+      <c r="BL35" s="13"/>
+      <c r="BM35" s="13"/>
+      <c r="BN35" s="13"/>
+      <c r="BO35" s="13"/>
+      <c r="BP35" s="13"/>
+      <c r="BQ35" s="13"/>
+      <c r="BR35" s="13"/>
+      <c r="BS35" s="13"/>
+      <c r="BT35" s="13"/>
+      <c r="BU35" s="13"/>
+      <c r="BV35" s="13"/>
+      <c r="BW35" s="13"/>
+      <c r="BX35" s="13"/>
+      <c r="BY35" s="13"/>
+      <c r="BZ35" s="13"/>
+      <c r="CA35" s="13"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
-        <v>xu_inh_025_vs_xu_inh_0</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>xu_van_16_vs_xu_van_0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>211</v>
+      </c>
       <c r="G36" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P36" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="T36" s="5"/>
+        <v>219</v>
+      </c>
+      <c r="T36" s="3"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5" t="s">
         <v>64</v>
@@ -5776,7 +5783,7 @@
       </c>
       <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
-        <v>xu_emb_2.5_vs_xu_emb_0</v>
+        <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>223</v>
@@ -5794,25 +5801,25 @@
         <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P37" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>34</v>
@@ -5892,54 +5899,56 @@
         <v>1</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E38" s="4" t="str">
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
-        <v>xu_emb_3_vs_xu_emb_0</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>xu_inh_02_vs_xu_inh_0</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>229</v>
+      </c>
       <c r="G38" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H38" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q38" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -6006,63 +6015,61 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
-        <v>xu_mero_2.5_vs_xu_mero_0</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>228</v>
-      </c>
+        <v>xu_inh_025_vs_xu_inh_0</v>
+      </c>
+      <c r="F39" s="11"/>
       <c r="G39" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -6127,71 +6134,75 @@
       <c r="BZ39" s="5"/>
       <c r="CA39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="4" t="s">
         <v>235</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
-        <v>mishra_C3H_vs_mishra_B6</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>233</v>
+        <v>xu_emb_2.5_vs_xu_emb_0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="J40" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="N40" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S40" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="O40" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W40" s="5"/>
-      <c r="X40" s="5" t="s">
-        <v>240</v>
-      </c>
+      <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z40" s="5"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
@@ -6246,71 +6257,73 @@
       <c r="BZ40" s="5"/>
       <c r="CA40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>242</v>
+      <c r="C41" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
-        <v>mishra_NOS2_vs_mishra_B6</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>241</v>
-      </c>
+        <v>xu_emb_3_vs_xu_emb_0</v>
+      </c>
+      <c r="F41" s="11"/>
       <c r="G41" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>238</v>
+      </c>
       <c r="J41" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="N41" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S41" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W41" s="5"/>
-      <c r="X41" s="5" t="s">
-        <v>243</v>
-      </c>
+      <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z41" s="5"/>
       <c r="AA41" s="3"/>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
@@ -6365,180 +6378,180 @@
       <c r="BZ41" s="5"/>
       <c r="CA41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>242</v>
+      <c r="C42" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
-        <v>mishra_NOS2_vs_mishra_C3H</v>
-      </c>
-      <c r="F42" s="4"/>
+        <v>xu_mero_2.5_vs_xu_mero_0</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>242</v>
+      </c>
       <c r="G42" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H42" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>245</v>
+      </c>
       <c r="J42" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>246</v>
+      </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W42" s="5"/>
-      <c r="X42" s="5" t="s">
-        <v>245</v>
-      </c>
+      <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z42" s="5"/>
       <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="3"/>
-      <c r="AY42" s="3"/>
-      <c r="AZ42" s="3"/>
-      <c r="BA42" s="3"/>
-      <c r="BB42" s="3"/>
-      <c r="BC42" s="3"/>
-      <c r="BD42" s="3"/>
-      <c r="BE42" s="3"/>
-      <c r="BF42" s="3"/>
-      <c r="BG42" s="3"/>
-      <c r="BH42" s="3"/>
-      <c r="BI42" s="3"/>
-      <c r="BJ42" s="3"/>
-      <c r="BK42" s="3"/>
-      <c r="BL42" s="3"/>
-      <c r="BM42" s="3"/>
-      <c r="BN42" s="3"/>
-      <c r="BO42" s="3"/>
-      <c r="BP42" s="3"/>
-      <c r="BQ42" s="3"/>
-      <c r="BR42" s="3"/>
-      <c r="BS42" s="3"/>
-      <c r="BT42" s="3"/>
-      <c r="BU42" s="3"/>
-      <c r="BV42" s="3"/>
-      <c r="BW42" s="3"/>
-      <c r="BX42" s="3"/>
-      <c r="BY42" s="3"/>
-      <c r="BZ42" s="3"/>
-      <c r="CA42" s="3"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
+      <c r="AI42" s="5"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>247</v>
+      <c r="C43" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>249</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
-        <v>carey_621_vs_mbio_H37Rv</v>
+        <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I43" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="I43" s="4"/>
       <c r="J43" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q43" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R43" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -6546,10 +6559,12 @@
         <v>64</v>
       </c>
       <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
+      <c r="X43" s="5" t="s">
+        <v>254</v>
+      </c>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="5" t="n">
-        <v>621</v>
+      <c r="Z43" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA43" s="3"/>
       <c r="AB43" s="5"/>
@@ -6607,61 +6622,55 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>255</v>
+      <c r="C44" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
-        <v>carey_630_vs_mbio_H37Rv</v>
+        <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I44" s="4" t="s">
-        <v>256</v>
-      </c>
+      <c r="I44" s="4"/>
       <c r="J44" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q44" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
       <c r="S44" s="5"/>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
@@ -6669,10 +6678,12 @@
         <v>64</v>
       </c>
       <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
+      <c r="X44" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5" t="n">
-        <v>630</v>
+      <c r="Z44" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
@@ -6730,61 +6741,53 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>258</v>
+      <c r="C45" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
-        <v>carey_631_vs_mbio_H37Rv</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>257</v>
-      </c>
+        <v>mishra_NOS2_vs_mishra_C3H</v>
+      </c>
+      <c r="F45" s="4"/>
       <c r="G45" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>259</v>
-      </c>
+      <c r="I45" s="4"/>
       <c r="J45" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R45" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -6792,64 +6795,66 @@
         <v>64</v>
       </c>
       <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="X45" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5" t="n">
-        <v>631</v>
+      <c r="Z45" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA45" s="3"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-      <c r="AT45" s="5"/>
-      <c r="AU45" s="5"/>
-      <c r="AV45" s="5"/>
-      <c r="AW45" s="5"/>
-      <c r="AX45" s="5"/>
-      <c r="AY45" s="5"/>
-      <c r="AZ45" s="5"/>
-      <c r="BA45" s="5"/>
-      <c r="BB45" s="5"/>
-      <c r="BC45" s="5"/>
-      <c r="BD45" s="5"/>
-      <c r="BE45" s="5"/>
-      <c r="BF45" s="5"/>
-      <c r="BG45" s="5"/>
-      <c r="BH45" s="5"/>
-      <c r="BI45" s="5"/>
-      <c r="BJ45" s="5"/>
-      <c r="BK45" s="5"/>
-      <c r="BL45" s="5"/>
-      <c r="BM45" s="5"/>
-      <c r="BN45" s="5"/>
-      <c r="BO45" s="5"/>
-      <c r="BP45" s="5"/>
-      <c r="BQ45" s="5"/>
-      <c r="BR45" s="5"/>
-      <c r="BS45" s="5"/>
-      <c r="BT45" s="5"/>
-      <c r="BU45" s="5"/>
-      <c r="BV45" s="5"/>
-      <c r="BW45" s="5"/>
-      <c r="BX45" s="5"/>
-      <c r="BY45" s="5"/>
-      <c r="BZ45" s="5"/>
-      <c r="CA45" s="5"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+      <c r="AF45" s="3"/>
+      <c r="AG45" s="3"/>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+      <c r="AO45" s="3"/>
+      <c r="AP45" s="3"/>
+      <c r="AQ45" s="3"/>
+      <c r="AR45" s="3"/>
+      <c r="AS45" s="3"/>
+      <c r="AT45" s="3"/>
+      <c r="AU45" s="3"/>
+      <c r="AV45" s="3"/>
+      <c r="AW45" s="3"/>
+      <c r="AX45" s="3"/>
+      <c r="AY45" s="3"/>
+      <c r="AZ45" s="3"/>
+      <c r="BA45" s="3"/>
+      <c r="BB45" s="3"/>
+      <c r="BC45" s="3"/>
+      <c r="BD45" s="3"/>
+      <c r="BE45" s="3"/>
+      <c r="BF45" s="3"/>
+      <c r="BG45" s="3"/>
+      <c r="BH45" s="3"/>
+      <c r="BI45" s="3"/>
+      <c r="BJ45" s="3"/>
+      <c r="BK45" s="3"/>
+      <c r="BL45" s="3"/>
+      <c r="BM45" s="3"/>
+      <c r="BN45" s="3"/>
+      <c r="BO45" s="3"/>
+      <c r="BP45" s="3"/>
+      <c r="BQ45" s="3"/>
+      <c r="BR45" s="3"/>
+      <c r="BS45" s="3"/>
+      <c r="BT45" s="3"/>
+      <c r="BU45" s="3"/>
+      <c r="BV45" s="3"/>
+      <c r="BW45" s="3"/>
+      <c r="BX45" s="3"/>
+      <c r="BY45" s="3"/>
+      <c r="BZ45" s="3"/>
+      <c r="CA45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
@@ -6860,14 +6865,14 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>261</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
-        <v>carey_632_vs_mbio_H37Rv</v>
+        <v>carey_621_vs_mbio_H37Rv</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>260</v>
@@ -6885,19 +6890,19 @@
         <v>2018</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>32</v>
@@ -6918,7 +6923,7 @@
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="5"/>
@@ -6976,24 +6981,24 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
-        <v>carey_641_vs_mbio_H37Rv</v>
+        <v>carey_630_vs_mbio_H37Rv</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>14</v>
@@ -7002,25 +7007,25 @@
         <v>2</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>32</v>
@@ -7041,7 +7046,7 @@
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="5"/>
@@ -7099,24 +7104,24 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
-        <v>carey_662_vs_mbio_H37Rv</v>
+        <v>carey_631_vs_mbio_H37Rv</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>14</v>
@@ -7125,25 +7130,25 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>32</v>
@@ -7164,7 +7169,7 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5" t="n">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="AA48" s="3"/>
       <c r="AB48" s="5"/>
@@ -7222,24 +7227,24 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
-        <v>carey_663_vs_mbio_H37Rv</v>
+        <v>carey_632_vs_mbio_H37Rv</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>14</v>
@@ -7248,25 +7253,25 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>32</v>
@@ -7287,7 +7292,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5" t="n">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="5"/>
@@ -7345,24 +7350,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
-        <v>carey_667_vs_mbio_H37Rv</v>
+        <v>carey_641_vs_mbio_H37Rv</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>14</v>
@@ -7371,25 +7376,25 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>32</v>
@@ -7410,7 +7415,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5" t="n">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="5"/>
@@ -7468,76 +7473,72 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
-        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_662_vs_mbio_H37Rv</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S51" s="5" t="s">
-        <v>284</v>
-      </c>
+      <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W51" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="5" t="s">
-        <v>65</v>
+      <c r="Z51" s="5" t="n">
+        <v>662</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="5"/>
@@ -7595,76 +7596,72 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>276</v>
+        <v>72</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
-        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_663_vs_mbio_H37Rv</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="R52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S52" s="5" t="s">
-        <v>289</v>
-      </c>
+      <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W52" s="5" t="s">
-        <v>165</v>
-      </c>
+      <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="5" t="s">
-        <v>65</v>
+      <c r="Z52" s="5" t="n">
+        <v>663</v>
       </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="5"/>
@@ -7722,68 +7719,72 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>291</v>
+        <v>72</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
-        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F53" s="4"/>
+        <v>carey_667_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="G53" s="5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I53" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="J53" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L53" s="20" t="s">
-        <v>294</v>
+        <v>263</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W53" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X53" s="5" t="s">
-        <v>297</v>
-      </c>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="5" t="s">
-        <v>65</v>
+      <c r="Z53" s="5" t="n">
+        <v>667</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="5"/>
@@ -7841,65 +7842,73 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F54" s="4"/>
+        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="G54" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I54" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="J54" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L54" s="20" t="s">
         <v>294</v>
       </c>
+      <c r="L54" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="M54" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X54" s="5" t="s">
-        <v>297</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
       <c r="Z54" s="5" t="s">
         <v>65</v>
@@ -7960,65 +7969,73 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
-      </c>
-      <c r="F55" s="4"/>
+        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="G55" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I55" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="J55" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="L55" s="20" t="s">
         <v>294</v>
       </c>
+      <c r="L55" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="M55" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W55" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X55" s="5" t="s">
-        <v>297</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
       <c r="Z55" s="5" t="s">
         <v>65</v>
@@ -8079,57 +8096,53 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
-        <v>minato_minimal_plate_vs_minato_rich_plate</v>
+        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="5" t="n">
         <v>2019</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L56" s="20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>308</v>
+        <v>30</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q56" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>310</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
@@ -8137,11 +8150,15 @@
         <v>64</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X56" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
+      <c r="Z56" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA56" s="3"/>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
@@ -8198,71 +8215,65 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>313</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
-        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J57" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K57" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L57" s="5" t="s">
-        <v>315</v>
+        <v>5</v>
+      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q57" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R57" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="5" t="s">
-        <v>316</v>
-      </c>
+      <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X57" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5" t="s">
         <v>65</v>
@@ -8323,71 +8334,65 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
-        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="K58" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L58" s="5" t="s">
-        <v>315</v>
+        <v>5</v>
+      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L58" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>71</v>
+        <v>310</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R58" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="5" t="s">
-        <v>321</v>
-      </c>
+      <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="X58" s="5"/>
+        <v>179</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5" t="s">
         <v>65</v>
@@ -8448,71 +8453,69 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>324</v>
+        <v>316</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
-        <v>Rv0950c_KO_vs_CB_WT</v>
+        <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L59" s="5" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="I59" s="4"/>
+      <c r="J59" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="L59" s="20" t="s">
+        <v>319</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
+        <v>320</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="P59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>33</v>
+        <v>323</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="S59" s="5"/>
-      <c r="T59" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="U59" s="5" t="s">
-        <v>326</v>
-      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
       <c r="V59" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
-      <c r="Z59" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z59" s="5"/>
       <c r="AA59" s="3"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -8569,44 +8572,50 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
-        <v>Rv0954_KO_vs_RJ_WT</v>
+        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J60" s="5"/>
+        <v>328</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="K60" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="P60" s="5" t="s">
         <v>32</v>
       </c>
@@ -8618,16 +8627,14 @@
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="U60" s="5" t="s">
-        <v>331</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="U60" s="5"/>
       <c r="V60" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
@@ -8690,44 +8697,50 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D61" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
-        <v>Rv1096_KO_vs_CB_WT</v>
+        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="J61" s="5"/>
+      <c r="J61" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="K61" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
+        <v>329</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="P61" s="5" t="s">
         <v>32</v>
       </c>
@@ -8741,14 +8754,12 @@
       <c r="T61" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="U61" s="5" t="s">
-        <v>335</v>
-      </c>
+      <c r="U61" s="5"/>
       <c r="V61" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
@@ -8817,35 +8828,35 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C62" s="19" t="s">
-        <v>161</v>
+      <c r="C62" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
-        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
+        <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -8860,16 +8871,16 @@
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
@@ -8932,41 +8943,41 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
-        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -8981,16 +8992,16 @@
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
@@ -9053,21 +9064,21 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
-        <v>Rv3684_KO_vs_CB_WT</v>
+        <v>Rv1096_KO_vs_CB_WT</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5" t="n">
@@ -9077,17 +9088,17 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -9102,16 +9113,16 @@
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
@@ -9174,41 +9185,41 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>341</v>
+      <c r="C65" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
-        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -9223,16 +9234,16 @@
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
@@ -9295,21 +9306,21 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E66" s="4" t="str">
         <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
-        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5" t="n">
@@ -9319,17 +9330,17 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -9344,16 +9355,16 @@
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
@@ -9416,41 +9427,41 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>358</v>
+      <c r="C67" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E67" s="4" t="str">
         <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
-        <v>marP_KO_vs_marP_WT</v>
+        <v>Rv3684_KO_vs_CB_WT</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -9464,15 +9475,17 @@
         <v>34</v>
       </c>
       <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
+      <c r="T67" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="U67" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
@@ -9535,41 +9548,41 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E68" s="4" t="str">
         <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
-        <v>eccD1_KO_vs_mbio_H37Rv</v>
+        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H68" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -9583,15 +9596,17 @@
         <v>34</v>
       </c>
       <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
+      <c r="T68" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="U68" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
@@ -9654,41 +9669,41 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>355</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E69" s="4" t="str">
         <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
-        <v>espI_KO_vs_mbio_H37Rv</v>
+        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -9702,15 +9717,17 @@
         <v>34</v>
       </c>
       <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
+      <c r="T69" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="U69" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
@@ -9773,41 +9790,41 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>67</v>
+      <c r="C70" s="19" t="s">
+        <v>372</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E70" s="4" t="str">
         <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
-        <v>PE35_KO_vs_mbio_H37Rv</v>
+        <v>marP_KO_vs_marP_WT</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -9823,13 +9840,13 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
@@ -9892,21 +9909,21 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B71" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E71" s="4" t="str">
         <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
-        <v>PPE68_KO_vs_mbio_H37Rv</v>
+        <v>eccD1_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="n">
@@ -9916,17 +9933,17 @@
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -9942,13 +9959,13 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
@@ -10009,6 +10026,363 @@
       <c r="BZ71" s="5"/>
       <c r="CA71" s="5"/>
     </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B72" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="E72" s="4" t="str">
+        <f aca="false">CONCATENATE(D72,"_vs_",C72)</f>
+        <v>espI_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F72" s="4"/>
+      <c r="G72" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA72" s="3"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="5"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="5"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="5"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="5"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="5"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="5"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="5"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="5"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="5"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="5"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="5"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="5"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="5"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="5"/>
+      <c r="BK72" s="5"/>
+      <c r="BL72" s="5"/>
+      <c r="BM72" s="5"/>
+      <c r="BN72" s="5"/>
+      <c r="BO72" s="5"/>
+      <c r="BP72" s="5"/>
+      <c r="BQ72" s="5"/>
+      <c r="BR72" s="5"/>
+      <c r="BS72" s="5"/>
+      <c r="BT72" s="5"/>
+      <c r="BU72" s="5"/>
+      <c r="BV72" s="5"/>
+      <c r="BW72" s="5"/>
+      <c r="BX72" s="5"/>
+      <c r="BY72" s="5"/>
+      <c r="BZ72" s="5"/>
+      <c r="CA72" s="5"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B73" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" s="4" t="str">
+        <f aca="false">CONCATENATE(D73,"_vs_",C73)</f>
+        <v>PE35_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F73" s="4"/>
+      <c r="G73" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA73" s="3"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="5"/>
+      <c r="AH73" s="5"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="5"/>
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AM73" s="5"/>
+      <c r="AN73" s="5"/>
+      <c r="AO73" s="5"/>
+      <c r="AP73" s="5"/>
+      <c r="AQ73" s="5"/>
+      <c r="AR73" s="5"/>
+      <c r="AS73" s="5"/>
+      <c r="AT73" s="5"/>
+      <c r="AU73" s="5"/>
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+      <c r="AX73" s="5"/>
+      <c r="AY73" s="5"/>
+      <c r="AZ73" s="5"/>
+      <c r="BA73" s="5"/>
+      <c r="BB73" s="5"/>
+      <c r="BC73" s="5"/>
+      <c r="BD73" s="5"/>
+      <c r="BE73" s="5"/>
+      <c r="BF73" s="5"/>
+      <c r="BG73" s="5"/>
+      <c r="BH73" s="5"/>
+      <c r="BI73" s="5"/>
+      <c r="BJ73" s="5"/>
+      <c r="BK73" s="5"/>
+      <c r="BL73" s="5"/>
+      <c r="BM73" s="5"/>
+      <c r="BN73" s="5"/>
+      <c r="BO73" s="5"/>
+      <c r="BP73" s="5"/>
+      <c r="BQ73" s="5"/>
+      <c r="BR73" s="5"/>
+      <c r="BS73" s="5"/>
+      <c r="BT73" s="5"/>
+      <c r="BU73" s="5"/>
+      <c r="BV73" s="5"/>
+      <c r="BW73" s="5"/>
+      <c r="BX73" s="5"/>
+      <c r="BY73" s="5"/>
+      <c r="BZ73" s="5"/>
+      <c r="CA73" s="5"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B74" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="4" t="str">
+        <f aca="false">CONCATENATE(D74,"_vs_",C74)</f>
+        <v>PPE68_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA74" s="3"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="5"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="5"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="5"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="5"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="5"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="5"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="5"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="5"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="5"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="5"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="5"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="5"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="5"/>
+      <c r="BK74" s="5"/>
+      <c r="BL74" s="5"/>
+      <c r="BM74" s="5"/>
+      <c r="BN74" s="5"/>
+      <c r="BO74" s="5"/>
+      <c r="BP74" s="5"/>
+      <c r="BQ74" s="5"/>
+      <c r="BR74" s="5"/>
+      <c r="BS74" s="5"/>
+      <c r="BT74" s="5"/>
+      <c r="BU74" s="5"/>
+      <c r="BV74" s="5"/>
+      <c r="BW74" s="5"/>
+      <c r="BX74" s="5"/>
+      <c r="BY74" s="5"/>
+      <c r="BZ74" s="5"/>
+      <c r="CA74" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x"/>
@@ -10017,55 +10391,55 @@
     <hyperlink ref="L5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
     <hyperlink ref="L6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
     <hyperlink ref="L7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
-    <hyperlink ref="L8" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
-    <hyperlink ref="L9" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L10" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L11" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L12" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L13" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L14" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L15" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L16" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L17" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L18" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L19" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
-    <hyperlink ref="K20" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/"/>
-    <hyperlink ref="L21" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
-    <hyperlink ref="L22" r:id="rId21" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
-    <hyperlink ref="L23" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L24" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L25" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L26" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L27" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L28" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L29" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L30" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L31" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L32" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L33" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L34" r:id="rId33" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L35" r:id="rId34" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L36" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L37" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L38" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L39" r:id="rId38" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L40" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L41" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L42" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L43" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L44" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L45" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L46" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L47" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L48" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L49" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L50" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L51" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L52" r:id="rId51" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L53" r:id="rId52" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L54" r:id="rId53" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L55" r:id="rId54" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L56" r:id="rId55" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L9" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
+    <hyperlink ref="L10" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L11" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L12" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L13" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L14" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L15" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L16" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L17" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L18" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L19" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
+    <hyperlink ref="L20" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
+    <hyperlink ref="L23" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/"/>
+    <hyperlink ref="L24" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
+    <hyperlink ref="L25" r:id="rId21" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
+    <hyperlink ref="L26" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L27" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L28" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L29" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L30" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L31" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L32" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L33" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L34" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L35" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L36" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L37" r:id="rId33" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L38" r:id="rId34" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L39" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L40" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L41" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L42" r:id="rId38" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L43" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L44" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L45" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L46" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L47" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L48" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L49" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L50" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L51" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L52" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L53" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L54" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L55" r:id="rId51" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L56" r:id="rId52" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L57" r:id="rId53" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L58" r:id="rId54" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L59" r:id="rId55" display="https://msystems.asm.org/content/4/4/e00070-19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="393">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -803,6 +803,9 @@
   </si>
   <si>
     <t xml:space="preserve">2018_Carey_1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carey_rv</t>
   </si>
   <si>
     <t xml:space="preserve">carey_621</t>
@@ -1326,7 +1329,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1363,10 +1366,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1380,31 +1379,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1491,11 +1470,11 @@
   <dimension ref="A1:CA74"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="D55" activeCellId="0" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2434,14 +2413,14 @@
         <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
         <v>griffin_glycerol_vs_mbio_H37Rv</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="5" t="n">
         <v>14</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="5" t="n">
         <v>2013</v>
       </c>
@@ -2918,7 +2897,7 @@
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
         <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>95</v>
       </c>
       <c r="G13" s="5" t="n">
@@ -3277,17 +3256,17 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
         <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>106</v>
       </c>
       <c r="G16" s="5" t="n">
@@ -3564,7 +3543,7 @@
       <c r="P18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="5" t="s">
@@ -3685,7 +3664,7 @@
       <c r="P19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="R19" s="5" t="s">
@@ -4378,10 +4357,10 @@
       <c r="P25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="Q25" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="R25" s="11" t="s">
         <v>34</v>
       </c>
       <c r="S25" s="5"/>
@@ -4452,1197 +4431,1197 @@
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
     </row>
-    <row r="26" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="s">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="9" t="str">
+      <c r="E26" s="4" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
         <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13" t="n">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H26" s="13" t="n">
+      <c r="H26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I26" s="14"/>
-      <c r="J26" s="13" t="n">
+      <c r="I26" s="12"/>
+      <c r="J26" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K26" s="9" t="s">
+      <c r="K26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L26" s="15" t="s">
+      <c r="L26" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N26" s="13" t="s">
+      <c r="N26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="O26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P26" s="13" t="s">
+      <c r="P26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13" t="s">
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W26" s="13" t="s">
+      <c r="W26" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="16"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
-      <c r="AV26" s="13"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
-      <c r="AZ26" s="13"/>
-      <c r="BA26" s="13"/>
-      <c r="BB26" s="13"/>
-      <c r="BC26" s="13"/>
-      <c r="BD26" s="13"/>
-      <c r="BE26" s="13"/>
-      <c r="BF26" s="13"/>
-      <c r="BG26" s="13"/>
-      <c r="BH26" s="13"/>
-      <c r="BI26" s="13"/>
-      <c r="BJ26" s="13"/>
-      <c r="BK26" s="13"/>
-      <c r="BL26" s="13"/>
-      <c r="BM26" s="13"/>
-      <c r="BN26" s="13"/>
-      <c r="BO26" s="13"/>
-      <c r="BP26" s="13"/>
-      <c r="BQ26" s="13"/>
-      <c r="BR26" s="13"/>
-      <c r="BS26" s="13"/>
-      <c r="BT26" s="13"/>
-      <c r="BU26" s="13"/>
-      <c r="BV26" s="13"/>
-      <c r="BW26" s="13"/>
-      <c r="BX26" s="13"/>
-      <c r="BY26" s="13"/>
-      <c r="BZ26" s="13"/>
-      <c r="CA26" s="13"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+      <c r="BQ26" s="5"/>
+      <c r="BR26" s="5"/>
+      <c r="BS26" s="5"/>
+      <c r="BT26" s="5"/>
+      <c r="BU26" s="5"/>
+      <c r="BV26" s="5"/>
+      <c r="BW26" s="5"/>
+      <c r="BX26" s="5"/>
+      <c r="BY26" s="5"/>
+      <c r="BZ26" s="5"/>
+      <c r="CA26" s="5"/>
     </row>
-    <row r="27" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="s">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="9" t="str">
+      <c r="E27" s="4" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
         <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="13" t="n">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H27" s="13" t="n">
+      <c r="H27" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J27" s="13" t="n">
+      <c r="J27" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N27" s="13" t="s">
+      <c r="N27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P27" s="13" t="s">
+      <c r="P27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13" t="s">
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13" t="s">
+      <c r="U27" s="5"/>
+      <c r="V27" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="13" t="s">
+      <c r="W27" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="16"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="13"/>
-      <c r="AG27" s="13"/>
-      <c r="AH27" s="13"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
-      <c r="AR27" s="13"/>
-      <c r="AS27" s="13"/>
-      <c r="AT27" s="13"/>
-      <c r="AU27" s="13"/>
-      <c r="AV27" s="13"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="13"/>
-      <c r="BA27" s="13"/>
-      <c r="BB27" s="13"/>
-      <c r="BC27" s="13"/>
-      <c r="BD27" s="13"/>
-      <c r="BE27" s="13"/>
-      <c r="BF27" s="13"/>
-      <c r="BG27" s="13"/>
-      <c r="BH27" s="13"/>
-      <c r="BI27" s="13"/>
-      <c r="BJ27" s="13"/>
-      <c r="BK27" s="13"/>
-      <c r="BL27" s="13"/>
-      <c r="BM27" s="13"/>
-      <c r="BN27" s="13"/>
-      <c r="BO27" s="13"/>
-      <c r="BP27" s="13"/>
-      <c r="BQ27" s="13"/>
-      <c r="BR27" s="13"/>
-      <c r="BS27" s="13"/>
-      <c r="BT27" s="13"/>
-      <c r="BU27" s="13"/>
-      <c r="BV27" s="13"/>
-      <c r="BW27" s="13"/>
-      <c r="BX27" s="13"/>
-      <c r="BY27" s="13"/>
-      <c r="BZ27" s="13"/>
-      <c r="CA27" s="13"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+      <c r="BQ27" s="5"/>
+      <c r="BR27" s="5"/>
+      <c r="BS27" s="5"/>
+      <c r="BT27" s="5"/>
+      <c r="BU27" s="5"/>
+      <c r="BV27" s="5"/>
+      <c r="BW27" s="5"/>
+      <c r="BX27" s="5"/>
+      <c r="BY27" s="5"/>
+      <c r="BZ27" s="5"/>
+      <c r="CA27" s="5"/>
     </row>
-    <row r="28" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E28" s="9" t="str">
+      <c r="E28" s="4" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="13" t="n">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H28" s="13" t="n">
+      <c r="H28" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="13" t="n">
+      <c r="J28" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M28" s="13" t="s">
+      <c r="M28" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N28" s="13" t="s">
+      <c r="N28" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="O28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P28" s="13" t="s">
+      <c r="P28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13" t="s">
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13" t="s">
+      <c r="U28" s="5"/>
+      <c r="V28" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W28" s="13" t="s">
+      <c r="W28" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="16"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
-      <c r="AV28" s="13"/>
-      <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="13"/>
-      <c r="BB28" s="13"/>
-      <c r="BC28" s="13"/>
-      <c r="BD28" s="13"/>
-      <c r="BE28" s="13"/>
-      <c r="BF28" s="13"/>
-      <c r="BG28" s="13"/>
-      <c r="BH28" s="13"/>
-      <c r="BI28" s="13"/>
-      <c r="BJ28" s="13"/>
-      <c r="BK28" s="13"/>
-      <c r="BL28" s="13"/>
-      <c r="BM28" s="13"/>
-      <c r="BN28" s="13"/>
-      <c r="BO28" s="13"/>
-      <c r="BP28" s="13"/>
-      <c r="BQ28" s="13"/>
-      <c r="BR28" s="13"/>
-      <c r="BS28" s="13"/>
-      <c r="BT28" s="13"/>
-      <c r="BU28" s="13"/>
-      <c r="BV28" s="13"/>
-      <c r="BW28" s="13"/>
-      <c r="BX28" s="13"/>
-      <c r="BY28" s="13"/>
-      <c r="BZ28" s="13"/>
-      <c r="CA28" s="13"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+      <c r="AS28" s="5"/>
+      <c r="AT28" s="5"/>
+      <c r="AU28" s="5"/>
+      <c r="AV28" s="5"/>
+      <c r="AW28" s="5"/>
+      <c r="AX28" s="5"/>
+      <c r="AY28" s="5"/>
+      <c r="AZ28" s="5"/>
+      <c r="BA28" s="5"/>
+      <c r="BB28" s="5"/>
+      <c r="BC28" s="5"/>
+      <c r="BD28" s="5"/>
+      <c r="BE28" s="5"/>
+      <c r="BF28" s="5"/>
+      <c r="BG28" s="5"/>
+      <c r="BH28" s="5"/>
+      <c r="BI28" s="5"/>
+      <c r="BJ28" s="5"/>
+      <c r="BK28" s="5"/>
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="5"/>
+      <c r="BT28" s="5"/>
+      <c r="BU28" s="5"/>
+      <c r="BV28" s="5"/>
+      <c r="BW28" s="5"/>
+      <c r="BX28" s="5"/>
+      <c r="BY28" s="5"/>
+      <c r="BZ28" s="5"/>
+      <c r="CA28" s="5"/>
     </row>
-    <row r="29" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="11" t="str">
+      <c r="E29" s="10" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="F29" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="G29" s="13" t="n">
+      <c r="G29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H29" s="13" t="n">
+      <c r="H29" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="J29" s="13" t="n">
+      <c r="J29" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N29" s="13" t="s">
+      <c r="N29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="O29" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="13" t="s">
+      <c r="P29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13" t="s">
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13" t="s">
+      <c r="U29" s="5"/>
+      <c r="V29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W29" s="13" t="s">
+      <c r="W29" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="16"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
-      <c r="AR29" s="13"/>
-      <c r="AS29" s="13"/>
-      <c r="AT29" s="13"/>
-      <c r="AU29" s="13"/>
-      <c r="AV29" s="13"/>
-      <c r="AW29" s="13"/>
-      <c r="AX29" s="13"/>
-      <c r="AY29" s="13"/>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="13"/>
-      <c r="BB29" s="13"/>
-      <c r="BC29" s="13"/>
-      <c r="BD29" s="13"/>
-      <c r="BE29" s="13"/>
-      <c r="BF29" s="13"/>
-      <c r="BG29" s="13"/>
-      <c r="BH29" s="13"/>
-      <c r="BI29" s="13"/>
-      <c r="BJ29" s="13"/>
-      <c r="BK29" s="13"/>
-      <c r="BL29" s="13"/>
-      <c r="BM29" s="13"/>
-      <c r="BN29" s="13"/>
-      <c r="BO29" s="13"/>
-      <c r="BP29" s="13"/>
-      <c r="BQ29" s="13"/>
-      <c r="BR29" s="13"/>
-      <c r="BS29" s="13"/>
-      <c r="BT29" s="13"/>
-      <c r="BU29" s="13"/>
-      <c r="BV29" s="13"/>
-      <c r="BW29" s="13"/>
-      <c r="BX29" s="13"/>
-      <c r="BY29" s="13"/>
-      <c r="BZ29" s="13"/>
-      <c r="CA29" s="13"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+      <c r="AS29" s="5"/>
+      <c r="AT29" s="5"/>
+      <c r="AU29" s="5"/>
+      <c r="AV29" s="5"/>
+      <c r="AW29" s="5"/>
+      <c r="AX29" s="5"/>
+      <c r="AY29" s="5"/>
+      <c r="AZ29" s="5"/>
+      <c r="BA29" s="5"/>
+      <c r="BB29" s="5"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
+      <c r="BG29" s="5"/>
+      <c r="BH29" s="5"/>
+      <c r="BI29" s="5"/>
+      <c r="BJ29" s="5"/>
+      <c r="BK29" s="5"/>
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+      <c r="BQ29" s="5"/>
+      <c r="BR29" s="5"/>
+      <c r="BS29" s="5"/>
+      <c r="BT29" s="5"/>
+      <c r="BU29" s="5"/>
+      <c r="BV29" s="5"/>
+      <c r="BW29" s="5"/>
+      <c r="BX29" s="5"/>
+      <c r="BY29" s="5"/>
+      <c r="BZ29" s="5"/>
+      <c r="CA29" s="5"/>
     </row>
-    <row r="30" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E30" s="9" t="str">
+      <c r="E30" s="4" t="str">
         <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
         <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="13" t="n">
+      <c r="F30" s="4"/>
+      <c r="G30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H30" s="13" t="n">
+      <c r="H30" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="J30" s="13" t="n">
+      <c r="J30" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O30" s="13" t="s">
+      <c r="O30" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P30" s="13" t="s">
+      <c r="P30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13" t="s">
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
-      <c r="Z30" s="13"/>
-      <c r="AA30" s="16"/>
-      <c r="AB30" s="13"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
-      <c r="AR30" s="13"/>
-      <c r="AS30" s="13"/>
-      <c r="AT30" s="13"/>
-      <c r="AU30" s="13"/>
-      <c r="AV30" s="13"/>
-      <c r="AW30" s="13"/>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="13"/>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="13"/>
-      <c r="BB30" s="13"/>
-      <c r="BC30" s="13"/>
-      <c r="BD30" s="13"/>
-      <c r="BE30" s="13"/>
-      <c r="BF30" s="13"/>
-      <c r="BG30" s="13"/>
-      <c r="BH30" s="13"/>
-      <c r="BI30" s="13"/>
-      <c r="BJ30" s="13"/>
-      <c r="BK30" s="13"/>
-      <c r="BL30" s="13"/>
-      <c r="BM30" s="13"/>
-      <c r="BN30" s="13"/>
-      <c r="BO30" s="13"/>
-      <c r="BP30" s="13"/>
-      <c r="BQ30" s="13"/>
-      <c r="BR30" s="13"/>
-      <c r="BS30" s="13"/>
-      <c r="BT30" s="13"/>
-      <c r="BU30" s="13"/>
-      <c r="BV30" s="13"/>
-      <c r="BW30" s="13"/>
-      <c r="BX30" s="13"/>
-      <c r="BY30" s="13"/>
-      <c r="BZ30" s="13"/>
-      <c r="CA30" s="13"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="5"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="5"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="5"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="5"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="5"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="5"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="5"/>
+      <c r="BI30" s="5"/>
+      <c r="BJ30" s="5"/>
+      <c r="BK30" s="5"/>
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="5"/>
+      <c r="BO30" s="5"/>
+      <c r="BP30" s="5"/>
+      <c r="BQ30" s="5"/>
+      <c r="BR30" s="5"/>
+      <c r="BS30" s="5"/>
+      <c r="BT30" s="5"/>
+      <c r="BU30" s="5"/>
+      <c r="BV30" s="5"/>
+      <c r="BW30" s="5"/>
+      <c r="BX30" s="5"/>
+      <c r="BY30" s="5"/>
+      <c r="BZ30" s="5"/>
+      <c r="CA30" s="5"/>
     </row>
-    <row r="31" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="13" t="n">
+      <c r="B31" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E31" s="9" t="str">
+      <c r="E31" s="4" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="13" t="n">
+      <c r="F31" s="4"/>
+      <c r="G31" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H31" s="13" t="n">
+      <c r="H31" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J31" s="13" t="n">
+      <c r="J31" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="L31" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N31" s="13" t="s">
+      <c r="N31" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O31" s="13" t="s">
+      <c r="O31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P31" s="13" t="s">
+      <c r="P31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13" t="s">
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13" t="s">
+      <c r="U31" s="5"/>
+      <c r="V31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W31" s="13" t="s">
+      <c r="W31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
-      <c r="AA31" s="16"/>
-      <c r="AB31" s="13"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
-      <c r="AR31" s="13"/>
-      <c r="AS31" s="13"/>
-      <c r="AT31" s="13"/>
-      <c r="AU31" s="13"/>
-      <c r="AV31" s="13"/>
-      <c r="AW31" s="13"/>
-      <c r="AX31" s="13"/>
-      <c r="AY31" s="13"/>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="13"/>
-      <c r="BB31" s="13"/>
-      <c r="BC31" s="13"/>
-      <c r="BD31" s="13"/>
-      <c r="BE31" s="13"/>
-      <c r="BF31" s="13"/>
-      <c r="BG31" s="13"/>
-      <c r="BH31" s="13"/>
-      <c r="BI31" s="13"/>
-      <c r="BJ31" s="13"/>
-      <c r="BK31" s="13"/>
-      <c r="BL31" s="13"/>
-      <c r="BM31" s="13"/>
-      <c r="BN31" s="13"/>
-      <c r="BO31" s="13"/>
-      <c r="BP31" s="13"/>
-      <c r="BQ31" s="13"/>
-      <c r="BR31" s="13"/>
-      <c r="BS31" s="13"/>
-      <c r="BT31" s="13"/>
-      <c r="BU31" s="13"/>
-      <c r="BV31" s="13"/>
-      <c r="BW31" s="13"/>
-      <c r="BX31" s="13"/>
-      <c r="BY31" s="13"/>
-      <c r="BZ31" s="13"/>
-      <c r="CA31" s="13"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+      <c r="BH31" s="5"/>
+      <c r="BI31" s="5"/>
+      <c r="BJ31" s="5"/>
+      <c r="BK31" s="5"/>
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
+      <c r="BO31" s="5"/>
+      <c r="BP31" s="5"/>
+      <c r="BQ31" s="5"/>
+      <c r="BR31" s="5"/>
+      <c r="BS31" s="5"/>
+      <c r="BT31" s="5"/>
+      <c r="BU31" s="5"/>
+      <c r="BV31" s="5"/>
+      <c r="BW31" s="5"/>
+      <c r="BX31" s="5"/>
+      <c r="BY31" s="5"/>
+      <c r="BZ31" s="5"/>
+      <c r="CA31" s="5"/>
     </row>
-    <row r="32" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="11" t="str">
+      <c r="E32" s="10" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="F32" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="13" t="n">
+      <c r="G32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H32" s="13" t="n">
+      <c r="H32" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="J32" s="13" t="n">
+      <c r="J32" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L32" s="15" t="s">
+      <c r="L32" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="13" t="s">
+      <c r="N32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="13" t="s">
+      <c r="O32" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P32" s="13" t="s">
+      <c r="P32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13" t="s">
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13" t="s">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W32" s="13" t="s">
+      <c r="W32" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
-      <c r="Z32" s="13"/>
-      <c r="AA32" s="16"/>
-      <c r="AB32" s="13"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
-      <c r="AR32" s="13"/>
-      <c r="AS32" s="13"/>
-      <c r="AT32" s="13"/>
-      <c r="AU32" s="13"/>
-      <c r="AV32" s="13"/>
-      <c r="AW32" s="13"/>
-      <c r="AX32" s="13"/>
-      <c r="AY32" s="13"/>
-      <c r="AZ32" s="13"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
-      <c r="BE32" s="13"/>
-      <c r="BF32" s="13"/>
-      <c r="BG32" s="13"/>
-      <c r="BH32" s="13"/>
-      <c r="BI32" s="13"/>
-      <c r="BJ32" s="13"/>
-      <c r="BK32" s="13"/>
-      <c r="BL32" s="13"/>
-      <c r="BM32" s="13"/>
-      <c r="BN32" s="13"/>
-      <c r="BO32" s="13"/>
-      <c r="BP32" s="13"/>
-      <c r="BQ32" s="13"/>
-      <c r="BR32" s="13"/>
-      <c r="BS32" s="13"/>
-      <c r="BT32" s="13"/>
-      <c r="BU32" s="13"/>
-      <c r="BV32" s="13"/>
-      <c r="BW32" s="13"/>
-      <c r="BX32" s="13"/>
-      <c r="BY32" s="13"/>
-      <c r="BZ32" s="13"/>
-      <c r="CA32" s="13"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="5"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="5"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="5"/>
+      <c r="BP32" s="5"/>
+      <c r="BQ32" s="5"/>
+      <c r="BR32" s="5"/>
+      <c r="BS32" s="5"/>
+      <c r="BT32" s="5"/>
+      <c r="BU32" s="5"/>
+      <c r="BV32" s="5"/>
+      <c r="BW32" s="5"/>
+      <c r="BX32" s="5"/>
+      <c r="BY32" s="5"/>
+      <c r="BZ32" s="5"/>
+      <c r="CA32" s="5"/>
     </row>
-    <row r="33" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B33" s="13" t="n">
+      <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="9" t="str">
+      <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
         <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="13" t="n">
+      <c r="F33" s="4"/>
+      <c r="G33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H33" s="13" t="n">
+      <c r="H33" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J33" s="13" t="n">
+      <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N33" s="13" t="s">
+      <c r="N33" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O33" s="13" t="s">
+      <c r="O33" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="13" t="s">
+      <c r="P33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13" t="s">
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13" t="s">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W33" s="13" t="s">
+      <c r="W33" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="16"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="13"/>
-      <c r="AR33" s="13"/>
-      <c r="AS33" s="13"/>
-      <c r="AT33" s="13"/>
-      <c r="AU33" s="13"/>
-      <c r="AV33" s="13"/>
-      <c r="AW33" s="13"/>
-      <c r="AX33" s="13"/>
-      <c r="AY33" s="13"/>
-      <c r="AZ33" s="13"/>
-      <c r="BA33" s="13"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="13"/>
-      <c r="BD33" s="13"/>
-      <c r="BE33" s="13"/>
-      <c r="BF33" s="13"/>
-      <c r="BG33" s="13"/>
-      <c r="BH33" s="13"/>
-      <c r="BI33" s="13"/>
-      <c r="BJ33" s="13"/>
-      <c r="BK33" s="13"/>
-      <c r="BL33" s="13"/>
-      <c r="BM33" s="13"/>
-      <c r="BN33" s="13"/>
-      <c r="BO33" s="13"/>
-      <c r="BP33" s="13"/>
-      <c r="BQ33" s="13"/>
-      <c r="BR33" s="13"/>
-      <c r="BS33" s="13"/>
-      <c r="BT33" s="13"/>
-      <c r="BU33" s="13"/>
-      <c r="BV33" s="13"/>
-      <c r="BW33" s="13"/>
-      <c r="BX33" s="13"/>
-      <c r="BY33" s="13"/>
-      <c r="BZ33" s="13"/>
-      <c r="CA33" s="13"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
+      <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
+      <c r="BX33" s="5"/>
+      <c r="BY33" s="5"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
     </row>
-    <row r="34" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9" t="s">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="13" t="n">
+      <c r="B34" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="9" t="str">
+      <c r="E34" s="4" t="str">
         <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="13" t="n">
+      <c r="F34" s="4"/>
+      <c r="G34" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="13" t="n">
+      <c r="H34" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J34" s="13" t="n">
+      <c r="J34" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N34" s="13" t="s">
+      <c r="N34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O34" s="13" t="s">
+      <c r="O34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P34" s="13" t="s">
+      <c r="P34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13" t="s">
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13" t="s">
+      <c r="U34" s="5"/>
+      <c r="V34" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W34" s="13" t="s">
+      <c r="W34" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="16"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
-      <c r="AS34" s="13"/>
-      <c r="AT34" s="13"/>
-      <c r="AU34" s="13"/>
-      <c r="AV34" s="13"/>
-      <c r="AW34" s="13"/>
-      <c r="AX34" s="13"/>
-      <c r="AY34" s="13"/>
-      <c r="AZ34" s="13"/>
-      <c r="BA34" s="13"/>
-      <c r="BB34" s="13"/>
-      <c r="BC34" s="13"/>
-      <c r="BD34" s="13"/>
-      <c r="BE34" s="13"/>
-      <c r="BF34" s="13"/>
-      <c r="BG34" s="13"/>
-      <c r="BH34" s="13"/>
-      <c r="BI34" s="13"/>
-      <c r="BJ34" s="13"/>
-      <c r="BK34" s="13"/>
-      <c r="BL34" s="13"/>
-      <c r="BM34" s="13"/>
-      <c r="BN34" s="13"/>
-      <c r="BO34" s="13"/>
-      <c r="BP34" s="13"/>
-      <c r="BQ34" s="13"/>
-      <c r="BR34" s="13"/>
-      <c r="BS34" s="13"/>
-      <c r="BT34" s="13"/>
-      <c r="BU34" s="13"/>
-      <c r="BV34" s="13"/>
-      <c r="BW34" s="13"/>
-      <c r="BX34" s="13"/>
-      <c r="BY34" s="13"/>
-      <c r="BZ34" s="13"/>
-      <c r="CA34" s="13"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
+      <c r="BQ34" s="5"/>
+      <c r="BR34" s="5"/>
+      <c r="BS34" s="5"/>
+      <c r="BT34" s="5"/>
+      <c r="BU34" s="5"/>
+      <c r="BV34" s="5"/>
+      <c r="BW34" s="5"/>
+      <c r="BX34" s="5"/>
+      <c r="BY34" s="5"/>
+      <c r="BZ34" s="5"/>
+      <c r="CA34" s="5"/>
     </row>
-    <row r="35" s="17" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="s">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B35" s="13" t="n">
+      <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E35" s="11" t="str">
+      <c r="E35" s="10" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="G35" s="13" t="n">
+      <c r="G35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="H35" s="13" t="n">
+      <c r="H35" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J35" s="13" t="n">
+      <c r="J35" s="5" t="n">
         <v>2017</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N35" s="13" t="s">
+      <c r="N35" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O35" s="13" t="s">
+      <c r="O35" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P35" s="13" t="s">
+      <c r="P35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13" t="s">
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13" t="s">
+      <c r="U35" s="5"/>
+      <c r="V35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W35" s="13" t="s">
+      <c r="W35" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="16"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
-      <c r="AR35" s="13"/>
-      <c r="AS35" s="13"/>
-      <c r="AT35" s="13"/>
-      <c r="AU35" s="13"/>
-      <c r="AV35" s="13"/>
-      <c r="AW35" s="13"/>
-      <c r="AX35" s="13"/>
-      <c r="AY35" s="13"/>
-      <c r="AZ35" s="13"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="13"/>
-      <c r="BF35" s="13"/>
-      <c r="BG35" s="13"/>
-      <c r="BH35" s="13"/>
-      <c r="BI35" s="13"/>
-      <c r="BJ35" s="13"/>
-      <c r="BK35" s="13"/>
-      <c r="BL35" s="13"/>
-      <c r="BM35" s="13"/>
-      <c r="BN35" s="13"/>
-      <c r="BO35" s="13"/>
-      <c r="BP35" s="13"/>
-      <c r="BQ35" s="13"/>
-      <c r="BR35" s="13"/>
-      <c r="BS35" s="13"/>
-      <c r="BT35" s="13"/>
-      <c r="BU35" s="13"/>
-      <c r="BV35" s="13"/>
-      <c r="BW35" s="13"/>
-      <c r="BX35" s="13"/>
-      <c r="BY35" s="13"/>
-      <c r="BZ35" s="13"/>
-      <c r="CA35" s="13"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
+      <c r="BQ35" s="5"/>
+      <c r="BR35" s="5"/>
+      <c r="BS35" s="5"/>
+      <c r="BT35" s="5"/>
+      <c r="BU35" s="5"/>
+      <c r="BV35" s="5"/>
+      <c r="BW35" s="5"/>
+      <c r="BX35" s="5"/>
+      <c r="BY35" s="5"/>
+      <c r="BZ35" s="5"/>
+      <c r="CA35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
@@ -5662,7 +5641,7 @@
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
         <v>xu_van_16_vs_xu_van_0</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>211</v>
       </c>
       <c r="G36" s="5" t="n">
@@ -5785,7 +5764,7 @@
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
         <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>223</v>
       </c>
       <c r="G37" s="5" t="n">
@@ -5908,7 +5887,7 @@
         <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
         <v>xu_inh_02_vs_xu_inh_0</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>229</v>
       </c>
       <c r="G38" s="5" t="n">
@@ -6031,7 +6010,7 @@
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
         <v>xu_inh_025_vs_xu_inh_0</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F39" s="10"/>
       <c r="G39" s="5" t="n">
         <v>4</v>
       </c>
@@ -6152,7 +6131,7 @@
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
         <v>xu_emb_2.5_vs_xu_emb_0</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="10" t="s">
         <v>237</v>
       </c>
       <c r="G40" s="5" t="n">
@@ -6275,7 +6254,7 @@
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
         <v>xu_emb_3_vs_xu_emb_0</v>
       </c>
-      <c r="F41" s="11"/>
+      <c r="F41" s="10"/>
       <c r="G41" s="5" t="n">
         <v>3</v>
       </c>
@@ -6396,7 +6375,7 @@
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
         <v>xu_mero_2.5_vs_xu_mero_0</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>242</v>
       </c>
       <c r="G42" s="5" t="n">
@@ -6509,10 +6488,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="12" t="s">
         <v>249</v>
       </c>
       <c r="E43" s="4" t="str">
@@ -6628,10 +6607,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E44" s="4" t="str">
@@ -6747,10 +6726,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="12" t="s">
         <v>256</v>
       </c>
       <c r="E45" s="4" t="str">
@@ -6865,14 +6844,14 @@
         <v>1</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
-        <v>carey_621_vs_mbio_H37Rv</v>
+        <v>carey_621_vs_carey_rv</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>260</v>
@@ -6884,25 +6863,25 @@
         <v>2</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P46" s="5" t="s">
         <v>32</v>
@@ -6981,24 +6960,24 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
-        <v>carey_630_vs_mbio_H37Rv</v>
+        <v>carey_630_vs_carey_rv</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>14</v>
@@ -7007,25 +6986,25 @@
         <v>2</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>32</v>
@@ -7104,24 +7083,24 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
-        <v>carey_631_vs_mbio_H37Rv</v>
+        <v>carey_631_vs_carey_rv</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>14</v>
@@ -7130,25 +7109,25 @@
         <v>2</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P48" s="5" t="s">
         <v>32</v>
@@ -7227,24 +7206,24 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
-        <v>carey_632_vs_mbio_H37Rv</v>
+        <v>carey_632_vs_carey_rv</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>14</v>
@@ -7253,25 +7232,25 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>32</v>
@@ -7350,24 +7329,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
-        <v>carey_641_vs_mbio_H37Rv</v>
+        <v>carey_641_vs_carey_rv</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>14</v>
@@ -7376,25 +7355,25 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>32</v>
@@ -7473,24 +7452,24 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
-        <v>carey_662_vs_mbio_H37Rv</v>
+        <v>carey_662_vs_carey_rv</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>14</v>
@@ -7499,25 +7478,25 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>32</v>
@@ -7596,24 +7575,24 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
-        <v>carey_663_vs_mbio_H37Rv</v>
+        <v>carey_663_vs_carey_rv</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>14</v>
@@ -7622,25 +7601,25 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>32</v>
@@ -7719,24 +7698,24 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
-        <v>carey_667_vs_mbio_H37Rv</v>
+        <v>carey_667_vs_carey_rv</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>14</v>
@@ -7745,25 +7724,25 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>32</v>
@@ -7842,24 +7821,24 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
         <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>8</v>
@@ -7868,22 +7847,22 @@
         <v>8</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O54" s="5" t="s">
         <v>30</v>
@@ -7898,7 +7877,7 @@
         <v>34</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -7969,24 +7948,24 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
         <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>8</v>
@@ -7995,22 +7974,22 @@
         <v>6</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O55" s="5" t="s">
         <v>30</v>
@@ -8025,7 +8004,7 @@
         <v>34</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
@@ -8096,17 +8075,17 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
@@ -8124,16 +8103,16 @@
         <v>2019</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L56" s="20" t="s">
         <v>308</v>
       </c>
+      <c r="L56" s="14" t="s">
+        <v>309</v>
+      </c>
       <c r="M56" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O56" s="5" t="s">
         <v>30</v>
@@ -8153,7 +8132,7 @@
         <v>179</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5" t="s">
@@ -8215,17 +8194,17 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
@@ -8243,16 +8222,16 @@
         <v>2019</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L57" s="20" t="s">
         <v>308</v>
       </c>
+      <c r="L57" s="14" t="s">
+        <v>309</v>
+      </c>
       <c r="M57" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>30</v>
@@ -8272,7 +8251,7 @@
         <v>179</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5" t="s">
@@ -8334,17 +8313,17 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
@@ -8362,16 +8341,16 @@
         <v>2019</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="L58" s="20" t="s">
         <v>308</v>
       </c>
+      <c r="L58" s="14" t="s">
+        <v>309</v>
+      </c>
       <c r="M58" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>30</v>
@@ -8391,7 +8370,7 @@
         <v>179</v>
       </c>
       <c r="X58" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5" t="s">
@@ -8453,17 +8432,17 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
@@ -8481,28 +8460,28 @@
         <v>2019</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="L59" s="20" t="s">
         <v>319</v>
       </c>
+      <c r="L59" s="14" t="s">
+        <v>320</v>
+      </c>
       <c r="M59" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P59" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
@@ -8572,17 +8551,17 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
@@ -8596,19 +8575,19 @@
         <v>3</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N60" s="5" t="s">
         <v>76</v>
@@ -8627,7 +8606,7 @@
       </c>
       <c r="S60" s="5"/>
       <c r="T60" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U60" s="5"/>
       <c r="V60" s="5" t="s">
@@ -8697,17 +8676,17 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
@@ -8721,19 +8700,19 @@
         <v>2</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>76</v>
@@ -8752,7 +8731,7 @@
       </c>
       <c r="S61" s="5"/>
       <c r="T61" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="U61" s="5"/>
       <c r="V61" s="5" t="s">
@@ -8822,17 +8801,17 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D62" s="19" t="s">
         <v>338</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>339</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
@@ -8846,17 +8825,17 @@
         <v>1</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="J62" s="5"/>
       <c r="K62" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -8871,10 +8850,10 @@
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V62" s="5" t="s">
         <v>64</v>
@@ -8943,17 +8922,17 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D63" s="19" t="s">
         <v>343</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
@@ -8967,17 +8946,17 @@
         <v>2</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
@@ -8992,10 +8971,10 @@
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V63" s="5" t="s">
         <v>64</v>
@@ -9064,17 +9043,17 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>347</v>
+        <v>338</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>348</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
@@ -9088,17 +9067,17 @@
         <v>1</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J64" s="5"/>
       <c r="K64" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
@@ -9113,10 +9092,10 @@
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V64" s="5" t="s">
         <v>64</v>
@@ -9185,17 +9164,17 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D65" s="19" t="s">
-        <v>351</v>
+      <c r="D65" s="12" t="s">
+        <v>352</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
@@ -9209,17 +9188,17 @@
         <v>2</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -9234,10 +9213,10 @@
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>64</v>
@@ -9306,17 +9285,17 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D66" s="19" t="s">
         <v>356</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>357</v>
       </c>
       <c r="E66" s="4" t="str">
         <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
@@ -9330,17 +9309,17 @@
         <v>1</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -9355,10 +9334,10 @@
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>64</v>
@@ -9427,17 +9406,17 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>360</v>
+        <v>338</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>361</v>
       </c>
       <c r="E67" s="4" t="str">
         <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
@@ -9451,17 +9430,17 @@
         <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -9476,10 +9455,10 @@
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>64</v>
@@ -9548,17 +9527,17 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>364</v>
+        <v>356</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="E68" s="4" t="str">
         <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
@@ -9572,17 +9551,17 @@
         <v>1</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -9597,10 +9576,10 @@
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>64</v>
@@ -9669,17 +9648,17 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>368</v>
+        <v>356</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>369</v>
       </c>
       <c r="E69" s="4" t="str">
         <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
@@ -9693,17 +9672,17 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -9718,10 +9697,10 @@
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>64</v>
@@ -9790,17 +9769,17 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="D70" s="19" t="s">
+      <c r="C70" s="12" t="s">
         <v>373</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="E70" s="4" t="str">
         <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
@@ -9814,17 +9793,17 @@
         <v>4</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -9840,7 +9819,7 @@
       <c r="S70" s="5"/>
       <c r="T70" s="5"/>
       <c r="U70" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>64</v>
@@ -9909,7 +9888,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B71" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -9918,8 +9897,8 @@
       <c r="C71" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="19" t="s">
-        <v>377</v>
+      <c r="D71" s="12" t="s">
+        <v>378</v>
       </c>
       <c r="E71" s="4" t="str">
         <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
@@ -9933,17 +9912,17 @@
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -9959,7 +9938,7 @@
       <c r="S71" s="5"/>
       <c r="T71" s="5"/>
       <c r="U71" s="5" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>64</v>
@@ -10028,7 +10007,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B72" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10037,8 +10016,8 @@
       <c r="C72" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D72" s="19" t="s">
-        <v>381</v>
+      <c r="D72" s="12" t="s">
+        <v>382</v>
       </c>
       <c r="E72" s="4" t="str">
         <f aca="false">CONCATENATE(D72,"_vs_",C72)</f>
@@ -10052,17 +10031,17 @@
         <v>1</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -10078,7 +10057,7 @@
       <c r="S72" s="5"/>
       <c r="T72" s="5"/>
       <c r="U72" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V72" s="5" t="s">
         <v>64</v>
@@ -10147,7 +10126,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B73" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10156,8 +10135,8 @@
       <c r="C73" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="19" t="s">
-        <v>385</v>
+      <c r="D73" s="12" t="s">
+        <v>386</v>
       </c>
       <c r="E73" s="4" t="str">
         <f aca="false">CONCATENATE(D73,"_vs_",C73)</f>
@@ -10171,17 +10150,17 @@
         <v>1</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -10197,7 +10176,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V73" s="5" t="s">
         <v>64</v>
@@ -10266,7 +10245,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B74" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10275,8 +10254,8 @@
       <c r="C74" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="19" t="s">
-        <v>389</v>
+      <c r="D74" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="E74" s="4" t="str">
         <f aca="false">CONCATENATE(D74,"_vs_",C74)</f>
@@ -10290,17 +10269,17 @@
         <v>1</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -10316,7 +10295,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V74" s="5" t="s">
         <v>64</v>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="396">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -586,6 +586,9 @@
     <t xml:space="preserve">2017B_DeJesus_2C</t>
   </si>
   <si>
+    <t xml:space="preserve">2017B_DeJesus_GI_1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017B_DeJesus_1A</t>
   </si>
   <si>
@@ -613,12 +616,15 @@
     <t xml:space="preserve">2017B_DeJesus_3C</t>
   </si>
   <si>
+    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017B_DeJesus_GI_1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">2017B_DeJesus_1B</t>
   </si>
   <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c</t>
-  </si>
-  <si>
     <t xml:space="preserve">2017B_DeJesus_4A</t>
   </si>
   <si>
@@ -641,6 +647,9 @@
   </si>
   <si>
     <t xml:space="preserve">2017B_DeJesus_4C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017B_DeJesus_GI_1C</t>
   </si>
   <si>
     <t xml:space="preserve">2017B_DeJesus_1C</t>
@@ -1329,7 +1338,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1384,6 +1393,14 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1467,14 +1484,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CA74"/>
+  <dimension ref="A1:CA77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
-      <selection pane="bottomRight" activeCell="D55" activeCellId="0" sqref="D55"/>
+      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4798,13 +4815,11 @@
       <c r="D29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E29" s="10" t="str">
+      <c r="E29" s="14" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>188</v>
-      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="5" t="n">
         <v>3</v>
       </c>
@@ -4906,32 +4921,20 @@
       <c r="CA29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="4" t="str">
-        <f aca="false">CONCATENATE(D30,"_vs_",C30)</f>
-        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2017</v>
@@ -4958,7 +4961,7 @@
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
@@ -5025,32 +5028,32 @@
       <c r="CA30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>193</v>
+      <c r="A31" s="14" t="s">
+        <v>190</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>190</v>
+      <c r="C31" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E31" s="4" t="str">
+        <v>191</v>
+      </c>
+      <c r="E31" s="14" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2017</v>
@@ -5077,7 +5080,7 @@
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5" t="s">
@@ -5144,34 +5147,32 @@
       <c r="CA31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>196</v>
+      <c r="A32" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>175</v>
+      <c r="C32" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E32" s="10" t="str">
+        <v>195</v>
+      </c>
+      <c r="E32" s="14" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
-        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>197</v>
-      </c>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2017</v>
@@ -5198,7 +5199,7 @@
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5" t="s">
@@ -5265,32 +5266,32 @@
       <c r="CA32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>199</v>
+      <c r="A33" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E33" s="4" t="str">
+        <v>195</v>
+      </c>
+      <c r="E33" s="14" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
-        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
-      </c>
-      <c r="F33" s="4"/>
+        <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F33" s="15"/>
       <c r="G33" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2017</v>
@@ -5317,7 +5318,7 @@
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5" t="s">
@@ -5384,32 +5385,20 @@
       <c r="CA33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="4" t="str">
-        <f aca="false">CONCATENATE(D34,"_vs_",C34)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2017</v>
@@ -5436,7 +5425,7 @@
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5" t="s">
@@ -5503,34 +5492,32 @@
       <c r="CA34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>206</v>
+      <c r="A35" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="10" t="str">
+        <v>202</v>
+      </c>
+      <c r="E35" s="14" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
-        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>207</v>
-      </c>
+        <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
+      </c>
+      <c r="F35" s="14"/>
       <c r="G35" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2017</v>
@@ -5557,7 +5544,7 @@
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
@@ -5624,71 +5611,67 @@
       <c r="CA35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>208</v>
+      <c r="A36" s="14" t="s">
+        <v>205</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E36" s="4" t="str">
+        <v>206</v>
+      </c>
+      <c r="E36" s="14" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
-        <v>xu_van_16_vs_xu_van_0</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>211</v>
-      </c>
+        <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
+      </c>
+      <c r="F36" s="14"/>
       <c r="G36" s="5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q36" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="T36" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W36" s="5"/>
+      <c r="W36" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
@@ -5747,26 +5730,24 @@
       <c r="CA36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>220</v>
+      <c r="A37" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="B37" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>221</v>
+      <c r="C37" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="4" t="str">
+        <v>206</v>
+      </c>
+      <c r="E37" s="14" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
-        <v>xu_rif_4_vs_xu_rif_0</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>223</v>
-      </c>
+        <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
+      </c>
+      <c r="F37" s="15"/>
       <c r="G37" s="5" t="n">
         <v>3</v>
       </c>
@@ -5774,44 +5755,42 @@
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S37" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="T37" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W37" s="5"/>
+      <c r="W37" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
@@ -5870,71 +5849,55 @@
       <c r="CA37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B38" s="5" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E38" s="4" t="str">
-        <f aca="false">CONCATENATE(D38,"_vs_",C38)</f>
-        <v>xu_inh_02_vs_xu_inh_0</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="A38" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="4" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q38" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="R38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S38" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="T38" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W38" s="5"/>
+      <c r="W38" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
@@ -5994,63 +5957,65 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
-        <v>xu_inh_025_vs_xu_inh_0</v>
-      </c>
-      <c r="F39" s="10"/>
+        <v>xu_van_16_vs_xu_van_0</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="G39" s="5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P39" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="T39" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="T39" s="3"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
         <v>64</v>
@@ -6115,24 +6080,24 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
-        <v>xu_emb_2.5_vs_xu_emb_0</v>
+        <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>3</v>
@@ -6141,37 +6106,37 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P40" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -6238,61 +6203,63 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
-        <v>xu_emb_3_vs_xu_emb_0</v>
-      </c>
-      <c r="F41" s="10"/>
+        <v>xu_inh_02_vs_xu_inh_0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="G41" s="5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R41" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -6359,63 +6326,61 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
-        <v>xu_mero_2.5_vs_xu_mero_0</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>242</v>
-      </c>
+        <v>xu_inh_025_vs_xu_inh_0</v>
+      </c>
+      <c r="F42" s="10"/>
       <c r="G42" s="5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>34</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -6480,71 +6445,75 @@
       <c r="BZ42" s="5"/>
       <c r="CA42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>249</v>
+      <c r="C43" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
-        <v>mishra_C3H_vs_mishra_B6</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>247</v>
+        <v>xu_emb_2.5_vs_xu_emb_0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="J43" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W43" s="5"/>
-      <c r="X43" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z43" s="5"/>
       <c r="AA43" s="3"/>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
@@ -6599,71 +6568,73 @@
       <c r="BZ43" s="5"/>
       <c r="CA43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>256</v>
+      <c r="C44" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
-        <v>mishra_NOS2_vs_mishra_B6</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>255</v>
-      </c>
+        <v>xu_emb_3_vs_xu_emb_0</v>
+      </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="J44" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>242</v>
+      </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W44" s="5"/>
-      <c r="X44" s="5" t="s">
-        <v>257</v>
-      </c>
+      <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z44" s="5"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -6718,180 +6689,180 @@
       <c r="BZ44" s="5"/>
       <c r="CA44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>256</v>
+      <c r="C45" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>247</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
-        <v>mishra_NOS2_vs_mishra_C3H</v>
-      </c>
-      <c r="F45" s="4"/>
+        <v>xu_mero_2.5_vs_xu_mero_0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>245</v>
+      </c>
       <c r="G45" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I45" s="4"/>
+      <c r="I45" s="4" t="s">
+        <v>248</v>
+      </c>
       <c r="J45" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>30</v>
+        <v>220</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>249</v>
+      </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="s">
         <v>64</v>
       </c>
       <c r="W45" s="5"/>
-      <c r="X45" s="5" t="s">
-        <v>259</v>
-      </c>
+      <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z45" s="5"/>
       <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
-      <c r="AW45" s="3"/>
-      <c r="AX45" s="3"/>
-      <c r="AY45" s="3"/>
-      <c r="AZ45" s="3"/>
-      <c r="BA45" s="3"/>
-      <c r="BB45" s="3"/>
-      <c r="BC45" s="3"/>
-      <c r="BD45" s="3"/>
-      <c r="BE45" s="3"/>
-      <c r="BF45" s="3"/>
-      <c r="BG45" s="3"/>
-      <c r="BH45" s="3"/>
-      <c r="BI45" s="3"/>
-      <c r="BJ45" s="3"/>
-      <c r="BK45" s="3"/>
-      <c r="BL45" s="3"/>
-      <c r="BM45" s="3"/>
-      <c r="BN45" s="3"/>
-      <c r="BO45" s="3"/>
-      <c r="BP45" s="3"/>
-      <c r="BQ45" s="3"/>
-      <c r="BR45" s="3"/>
-      <c r="BS45" s="3"/>
-      <c r="BT45" s="3"/>
-      <c r="BU45" s="3"/>
-      <c r="BV45" s="3"/>
-      <c r="BW45" s="3"/>
-      <c r="BX45" s="3"/>
-      <c r="BY45" s="3"/>
-      <c r="BZ45" s="3"/>
-      <c r="CA45" s="3"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>262</v>
+      <c r="C46" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
-        <v>carey_621_vs_carey_rv</v>
+        <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I46" s="4" t="s">
-        <v>263</v>
-      </c>
+      <c r="I46" s="4"/>
       <c r="J46" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q46" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R46" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -6899,10 +6870,12 @@
         <v>64</v>
       </c>
       <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
+      <c r="X46" s="5" t="s">
+        <v>257</v>
+      </c>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="5" t="n">
-        <v>621</v>
+      <c r="Z46" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA46" s="3"/>
       <c r="AB46" s="5"/>
@@ -6960,61 +6933,55 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>270</v>
+      <c r="C47" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
-        <v>carey_630_vs_carey_rv</v>
+        <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I47" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="I47" s="4"/>
       <c r="J47" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q47" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -7022,10 +6989,12 @@
         <v>64</v>
       </c>
       <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
+      <c r="X47" s="5" t="s">
+        <v>260</v>
+      </c>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="5" t="n">
-        <v>630</v>
+      <c r="Z47" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA47" s="3"/>
       <c r="AB47" s="5"/>
@@ -7083,61 +7052,53 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>273</v>
+      <c r="C48" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>259</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
-        <v>carey_631_vs_carey_rv</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>272</v>
-      </c>
+        <v>mishra_NOS2_vs_mishra_C3H</v>
+      </c>
+      <c r="F48" s="4"/>
       <c r="G48" s="5" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>274</v>
-      </c>
+      <c r="I48" s="4"/>
       <c r="J48" s="5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q48" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R48" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
       <c r="S48" s="5"/>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -7145,85 +7106,87 @@
         <v>64</v>
       </c>
       <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
+      <c r="X48" s="5" t="s">
+        <v>262</v>
+      </c>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="5" t="n">
-        <v>631</v>
+      <c r="Z48" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="AA48" s="3"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="5"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="5"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="5"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="5"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="5"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="5"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="5"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="5"/>
-      <c r="BJ48" s="5"/>
-      <c r="BK48" s="5"/>
-      <c r="BL48" s="5"/>
-      <c r="BM48" s="5"/>
-      <c r="BN48" s="5"/>
-      <c r="BO48" s="5"/>
-      <c r="BP48" s="5"/>
-      <c r="BQ48" s="5"/>
-      <c r="BR48" s="5"/>
-      <c r="BS48" s="5"/>
-      <c r="BT48" s="5"/>
-      <c r="BU48" s="5"/>
-      <c r="BV48" s="5"/>
-      <c r="BW48" s="5"/>
-      <c r="BX48" s="5"/>
-      <c r="BY48" s="5"/>
-      <c r="BZ48" s="5"/>
-      <c r="CA48" s="5"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3"/>
+      <c r="AF48" s="3"/>
+      <c r="AG48" s="3"/>
+      <c r="AH48" s="3"/>
+      <c r="AI48" s="3"/>
+      <c r="AJ48" s="3"/>
+      <c r="AK48" s="3"/>
+      <c r="AL48" s="3"/>
+      <c r="AM48" s="3"/>
+      <c r="AN48" s="3"/>
+      <c r="AO48" s="3"/>
+      <c r="AP48" s="3"/>
+      <c r="AQ48" s="3"/>
+      <c r="AR48" s="3"/>
+      <c r="AS48" s="3"/>
+      <c r="AT48" s="3"/>
+      <c r="AU48" s="3"/>
+      <c r="AV48" s="3"/>
+      <c r="AW48" s="3"/>
+      <c r="AX48" s="3"/>
+      <c r="AY48" s="3"/>
+      <c r="AZ48" s="3"/>
+      <c r="BA48" s="3"/>
+      <c r="BB48" s="3"/>
+      <c r="BC48" s="3"/>
+      <c r="BD48" s="3"/>
+      <c r="BE48" s="3"/>
+      <c r="BF48" s="3"/>
+      <c r="BG48" s="3"/>
+      <c r="BH48" s="3"/>
+      <c r="BI48" s="3"/>
+      <c r="BJ48" s="3"/>
+      <c r="BK48" s="3"/>
+      <c r="BL48" s="3"/>
+      <c r="BM48" s="3"/>
+      <c r="BN48" s="3"/>
+      <c r="BO48" s="3"/>
+      <c r="BP48" s="3"/>
+      <c r="BQ48" s="3"/>
+      <c r="BR48" s="3"/>
+      <c r="BS48" s="3"/>
+      <c r="BT48" s="3"/>
+      <c r="BU48" s="3"/>
+      <c r="BV48" s="3"/>
+      <c r="BW48" s="3"/>
+      <c r="BX48" s="3"/>
+      <c r="BY48" s="3"/>
+      <c r="BZ48" s="3"/>
+      <c r="CA48" s="3"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
-        <v>carey_632_vs_carey_rv</v>
+        <v>carey_621_vs_carey_rv</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>14</v>
@@ -7232,25 +7195,25 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P49" s="5" t="s">
         <v>32</v>
@@ -7271,7 +7234,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5" t="n">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="AA49" s="3"/>
       <c r="AB49" s="5"/>
@@ -7329,24 +7292,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
-        <v>carey_641_vs_carey_rv</v>
+        <v>carey_630_vs_carey_rv</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>14</v>
@@ -7355,25 +7318,25 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P50" s="5" t="s">
         <v>32</v>
@@ -7394,7 +7357,7 @@
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
       <c r="Z50" s="5" t="n">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="AA50" s="3"/>
       <c r="AB50" s="5"/>
@@ -7452,24 +7415,24 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
-        <v>carey_662_vs_carey_rv</v>
+        <v>carey_631_vs_carey_rv</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>14</v>
@@ -7478,25 +7441,25 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P51" s="5" t="s">
         <v>32</v>
@@ -7517,7 +7480,7 @@
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
       <c r="Z51" s="5" t="n">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="5"/>
@@ -7575,24 +7538,24 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
-        <v>carey_663_vs_carey_rv</v>
+        <v>carey_632_vs_carey_rv</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>14</v>
@@ -7601,25 +7564,25 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P52" s="5" t="s">
         <v>32</v>
@@ -7640,7 +7603,7 @@
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
       <c r="Z52" s="5" t="n">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="AA52" s="3"/>
       <c r="AB52" s="5"/>
@@ -7698,24 +7661,24 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
-        <v>carey_667_vs_carey_rv</v>
+        <v>carey_641_vs_carey_rv</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>14</v>
@@ -7724,25 +7687,25 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P53" s="5" t="s">
         <v>32</v>
@@ -7763,7 +7726,7 @@
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="5" t="n">
-        <v>667</v>
+        <v>641</v>
       </c>
       <c r="AA53" s="3"/>
       <c r="AB53" s="5"/>
@@ -7821,76 +7784,72 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
-        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_662_vs_carey_rv</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="P54" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S54" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W54" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="5" t="s">
-        <v>65</v>
+      <c r="Z54" s="5" t="n">
+        <v>662</v>
       </c>
       <c r="AA54" s="3"/>
       <c r="AB54" s="5"/>
@@ -7948,76 +7907,72 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
-        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+        <v>carey_663_vs_carey_rv</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="R55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="S55" s="5" t="s">
-        <v>304</v>
-      </c>
+      <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W55" s="5" t="s">
-        <v>179</v>
-      </c>
+      <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5" t="s">
-        <v>65</v>
+      <c r="Z55" s="5" t="n">
+        <v>663</v>
       </c>
       <c r="AA55" s="3"/>
       <c r="AB55" s="5"/>
@@ -8075,68 +8030,72 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
-        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F56" s="4"/>
+        <v>carey_667_vs_carey_rv</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="G56" s="5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I56" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="J56" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L56" s="14" t="s">
-        <v>309</v>
+        <v>267</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>30</v>
+        <v>271</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="W56" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="X56" s="5" t="s">
-        <v>312</v>
-      </c>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="5" t="s">
-        <v>65</v>
+      <c r="Z56" s="5" t="n">
+        <v>667</v>
       </c>
       <c r="AA56" s="3"/>
       <c r="AB56" s="5"/>
@@ -8194,54 +8153,64 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
-      </c>
-      <c r="F57" s="4"/>
+        <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="G57" s="5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="J57" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L57" s="14" t="s">
-        <v>309</v>
+        <v>298</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
@@ -8250,9 +8219,7 @@
       <c r="W57" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X57" s="5" t="s">
-        <v>312</v>
-      </c>
+      <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5" t="s">
         <v>65</v>
@@ -8313,54 +8280,64 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
-        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
-      </c>
-      <c r="F58" s="4"/>
+        <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="G58" s="5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="I58" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>306</v>
+      </c>
       <c r="J58" s="5" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="L58" s="14" t="s">
-        <v>309</v>
+        <v>298</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>299</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="O58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
@@ -8369,9 +8346,7 @@
       <c r="W58" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X58" s="5" t="s">
-        <v>312</v>
-      </c>
+      <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5" t="s">
         <v>65</v>
@@ -8432,57 +8407,53 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
-        <v>minato_minimal_plate_vs_minato_rich_plate</v>
+        <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="5" t="n">
         <v>2019</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>320</v>
+        <v>311</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>323</v>
+        <v>30</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="R59" s="5" t="s">
-        <v>325</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
       <c r="S59" s="5"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
@@ -8492,9 +8463,13 @@
       <c r="W59" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X59" s="5"/>
+      <c r="X59" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
+      <c r="Z59" s="5" t="s">
+        <v>65</v>
+      </c>
       <c r="AA59" s="3"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
@@ -8551,63 +8526,55 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
-        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="J60" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="K60" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L60" s="5" t="s">
-        <v>330</v>
+        <v>5</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R60" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="5" t="s">
-        <v>331</v>
-      </c>
+      <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5" t="s">
         <v>64</v>
@@ -8615,7 +8582,9 @@
       <c r="W60" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X60" s="5"/>
+      <c r="X60" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5" t="s">
         <v>65</v>
@@ -8676,63 +8645,55 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
-        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
+        <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="J61" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="K61" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L61" s="5" t="s">
-        <v>330</v>
+        <v>5</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q61" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R61" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="5" t="s">
-        <v>336</v>
-      </c>
+      <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5" t="s">
         <v>64</v>
@@ -8740,7 +8701,9 @@
       <c r="W61" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="X61" s="5"/>
+      <c r="X61" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5" t="s">
         <v>65</v>
@@ -8801,60 +8764,60 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>339</v>
+        <v>320</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
-        <v>Rv0950c_KO_vs_CB_WT</v>
+        <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L62" s="5" t="s">
-        <v>330</v>
+        <v>2</v>
+      </c>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>323</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
+        <v>324</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="P62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="S62" s="5"/>
-      <c r="T62" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="U62" s="5" t="s">
-        <v>341</v>
-      </c>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
       <c r="V62" s="5" t="s">
         <v>64</v>
       </c>
@@ -8863,9 +8826,7 @@
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
-      <c r="Z62" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="Z62" s="5"/>
       <c r="AA62" s="3"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -8922,44 +8883,50 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>344</v>
+        <v>330</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
-        <v>Rv0954_KO_vs_RJ_WT</v>
+        <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="J63" s="5"/>
+        <v>332</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="K63" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="P63" s="5" t="s">
         <v>32</v>
       </c>
@@ -8971,11 +8938,9 @@
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="U63" s="5" t="s">
-        <v>346</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
         <v>64</v>
       </c>
@@ -9043,44 +9008,50 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>348</v>
+        <v>336</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
-        <v>Rv1096_KO_vs_CB_WT</v>
+        <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>338</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="K64" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
+        <v>333</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="P64" s="5" t="s">
         <v>32</v>
       </c>
@@ -9092,11 +9063,9 @@
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="U64" s="5" t="s">
-        <v>350</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
         <v>64</v>
       </c>
@@ -9164,41 +9133,41 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C65" s="12" t="s">
-        <v>175</v>
+      <c r="C65" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
-        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
+        <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -9213,10 +9182,10 @@
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="V65" s="5" t="s">
         <v>64</v>
@@ -9285,41 +9254,41 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E66" s="4" t="str">
         <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
-        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
@@ -9334,10 +9303,10 @@
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="V66" s="5" t="s">
         <v>64</v>
@@ -9406,21 +9375,21 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E67" s="4" t="str">
         <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
-        <v>Rv3684_KO_vs_CB_WT</v>
+        <v>Rv1096_KO_vs_CB_WT</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="5" t="n">
@@ -9430,17 +9399,17 @@
         <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
@@ -9455,10 +9424,10 @@
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="V67" s="5" t="s">
         <v>64</v>
@@ -9527,41 +9496,41 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>356</v>
+      <c r="C68" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E68" s="4" t="str">
         <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
-        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -9576,10 +9545,10 @@
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="V68" s="5" t="s">
         <v>64</v>
@@ -9648,21 +9617,21 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E69" s="4" t="str">
         <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
-        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
+        <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="5" t="n">
@@ -9672,17 +9641,17 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -9697,10 +9666,10 @@
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="V69" s="5" t="s">
         <v>64</v>
@@ -9769,41 +9738,41 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>373</v>
+      <c r="C70" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E70" s="4" t="str">
         <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
-        <v>marP_KO_vs_marP_WT</v>
+        <v>Rv3684_KO_vs_CB_WT</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" s="5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
@@ -9817,9 +9786,11 @@
         <v>34</v>
       </c>
       <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
+      <c r="T70" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="U70" s="5" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="V70" s="5" t="s">
         <v>64</v>
@@ -9888,41 +9859,41 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B71" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E71" s="4" t="str">
         <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
-        <v>eccD1_KO_vs_mbio_H37Rv</v>
+        <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
@@ -9936,9 +9907,11 @@
         <v>34</v>
       </c>
       <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="T71" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="U71" s="5" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="V71" s="5" t="s">
         <v>64</v>
@@ -10007,41 +9980,41 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="B72" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>72</v>
+        <v>359</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E72" s="4" t="str">
         <f aca="false">CONCATENATE(D72,"_vs_",C72)</f>
-        <v>espI_KO_vs_mbio_H37Rv</v>
+        <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="5" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -10055,9 +10028,11 @@
         <v>34</v>
       </c>
       <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
+      <c r="T72" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="U72" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="V72" s="5" t="s">
         <v>64</v>
@@ -10126,41 +10101,41 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B73" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>72</v>
+      <c r="C73" s="12" t="s">
+        <v>376</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E73" s="4" t="str">
         <f aca="false">CONCATENATE(D73,"_vs_",C73)</f>
-        <v>PE35_KO_vs_mbio_H37Rv</v>
+        <v>marP_KO_vs_marP_WT</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H73" s="5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
@@ -10176,7 +10151,7 @@
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="V73" s="5" t="s">
         <v>64</v>
@@ -10245,7 +10220,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B74" s="5" t="n">
         <f aca="false">TRUE()</f>
@@ -10255,11 +10230,11 @@
         <v>72</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E74" s="4" t="str">
         <f aca="false">CONCATENATE(D74,"_vs_",C74)</f>
-        <v>PPE68_KO_vs_mbio_H37Rv</v>
+        <v>eccD1_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="5" t="n">
@@ -10269,17 +10244,17 @@
         <v>1</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -10295,7 +10270,7 @@
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="V74" s="5" t="s">
         <v>64</v>
@@ -10362,6 +10337,363 @@
       <c r="BZ74" s="5"/>
       <c r="CA74" s="5"/>
     </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="4" t="str">
+        <f aca="false">CONCATENATE(D75,"_vs_",C75)</f>
+        <v>espI_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="5"/>
+      <c r="AH75" s="5"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AM75" s="5"/>
+      <c r="AN75" s="5"/>
+      <c r="AO75" s="5"/>
+      <c r="AP75" s="5"/>
+      <c r="AQ75" s="5"/>
+      <c r="AR75" s="5"/>
+      <c r="AS75" s="5"/>
+      <c r="AT75" s="5"/>
+      <c r="AU75" s="5"/>
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+      <c r="AX75" s="5"/>
+      <c r="AY75" s="5"/>
+      <c r="AZ75" s="5"/>
+      <c r="BA75" s="5"/>
+      <c r="BB75" s="5"/>
+      <c r="BC75" s="5"/>
+      <c r="BD75" s="5"/>
+      <c r="BE75" s="5"/>
+      <c r="BF75" s="5"/>
+      <c r="BG75" s="5"/>
+      <c r="BH75" s="5"/>
+      <c r="BI75" s="5"/>
+      <c r="BJ75" s="5"/>
+      <c r="BK75" s="5"/>
+      <c r="BL75" s="5"/>
+      <c r="BM75" s="5"/>
+      <c r="BN75" s="5"/>
+      <c r="BO75" s="5"/>
+      <c r="BP75" s="5"/>
+      <c r="BQ75" s="5"/>
+      <c r="BR75" s="5"/>
+      <c r="BS75" s="5"/>
+      <c r="BT75" s="5"/>
+      <c r="BU75" s="5"/>
+      <c r="BV75" s="5"/>
+      <c r="BW75" s="5"/>
+      <c r="BX75" s="5"/>
+      <c r="BY75" s="5"/>
+      <c r="BZ75" s="5"/>
+      <c r="CA75" s="5"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B76" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E76" s="4" t="str">
+        <f aca="false">CONCATENATE(D76,"_vs_",C76)</f>
+        <v>PE35_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="5"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="5"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="5"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="5"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="5"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="5"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="5"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="5"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="5"/>
+      <c r="BG76" s="5"/>
+      <c r="BH76" s="5"/>
+      <c r="BI76" s="5"/>
+      <c r="BJ76" s="5"/>
+      <c r="BK76" s="5"/>
+      <c r="BL76" s="5"/>
+      <c r="BM76" s="5"/>
+      <c r="BN76" s="5"/>
+      <c r="BO76" s="5"/>
+      <c r="BP76" s="5"/>
+      <c r="BQ76" s="5"/>
+      <c r="BR76" s="5"/>
+      <c r="BS76" s="5"/>
+      <c r="BT76" s="5"/>
+      <c r="BU76" s="5"/>
+      <c r="BV76" s="5"/>
+      <c r="BW76" s="5"/>
+      <c r="BX76" s="5"/>
+      <c r="BY76" s="5"/>
+      <c r="BZ76" s="5"/>
+      <c r="CA76" s="5"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" s="5" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E77" s="4" t="str">
+        <f aca="false">CONCATENATE(D77,"_vs_",C77)</f>
+        <v>PPE68_KO_vs_mbio_H37Rv</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5"/>
+      <c r="P77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="W77" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="5"/>
+      <c r="AK77" s="5"/>
+      <c r="AL77" s="5"/>
+      <c r="AM77" s="5"/>
+      <c r="AN77" s="5"/>
+      <c r="AO77" s="5"/>
+      <c r="AP77" s="5"/>
+      <c r="AQ77" s="5"/>
+      <c r="AR77" s="5"/>
+      <c r="AS77" s="5"/>
+      <c r="AT77" s="5"/>
+      <c r="AU77" s="5"/>
+      <c r="AV77" s="5"/>
+      <c r="AW77" s="5"/>
+      <c r="AX77" s="5"/>
+      <c r="AY77" s="5"/>
+      <c r="AZ77" s="5"/>
+      <c r="BA77" s="5"/>
+      <c r="BB77" s="5"/>
+      <c r="BC77" s="5"/>
+      <c r="BD77" s="5"/>
+      <c r="BE77" s="5"/>
+      <c r="BF77" s="5"/>
+      <c r="BG77" s="5"/>
+      <c r="BH77" s="5"/>
+      <c r="BI77" s="5"/>
+      <c r="BJ77" s="5"/>
+      <c r="BK77" s="5"/>
+      <c r="BL77" s="5"/>
+      <c r="BM77" s="5"/>
+      <c r="BN77" s="5"/>
+      <c r="BO77" s="5"/>
+      <c r="BP77" s="5"/>
+      <c r="BQ77" s="5"/>
+      <c r="BR77" s="5"/>
+      <c r="BS77" s="5"/>
+      <c r="BT77" s="5"/>
+      <c r="BU77" s="5"/>
+      <c r="BV77" s="5"/>
+      <c r="BW77" s="5"/>
+      <c r="BX77" s="5"/>
+      <c r="BY77" s="5"/>
+      <c r="BZ77" s="5"/>
+      <c r="CA77" s="5"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="L2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x"/>
@@ -10395,30 +10727,33 @@
     <hyperlink ref="L33" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L34" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L35" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L36" r:id="rId32" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L37" r:id="rId33" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L38" r:id="rId34" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L36" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L37" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
+    <hyperlink ref="L38" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
     <hyperlink ref="L39" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L40" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L41" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
     <hyperlink ref="L42" r:id="rId38" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L43" r:id="rId39" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L44" r:id="rId40" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L45" r:id="rId41" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L46" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L47" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L48" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L43" r:id="rId39" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L44" r:id="rId40" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L45" r:id="rId41" display="https://aac.asm.org/content/61/12/e01334-17"/>
+    <hyperlink ref="L46" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L47" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
+    <hyperlink ref="L48" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
     <hyperlink ref="L49" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L50" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L51" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L52" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
     <hyperlink ref="L53" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L54" r:id="rId50" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L55" r:id="rId51" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L56" r:id="rId52" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L57" r:id="rId53" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L58" r:id="rId54" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L59" r:id="rId55" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L54" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L55" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L56" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
+    <hyperlink ref="L57" r:id="rId53" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L58" r:id="rId54" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
+    <hyperlink ref="L59" r:id="rId55" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L60" r:id="rId56" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L61" r:id="rId57" display="https://mbio.asm.org/content/10/4/e00663-19"/>
+    <hyperlink ref="L62" r:id="rId58" display="https://msystems.asm.org/content/4/4/e00070-19"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="399">
   <si>
     <t xml:space="preserve">column_ID</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">Mtb_strain</t>
   </si>
   <si>
+    <t xml:space="preserve">plot_SI_graph</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003A_Sassetti</t>
   </si>
   <si>
@@ -133,6 +136,9 @@
     <t xml:space="preserve">microarray</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">2003B_Sassetti</t>
   </si>
   <si>
@@ -422,6 +428,9 @@
   </si>
   <si>
     <t xml:space="preserve">ponA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">2015_Kieser_2</t>
@@ -1217,7 +1226,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1245,6 +1254,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1338,7 +1355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1351,15 +1368,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1367,54 +1384,50 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1487,27 +1500,28 @@
   <dimension ref="A1:CA77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C20" activeCellId="0" sqref="C20"/>
+      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="20" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="11" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="20" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1589,7 +1603,9 @@
       <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="3"/>
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
@@ -1645,14 +1661,14 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1661,42 +1677,44 @@
         <v>2003</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="3"/>
+      <c r="AA2" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -1752,14 +1770,14 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1768,40 +1786,42 @@
         <v>2003</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="3"/>
+      <c r="AA3" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
@@ -1857,14 +1877,14 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1873,42 +1893,44 @@
         <v>2005</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="3"/>
+      <c r="AA4" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
@@ -1964,14 +1986,14 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1980,42 +2002,44 @@
         <v>2006</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="3"/>
+      <c r="AA5" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
@@ -2071,14 +2095,14 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -2087,42 +2111,44 @@
         <v>2006</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U6" s="5"/>
       <c r="V6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="3"/>
+      <c r="AA6" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -2178,24 +2204,24 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="str">
         <f aca="false">CONCATENATE(D7,"_vs_",C7)</f>
         <v>griffin_cholesterol_vs_griffin_glycerol</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>2</v>
@@ -2203,51 +2229,53 @@
       <c r="H7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>57</v>
+      <c r="I7" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2011</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB7" s="5"/>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
@@ -2303,62 +2331,64 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="7" t="s">
-        <v>67</v>
+      <c r="I8" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2012</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB8" s="5"/>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
@@ -2414,17 +2444,17 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B9" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="4" t="str">
         <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
@@ -2437,45 +2467,45 @@
       <c r="H9" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="7"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -2531,24 +2561,24 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4" t="str">
         <f aca="false">CONCATENATE(D10,"_vs_",C10)</f>
         <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1</v>
@@ -2557,48 +2587,50 @@
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W10" s="5"/>
       <c r="X10" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y10" s="5"/>
       <c r="Z10" s="5"/>
-      <c r="AA10" s="3"/>
+      <c r="AA10" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -2654,24 +2686,24 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E11" s="4" t="str">
         <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
         <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1</v>
@@ -2680,48 +2712,50 @@
         <v>3</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Y11" s="5"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="3"/>
+      <c r="AA11" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
@@ -2777,17 +2811,17 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E12" s="4" t="str">
         <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
@@ -2801,48 +2835,48 @@
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W12" s="5"/>
       <c r="X12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="7"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -2898,24 +2932,24 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E13" s="4" t="str">
         <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
         <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>95</v>
+      <c r="F13" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>3</v>
@@ -2924,48 +2958,50 @@
         <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W13" s="5"/>
       <c r="X13" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB13" s="5"/>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
@@ -3021,24 +3057,24 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="4" t="str">
         <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>3</v>
@@ -3047,48 +3083,50 @@
         <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="3"/>
+      <c r="AA14" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB14" s="5"/>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
@@ -3144,24 +3182,24 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B15" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15" s="4" t="str">
         <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>3</v>
@@ -3170,48 +3208,50 @@
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="3"/>
+      <c r="AA15" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -3267,24 +3307,24 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>108</v>
+      <c r="C16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="E16" s="4" t="str">
         <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
         <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>106</v>
+      <c r="F16" s="11" t="s">
+        <v>108</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2</v>
@@ -3293,48 +3333,50 @@
         <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="3"/>
+      <c r="AA16" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -3390,24 +3432,24 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="4" t="str">
         <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
         <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>1</v>
@@ -3416,48 +3458,50 @@
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="3"/>
+      <c r="AA17" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
@@ -3513,17 +3557,17 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B18" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E18" s="4" t="str">
         <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
@@ -3537,48 +3581,48 @@
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="Q18" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="R18" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="3"/>
+      <c r="AA18" s="7"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
@@ -3634,17 +3678,17 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E19" s="4" t="str">
         <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
@@ -3658,48 +3702,48 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2013</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q19" s="11" t="s">
         <v>33</v>
       </c>
+      <c r="Q19" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="R19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
@@ -3755,24 +3799,24 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B20" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E20" s="4" t="str">
         <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
         <v>kieser_dPonA1_vs_mbio_H37Rv</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>14</v>
@@ -3781,50 +3825,52 @@
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -3880,62 +3926,64 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
       <c r="AD21" s="5"/>
@@ -3991,62 +4039,64 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
       <c r="Z22" s="5"/>
-      <c r="AA22" s="3"/>
+      <c r="AA22" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -4102,14 +4152,14 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4117,22 +4167,22 @@
         <v>2015</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -4140,15 +4190,17 @@
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
+      <c r="AA23" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB23" s="5"/>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
@@ -4204,24 +4256,24 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B24" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E24" s="4" t="str">
         <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
         <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>2</v>
@@ -4230,46 +4282,48 @@
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2015</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>160</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
       <c r="T24" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
       <c r="Z24" s="5"/>
-      <c r="AA24" s="3"/>
+      <c r="AA24" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB24" s="5"/>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
@@ -4325,24 +4379,24 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E25" s="4" t="str">
         <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
         <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>1</v>
@@ -4351,50 +4405,52 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2016</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
       <c r="Z25" s="5"/>
-      <c r="AA25" s="3"/>
+      <c r="AA25" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -4450,17 +4506,17 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B26" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>175</v>
+      <c r="C26" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="E26" s="4" t="str">
         <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
@@ -4473,43 +4529,43 @@
       <c r="H26" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="13"/>
       <c r="J26" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="3"/>
+      <c r="T26" s="7"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
       <c r="Z26" s="5"/>
-      <c r="AA26" s="3"/>
+      <c r="AA26" s="7"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
       <c r="AD26" s="5"/>
@@ -4565,17 +4621,17 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B27" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>174</v>
+      <c r="C27" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E27" s="4" t="str">
         <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
@@ -4589,46 +4645,46 @@
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
       <c r="T27" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="U27" s="5"/>
       <c r="V27" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
       <c r="Z27" s="5"/>
-      <c r="AA27" s="3"/>
+      <c r="AA27" s="7"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
@@ -4684,17 +4740,17 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E28" s="4" t="str">
         <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
@@ -4708,46 +4764,46 @@
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
       <c r="T28" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="U28" s="5"/>
       <c r="V28" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
       <c r="Z28" s="5"/>
-      <c r="AA28" s="3"/>
+      <c r="AA28" s="7"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
@@ -4803,23 +4859,22 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>175</v>
+      <c r="C29" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="14" t="str">
+        <v>188</v>
+      </c>
+      <c r="E29" s="4" t="str">
         <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
         <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F29" s="15"/>
       <c r="G29" s="5" t="n">
         <v>3</v>
       </c>
@@ -4827,46 +4882,46 @@
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M29" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O29" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
       <c r="T29" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="U29" s="5"/>
       <c r="V29" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
       <c r="Z29" s="5"/>
-      <c r="AA29" s="3"/>
+      <c r="AA29" s="7"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
@@ -4921,59 +4976,61 @@
       <c r="CA29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="14" t="s">
-        <v>188</v>
+      <c r="A30" s="4" t="s">
+        <v>191</v>
       </c>
       <c r="B30" s="5"/>
-      <c r="C30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14" t="s">
-        <v>189</v>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M30" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O30" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
       <c r="T30" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="U30" s="5"/>
       <c r="V30" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="5"/>
-      <c r="AA30" s="3"/>
+      <c r="AA30" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -5028,24 +5085,24 @@
       <c r="CA30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="14" t="s">
-        <v>190</v>
+      <c r="A31" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="B31" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>174</v>
+      <c r="C31" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="14" t="str">
+        <v>194</v>
+      </c>
+      <c r="E31" s="4" t="str">
         <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
         <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="4"/>
       <c r="G31" s="5" t="n">
         <v>2</v>
       </c>
@@ -5053,46 +5110,46 @@
         <v>2</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
       <c r="T31" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="U31" s="5"/>
       <c r="V31" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
       <c r="Z31" s="5"/>
-      <c r="AA31" s="3"/>
+      <c r="AA31" s="7"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
       <c r="AD31" s="5"/>
@@ -5147,24 +5204,24 @@
       <c r="CA31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="14" t="s">
-        <v>194</v>
+      <c r="A32" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E32" s="14" t="str">
+        <v>198</v>
+      </c>
+      <c r="E32" s="4" t="str">
         <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="4"/>
       <c r="G32" s="5" t="n">
         <v>2</v>
       </c>
@@ -5172,46 +5229,46 @@
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M32" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
       <c r="T32" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="U32" s="5"/>
       <c r="V32" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W32" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
       <c r="Z32" s="5"/>
-      <c r="AA32" s="3"/>
+      <c r="AA32" s="7"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -5266,24 +5323,23 @@
       <c r="CA32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="14" t="s">
-        <v>197</v>
+      <c r="A33" s="4" t="s">
+        <v>200</v>
       </c>
       <c r="B33" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>175</v>
+      <c r="C33" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E33" s="14" t="str">
+        <v>198</v>
+      </c>
+      <c r="E33" s="4" t="str">
         <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F33" s="15"/>
       <c r="G33" s="5" t="n">
         <v>3</v>
       </c>
@@ -5291,46 +5347,46 @@
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M33" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O33" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
       <c r="T33" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="U33" s="5"/>
       <c r="V33" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
       <c r="Z33" s="5"/>
-      <c r="AA33" s="3"/>
+      <c r="AA33" s="7"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
       <c r="AD33" s="5"/>
@@ -5385,59 +5441,61 @@
       <c r="CA33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="14" t="s">
-        <v>199</v>
+      <c r="A34" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="B34" s="5"/>
-      <c r="C34" s="12"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14" t="s">
-        <v>200</v>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O34" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
       <c r="T34" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="U34" s="5"/>
       <c r="V34" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="5"/>
-      <c r="AA34" s="3"/>
+      <c r="AA34" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -5492,24 +5550,24 @@
       <c r="CA34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="14" t="s">
-        <v>201</v>
+      <c r="A35" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B35" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>174</v>
+      <c r="C35" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="E35" s="14" t="str">
+        <v>205</v>
+      </c>
+      <c r="E35" s="4" t="str">
         <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
         <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="4"/>
       <c r="G35" s="5" t="n">
         <v>2</v>
       </c>
@@ -5517,46 +5575,46 @@
         <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M35" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
       <c r="T35" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U35" s="5"/>
       <c r="V35" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W35" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
       <c r="Z35" s="5"/>
-      <c r="AA35" s="3"/>
+      <c r="AA35" s="7"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -5611,24 +5669,24 @@
       <c r="CA35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="14" t="s">
-        <v>205</v>
+      <c r="A36" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="B36" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E36" s="14" t="str">
+        <v>209</v>
+      </c>
+      <c r="E36" s="4" t="str">
         <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="4"/>
       <c r="G36" s="5" t="n">
         <v>2</v>
       </c>
@@ -5636,46 +5694,46 @@
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M36" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
       <c r="T36" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U36" s="5"/>
       <c r="V36" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W36" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
       <c r="Z36" s="5"/>
-      <c r="AA36" s="3"/>
+      <c r="AA36" s="7"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
@@ -5730,24 +5788,23 @@
       <c r="CA36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="14" t="s">
-        <v>208</v>
+      <c r="A37" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="B37" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>175</v>
+      <c r="C37" s="13" t="s">
+        <v>178</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E37" s="14" t="str">
+        <v>209</v>
+      </c>
+      <c r="E37" s="4" t="str">
         <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="F37" s="15"/>
       <c r="G37" s="5" t="n">
         <v>3</v>
       </c>
@@ -5755,46 +5812,46 @@
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M37" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O37" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
       <c r="T37" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U37" s="5"/>
       <c r="V37" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W37" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
       <c r="Z37" s="5"/>
-      <c r="AA37" s="3"/>
+      <c r="AA37" s="7"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
@@ -5849,59 +5906,61 @@
       <c r="CA37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="14" t="s">
-        <v>209</v>
+      <c r="A38" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="B38" s="5"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>210</v>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O38" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
       <c r="T38" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="U38" s="5"/>
       <c r="V38" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W38" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
       <c r="Z38" s="5"/>
-      <c r="AA38" s="3"/>
+      <c r="AA38" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB38" s="5"/>
       <c r="AC38" s="5"/>
       <c r="AD38" s="5"/>
@@ -5957,24 +6016,24 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B39" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E39" s="4" t="str">
         <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
         <v>xu_van_16_vs_xu_van_0</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>214</v>
+      <c r="F39" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>3</v>
@@ -5983,48 +6042,50 @@
         <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="T39" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="T39" s="7"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
       <c r="Z39" s="5"/>
-      <c r="AA39" s="3"/>
+      <c r="AA39" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB39" s="5"/>
       <c r="AC39" s="5"/>
       <c r="AD39" s="5"/>
@@ -6080,24 +6141,24 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B40" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E40" s="4" t="str">
         <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
         <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>226</v>
+      <c r="F40" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>3</v>
@@ -6106,48 +6167,50 @@
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
       <c r="Z40" s="5"/>
-      <c r="AA40" s="3"/>
+      <c r="AA40" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB40" s="5"/>
       <c r="AC40" s="5"/>
       <c r="AD40" s="5"/>
@@ -6203,24 +6266,24 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B41" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="E41" s="4" t="str">
         <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
         <v>xu_inh_02_vs_xu_inh_0</v>
       </c>
-      <c r="F41" s="10" t="s">
-        <v>232</v>
+      <c r="F41" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>4</v>
@@ -6229,48 +6292,50 @@
         <v>3</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
       <c r="Z41" s="5"/>
-      <c r="AA41" s="3"/>
+      <c r="AA41" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB41" s="5"/>
       <c r="AC41" s="5"/>
       <c r="AD41" s="5"/>
@@ -6326,23 +6391,23 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B42" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E42" s="4" t="str">
         <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
         <v>xu_inh_025_vs_xu_inh_0</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="11"/>
       <c r="G42" s="5" t="n">
         <v>4</v>
       </c>
@@ -6350,48 +6415,48 @@
         <v>3</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M42" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P42" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R42" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S42" s="5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
       <c r="Z42" s="5"/>
-      <c r="AA42" s="3"/>
+      <c r="AA42" s="7"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
       <c r="AD42" s="5"/>
@@ -6447,24 +6512,24 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B43" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E43" s="4" t="str">
         <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
         <v>xu_emb_2.5_vs_xu_emb_0</v>
       </c>
-      <c r="F43" s="10" t="s">
-        <v>240</v>
+      <c r="F43" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>3</v>
@@ -6473,48 +6538,50 @@
         <v>3</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M43" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N43" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5"/>
-      <c r="AA43" s="3"/>
+      <c r="AA43" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB43" s="5"/>
       <c r="AC43" s="5"/>
       <c r="AD43" s="5"/>
@@ -6570,23 +6637,23 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B44" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E44" s="4" t="str">
         <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
         <v>xu_emb_3_vs_xu_emb_0</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="5" t="n">
         <v>3</v>
       </c>
@@ -6594,48 +6661,48 @@
         <v>3</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M44" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N44" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P44" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
       <c r="Z44" s="5"/>
-      <c r="AA44" s="3"/>
+      <c r="AA44" s="7"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
       <c r="AD44" s="5"/>
@@ -6691,24 +6758,24 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B45" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E45" s="4" t="str">
         <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
         <v>xu_mero_2.5_vs_xu_mero_0</v>
       </c>
-      <c r="F45" s="10" t="s">
-        <v>245</v>
+      <c r="F45" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>2</v>
@@ -6717,48 +6784,50 @@
         <v>2</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>2017</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="M45" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N45" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
       <c r="Z45" s="5"/>
-      <c r="AA45" s="3"/>
+      <c r="AA45" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB45" s="5"/>
       <c r="AC45" s="5"/>
       <c r="AD45" s="5"/>
@@ -6814,24 +6883,24 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B46" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>252</v>
+      <c r="C46" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="E46" s="4" t="str">
         <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
         <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>3</v>
@@ -6844,22 +6913,22 @@
         <v>2017</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="M46" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N46" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -6867,17 +6936,19 @@
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W46" s="5"/>
       <c r="X46" s="5" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Y46" s="5"/>
       <c r="Z46" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA46" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA46" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB46" s="5"/>
       <c r="AC46" s="5"/>
       <c r="AD46" s="5"/>
@@ -6933,24 +7004,24 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B47" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>259</v>
+      <c r="C47" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="E47" s="4" t="str">
         <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
         <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>3</v>
@@ -6963,22 +7034,22 @@
         <v>2017</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N47" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P47" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -6986,17 +7057,19 @@
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W47" s="5"/>
       <c r="X47" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Y47" s="5"/>
       <c r="Z47" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA47" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA47" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB47" s="5"/>
       <c r="AC47" s="5"/>
       <c r="AD47" s="5"/>
@@ -7052,17 +7125,17 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B48" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>259</v>
+      <c r="C48" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="E48" s="4" t="str">
         <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
@@ -7080,22 +7153,22 @@
         <v>2017</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>257</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -7103,90 +7176,90 @@
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W48" s="5"/>
       <c r="X48" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Y48" s="5"/>
       <c r="Z48" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="3"/>
-      <c r="AY48" s="3"/>
-      <c r="AZ48" s="3"/>
-      <c r="BA48" s="3"/>
-      <c r="BB48" s="3"/>
-      <c r="BC48" s="3"/>
-      <c r="BD48" s="3"/>
-      <c r="BE48" s="3"/>
-      <c r="BF48" s="3"/>
-      <c r="BG48" s="3"/>
-      <c r="BH48" s="3"/>
-      <c r="BI48" s="3"/>
-      <c r="BJ48" s="3"/>
-      <c r="BK48" s="3"/>
-      <c r="BL48" s="3"/>
-      <c r="BM48" s="3"/>
-      <c r="BN48" s="3"/>
-      <c r="BO48" s="3"/>
-      <c r="BP48" s="3"/>
-      <c r="BQ48" s="3"/>
-      <c r="BR48" s="3"/>
-      <c r="BS48" s="3"/>
-      <c r="BT48" s="3"/>
-      <c r="BU48" s="3"/>
-      <c r="BV48" s="3"/>
-      <c r="BW48" s="3"/>
-      <c r="BX48" s="3"/>
-      <c r="BY48" s="3"/>
-      <c r="BZ48" s="3"/>
-      <c r="CA48" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+      <c r="AW48" s="7"/>
+      <c r="AX48" s="7"/>
+      <c r="AY48" s="7"/>
+      <c r="AZ48" s="7"/>
+      <c r="BA48" s="7"/>
+      <c r="BB48" s="7"/>
+      <c r="BC48" s="7"/>
+      <c r="BD48" s="7"/>
+      <c r="BE48" s="7"/>
+      <c r="BF48" s="7"/>
+      <c r="BG48" s="7"/>
+      <c r="BH48" s="7"/>
+      <c r="BI48" s="7"/>
+      <c r="BJ48" s="7"/>
+      <c r="BK48" s="7"/>
+      <c r="BL48" s="7"/>
+      <c r="BM48" s="7"/>
+      <c r="BN48" s="7"/>
+      <c r="BO48" s="7"/>
+      <c r="BP48" s="7"/>
+      <c r="BQ48" s="7"/>
+      <c r="BR48" s="7"/>
+      <c r="BS48" s="7"/>
+      <c r="BT48" s="7"/>
+      <c r="BU48" s="7"/>
+      <c r="BV48" s="7"/>
+      <c r="BW48" s="7"/>
+      <c r="BX48" s="7"/>
+      <c r="BY48" s="7"/>
+      <c r="BZ48" s="7"/>
+      <c r="CA48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B49" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E49" s="4" t="str">
         <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
         <v>carey_621_vs_carey_rv</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>14</v>
@@ -7195,40 +7268,40 @@
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M49" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S49" s="5"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -7236,7 +7309,9 @@
       <c r="Z49" s="5" t="n">
         <v>621</v>
       </c>
-      <c r="AA49" s="3"/>
+      <c r="AA49" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB49" s="5"/>
       <c r="AC49" s="5"/>
       <c r="AD49" s="5"/>
@@ -7292,24 +7367,24 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B50" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E50" s="4" t="str">
         <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
         <v>carey_630_vs_carey_rv</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>14</v>
@@ -7318,40 +7393,40 @@
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M50" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N50" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -7359,7 +7434,9 @@
       <c r="Z50" s="5" t="n">
         <v>630</v>
       </c>
-      <c r="AA50" s="3"/>
+      <c r="AA50" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB50" s="5"/>
       <c r="AC50" s="5"/>
       <c r="AD50" s="5"/>
@@ -7415,24 +7492,24 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B51" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E51" s="4" t="str">
         <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
         <v>carey_631_vs_carey_rv</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>14</v>
@@ -7441,40 +7518,40 @@
         <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N51" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S51" s="5"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -7482,7 +7559,9 @@
       <c r="Z51" s="5" t="n">
         <v>631</v>
       </c>
-      <c r="AA51" s="3"/>
+      <c r="AA51" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB51" s="5"/>
       <c r="AC51" s="5"/>
       <c r="AD51" s="5"/>
@@ -7538,24 +7617,24 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B52" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E52" s="4" t="str">
         <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
         <v>carey_632_vs_carey_rv</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>14</v>
@@ -7564,40 +7643,40 @@
         <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M52" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S52" s="5"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -7605,7 +7684,9 @@
       <c r="Z52" s="5" t="n">
         <v>632</v>
       </c>
-      <c r="AA52" s="3"/>
+      <c r="AA52" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB52" s="5"/>
       <c r="AC52" s="5"/>
       <c r="AD52" s="5"/>
@@ -7661,24 +7742,24 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B53" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E53" s="4" t="str">
         <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
         <v>carey_641_vs_carey_rv</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>14</v>
@@ -7687,40 +7768,40 @@
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M53" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S53" s="5"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -7728,7 +7809,9 @@
       <c r="Z53" s="5" t="n">
         <v>641</v>
       </c>
-      <c r="AA53" s="3"/>
+      <c r="AA53" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB53" s="5"/>
       <c r="AC53" s="5"/>
       <c r="AD53" s="5"/>
@@ -7784,24 +7867,24 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B54" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E54" s="4" t="str">
         <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
         <v>carey_662_vs_carey_rv</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>14</v>
@@ -7810,40 +7893,40 @@
         <v>2</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M54" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P54" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -7851,7 +7934,9 @@
       <c r="Z54" s="5" t="n">
         <v>662</v>
       </c>
-      <c r="AA54" s="3"/>
+      <c r="AA54" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB54" s="5"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
@@ -7907,24 +7992,24 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B55" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E55" s="4" t="str">
         <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
         <v>carey_663_vs_carey_rv</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>14</v>
@@ -7933,40 +8018,40 @@
         <v>2</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M55" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P55" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -7974,7 +8059,9 @@
       <c r="Z55" s="5" t="n">
         <v>663</v>
       </c>
-      <c r="AA55" s="3"/>
+      <c r="AA55" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB55" s="5"/>
       <c r="AC55" s="5"/>
       <c r="AD55" s="5"/>
@@ -8030,24 +8117,24 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E56" s="4" t="str">
         <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
         <v>carey_667_vs_carey_rv</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>14</v>
@@ -8056,40 +8143,40 @@
         <v>2</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>271</v>
       </c>
       <c r="M56" s="5" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P56" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S56" s="5"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -8097,7 +8184,9 @@
       <c r="Z56" s="5" t="n">
         <v>667</v>
       </c>
-      <c r="AA56" s="3"/>
+      <c r="AA56" s="7" t="s">
+        <v>136</v>
+      </c>
       <c r="AB56" s="5"/>
       <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
@@ -8153,24 +8242,24 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B57" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E57" s="4" t="str">
         <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
         <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>8</v>
@@ -8179,52 +8268,54 @@
         <v>8</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="M57" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
       <c r="Z57" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA57" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA57" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB57" s="5"/>
       <c r="AC57" s="5"/>
       <c r="AD57" s="5"/>
@@ -8280,24 +8371,24 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B58" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="E58" s="4" t="str">
         <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
         <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>8</v>
@@ -8306,52 +8397,54 @@
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>2018</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="M58" s="5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P58" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W58" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA58" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA58" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="AB58" s="5"/>
       <c r="AC58" s="5"/>
       <c r="AD58" s="5"/>
@@ -8407,17 +8500,17 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B59" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="E59" s="4" t="str">
         <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
@@ -8435,22 +8528,22 @@
         <v>2019</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="L59" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="L59" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="M59" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P59" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
@@ -8458,19 +8551,19 @@
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W59" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA59" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA59" s="7"/>
       <c r="AB59" s="5"/>
       <c r="AC59" s="5"/>
       <c r="AD59" s="5"/>
@@ -8526,17 +8619,17 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B60" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E60" s="4" t="str">
         <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
@@ -8554,22 +8647,22 @@
         <v>2019</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="L60" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="L60" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="M60" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N60" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P60" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
@@ -8577,19 +8670,19 @@
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W60" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Y60" s="5"/>
       <c r="Z60" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA60" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA60" s="7"/>
       <c r="AB60" s="5"/>
       <c r="AC60" s="5"/>
       <c r="AD60" s="5"/>
@@ -8645,17 +8738,17 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B61" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E61" s="4" t="str">
         <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
@@ -8673,22 +8766,22 @@
         <v>2019</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>315</v>
       </c>
       <c r="M61" s="5" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N61" s="5" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P61" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
@@ -8696,19 +8789,19 @@
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W61" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X61" s="5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Y61" s="5"/>
       <c r="Z61" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA61" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA61" s="7"/>
       <c r="AB61" s="5"/>
       <c r="AC61" s="5"/>
       <c r="AD61" s="5"/>
@@ -8764,17 +8857,17 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B62" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E62" s="4" t="str">
         <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
@@ -8792,42 +8885,42 @@
         <v>2019</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="L62" s="16" t="s">
-        <v>323</v>
+        <v>325</v>
+      </c>
+      <c r="L62" s="15" t="s">
+        <v>326</v>
       </c>
       <c r="M62" s="5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P62" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="S62" s="5"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W62" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
       <c r="Z62" s="5"/>
-      <c r="AA62" s="3"/>
+      <c r="AA62" s="7"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
       <c r="AD62" s="5"/>
@@ -8883,17 +8976,17 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B63" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E63" s="4" t="str">
         <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
@@ -8907,52 +9000,52 @@
         <v>3</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M63" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O63" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P63" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S63" s="5"/>
       <c r="T63" s="5" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="U63" s="5"/>
       <c r="V63" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W63" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA63" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA63" s="7"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
       <c r="AD63" s="5"/>
@@ -9008,17 +9101,17 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B64" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E64" s="4" t="str">
         <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
@@ -9032,52 +9125,52 @@
         <v>2</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O64" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P64" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S64" s="5"/>
       <c r="T64" s="5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="U64" s="5"/>
       <c r="V64" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W64" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
       <c r="Z64" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA64" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA64" s="7"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
       <c r="AD64" s="5"/>
@@ -9133,17 +9226,17 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B65" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>342</v>
+        <v>344</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="E65" s="4" t="str">
         <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
@@ -9157,48 +9250,48 @@
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S65" s="5"/>
       <c r="T65" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W65" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
       <c r="Z65" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA65" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA65" s="7"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
       <c r="AD65" s="5"/>
@@ -9254,17 +9347,17 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B66" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>347</v>
+        <v>349</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>350</v>
       </c>
       <c r="E66" s="4" t="str">
         <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
@@ -9278,48 +9371,48 @@
         <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S66" s="5"/>
       <c r="T66" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="U66" s="5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="V66" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W66" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
       <c r="Z66" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA66" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA66" s="7"/>
       <c r="AB66" s="5"/>
       <c r="AC66" s="5"/>
       <c r="AD66" s="5"/>
@@ -9375,17 +9468,17 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B67" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>354</v>
       </c>
       <c r="E67" s="4" t="str">
         <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
@@ -9399,48 +9492,48 @@
         <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S67" s="5"/>
       <c r="T67" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="U67" s="5" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="V67" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W67" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
       <c r="Z67" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA67" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA67" s="7"/>
       <c r="AB67" s="5"/>
       <c r="AC67" s="5"/>
       <c r="AD67" s="5"/>
@@ -9496,17 +9589,17 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B68" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>355</v>
+      <c r="C68" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>358</v>
       </c>
       <c r="E68" s="4" t="str">
         <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
@@ -9520,48 +9613,48 @@
         <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
       <c r="P68" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S68" s="5"/>
       <c r="T68" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="U68" s="5" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W68" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
       <c r="Z68" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA68" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA68" s="7"/>
       <c r="AB68" s="5"/>
       <c r="AC68" s="5"/>
       <c r="AD68" s="5"/>
@@ -9617,17 +9710,17 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B69" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>360</v>
+        <v>362</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="E69" s="4" t="str">
         <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
@@ -9641,48 +9734,48 @@
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="J69" s="5"/>
       <c r="K69" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S69" s="5"/>
       <c r="T69" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="U69" s="5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="V69" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W69" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
       <c r="Z69" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA69" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA69" s="7"/>
       <c r="AB69" s="5"/>
       <c r="AC69" s="5"/>
       <c r="AD69" s="5"/>
@@ -9738,17 +9831,17 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B70" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>364</v>
+        <v>344</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="E70" s="4" t="str">
         <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
@@ -9762,48 +9855,48 @@
         <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="J70" s="5"/>
       <c r="K70" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M70" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S70" s="5"/>
       <c r="T70" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="U70" s="5" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="V70" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W70" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
       <c r="Z70" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA70" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA70" s="7"/>
       <c r="AB70" s="5"/>
       <c r="AC70" s="5"/>
       <c r="AD70" s="5"/>
@@ -9859,17 +9952,17 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B71" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>371</v>
       </c>
       <c r="E71" s="4" t="str">
         <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
@@ -9883,48 +9976,48 @@
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M71" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N71" s="5"/>
       <c r="O71" s="5"/>
       <c r="P71" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S71" s="5"/>
       <c r="T71" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="U71" s="5" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="V71" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W71" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
       <c r="Z71" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA71" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA71" s="7"/>
       <c r="AB71" s="5"/>
       <c r="AC71" s="5"/>
       <c r="AD71" s="5"/>
@@ -9980,17 +10073,17 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B72" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>372</v>
+        <v>362</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="E72" s="4" t="str">
         <f aca="false">CONCATENATE(D72,"_vs_",C72)</f>
@@ -10004,48 +10097,48 @@
         <v>1</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="J72" s="5"/>
       <c r="K72" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M72" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
       <c r="P72" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S72" s="5"/>
       <c r="T72" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="U72" s="5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="V72" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W72" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
       <c r="Z72" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA72" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA72" s="7"/>
       <c r="AB72" s="5"/>
       <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
@@ -10101,17 +10194,17 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B73" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>377</v>
+      <c r="C73" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>380</v>
       </c>
       <c r="E73" s="4" t="str">
         <f aca="false">CONCATENATE(D73,"_vs_",C73)</f>
@@ -10125,46 +10218,46 @@
         <v>4</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M73" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S73" s="5"/>
       <c r="T73" s="5"/>
       <c r="U73" s="5" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="V73" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W73" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
       <c r="Z73" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA73" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA73" s="7"/>
       <c r="AB73" s="5"/>
       <c r="AC73" s="5"/>
       <c r="AD73" s="5"/>
@@ -10220,17 +10313,17 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B74" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>381</v>
+        <v>74</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>384</v>
       </c>
       <c r="E74" s="4" t="str">
         <f aca="false">CONCATENATE(D74,"_vs_",C74)</f>
@@ -10244,46 +10337,46 @@
         <v>1</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="J74" s="5"/>
       <c r="K74" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M74" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S74" s="5"/>
       <c r="T74" s="5"/>
       <c r="U74" s="5" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="V74" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W74" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
       <c r="Z74" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA74" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA74" s="7"/>
       <c r="AB74" s="5"/>
       <c r="AC74" s="5"/>
       <c r="AD74" s="5"/>
@@ -10339,17 +10432,17 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B75" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="12" t="s">
-        <v>385</v>
+        <v>74</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>388</v>
       </c>
       <c r="E75" s="4" t="str">
         <f aca="false">CONCATENATE(D75,"_vs_",C75)</f>
@@ -10363,46 +10456,46 @@
         <v>1</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M75" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N75" s="5"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S75" s="5"/>
       <c r="T75" s="5"/>
       <c r="U75" s="5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="V75" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W75" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
       <c r="Z75" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA75" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA75" s="7"/>
       <c r="AB75" s="5"/>
       <c r="AC75" s="5"/>
       <c r="AD75" s="5"/>
@@ -10458,17 +10551,17 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B76" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>389</v>
+        <v>74</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>392</v>
       </c>
       <c r="E76" s="4" t="str">
         <f aca="false">CONCATENATE(D76,"_vs_",C76)</f>
@@ -10482,46 +10575,46 @@
         <v>1</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
       <c r="P76" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S76" s="5"/>
       <c r="T76" s="5"/>
       <c r="U76" s="5" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="V76" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W76" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
       <c r="Z76" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA76" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA76" s="7"/>
       <c r="AB76" s="5"/>
       <c r="AC76" s="5"/>
       <c r="AD76" s="5"/>
@@ -10577,17 +10670,17 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B77" s="5" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>393</v>
+        <v>74</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>396</v>
       </c>
       <c r="E77" s="4" t="str">
         <f aca="false">CONCATENATE(D77,"_vs_",C77)</f>
@@ -10601,46 +10694,46 @@
         <v>1</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="J77" s="5"/>
       <c r="K77" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M77" s="5" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S77" s="5"/>
       <c r="T77" s="5"/>
       <c r="U77" s="5" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="V77" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="W77" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA77" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="AA77" s="7"/>
       <c r="AB77" s="5"/>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -1261,7 +1261,7 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val=""/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -1500,28 +1500,25 @@
   <dimension ref="A1:CA77"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA9" activeCellId="0" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="AC15" activeCellId="0" sqref="AC15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="18" min="11" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
-    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="26" min="20" style="0" width="14.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/data/column_descriptors_standardized.xlsx
+++ b/data/column_descriptors_standardized.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajinich/Documents/git_repos/mtb_tn_db/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DB7347CB-6ABB-7841-A9B6-32175689E269}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22400" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,1273 +25,1265 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="399">
-  <si>
-    <t xml:space="preserve">column_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wig_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_ID_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">column_ID_SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_replicates_control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_replicates_experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">meaning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper_URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last_author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vitro_cell_vivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vitro_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carbon_source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stress_description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GI_RvID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GI_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MicArr_or_TnSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stat_analysis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mouse_strain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cell_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mtb_strain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plot_SI_graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003A_Sassetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genes required for mycobacterial growth defined by high density mutagenesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molecular_microbiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sassetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vitro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7H10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glycerol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">microarray</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003B_Sassetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genetic requirements for mycobacterial survival during infection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC240732/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PNAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_vivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005_Rengarajan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genome-wide requirements for Mycobacterium tuberculosis adaptation and survival in macrophages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1142121/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rengarajan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in_cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006_Joshi_GI_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characterization of mycobacterial virulence genes through genetic interaction mapping</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006_Joshi_GI_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3502c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011_Griffin_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffin_glycerol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griffin_cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhiting altered fitness during cholesterol catabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-Resolution Phenotypic Profiling Defines Genes Essential for Mycobacterial Growth and Cholesterol Catabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLOS_pathogens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimal_media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cholesterol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TnSeq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H37Rv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012_Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in growth on 7H10 agar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Assessment of Genomic Regions Required for Growth in Mycobacterium tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3460630/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_DeJesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbio_H37Rv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Hidden Markov Model for identifying essential and growth-defect regions in bacterial genomes from transposon insertion sequencing data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pubmed/24103077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMC_bioinformatics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeJesus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ioerger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_input_library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_wt_mouse_d10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in mouse infection model after 10 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan biosynthesis protects mycobacteria from CD4 T cell-mediated killing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_wt_mouse_d45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in mouse infection model after 45 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_mhcii_mouse_d10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in immunodeficient mice after 10 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MHCII−/−</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_mhcii_mouse_d45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in immunodeficient mice after 45 days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_Tyloxapol_pH_4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_Tyloxapol_pH_6.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under acid stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acid stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_pcit_pH_4.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under acid stress in phosphate-citrate buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acid stress in phosphate-citrate buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_pH_7.0_no_NO_control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_DETA-NO_pH_7.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under NO stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nitrosative (NO) stress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_in_vitro_control_Rescue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_Trp_Rescue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under tryptophan starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tryptophan starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_AA_Rescue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under amino acid starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amino acid starvation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013_Zhang_3F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_Fe_450uM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhang_Fe_1.5mM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness under high iron concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">high iron concentrations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kieser_dPonA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_GI_1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="400">
+  <si>
+    <t>column_ID</t>
+  </si>
+  <si>
+    <t>wig_files</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>experimental</t>
+  </si>
+  <si>
+    <t>column_ID_2</t>
+  </si>
+  <si>
+    <t>column_ID_SI</t>
+  </si>
+  <si>
+    <t>num_replicates_control</t>
+  </si>
+  <si>
+    <t>num_replicates_experimental</t>
+  </si>
+  <si>
+    <t>meaning</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>paper_title</t>
+  </si>
+  <si>
+    <t>paper_URL</t>
+  </si>
+  <si>
+    <t>journal</t>
+  </si>
+  <si>
+    <t>first_author</t>
+  </si>
+  <si>
+    <t>last_author</t>
+  </si>
+  <si>
+    <t>in_vitro_cell_vivo</t>
+  </si>
+  <si>
+    <t>in_vitro_media</t>
+  </si>
+  <si>
+    <t>carbon_source</t>
+  </si>
+  <si>
+    <t>stress_description</t>
+  </si>
+  <si>
+    <t>GI_RvID</t>
+  </si>
+  <si>
+    <t>GI_name</t>
+  </si>
+  <si>
+    <t>MicArr_or_TnSeq</t>
+  </si>
+  <si>
+    <t>stat_analysis</t>
+  </si>
+  <si>
+    <t>mouse_strain</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>Mtb_strain</t>
+  </si>
+  <si>
+    <t>plot_SI_graph</t>
+  </si>
+  <si>
+    <t>2003A_Sassetti</t>
+  </si>
+  <si>
+    <t>Genes required for mycobacterial growth defined by high density mutagenesis</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x</t>
+  </si>
+  <si>
+    <t>molecular_microbiology</t>
+  </si>
+  <si>
+    <t>Sassetti</t>
+  </si>
+  <si>
+    <t>Rubin</t>
+  </si>
+  <si>
+    <t>in_vitro</t>
+  </si>
+  <si>
+    <t>7H10</t>
+  </si>
+  <si>
+    <t>glycerol</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>microarray</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2003B_Sassetti</t>
+  </si>
+  <si>
+    <t>Genetic requirements for mycobacterial survival during infection</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC240732/</t>
+  </si>
+  <si>
+    <t>PNAS</t>
+  </si>
+  <si>
+    <t>in_vivo</t>
+  </si>
+  <si>
+    <t>2005_Rengarajan</t>
+  </si>
+  <si>
+    <t>Genome-wide requirements for Mycobacterium tuberculosis adaptation and survival in macrophages</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1142121/</t>
+  </si>
+  <si>
+    <t>Rengarajan</t>
+  </si>
+  <si>
+    <t>in_cell</t>
+  </si>
+  <si>
+    <t>2006_Joshi_GI_1</t>
+  </si>
+  <si>
+    <t>Characterization of mycobacterial virulence genes through genetic interaction mapping</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/</t>
+  </si>
+  <si>
+    <t>Joshi</t>
+  </si>
+  <si>
+    <t>Rv0173</t>
+  </si>
+  <si>
+    <t>2006_Joshi_GI_2</t>
+  </si>
+  <si>
+    <t>Rv3502c</t>
+  </si>
+  <si>
+    <t>2011_Griffin_2</t>
+  </si>
+  <si>
+    <t>griffin_glycerol</t>
+  </si>
+  <si>
+    <t>griffin_cholesterol</t>
+  </si>
+  <si>
+    <t>Mutants exhiting altered fitness during cholesterol catabolism</t>
+  </si>
+  <si>
+    <t>High-Resolution Phenotypic Profiling Defines Genes Essential for Mycobacterial Growth and Cholesterol Catabolism</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/</t>
+  </si>
+  <si>
+    <t>PLOS_pathogens</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>minimal_media</t>
+  </si>
+  <si>
+    <t>cholesterol</t>
+  </si>
+  <si>
+    <t>TnSeq</t>
+  </si>
+  <si>
+    <t>H37Rv</t>
+  </si>
+  <si>
+    <t>2012_Zhang</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in growth on 7H10 agar</t>
+  </si>
+  <si>
+    <t>Global Assessment of Genomic Regions Required for Growth in Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3460630/</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>2013_DeJesus</t>
+  </si>
+  <si>
+    <t>mbio_H37Rv</t>
+  </si>
+  <si>
+    <t>A Hidden Markov Model for identifying essential and growth-defect regions in bacterial genomes from transposon insertion sequencing data.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/24103077</t>
+  </si>
+  <si>
+    <t>BMC_bioinformatics</t>
+  </si>
+  <si>
+    <t>DeJesus</t>
+  </si>
+  <si>
+    <t>Ioerger</t>
+  </si>
+  <si>
+    <t>2013_Zhang_1A</t>
+  </si>
+  <si>
+    <t>zhang_input_library</t>
+  </si>
+  <si>
+    <t>zhang_wt_mouse_d10</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in mouse infection model after 10 days</t>
+  </si>
+  <si>
+    <t>Tryptophan biosynthesis protects mycobacteria from CD4 T cell-mediated killing</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>WT</t>
+  </si>
+  <si>
+    <t>2013_Zhang_1B</t>
+  </si>
+  <si>
+    <t>zhang_wt_mouse_d45</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in mouse infection model after 45 days</t>
+  </si>
+  <si>
+    <t>2013_Zhang_2A</t>
+  </si>
+  <si>
+    <t>zhang_mhcii_mouse_d10</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in immunodeficient mice after 10 days</t>
+  </si>
+  <si>
+    <t>MHCII−/−</t>
+  </si>
+  <si>
+    <t>2013_Zhang_2B</t>
+  </si>
+  <si>
+    <t>zhang_mhcii_mouse_d45</t>
+  </si>
+  <si>
+    <t>2013_Zhang_2</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in immunodeficient mice after 45 days</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3A</t>
+  </si>
+  <si>
+    <t>zhang_Tyloxapol_pH_4.5</t>
+  </si>
+  <si>
+    <t>zhang_Tyloxapol_pH_6.5</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under acid stress</t>
+  </si>
+  <si>
+    <t>acid stress</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3B</t>
+  </si>
+  <si>
+    <t>zhang_pcit_pH_4.5</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under acid stress in phosphate-citrate buffer</t>
+  </si>
+  <si>
+    <t>acid stress in phosphate-citrate buffer</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3C</t>
+  </si>
+  <si>
+    <t>zhang_pH_7.0_no_NO_control</t>
+  </si>
+  <si>
+    <t>zhang_DETA-NO_pH_7.0</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under NO stress</t>
+  </si>
+  <si>
+    <t>nitrosative (NO) stress</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3D</t>
+  </si>
+  <si>
+    <t>zhang_in_vitro_control_Rescue</t>
+  </si>
+  <si>
+    <t>zhang_Trp_Rescue</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under tryptophan starvation</t>
+  </si>
+  <si>
+    <t>tryptophan starvation</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3E</t>
+  </si>
+  <si>
+    <t>zhang_AA_Rescue</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under amino acid starvation</t>
+  </si>
+  <si>
+    <t>amino acid starvation</t>
+  </si>
+  <si>
+    <t>2013_Zhang_3F</t>
+  </si>
+  <si>
+    <t>zhang_Fe_450uM</t>
+  </si>
+  <si>
+    <t>zhang_Fe_1.5mM</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness under high iron concentrations</t>
+  </si>
+  <si>
+    <t>high iron concentrations</t>
+  </si>
+  <si>
+    <t>2015_Kieser_1</t>
+  </si>
+  <si>
+    <t>kieser_dPonA1</t>
+  </si>
+  <si>
+    <t>2015_Kieser_GI_1</t>
   </si>
   <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ponA1, a major peptidoglycan biosynthetic enzyme. </t>
   </si>
   <si>
-    <t xml:space="preserve">Peptidoglycan synthesis in Mycobacterium tuberculosis is organized into networks with varying drug susceptibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kieser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ponA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_GI_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ponA2, a major peptidoglycan biosynthetic enzyme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ponA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Kieser_GI_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene ldtB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv2518c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ldtB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Mendum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipid metabolism and Type VII secretion systems dominate the genome scale virulence profile of Mycobacterium tuberculosis in human dendritic cells.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMC_genomics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mendum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stewart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015_Nambi_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nambi_2015_wt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nambi_2015_ctpC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016_Nambi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in mouse infection model (spleen) in the absence of gene ctpC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The oxidative stress network of Mycobacterium tuberculosis reveals coordination between radical detoxification systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell_host_microbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nambi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ctpC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016_Korte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">korte_2016_otsa_7h9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">korte_2016_otsa_trehalose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in trehalose in the absence of gene otsA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trehalose-6-Phosphate-Mediated Toxicity Determines Essentiality of OtsB2 in Mycobacterium tuberculosis In Vitro and in Mice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalscheuer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7H9 with 500uM trehalose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3490</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otsA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_H37Rv_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_H37Rv_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistical analysis of genetic interactions in Tn-Seq data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nucleic_acids_research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_2A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv1432_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv1432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_2B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv1432_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1432 (measured after 32 days of growth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_2C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_GI_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv1565c_day0</t>
+    <t>Peptidoglycan synthesis in Mycobacterium tuberculosis is organized into networks with varying drug susceptibility</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/</t>
+  </si>
+  <si>
+    <t>Kieser</t>
+  </si>
+  <si>
+    <t>Rv0050</t>
+  </si>
+  <si>
+    <t>ponA1</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>2015_Kieser_2</t>
+  </si>
+  <si>
+    <t>2015_Kieser_GI_2</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene ponA2, a major peptidoglycan biosynthetic enzyme</t>
+  </si>
+  <si>
+    <t>Rv3682</t>
+  </si>
+  <si>
+    <t>ponA2</t>
+  </si>
+  <si>
+    <t>2015_Kieser_3</t>
+  </si>
+  <si>
+    <t>2015_Kieser_GI_3</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene ldtB</t>
+  </si>
+  <si>
+    <t>Rv2518c</t>
+  </si>
+  <si>
+    <t>ldtB</t>
+  </si>
+  <si>
+    <t>2015_Mendum</t>
+  </si>
+  <si>
+    <t>Lipid metabolism and Type VII secretion systems dominate the genome scale virulence profile of Mycobacterium tuberculosis in human dendritic cells.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/</t>
+  </si>
+  <si>
+    <t>BMC_genomics</t>
+  </si>
+  <si>
+    <t>Mendum</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>2015_Nambi_1</t>
+  </si>
+  <si>
+    <t>nambi_2015_wt</t>
+  </si>
+  <si>
+    <t>nambi_2015_ctpC</t>
+  </si>
+  <si>
+    <t>2016_Nambi</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in mouse infection model (spleen) in the absence of gene ctpC</t>
+  </si>
+  <si>
+    <t>The oxidative stress network of Mycobacterium tuberculosis reveals coordination between radical detoxification systems</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/</t>
+  </si>
+  <si>
+    <t>Cell_host_microbe</t>
+  </si>
+  <si>
+    <t>Nambi</t>
+  </si>
+  <si>
+    <t>Rv3270</t>
+  </si>
+  <si>
+    <t>ctpC</t>
+  </si>
+  <si>
+    <t>2016_Korte</t>
+  </si>
+  <si>
+    <t>korte_2016_otsa_7h9</t>
+  </si>
+  <si>
+    <t>korte_2016_otsa_trehalose</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in trehalose in the absence of gene otsA</t>
+  </si>
+  <si>
+    <t>Trehalose-6-Phosphate-Mediated Toxicity Determines Essentiality of OtsB2 in Mycobacterium tuberculosis In Vitro and in Mice</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043</t>
+  </si>
+  <si>
+    <t>Korte</t>
+  </si>
+  <si>
+    <t>Kalscheuer</t>
+  </si>
+  <si>
+    <t>7H9 with 500uM trehalose</t>
+  </si>
+  <si>
+    <t>Rv3490</t>
+  </si>
+  <si>
+    <t>otsA</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_1</t>
+  </si>
+  <si>
+    <t>dejesus_H37Rv_day0</t>
+  </si>
+  <si>
+    <t>dejesus_H37Rv_day32</t>
+  </si>
+  <si>
+    <t>Statistical analysis of genetic interactions in Tn-Seq data</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/</t>
+  </si>
+  <si>
+    <t>Nucleic_acids_research</t>
+  </si>
+  <si>
+    <t>Transit</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_2A</t>
+  </si>
+  <si>
+    <t>dejesus_Rv1432_day0</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv1432</t>
+  </si>
+  <si>
+    <t>Rv1432</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_2B</t>
+  </si>
+  <si>
+    <t>dejesus_Rv1432_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv1432 (measured after 32 days of growth)</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_2C</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_GI_1A</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_1A</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_3A</t>
+  </si>
+  <si>
+    <t>dejesus_Rv1565c_day0</t>
   </si>
   <si>
     <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c </t>
   </si>
   <si>
-    <t xml:space="preserve">Rv1565c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv1565c_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c (measured after 32 days of growth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_3C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1565c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_GI_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv2680_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv2680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv2680</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv2680_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv2680 (measured after 32 days of growth)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_4C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_GI_1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017B_DeJesus_1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_van_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_van_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in presence of vancomycin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chemical Genetic Interaction Profiling Reveals Determinants of Intrinsic Antibiotic Resistance in Mycobacterium tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://aac.asm.org/content/61/12/e01334-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antimicrobial_Agents_and_Chemotherapy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ehrt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7H9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vancomycin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_rif_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_rif_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in presence of rifampin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rifampicin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_3A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_inh_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_inh_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in presence of isoniazid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoniazid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_inh_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_emb_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_emb_2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in presence of ethambutol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethambutol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_4B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_emb_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Xu_1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_mero_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xu_mero_2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in presence of meropenem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meropenem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Mishra_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mishra_B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mishra_C3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitric oxide prevents a pathogen-permissive granulocytic inflammation during tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature_Microbiology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mishra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3HeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Mishra_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mishra_NOS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos2-/-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017_Mishra_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos2-/- AND C3HeB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_rv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=621) from East Asian lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TnSeq of Mycobacterium tuberculosis clinical isolates reveals strain-specific antibiotic liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLOS_Pathogens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fortune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=630) from Euro-American lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=631) from East Asian lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=632) from East Asian lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_641</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=641) from Indo-Oceanic lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=662) from East Asian lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=663) from Euro-American lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Carey_1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carey_667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Differential genetic requirements of clinical Mtb strain (ID=667) from Indo-Oceanic lineage (compared to H37Rv control)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Rittershaus_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritterhaus_hypoxia_input</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritterhaus_hypoxia_H3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Rittershaus_1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in hypoxic culture (as measured after 3 weeks of culture) (compared to input pool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Lysine Acetyltransferase Contributes to the Metabolic Adaptation to Hypoxia in Mycobacterium tuberculosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sciencedirect.com/science/article/pii/S2451945618303295</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell_Chemical_Biology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rittershaus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_weeks_hypoxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Rittershaus_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ritterhaus_hypoxia_H6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018_Rittershaus_1A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in hypoxic culture (as measured after 6 weeks of culture) (compared to input pool)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_weeks_hypoxia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019_Bellerose_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bellerose_MB_pretreatment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bellerose_MB_d21_untreated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Variants in the Glycerol Kinase Gene Reduce Tuberculosis Drug Efficacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mbio.asm.org/content/10/4/e00663-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mBio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bellerose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BALB/cJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019_Bellerose_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bellerose_MB_HRZE_wk1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019_Bellerose_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019_Minato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minato_rich_plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minato_minimal_plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genomewide Assessment of Mycobacterium tuberculosis Conditionally Essential Metabolic Pathways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://msystems.asm.org/content/4/4/e00070-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mSystems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baughn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rich/minimal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">several</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv0307c_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv0307c_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv0307c_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv0307c (measured after 32 days of culture)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NaN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0307c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3916c_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv3916c_day0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dejesus_Rv3916c_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3916c (measured after 32 days of culture)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3916c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv0950c_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0950c_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv0950c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0950c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv0954_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RJ_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0954_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv0954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv0954</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv1096_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv1096_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv1096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv1096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3005c_KO_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3005c_KO_day32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3005c (measured after 32 days of culture)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3005c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3594_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubin_FLUTE_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3594_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3594</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3684_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3684_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3717_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3717_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_Rv3811_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3811_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene Rv3811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rv3811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_marP_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marP_WT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marP_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene marP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_eccD1_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eccD1_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene eccD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eccD1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_espI_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espI_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene espI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">espI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_PE35_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE35_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene PE35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PE35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flute_PPE68_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPE68_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mutants exhibiting altered fitness in the absence of gene PPE68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPE68</t>
+    <t>Rv1565c</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_3B</t>
+  </si>
+  <si>
+    <t>dejesus_Rv1565c_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv1565c (measured after 32 days of growth)</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_3C</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv1565c</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_GI_1B</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_1B</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_4A</t>
+  </si>
+  <si>
+    <t>dejesus_Rv2680_day0</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv2680</t>
+  </si>
+  <si>
+    <t>Rv2680</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_4B</t>
+  </si>
+  <si>
+    <t>dejesus_Rv2680_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv2680 (measured after 32 days of growth)</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_4C</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_GI_1C</t>
+  </si>
+  <si>
+    <t>2017B_DeJesus_1C</t>
+  </si>
+  <si>
+    <t>2017_Xu_1</t>
+  </si>
+  <si>
+    <t>xu_van_0</t>
+  </si>
+  <si>
+    <t>xu_van_16</t>
+  </si>
+  <si>
+    <t>2017_Xu_1A</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in presence of vancomycin</t>
+  </si>
+  <si>
+    <t>Chemical Genetic Interaction Profiling Reveals Determinants of Intrinsic Antibiotic Resistance in Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t>https://aac.asm.org/content/61/12/e01334-17</t>
+  </si>
+  <si>
+    <t>Antimicrobial_Agents_and_Chemotherapy</t>
+  </si>
+  <si>
+    <t>Xu</t>
+  </si>
+  <si>
+    <t>Ehrt</t>
+  </si>
+  <si>
+    <t>7H9</t>
+  </si>
+  <si>
+    <t>Vancomycin</t>
+  </si>
+  <si>
+    <t>2017_Xu_2</t>
+  </si>
+  <si>
+    <t>xu_rif_0</t>
+  </si>
+  <si>
+    <t>xu_rif_4</t>
+  </si>
+  <si>
+    <t>2017_Xu_1B</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in presence of rifampin</t>
+  </si>
+  <si>
+    <t>Rifampicin</t>
+  </si>
+  <si>
+    <t>2017_Xu_3A</t>
+  </si>
+  <si>
+    <t>xu_inh_0</t>
+  </si>
+  <si>
+    <t>xu_inh_02</t>
+  </si>
+  <si>
+    <t>2017_Xu_1C</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in presence of isoniazid</t>
+  </si>
+  <si>
+    <t>Isoniazid</t>
+  </si>
+  <si>
+    <t>2017_Xu_3B</t>
+  </si>
+  <si>
+    <t>xu_inh_025</t>
+  </si>
+  <si>
+    <t>2017_Xu_4A</t>
+  </si>
+  <si>
+    <t>xu_emb_0</t>
+  </si>
+  <si>
+    <t>xu_emb_2.5</t>
+  </si>
+  <si>
+    <t>2017_Xu_1D</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in presence of ethambutol</t>
+  </si>
+  <si>
+    <t>Ethambutol</t>
+  </si>
+  <si>
+    <t>2017_Xu_4B</t>
+  </si>
+  <si>
+    <t>xu_emb_3</t>
+  </si>
+  <si>
+    <t>2017_Xu_1E</t>
+  </si>
+  <si>
+    <t>xu_mero_0</t>
+  </si>
+  <si>
+    <t>xu_mero_2.5</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in presence of meropenem</t>
+  </si>
+  <si>
+    <t>Meropenem</t>
+  </si>
+  <si>
+    <t>2017_Mishra_1</t>
+  </si>
+  <si>
+    <t>mishra_B6</t>
+  </si>
+  <si>
+    <t>mishra_C3H</t>
+  </si>
+  <si>
+    <t>Nitric oxide prevents a pathogen-permissive granulocytic inflammation during tuberculosis</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/</t>
+  </si>
+  <si>
+    <t>Nature_Microbiology</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>C3HeB</t>
+  </si>
+  <si>
+    <t>2017_Mishra_2</t>
+  </si>
+  <si>
+    <t>mishra_NOS2</t>
+  </si>
+  <si>
+    <t>Nos2-/-</t>
+  </si>
+  <si>
+    <t>2017_Mishra_3</t>
+  </si>
+  <si>
+    <t>Nos2-/- AND C3HeB</t>
+  </si>
+  <si>
+    <t>2018_Carey_1A</t>
+  </si>
+  <si>
+    <t>carey_rv</t>
+  </si>
+  <si>
+    <t>carey_621</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=621) from East Asian lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>TnSeq of Mycobacterium tuberculosis clinical isolates reveals strain-specific antibiotic liabilities</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/</t>
+  </si>
+  <si>
+    <t>PLOS_Pathogens</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Fortune</t>
+  </si>
+  <si>
+    <t>2018_Carey_1B</t>
+  </si>
+  <si>
+    <t>carey_630</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=630) from Euro-American lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1C</t>
+  </si>
+  <si>
+    <t>carey_631</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=631) from East Asian lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1D</t>
+  </si>
+  <si>
+    <t>carey_632</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=632) from East Asian lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1E</t>
+  </si>
+  <si>
+    <t>carey_641</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=641) from Indo-Oceanic lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1F</t>
+  </si>
+  <si>
+    <t>carey_662</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=662) from East Asian lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1G</t>
+  </si>
+  <si>
+    <t>carey_663</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=663) from Euro-American lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Carey_1H</t>
+  </si>
+  <si>
+    <t>carey_667</t>
+  </si>
+  <si>
+    <t>Differential genetic requirements of clinical Mtb strain (ID=667) from Indo-Oceanic lineage (compared to H37Rv control)</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_1</t>
+  </si>
+  <si>
+    <t>ritterhaus_hypoxia_input</t>
+  </si>
+  <si>
+    <t>ritterhaus_hypoxia_H3</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_1B</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in hypoxic culture (as measured after 3 weeks of culture) (compared to input pool)</t>
+  </si>
+  <si>
+    <t>A Lysine Acetyltransferase Contributes to the Metabolic Adaptation to Hypoxia in Mycobacterium tuberculosis</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2451945618303295</t>
+  </si>
+  <si>
+    <t>Cell_Chemical_Biology</t>
+  </si>
+  <si>
+    <t>Rittershaus</t>
+  </si>
+  <si>
+    <t>3_weeks_hypoxia</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_2</t>
+  </si>
+  <si>
+    <t>ritterhaus_hypoxia_H6</t>
+  </si>
+  <si>
+    <t>2018_Rittershaus_1A</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in hypoxic culture (as measured after 6 weeks of culture) (compared to input pool)</t>
+  </si>
+  <si>
+    <t>6_weeks_hypoxia</t>
+  </si>
+  <si>
+    <t>2019_Bellerose_1</t>
+  </si>
+  <si>
+    <t>bellerose_MB_pretreatment</t>
+  </si>
+  <si>
+    <t>bellerose_MB_d21_untreated</t>
+  </si>
+  <si>
+    <t>Common Variants in the Glycerol Kinase Gene Reduce Tuberculosis Drug Efficacy</t>
+  </si>
+  <si>
+    <t>https://mbio.asm.org/content/10/4/e00663-19</t>
+  </si>
+  <si>
+    <t>mBio</t>
+  </si>
+  <si>
+    <t>Bellerose</t>
+  </si>
+  <si>
+    <t>BALB/cJ</t>
+  </si>
+  <si>
+    <t>2019_Bellerose_2</t>
+  </si>
+  <si>
+    <t>bellerose_MB_HRZE_wk1</t>
+  </si>
+  <si>
+    <t>2019_Bellerose_3</t>
+  </si>
+  <si>
+    <t>2019_Minato</t>
+  </si>
+  <si>
+    <t>minato_rich_plate</t>
+  </si>
+  <si>
+    <t>minato_minimal_plate</t>
+  </si>
+  <si>
+    <t>Genomewide Assessment of Mycobacterium tuberculosis Conditionally Essential Metabolic Pathways</t>
+  </si>
+  <si>
+    <t>https://msystems.asm.org/content/4/4/e00070-19</t>
+  </si>
+  <si>
+    <t>mSystems</t>
+  </si>
+  <si>
+    <t>Minato</t>
+  </si>
+  <si>
+    <t>Baughn</t>
+  </si>
+  <si>
+    <t>rich/minimal</t>
+  </si>
+  <si>
+    <t>several</t>
+  </si>
+  <si>
+    <t>flute_Rv0307c_KO</t>
+  </si>
+  <si>
+    <t>dejesus_Rv0307c_day0</t>
+  </si>
+  <si>
+    <t>dejesus_Rv0307c_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv0307c (measured after 32 days of culture)</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Rv0307c</t>
+  </si>
+  <si>
+    <t>flute_Rv3916c_KO</t>
+  </si>
+  <si>
+    <t>dejesus_Rv3916c_day0</t>
+  </si>
+  <si>
+    <t>dejesus_Rv3916c_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3916c (measured after 32 days of culture)</t>
+  </si>
+  <si>
+    <t>Rv3916c</t>
+  </si>
+  <si>
+    <t>flute_Rv0950c_KO</t>
+  </si>
+  <si>
+    <t>CB_WT</t>
+  </si>
+  <si>
+    <t>Rv0950c_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv0950c</t>
+  </si>
+  <si>
+    <t>Rv0950c</t>
+  </si>
+  <si>
+    <t>flute_Rv0954_KO</t>
+  </si>
+  <si>
+    <t>RJ_WT</t>
+  </si>
+  <si>
+    <t>Rv0954_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv0954</t>
+  </si>
+  <si>
+    <t>Rv0954</t>
+  </si>
+  <si>
+    <t>flute_Rv1096_KO</t>
+  </si>
+  <si>
+    <t>Rv1096_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv1096</t>
+  </si>
+  <si>
+    <t>Rv1096</t>
+  </si>
+  <si>
+    <t>flute_Rv3005c_KO_day32</t>
+  </si>
+  <si>
+    <t>Rv3005c_KO_day32</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3005c (measured after 32 days of culture)</t>
+  </si>
+  <si>
+    <t>Rv3005c</t>
+  </si>
+  <si>
+    <t>flute_Rv3594_KO</t>
+  </si>
+  <si>
+    <t>Rubin_FLUTE_WT</t>
+  </si>
+  <si>
+    <t>Rv3594_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3594</t>
+  </si>
+  <si>
+    <t>Rv3594</t>
+  </si>
+  <si>
+    <t>flute_Rv3684_KO</t>
+  </si>
+  <si>
+    <t>Rv3684_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3684</t>
+  </si>
+  <si>
+    <t>Rv3684</t>
+  </si>
+  <si>
+    <t>flute_Rv3717_KO</t>
+  </si>
+  <si>
+    <t>Rv3717_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3717</t>
+  </si>
+  <si>
+    <t>Rv3717</t>
+  </si>
+  <si>
+    <t>flute_Rv3811_KO</t>
+  </si>
+  <si>
+    <t>Rv3811_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene Rv3811</t>
+  </si>
+  <si>
+    <t>Rv3811</t>
+  </si>
+  <si>
+    <t>flute_marP_KO</t>
+  </si>
+  <si>
+    <t>marP_WT</t>
+  </si>
+  <si>
+    <t>marP_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene marP</t>
+  </si>
+  <si>
+    <t>marP</t>
+  </si>
+  <si>
+    <t>flute_eccD1_KO</t>
+  </si>
+  <si>
+    <t>eccD1_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene eccD1</t>
+  </si>
+  <si>
+    <t>eccD1</t>
+  </si>
+  <si>
+    <t>flute_espI_KO</t>
+  </si>
+  <si>
+    <t>espI_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene espI</t>
+  </si>
+  <si>
+    <t>espI</t>
+  </si>
+  <si>
+    <t>flute_PE35_KO</t>
+  </si>
+  <si>
+    <t>PE35_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene PE35</t>
+  </si>
+  <si>
+    <t>PE35</t>
+  </si>
+  <si>
+    <t>flute_PPE68_KO</t>
+  </si>
+  <si>
+    <t>PPE68_KO</t>
+  </si>
+  <si>
+    <t>Mutants exhibiting altered fitness in the absence of gene PPE68</t>
+  </si>
+  <si>
+    <t>PPE68</t>
+  </si>
+  <si>
+    <t>clinical W-Beijing strain (GC1237)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1322,7 +1319,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1330,105 +1327,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1487,41 +1441,349 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CA77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC15" activeCellId="0" sqref="AC15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="T49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="56.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="115.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="36.65"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="56.6640625" customWidth="1"/>
+    <col min="6" max="7" width="25" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
+    <col min="9" max="9" width="115.6640625" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" customWidth="1"/>
+    <col min="19" max="19" width="36.6640625" customWidth="1"/>
+    <col min="26" max="26" width="30.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1918,7 @@
       <c r="BZ1" s="2"/>
       <c r="CA1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
@@ -1670,13 +1932,13 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="5">
         <v>2003</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="16" t="s">
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -1708,7 +1970,9 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="Z2" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="AA2" s="7" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +2029,7 @@
       <c r="BZ2" s="2"/>
       <c r="CA2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1779,13 +2043,13 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="5" t="n">
+      <c r="J3" s="5">
         <v>2003</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="16" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -1815,7 +2079,9 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="Z3" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="AA3" s="7" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +2138,7 @@
       <c r="BZ3" s="2"/>
       <c r="CA3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -1886,7 +2152,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>2005</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1924,7 +2190,9 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="Z4" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="AA4" s="7" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +2249,7 @@
       <c r="BZ4" s="2"/>
       <c r="CA4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>49</v>
       </c>
@@ -1995,7 +2263,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="5">
         <v>2006</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -2033,7 +2301,9 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="Z5" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="AA5" s="7" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2360,7 @@
       <c r="BZ5" s="2"/>
       <c r="CA5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>54</v>
       </c>
@@ -2104,7 +2374,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="5">
         <v>2006</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -2142,7 +2412,9 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
+      <c r="Z6" s="17" t="s">
+        <v>67</v>
+      </c>
       <c r="AA6" s="7" t="s">
         <v>38</v>
       </c>
@@ -2199,12 +2471,12 @@
       <c r="BZ6" s="2"/>
       <c r="CA6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B7" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2214,22 +2486,22 @@
         <v>58</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f aca="false">CONCATENATE(D7,"_vs_",C7)</f>
+        <f>CONCATENATE(D7,"_vs_",C7)</f>
         <v>griffin_cholesterol_vs_griffin_glycerol</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>2</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="5">
         <v>3</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>2011</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -2326,7 +2598,7 @@
       <c r="BZ7" s="5"/>
       <c r="CA7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>68</v>
       </c>
@@ -2342,7 +2614,7 @@
       <c r="I8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="5">
         <v>2012</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -2439,12 +2711,12 @@
       <c r="BZ8" s="5"/>
       <c r="CA8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B9" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2454,18 +2726,18 @@
         <v>57</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f aca="false">CONCATENATE(D9,"_vs_",C9)</f>
+        <f t="shared" ref="E9:E20" si="0">CONCATENATE(D9,"_vs_",C9)</f>
         <v>griffin_glycerol_vs_mbio_H37Rv</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>14</v>
       </c>
-      <c r="H9" s="5" t="n">
+      <c r="H9" s="5">
         <v>2</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="5">
         <v>2013</v>
       </c>
       <c r="K9" s="4" t="s">
@@ -2501,7 +2773,9 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="Z9" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
@@ -2556,12 +2830,12 @@
       <c r="BZ9" s="5"/>
       <c r="CA9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B10" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2571,22 +2845,22 @@
         <v>82</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f aca="false">CONCATENATE(D10,"_vs_",C10)</f>
+        <f t="shared" si="0"/>
         <v>zhang_wt_mouse_d10_vs_zhang_input_library</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="5" t="n">
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="H10" s="5" t="n">
+      <c r="H10" s="5">
         <v>3</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="5">
         <v>2013</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -2624,7 +2898,9 @@
         <v>87</v>
       </c>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="Z10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA10" s="7" t="s">
         <v>38</v>
       </c>
@@ -2681,12 +2957,12 @@
       <c r="BZ10" s="5"/>
       <c r="CA10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B11" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2696,22 +2972,22 @@
         <v>89</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f aca="false">CONCATENATE(D11,"_vs_",C11)</f>
+        <f t="shared" si="0"/>
         <v>zhang_wt_mouse_d45_vs_zhang_input_library</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="5" t="n">
+      <c r="G11" s="5">
         <v>1</v>
       </c>
-      <c r="H11" s="5" t="n">
+      <c r="H11" s="5">
         <v>3</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>2013</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -2749,7 +3025,9 @@
         <v>87</v>
       </c>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="Z11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA11" s="7" t="s">
         <v>38</v>
       </c>
@@ -2806,12 +3084,12 @@
       <c r="BZ11" s="5"/>
       <c r="CA11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B12" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2821,20 +3099,20 @@
         <v>92</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f aca="false">CONCATENATE(D12,"_vs_",C12)</f>
+        <f t="shared" si="0"/>
         <v>zhang_mhcii_mouse_d10_vs_zhang_wt_mouse_d10</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>3</v>
       </c>
-      <c r="H12" s="5" t="n">
+      <c r="H12" s="5">
         <v>4</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="5">
         <v>2013</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2872,7 +3150,9 @@
         <v>94</v>
       </c>
       <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="Z12" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA12" s="7"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
@@ -2927,12 +3207,12 @@
       <c r="BZ12" s="5"/>
       <c r="CA12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B13" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2942,22 +3222,22 @@
         <v>96</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f aca="false">CONCATENATE(D13,"_vs_",C13)</f>
+        <f t="shared" si="0"/>
         <v>zhang_mhcii_mouse_d45_vs_zhang_wt_mouse_d45</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="5">
         <v>3</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="5">
         <v>4</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>2013</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2995,7 +3275,9 @@
         <v>94</v>
       </c>
       <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="Z13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA13" s="7" t="s">
         <v>38</v>
       </c>
@@ -3052,12 +3334,12 @@
       <c r="BZ13" s="5"/>
       <c r="CA13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B14" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3067,22 +3349,22 @@
         <v>101</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f aca="false">CONCATENATE(D14,"_vs_",C14)</f>
+        <f t="shared" si="0"/>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_Tyloxapol_pH_4.5</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="5" t="n">
+      <c r="G14" s="5">
         <v>3</v>
       </c>
-      <c r="H14" s="5" t="n">
+      <c r="H14" s="5">
         <v>3</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="5">
         <v>2013</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -3120,7 +3402,9 @@
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="Z14" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA14" s="7" t="s">
         <v>38</v>
       </c>
@@ -3177,12 +3461,12 @@
       <c r="BZ14" s="5"/>
       <c r="CA14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B15" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -3192,22 +3476,22 @@
         <v>101</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f aca="false">CONCATENATE(D15,"_vs_",C15)</f>
+        <f t="shared" si="0"/>
         <v>zhang_Tyloxapol_pH_6.5_vs_zhang_pcit_pH_4.5</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="5" t="n">
+      <c r="G15" s="5">
         <v>3</v>
       </c>
-      <c r="H15" s="5" t="n">
+      <c r="H15" s="5">
         <v>3</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>2013</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -3245,7 +3529,9 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="Z15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA15" s="7" t="s">
         <v>38</v>
       </c>
@@ -3302,12 +3588,12 @@
       <c r="BZ15" s="5"/>
       <c r="CA15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B16" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3317,22 +3603,22 @@
         <v>110</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f aca="false">CONCATENATE(D16,"_vs_",C16)</f>
+        <f t="shared" si="0"/>
         <v>zhang_DETA-NO_pH_7.0_vs_zhang_pH_7.0_no_NO_control</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="n">
+      <c r="H16" s="5">
         <v>3</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>2013</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -3370,7 +3656,9 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="Z16" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA16" s="7" t="s">
         <v>38</v>
       </c>
@@ -3427,12 +3715,12 @@
       <c r="BZ16" s="5"/>
       <c r="CA16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B17" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3442,22 +3730,22 @@
         <v>115</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f aca="false">CONCATENATE(D17,"_vs_",C17)</f>
+        <f t="shared" si="0"/>
         <v>zhang_Trp_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="5">
         <v>1</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>2013</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -3495,7 +3783,9 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
+      <c r="Z17" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA17" s="7" t="s">
         <v>38</v>
       </c>
@@ -3552,12 +3842,12 @@
       <c r="BZ17" s="5"/>
       <c r="CA17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B18" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B18" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -3567,20 +3857,20 @@
         <v>119</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f aca="false">CONCATENATE(D18,"_vs_",C18)</f>
+        <f t="shared" si="0"/>
         <v>zhang_AA_Rescue_vs_zhang_in_vitro_control_Rescue</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="5">
         <v>1</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>2013</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -3618,7 +3908,9 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="Z18" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA18" s="7"/>
       <c r="AB18" s="5"/>
       <c r="AC18" s="5"/>
@@ -3673,12 +3965,12 @@
       <c r="BZ18" s="5"/>
       <c r="CA18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B19" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -3688,20 +3980,20 @@
         <v>124</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f aca="false">CONCATENATE(D19,"_vs_",C19)</f>
+        <f t="shared" si="0"/>
         <v>zhang_Fe_1.5mM_vs_zhang_Fe_450uM</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="5" t="n">
+      <c r="G19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="5">
         <v>2</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="5">
         <v>2013</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -3739,7 +4031,9 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
+      <c r="Z19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -3794,12 +4088,12 @@
       <c r="BZ19" s="5"/>
       <c r="CA19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B20" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -3809,22 +4103,22 @@
         <v>128</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f aca="false">CONCATENATE(D20,"_vs_",C20)</f>
+        <f t="shared" si="0"/>
         <v>kieser_dPonA1_vs_mbio_H37Rv</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="5" t="n">
+      <c r="G20" s="5">
         <v>14</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="5">
         <v>1</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="5">
         <v>2015</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -3864,7 +4158,9 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
+      <c r="Z20" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA20" s="7" t="s">
         <v>136</v>
       </c>
@@ -3921,7 +4217,7 @@
       <c r="BZ20" s="5"/>
       <c r="CA20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>137</v>
       </c>
@@ -3937,7 +4233,7 @@
       <c r="I21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="5">
         <v>2015</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -3977,7 +4273,9 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
+      <c r="Z21" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA21" s="7" t="s">
         <v>136</v>
       </c>
@@ -4034,7 +4332,7 @@
       <c r="BZ21" s="5"/>
       <c r="CA21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>142</v>
       </c>
@@ -4050,7 +4348,7 @@
       <c r="I22" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="5">
         <v>2015</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -4090,7 +4388,9 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
+      <c r="Z22" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA22" s="7" t="s">
         <v>136</v>
       </c>
@@ -4147,7 +4447,7 @@
       <c r="BZ22" s="5"/>
       <c r="CA22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>147</v>
       </c>
@@ -4160,7 +4460,7 @@
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="J23" s="4" t="n">
+      <c r="J23" s="4">
         <v>2015</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -4194,7 +4494,9 @@
       <c r="Y23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="Z23" s="5"/>
+      <c r="Z23" s="17" t="s">
+        <v>399</v>
+      </c>
       <c r="AA23" s="7" t="s">
         <v>38</v>
       </c>
@@ -4251,12 +4553,12 @@
       <c r="BZ23" s="5"/>
       <c r="CA23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B24" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -4266,22 +4568,22 @@
         <v>156</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f aca="false">CONCATENATE(D24,"_vs_",C24)</f>
+        <f t="shared" ref="E24:E29" si="1">CONCATENATE(D24,"_vs_",C24)</f>
         <v>nambi_2015_ctpC_vs_nambi_2015_wt</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="5">
         <v>2</v>
       </c>
-      <c r="H24" s="5" t="n">
+      <c r="H24" s="5">
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="5">
         <v>2015</v>
       </c>
       <c r="K24" s="4" t="s">
@@ -4317,7 +4619,9 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
+      <c r="Z24" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA24" s="7" t="s">
         <v>136</v>
       </c>
@@ -4374,12 +4678,12 @@
       <c r="BZ24" s="5"/>
       <c r="CA24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B25" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B25" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -4389,22 +4693,22 @@
         <v>167</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f aca="false">CONCATENATE(D25,"_vs_",C25)</f>
+        <f t="shared" si="1"/>
         <v>korte_2016_otsa_trehalose_vs_korte_2016_otsa_7h9</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>1</v>
       </c>
-      <c r="H25" s="5" t="n">
+      <c r="H25" s="5">
         <v>1</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="J25" s="5" t="n">
+      <c r="J25" s="5">
         <v>2016</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -4444,7 +4748,9 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
+      <c r="Z25" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA25" s="7" t="s">
         <v>38</v>
       </c>
@@ -4501,12 +4807,12 @@
       <c r="BZ25" s="5"/>
       <c r="CA25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B26" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -4516,18 +4822,18 @@
         <v>178</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f aca="false">CONCATENATE(D26,"_vs_",C26)</f>
+        <f t="shared" si="1"/>
         <v>dejesus_H37Rv_day32_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="5">
         <v>2</v>
       </c>
-      <c r="H26" s="5" t="n">
+      <c r="H26" s="5">
         <v>3</v>
       </c>
       <c r="I26" s="13"/>
-      <c r="J26" s="5" t="n">
+      <c r="J26" s="5">
         <v>2017</v>
       </c>
       <c r="K26" s="4" t="s">
@@ -4561,7 +4867,9 @@
       </c>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
+      <c r="Z26" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA26" s="7"/>
       <c r="AB26" s="5"/>
       <c r="AC26" s="5"/>
@@ -4616,12 +4924,12 @@
       <c r="BZ26" s="5"/>
       <c r="CA26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B27" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B27" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C27" s="13" t="s">
@@ -4631,20 +4939,20 @@
         <v>184</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f aca="false">CONCATENATE(D27,"_vs_",C27)</f>
+        <f t="shared" si="1"/>
         <v>dejesus_Rv1432_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="5" t="n">
+      <c r="G27" s="5">
         <v>2</v>
       </c>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="5">
         <v>3</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="5">
         <v>2017</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -4680,7 +4988,9 @@
       </c>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
+      <c r="Z27" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA27" s="7"/>
       <c r="AB27" s="5"/>
       <c r="AC27" s="5"/>
@@ -4735,12 +5045,12 @@
       <c r="BZ27" s="5"/>
       <c r="CA27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B28" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -4750,20 +5060,20 @@
         <v>188</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f aca="false">CONCATENATE(D28,"_vs_",C28)</f>
+        <f t="shared" si="1"/>
         <v>dejesus_Rv1432_day32_vs_dejesus_Rv1432_day0</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="5" t="n">
+      <c r="G28" s="5">
         <v>3</v>
       </c>
-      <c r="H28" s="5" t="n">
+      <c r="H28" s="5">
         <v>3</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="J28" s="5" t="n">
+      <c r="J28" s="5">
         <v>2017</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -4799,7 +5109,9 @@
       </c>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
+      <c r="Z28" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA28" s="7"/>
       <c r="AB28" s="5"/>
       <c r="AC28" s="5"/>
@@ -4854,12 +5166,12 @@
       <c r="BZ28" s="5"/>
       <c r="CA28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B29" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B29" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C29" s="13" t="s">
@@ -4869,19 +5181,19 @@
         <v>188</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f aca="false">CONCATENATE(D29,"_vs_",C29)</f>
+        <f t="shared" si="1"/>
         <v>dejesus_Rv1432_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="G29" s="5" t="n">
+      <c r="G29" s="5">
         <v>3</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="5">
         <v>3</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="5">
         <v>2017</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -4917,7 +5229,9 @@
       </c>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
+      <c r="Z29" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA29" s="7"/>
       <c r="AB29" s="5"/>
       <c r="AC29" s="5"/>
@@ -4972,7 +5286,7 @@
       <c r="BZ29" s="5"/>
       <c r="CA29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>191</v>
       </c>
@@ -4988,7 +5302,7 @@
       <c r="I30" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="5">
         <v>2017</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -5024,7 +5338,9 @@
       </c>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
+      <c r="Z30" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA30" s="7" t="s">
         <v>136</v>
       </c>
@@ -5081,12 +5397,12 @@
       <c r="BZ30" s="5"/>
       <c r="CA30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B31" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B31" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
@@ -5096,20 +5412,20 @@
         <v>194</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f aca="false">CONCATENATE(D31,"_vs_",C31)</f>
+        <f>CONCATENATE(D31,"_vs_",C31)</f>
         <v>dejesus_Rv1565c_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="5">
         <v>2</v>
       </c>
-      <c r="H31" s="5" t="n">
+      <c r="H31" s="5">
         <v>2</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="J31" s="5" t="n">
+      <c r="J31" s="5">
         <v>2017</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -5145,7 +5461,9 @@
       </c>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
+      <c r="Z31" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA31" s="7"/>
       <c r="AB31" s="5"/>
       <c r="AC31" s="5"/>
@@ -5200,12 +5518,12 @@
       <c r="BZ31" s="5"/>
       <c r="CA31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B32" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -5215,20 +5533,20 @@
         <v>198</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f aca="false">CONCATENATE(D32,"_vs_",C32)</f>
+        <f>CONCATENATE(D32,"_vs_",C32)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_Rv1565c_day0</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="5" t="n">
+      <c r="G32" s="5">
         <v>2</v>
       </c>
-      <c r="H32" s="5" t="n">
+      <c r="H32" s="5">
         <v>3</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J32" s="5" t="n">
+      <c r="J32" s="5">
         <v>2017</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -5264,7 +5582,9 @@
       </c>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
+      <c r="Z32" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA32" s="7"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
@@ -5319,12 +5639,12 @@
       <c r="BZ32" s="5"/>
       <c r="CA32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B33" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B33" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C33" s="13" t="s">
@@ -5334,19 +5654,19 @@
         <v>198</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f aca="false">CONCATENATE(D33,"_vs_",C33)</f>
+        <f>CONCATENATE(D33,"_vs_",C33)</f>
         <v>dejesus_Rv1565c_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="G33" s="5" t="n">
+      <c r="G33" s="5">
         <v>3</v>
       </c>
-      <c r="H33" s="5" t="n">
+      <c r="H33" s="5">
         <v>3</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J33" s="5" t="n">
+      <c r="J33" s="5">
         <v>2017</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -5382,7 +5702,9 @@
       </c>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
+      <c r="Z33" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA33" s="7"/>
       <c r="AB33" s="5"/>
       <c r="AC33" s="5"/>
@@ -5437,7 +5759,7 @@
       <c r="BZ33" s="5"/>
       <c r="CA33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>202</v>
       </c>
@@ -5453,7 +5775,7 @@
       <c r="I34" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="J34" s="5" t="n">
+      <c r="J34" s="5">
         <v>2017</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -5489,7 +5811,9 @@
       </c>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
+      <c r="Z34" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA34" s="7" t="s">
         <v>136</v>
       </c>
@@ -5546,12 +5870,12 @@
       <c r="BZ34" s="5"/>
       <c r="CA34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B35" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B35" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C35" s="13" t="s">
@@ -5561,20 +5885,20 @@
         <v>205</v>
       </c>
       <c r="E35" s="4" t="str">
-        <f aca="false">CONCATENATE(D35,"_vs_",C35)</f>
+        <f>CONCATENATE(D35,"_vs_",C35)</f>
         <v>dejesus_Rv2680_day0_vs_dejesus_H37Rv_day0</v>
       </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="5" t="n">
+      <c r="G35" s="5">
         <v>2</v>
       </c>
-      <c r="H35" s="5" t="n">
+      <c r="H35" s="5">
         <v>2</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J35" s="5" t="n">
+      <c r="J35" s="5">
         <v>2017</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -5610,7 +5934,9 @@
       </c>
       <c r="X35" s="5"/>
       <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
+      <c r="Z35" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA35" s="7"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
@@ -5665,12 +5991,12 @@
       <c r="BZ35" s="5"/>
       <c r="CA35" s="5"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B36" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -5680,20 +6006,20 @@
         <v>209</v>
       </c>
       <c r="E36" s="4" t="str">
-        <f aca="false">CONCATENATE(D36,"_vs_",C36)</f>
+        <f>CONCATENATE(D36,"_vs_",C36)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_Rv2680_day0</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="5" t="n">
+      <c r="G36" s="5">
         <v>2</v>
       </c>
-      <c r="H36" s="5" t="n">
+      <c r="H36" s="5">
         <v>3</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J36" s="5" t="n">
+      <c r="J36" s="5">
         <v>2017</v>
       </c>
       <c r="K36" s="4" t="s">
@@ -5729,7 +6055,9 @@
       </c>
       <c r="X36" s="5"/>
       <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
+      <c r="Z36" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA36" s="7"/>
       <c r="AB36" s="5"/>
       <c r="AC36" s="5"/>
@@ -5784,12 +6112,12 @@
       <c r="BZ36" s="5"/>
       <c r="CA36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B37" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B37" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
@@ -5799,19 +6127,19 @@
         <v>209</v>
       </c>
       <c r="E37" s="4" t="str">
-        <f aca="false">CONCATENATE(D37,"_vs_",C37)</f>
+        <f>CONCATENATE(D37,"_vs_",C37)</f>
         <v>dejesus_Rv2680_day32_vs_dejesus_H37Rv_day32</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="5">
         <v>3</v>
       </c>
-      <c r="H37" s="5" t="n">
+      <c r="H37" s="5">
         <v>3</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J37" s="5" t="n">
+      <c r="J37" s="5">
         <v>2017</v>
       </c>
       <c r="K37" s="4" t="s">
@@ -5847,7 +6175,9 @@
       </c>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
+      <c r="Z37" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA37" s="7"/>
       <c r="AB37" s="5"/>
       <c r="AC37" s="5"/>
@@ -5902,7 +6232,7 @@
       <c r="BZ37" s="5"/>
       <c r="CA37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>212</v>
       </c>
@@ -5918,7 +6248,7 @@
       <c r="I38" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J38" s="5" t="n">
+      <c r="J38" s="5">
         <v>2017</v>
       </c>
       <c r="K38" s="4" t="s">
@@ -5954,7 +6284,9 @@
       </c>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
+      <c r="Z38" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA38" s="7" t="s">
         <v>136</v>
       </c>
@@ -6011,12 +6343,12 @@
       <c r="BZ38" s="5"/>
       <c r="CA38" s="5"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B39" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B39" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -6026,22 +6358,22 @@
         <v>216</v>
       </c>
       <c r="E39" s="4" t="str">
-        <f aca="false">CONCATENATE(D39,"_vs_",C39)</f>
+        <f t="shared" ref="E39:E77" si="2">CONCATENATE(D39,"_vs_",C39)</f>
         <v>xu_van_16_vs_xu_van_0</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G39" s="5" t="n">
+      <c r="G39" s="5">
         <v>3</v>
       </c>
-      <c r="H39" s="5" t="n">
+      <c r="H39" s="5">
         <v>3</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="5">
         <v>2017</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -6079,7 +6411,9 @@
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
+      <c r="Z39" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA39" s="7" t="s">
         <v>136</v>
       </c>
@@ -6136,12 +6470,12 @@
       <c r="BZ39" s="5"/>
       <c r="CA39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B40" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B40" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -6151,22 +6485,22 @@
         <v>228</v>
       </c>
       <c r="E40" s="4" t="str">
-        <f aca="false">CONCATENATE(D40,"_vs_",C40)</f>
+        <f t="shared" si="2"/>
         <v>xu_rif_4_vs_xu_rif_0</v>
       </c>
       <c r="F40" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="5">
         <v>3</v>
       </c>
-      <c r="H40" s="5" t="n">
+      <c r="H40" s="5">
         <v>3</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J40" s="5" t="n">
+      <c r="J40" s="5">
         <v>2017</v>
       </c>
       <c r="K40" s="4" t="s">
@@ -6204,7 +6538,9 @@
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
+      <c r="Z40" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA40" s="7" t="s">
         <v>136</v>
       </c>
@@ -6261,12 +6597,12 @@
       <c r="BZ40" s="5"/>
       <c r="CA40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B41" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B41" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -6276,22 +6612,22 @@
         <v>234</v>
       </c>
       <c r="E41" s="4" t="str">
-        <f aca="false">CONCATENATE(D41,"_vs_",C41)</f>
+        <f t="shared" si="2"/>
         <v>xu_inh_02_vs_xu_inh_0</v>
       </c>
       <c r="F41" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G41" s="5" t="n">
+      <c r="G41" s="5">
         <v>4</v>
       </c>
-      <c r="H41" s="5" t="n">
+      <c r="H41" s="5">
         <v>3</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J41" s="5" t="n">
+      <c r="J41" s="5">
         <v>2017</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -6329,7 +6665,9 @@
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
+      <c r="Z41" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA41" s="7" t="s">
         <v>136</v>
       </c>
@@ -6386,12 +6724,12 @@
       <c r="BZ41" s="5"/>
       <c r="CA41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B42" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B42" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -6401,20 +6739,20 @@
         <v>239</v>
       </c>
       <c r="E42" s="4" t="str">
-        <f aca="false">CONCATENATE(D42,"_vs_",C42)</f>
+        <f t="shared" si="2"/>
         <v>xu_inh_025_vs_xu_inh_0</v>
       </c>
       <c r="F42" s="11"/>
-      <c r="G42" s="5" t="n">
+      <c r="G42" s="5">
         <v>4</v>
       </c>
-      <c r="H42" s="5" t="n">
+      <c r="H42" s="5">
         <v>3</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J42" s="5" t="n">
+      <c r="J42" s="5">
         <v>2017</v>
       </c>
       <c r="K42" s="4" t="s">
@@ -6452,7 +6790,9 @@
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
+      <c r="Z42" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA42" s="7"/>
       <c r="AB42" s="5"/>
       <c r="AC42" s="5"/>
@@ -6507,12 +6847,12 @@
       <c r="BZ42" s="5"/>
       <c r="CA42" s="5"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B43" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B43" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -6522,22 +6862,22 @@
         <v>242</v>
       </c>
       <c r="E43" s="4" t="str">
-        <f aca="false">CONCATENATE(D43,"_vs_",C43)</f>
+        <f t="shared" si="2"/>
         <v>xu_emb_2.5_vs_xu_emb_0</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="5">
         <v>3</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="5">
         <v>3</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J43" s="5" t="n">
+      <c r="J43" s="5">
         <v>2017</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -6575,7 +6915,9 @@
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
+      <c r="Z43" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA43" s="7" t="s">
         <v>136</v>
       </c>
@@ -6632,12 +6974,12 @@
       <c r="BZ43" s="5"/>
       <c r="CA43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B44" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B44" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -6647,20 +6989,20 @@
         <v>247</v>
       </c>
       <c r="E44" s="4" t="str">
-        <f aca="false">CONCATENATE(D44,"_vs_",C44)</f>
+        <f t="shared" si="2"/>
         <v>xu_emb_3_vs_xu_emb_0</v>
       </c>
       <c r="F44" s="11"/>
-      <c r="G44" s="5" t="n">
+      <c r="G44" s="5">
         <v>3</v>
       </c>
-      <c r="H44" s="5" t="n">
+      <c r="H44" s="5">
         <v>3</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J44" s="5" t="n">
+      <c r="J44" s="5">
         <v>2017</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -6698,7 +7040,9 @@
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
+      <c r="Z44" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="5"/>
       <c r="AC44" s="5"/>
@@ -6753,12 +7097,12 @@
       <c r="BZ44" s="5"/>
       <c r="CA44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B45" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B45" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -6768,22 +7112,22 @@
         <v>250</v>
       </c>
       <c r="E45" s="4" t="str">
-        <f aca="false">CONCATENATE(D45,"_vs_",C45)</f>
+        <f t="shared" si="2"/>
         <v>xu_mero_2.5_vs_xu_mero_0</v>
       </c>
       <c r="F45" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="G45" s="5" t="n">
+      <c r="G45" s="5">
         <v>2</v>
       </c>
-      <c r="H45" s="5" t="n">
+      <c r="H45" s="5">
         <v>2</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J45" s="5" t="n">
+      <c r="J45" s="5">
         <v>2017</v>
       </c>
       <c r="K45" s="4" t="s">
@@ -6821,7 +7165,9 @@
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
+      <c r="Z45" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA45" s="7" t="s">
         <v>136</v>
       </c>
@@ -6878,12 +7224,12 @@
       <c r="BZ45" s="5"/>
       <c r="CA45" s="5"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B46" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B46" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C46" s="13" t="s">
@@ -6893,20 +7239,20 @@
         <v>255</v>
       </c>
       <c r="E46" s="4" t="str">
-        <f aca="false">CONCATENATE(D46,"_vs_",C46)</f>
+        <f t="shared" si="2"/>
         <v>mishra_C3H_vs_mishra_B6</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="5">
         <v>3</v>
       </c>
-      <c r="H46" s="5" t="n">
+      <c r="H46" s="5">
         <v>2</v>
       </c>
       <c r="I46" s="4"/>
-      <c r="J46" s="5" t="n">
+      <c r="J46" s="5">
         <v>2017</v>
       </c>
       <c r="K46" s="4" t="s">
@@ -6999,12 +7345,12 @@
       <c r="BZ46" s="5"/>
       <c r="CA46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B47" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B47" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C47" s="13" t="s">
@@ -7014,20 +7360,20 @@
         <v>262</v>
       </c>
       <c r="E47" s="4" t="str">
-        <f aca="false">CONCATENATE(D47,"_vs_",C47)</f>
+        <f t="shared" si="2"/>
         <v>mishra_NOS2_vs_mishra_B6</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G47" s="5" t="n">
+      <c r="G47" s="5">
         <v>3</v>
       </c>
-      <c r="H47" s="5" t="n">
+      <c r="H47" s="5">
         <v>2</v>
       </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="5" t="n">
+      <c r="J47" s="5">
         <v>2017</v>
       </c>
       <c r="K47" s="4" t="s">
@@ -7120,12 +7466,12 @@
       <c r="BZ47" s="5"/>
       <c r="CA47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B48" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B48" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -7135,18 +7481,18 @@
         <v>262</v>
       </c>
       <c r="E48" s="4" t="str">
-        <f aca="false">CONCATENATE(D48,"_vs_",C48)</f>
+        <f t="shared" si="2"/>
         <v>mishra_NOS2_vs_mishra_C3H</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="5" t="n">
+      <c r="G48" s="5">
         <v>2</v>
       </c>
-      <c r="H48" s="5" t="n">
+      <c r="H48" s="5">
         <v>2</v>
       </c>
       <c r="I48" s="4"/>
-      <c r="J48" s="5" t="n">
+      <c r="J48" s="5">
         <v>2017</v>
       </c>
       <c r="K48" s="4" t="s">
@@ -7237,12 +7583,12 @@
       <c r="BZ48" s="7"/>
       <c r="CA48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B49" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B49" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -7252,22 +7598,22 @@
         <v>268</v>
       </c>
       <c r="E49" s="4" t="str">
-        <f aca="false">CONCATENATE(D49,"_vs_",C49)</f>
+        <f t="shared" si="2"/>
         <v>carey_621_vs_carey_rv</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49" s="5">
         <v>14</v>
       </c>
-      <c r="H49" s="5" t="n">
+      <c r="H49" s="5">
         <v>2</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="J49" s="5" t="n">
+      <c r="J49" s="5">
         <v>2018</v>
       </c>
       <c r="K49" s="4" t="s">
@@ -7303,7 +7649,7 @@
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="5" t="n">
+      <c r="Z49" s="5">
         <v>621</v>
       </c>
       <c r="AA49" s="7" t="s">
@@ -7362,12 +7708,12 @@
       <c r="BZ49" s="5"/>
       <c r="CA49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B50" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B50" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -7377,22 +7723,22 @@
         <v>276</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f aca="false">CONCATENATE(D50,"_vs_",C50)</f>
+        <f t="shared" si="2"/>
         <v>carey_630_vs_carey_rv</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G50" s="5" t="n">
+      <c r="G50" s="5">
         <v>14</v>
       </c>
-      <c r="H50" s="5" t="n">
+      <c r="H50" s="5">
         <v>2</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="J50" s="5" t="n">
+      <c r="J50" s="5">
         <v>2018</v>
       </c>
       <c r="K50" s="4" t="s">
@@ -7428,7 +7774,7 @@
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="5" t="n">
+      <c r="Z50" s="5">
         <v>630</v>
       </c>
       <c r="AA50" s="7" t="s">
@@ -7487,12 +7833,12 @@
       <c r="BZ50" s="5"/>
       <c r="CA50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B51" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B51" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -7502,22 +7848,22 @@
         <v>279</v>
       </c>
       <c r="E51" s="4" t="str">
-        <f aca="false">CONCATENATE(D51,"_vs_",C51)</f>
+        <f t="shared" si="2"/>
         <v>carey_631_vs_carey_rv</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="G51" s="5" t="n">
+      <c r="G51" s="5">
         <v>14</v>
       </c>
-      <c r="H51" s="5" t="n">
+      <c r="H51" s="5">
         <v>2</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="J51" s="5" t="n">
+      <c r="J51" s="5">
         <v>2018</v>
       </c>
       <c r="K51" s="4" t="s">
@@ -7553,7 +7899,7 @@
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="5" t="n">
+      <c r="Z51" s="5">
         <v>631</v>
       </c>
       <c r="AA51" s="7" t="s">
@@ -7612,12 +7958,12 @@
       <c r="BZ51" s="5"/>
       <c r="CA51" s="5"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B52" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B52" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -7627,22 +7973,22 @@
         <v>282</v>
       </c>
       <c r="E52" s="4" t="str">
-        <f aca="false">CONCATENATE(D52,"_vs_",C52)</f>
+        <f t="shared" si="2"/>
         <v>carey_632_vs_carey_rv</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="5">
         <v>14</v>
       </c>
-      <c r="H52" s="5" t="n">
+      <c r="H52" s="5">
         <v>2</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="J52" s="5" t="n">
+      <c r="J52" s="5">
         <v>2018</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -7678,7 +8024,7 @@
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="5" t="n">
+      <c r="Z52" s="5">
         <v>632</v>
       </c>
       <c r="AA52" s="7" t="s">
@@ -7737,12 +8083,12 @@
       <c r="BZ52" s="5"/>
       <c r="CA52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B53" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -7752,22 +8098,22 @@
         <v>285</v>
       </c>
       <c r="E53" s="4" t="str">
-        <f aca="false">CONCATENATE(D53,"_vs_",C53)</f>
+        <f t="shared" si="2"/>
         <v>carey_641_vs_carey_rv</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G53" s="5" t="n">
+      <c r="G53" s="5">
         <v>14</v>
       </c>
-      <c r="H53" s="5" t="n">
+      <c r="H53" s="5">
         <v>2</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="J53" s="5" t="n">
+      <c r="J53" s="5">
         <v>2018</v>
       </c>
       <c r="K53" s="4" t="s">
@@ -7803,7 +8149,7 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="5" t="n">
+      <c r="Z53" s="5">
         <v>641</v>
       </c>
       <c r="AA53" s="7" t="s">
@@ -7862,12 +8208,12 @@
       <c r="BZ53" s="5"/>
       <c r="CA53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B54" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B54" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -7877,22 +8223,22 @@
         <v>288</v>
       </c>
       <c r="E54" s="4" t="str">
-        <f aca="false">CONCATENATE(D54,"_vs_",C54)</f>
+        <f t="shared" si="2"/>
         <v>carey_662_vs_carey_rv</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G54" s="5" t="n">
+      <c r="G54" s="5">
         <v>14</v>
       </c>
-      <c r="H54" s="5" t="n">
+      <c r="H54" s="5">
         <v>2</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="J54" s="5" t="n">
+      <c r="J54" s="5">
         <v>2018</v>
       </c>
       <c r="K54" s="4" t="s">
@@ -7928,7 +8274,7 @@
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="5" t="n">
+      <c r="Z54" s="5">
         <v>662</v>
       </c>
       <c r="AA54" s="7" t="s">
@@ -7987,12 +8333,12 @@
       <c r="BZ54" s="5"/>
       <c r="CA54" s="5"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B55" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B55" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -8002,22 +8348,22 @@
         <v>291</v>
       </c>
       <c r="E55" s="4" t="str">
-        <f aca="false">CONCATENATE(D55,"_vs_",C55)</f>
+        <f t="shared" si="2"/>
         <v>carey_663_vs_carey_rv</v>
       </c>
       <c r="F55" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G55" s="5" t="n">
+      <c r="G55" s="5">
         <v>14</v>
       </c>
-      <c r="H55" s="5" t="n">
+      <c r="H55" s="5">
         <v>2</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J55" s="5" t="n">
+      <c r="J55" s="5">
         <v>2018</v>
       </c>
       <c r="K55" s="4" t="s">
@@ -8053,7 +8399,7 @@
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="5" t="n">
+      <c r="Z55" s="5">
         <v>663</v>
       </c>
       <c r="AA55" s="7" t="s">
@@ -8112,12 +8458,12 @@
       <c r="BZ55" s="5"/>
       <c r="CA55" s="5"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B56" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B56" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -8127,22 +8473,22 @@
         <v>294</v>
       </c>
       <c r="E56" s="4" t="str">
-        <f aca="false">CONCATENATE(D56,"_vs_",C56)</f>
+        <f t="shared" si="2"/>
         <v>carey_667_vs_carey_rv</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="5">
         <v>14</v>
       </c>
-      <c r="H56" s="5" t="n">
+      <c r="H56" s="5">
         <v>2</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="5">
         <v>2018</v>
       </c>
       <c r="K56" s="4" t="s">
@@ -8178,7 +8524,7 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="5" t="n">
+      <c r="Z56" s="5">
         <v>667</v>
       </c>
       <c r="AA56" s="7" t="s">
@@ -8237,12 +8583,12 @@
       <c r="BZ56" s="5"/>
       <c r="CA56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B57" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B57" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -8252,22 +8598,22 @@
         <v>298</v>
       </c>
       <c r="E57" s="4" t="str">
-        <f aca="false">CONCATENATE(D57,"_vs_",C57)</f>
+        <f t="shared" si="2"/>
         <v>ritterhaus_hypoxia_H3_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G57" s="5" t="n">
+      <c r="G57" s="5">
         <v>8</v>
       </c>
-      <c r="H57" s="5" t="n">
+      <c r="H57" s="5">
         <v>8</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="J57" s="5" t="n">
+      <c r="J57" s="5">
         <v>2018</v>
       </c>
       <c r="K57" s="4" t="s">
@@ -8366,12 +8712,12 @@
       <c r="BZ57" s="5"/>
       <c r="CA57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B58" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B58" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -8381,22 +8727,22 @@
         <v>307</v>
       </c>
       <c r="E58" s="4" t="str">
-        <f aca="false">CONCATENATE(D58,"_vs_",C58)</f>
+        <f t="shared" si="2"/>
         <v>ritterhaus_hypoxia_H6_vs_ritterhaus_hypoxia_input</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="G58" s="5">
         <v>8</v>
       </c>
-      <c r="H58" s="5" t="n">
+      <c r="H58" s="5">
         <v>6</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="5">
         <v>2018</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -8495,12 +8841,12 @@
       <c r="BZ58" s="5"/>
       <c r="CA58" s="5"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B59" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B59" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -8510,18 +8856,18 @@
         <v>313</v>
       </c>
       <c r="E59" s="4" t="str">
-        <f aca="false">CONCATENATE(D59,"_vs_",C59)</f>
+        <f t="shared" si="2"/>
         <v>bellerose_MB_d21_untreated_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="5" t="n">
+      <c r="G59" s="5">
         <v>7</v>
       </c>
-      <c r="H59" s="5" t="n">
+      <c r="H59" s="5">
         <v>5</v>
       </c>
       <c r="I59" s="4"/>
-      <c r="J59" s="5" t="n">
+      <c r="J59" s="5">
         <v>2019</v>
       </c>
       <c r="K59" s="4" t="s">
@@ -8614,12 +8960,12 @@
       <c r="BZ59" s="5"/>
       <c r="CA59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A60" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B60" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B60" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -8629,18 +8975,18 @@
         <v>320</v>
       </c>
       <c r="E60" s="4" t="str">
-        <f aca="false">CONCATENATE(D60,"_vs_",C60)</f>
+        <f t="shared" si="2"/>
         <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_pretreatment</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="5" t="n">
+      <c r="G60" s="5">
         <v>7</v>
       </c>
-      <c r="H60" s="5" t="n">
+      <c r="H60" s="5">
         <v>5</v>
       </c>
       <c r="I60" s="4"/>
-      <c r="J60" s="5" t="n">
+      <c r="J60" s="5">
         <v>2019</v>
       </c>
       <c r="K60" s="4" t="s">
@@ -8733,12 +9079,12 @@
       <c r="BZ60" s="5"/>
       <c r="CA60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A61" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="B61" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B61" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -8748,18 +9094,18 @@
         <v>320</v>
       </c>
       <c r="E61" s="4" t="str">
-        <f aca="false">CONCATENATE(D61,"_vs_",C61)</f>
+        <f t="shared" si="2"/>
         <v>bellerose_MB_HRZE_wk1_vs_bellerose_MB_d21_untreated</v>
       </c>
       <c r="F61" s="4"/>
-      <c r="G61" s="5" t="n">
+      <c r="G61" s="5">
         <v>5</v>
       </c>
-      <c r="H61" s="5" t="n">
+      <c r="H61" s="5">
         <v>5</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="5" t="n">
+      <c r="J61" s="5">
         <v>2019</v>
       </c>
       <c r="K61" s="4" t="s">
@@ -8852,12 +9198,12 @@
       <c r="BZ61" s="5"/>
       <c r="CA61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B62" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B62" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -8867,18 +9213,18 @@
         <v>324</v>
       </c>
       <c r="E62" s="4" t="str">
-        <f aca="false">CONCATENATE(D62,"_vs_",C62)</f>
+        <f t="shared" si="2"/>
         <v>minato_minimal_plate_vs_minato_rich_plate</v>
       </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="5" t="n">
+      <c r="G62" s="5">
         <v>2</v>
       </c>
-      <c r="H62" s="5" t="n">
+      <c r="H62" s="5">
         <v>2</v>
       </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="5" t="n">
+      <c r="J62" s="5">
         <v>2019</v>
       </c>
       <c r="K62" s="4" t="s">
@@ -8916,7 +9262,9 @@
       </c>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
-      <c r="Z62" s="5"/>
+      <c r="Z62" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="AA62" s="7"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
@@ -8971,12 +9319,12 @@
       <c r="BZ62" s="5"/>
       <c r="CA62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B63" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B63" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -8986,14 +9334,14 @@
         <v>334</v>
       </c>
       <c r="E63" s="4" t="str">
-        <f aca="false">CONCATENATE(D63,"_vs_",C63)</f>
+        <f t="shared" si="2"/>
         <v>dejesus_Rv0307c_day32_vs_dejesus_Rv0307c_day0</v>
       </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="5" t="n">
+      <c r="G63" s="5">
         <v>2</v>
       </c>
-      <c r="H63" s="5" t="n">
+      <c r="H63" s="5">
         <v>3</v>
       </c>
       <c r="I63" s="4" t="s">
@@ -9096,12 +9444,12 @@
       <c r="BZ63" s="5"/>
       <c r="CA63" s="5"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B64" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B64" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -9111,14 +9459,14 @@
         <v>340</v>
       </c>
       <c r="E64" s="4" t="str">
-        <f aca="false">CONCATENATE(D64,"_vs_",C64)</f>
+        <f t="shared" si="2"/>
         <v>dejesus_Rv3916c_day32_vs_dejesus_Rv3916c_day0</v>
       </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="5" t="n">
+      <c r="G64" s="5">
         <v>2</v>
       </c>
-      <c r="H64" s="5" t="n">
+      <c r="H64" s="5">
         <v>2</v>
       </c>
       <c r="I64" s="4" t="s">
@@ -9221,12 +9569,12 @@
       <c r="BZ64" s="5"/>
       <c r="CA64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A65" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B65" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B65" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -9236,14 +9584,14 @@
         <v>345</v>
       </c>
       <c r="E65" s="4" t="str">
-        <f aca="false">CONCATENATE(D65,"_vs_",C65)</f>
+        <f t="shared" si="2"/>
         <v>Rv0950c_KO_vs_CB_WT</v>
       </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="5" t="n">
+      <c r="G65" s="5">
         <v>1</v>
       </c>
-      <c r="H65" s="5" t="n">
+      <c r="H65" s="5">
         <v>1</v>
       </c>
       <c r="I65" s="4" t="s">
@@ -9342,12 +9690,12 @@
       <c r="BZ65" s="5"/>
       <c r="CA65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B66" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B66" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -9357,14 +9705,14 @@
         <v>350</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f aca="false">CONCATENATE(D66,"_vs_",C66)</f>
+        <f t="shared" si="2"/>
         <v>Rv0954_KO_vs_RJ_WT</v>
       </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="5" t="n">
+      <c r="G66" s="5">
         <v>2</v>
       </c>
-      <c r="H66" s="5" t="n">
+      <c r="H66" s="5">
         <v>2</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9463,12 +9811,12 @@
       <c r="BZ66" s="5"/>
       <c r="CA66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="B67" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B67" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -9478,14 +9826,14 @@
         <v>354</v>
       </c>
       <c r="E67" s="4" t="str">
-        <f aca="false">CONCATENATE(D67,"_vs_",C67)</f>
+        <f t="shared" si="2"/>
         <v>Rv1096_KO_vs_CB_WT</v>
       </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="5" t="n">
+      <c r="G67" s="5">
         <v>1</v>
       </c>
-      <c r="H67" s="5" t="n">
+      <c r="H67" s="5">
         <v>1</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9584,12 +9932,12 @@
       <c r="BZ67" s="5"/>
       <c r="CA67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="B68" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B68" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C68" s="13" t="s">
@@ -9599,14 +9947,14 @@
         <v>358</v>
       </c>
       <c r="E68" s="4" t="str">
-        <f aca="false">CONCATENATE(D68,"_vs_",C68)</f>
+        <f t="shared" si="2"/>
         <v>Rv3005c_KO_day32_vs_dejesus_H37Rv_day32</v>
       </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="5" t="n">
+      <c r="G68" s="5">
         <v>3</v>
       </c>
-      <c r="H68" s="5" t="n">
+      <c r="H68" s="5">
         <v>2</v>
       </c>
       <c r="I68" s="4" t="s">
@@ -9705,12 +10053,12 @@
       <c r="BZ68" s="5"/>
       <c r="CA68" s="5"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A69" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="B69" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B69" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -9720,14 +10068,14 @@
         <v>363</v>
       </c>
       <c r="E69" s="4" t="str">
-        <f aca="false">CONCATENATE(D69,"_vs_",C69)</f>
+        <f t="shared" si="2"/>
         <v>Rv3594_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F69" s="4"/>
-      <c r="G69" s="5" t="n">
+      <c r="G69" s="5">
         <v>1</v>
       </c>
-      <c r="H69" s="5" t="n">
+      <c r="H69" s="5">
         <v>1</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -9826,12 +10174,12 @@
       <c r="BZ69" s="5"/>
       <c r="CA69" s="5"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B70" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B70" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -9841,14 +10189,14 @@
         <v>367</v>
       </c>
       <c r="E70" s="4" t="str">
-        <f aca="false">CONCATENATE(D70,"_vs_",C70)</f>
+        <f t="shared" si="2"/>
         <v>Rv3684_KO_vs_CB_WT</v>
       </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="5" t="n">
+      <c r="G70" s="5">
         <v>1</v>
       </c>
-      <c r="H70" s="5" t="n">
+      <c r="H70" s="5">
         <v>1</v>
       </c>
       <c r="I70" s="4" t="s">
@@ -9947,12 +10295,12 @@
       <c r="BZ70" s="5"/>
       <c r="CA70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B71" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B71" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C71" s="4" t="s">
@@ -9962,14 +10310,14 @@
         <v>371</v>
       </c>
       <c r="E71" s="4" t="str">
-        <f aca="false">CONCATENATE(D71,"_vs_",C71)</f>
+        <f t="shared" si="2"/>
         <v>Rv3717_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F71" s="4"/>
-      <c r="G71" s="5" t="n">
+      <c r="G71" s="5">
         <v>1</v>
       </c>
-      <c r="H71" s="5" t="n">
+      <c r="H71" s="5">
         <v>1</v>
       </c>
       <c r="I71" s="4" t="s">
@@ -10068,12 +10416,12 @@
       <c r="BZ71" s="5"/>
       <c r="CA71" s="5"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B72" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B72" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C72" s="4" t="s">
@@ -10083,14 +10431,14 @@
         <v>375</v>
       </c>
       <c r="E72" s="4" t="str">
-        <f aca="false">CONCATENATE(D72,"_vs_",C72)</f>
+        <f t="shared" si="2"/>
         <v>Rv3811_KO_vs_Rubin_FLUTE_WT</v>
       </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="5" t="n">
+      <c r="G72" s="5">
         <v>1</v>
       </c>
-      <c r="H72" s="5" t="n">
+      <c r="H72" s="5">
         <v>1</v>
       </c>
       <c r="I72" s="4" t="s">
@@ -10189,12 +10537,12 @@
       <c r="BZ72" s="5"/>
       <c r="CA72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B73" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B73" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C73" s="13" t="s">
@@ -10204,14 +10552,14 @@
         <v>380</v>
       </c>
       <c r="E73" s="4" t="str">
-        <f aca="false">CONCATENATE(D73,"_vs_",C73)</f>
+        <f t="shared" si="2"/>
         <v>marP_KO_vs_marP_WT</v>
       </c>
       <c r="F73" s="4"/>
-      <c r="G73" s="5" t="n">
+      <c r="G73" s="5">
         <v>4</v>
       </c>
-      <c r="H73" s="5" t="n">
+      <c r="H73" s="5">
         <v>4</v>
       </c>
       <c r="I73" s="4" t="s">
@@ -10308,12 +10656,12 @@
       <c r="BZ73" s="5"/>
       <c r="CA73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="B74" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B74" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -10323,14 +10671,14 @@
         <v>384</v>
       </c>
       <c r="E74" s="4" t="str">
-        <f aca="false">CONCATENATE(D74,"_vs_",C74)</f>
+        <f t="shared" si="2"/>
         <v>eccD1_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="5" t="n">
+      <c r="G74" s="5">
         <v>14</v>
       </c>
-      <c r="H74" s="5" t="n">
+      <c r="H74" s="5">
         <v>1</v>
       </c>
       <c r="I74" s="4" t="s">
@@ -10427,12 +10775,12 @@
       <c r="BZ74" s="5"/>
       <c r="CA74" s="5"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B75" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B75" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C75" s="4" t="s">
@@ -10442,14 +10790,14 @@
         <v>388</v>
       </c>
       <c r="E75" s="4" t="str">
-        <f aca="false">CONCATENATE(D75,"_vs_",C75)</f>
+        <f t="shared" si="2"/>
         <v>espI_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F75" s="4"/>
-      <c r="G75" s="5" t="n">
+      <c r="G75" s="5">
         <v>14</v>
       </c>
-      <c r="H75" s="5" t="n">
+      <c r="H75" s="5">
         <v>1</v>
       </c>
       <c r="I75" s="4" t="s">
@@ -10546,12 +10894,12 @@
       <c r="BZ75" s="5"/>
       <c r="CA75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B76" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B76" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C76" s="4" t="s">
@@ -10561,14 +10909,14 @@
         <v>392</v>
       </c>
       <c r="E76" s="4" t="str">
-        <f aca="false">CONCATENATE(D76,"_vs_",C76)</f>
+        <f t="shared" si="2"/>
         <v>PE35_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="5" t="n">
+      <c r="G76" s="5">
         <v>14</v>
       </c>
-      <c r="H76" s="5" t="n">
+      <c r="H76" s="5">
         <v>1</v>
       </c>
       <c r="I76" s="4" t="s">
@@ -10665,12 +11013,12 @@
       <c r="BZ76" s="5"/>
       <c r="CA76" s="5"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B77" s="5" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="B77" s="5" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="C77" s="4" t="s">
@@ -10680,14 +11028,14 @@
         <v>396</v>
       </c>
       <c r="E77" s="4" t="str">
-        <f aca="false">CONCATENATE(D77,"_vs_",C77)</f>
+        <f t="shared" si="2"/>
         <v>PPE68_KO_vs_mbio_H37Rv</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="5" t="n">
+      <c r="G77" s="5">
         <v>14</v>
       </c>
-      <c r="H77" s="5" t="n">
+      <c r="H77" s="5">
         <v>1</v>
       </c>
       <c r="I77" s="4" t="s">
@@ -10786,71 +11134,66 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="https://onlinelibrary.wiley.com/doi/full/10.1046/j.1365-2958.2003.03425.x"/>
-    <hyperlink ref="L3" r:id="rId2" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC240732/"/>
-    <hyperlink ref="L4" r:id="rId3" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1142121/"/>
-    <hyperlink ref="L5" r:id="rId4" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
-    <hyperlink ref="L6" r:id="rId5" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC1544243/"/>
-    <hyperlink ref="L7" r:id="rId6" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3182942/"/>
-    <hyperlink ref="L9" r:id="rId7" display="https://www.ncbi.nlm.nih.gov/pubmed/24103077"/>
-    <hyperlink ref="L10" r:id="rId8" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L11" r:id="rId9" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L12" r:id="rId10" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L13" r:id="rId11" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L14" r:id="rId12" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L15" r:id="rId13" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L16" r:id="rId14" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L17" r:id="rId15" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L18" r:id="rId16" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L19" r:id="rId17" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC3902092/"/>
-    <hyperlink ref="L20" r:id="rId18" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4620856/"/>
-    <hyperlink ref="L23" r:id="rId19" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4425887/"/>
-    <hyperlink ref="L24" r:id="rId20" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC4465913/"/>
-    <hyperlink ref="L25" r:id="rId21" display="https://journals.plos.org/plospathogens/article?id=10.1371/journal.ppat.1006043"/>
-    <hyperlink ref="L26" r:id="rId22" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L27" r:id="rId23" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L28" r:id="rId24" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L29" r:id="rId25" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L30" r:id="rId26" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L31" r:id="rId27" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L32" r:id="rId28" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L33" r:id="rId29" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L34" r:id="rId30" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L35" r:id="rId31" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L36" r:id="rId32" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L37" r:id="rId33" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L38" r:id="rId34" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5499643/"/>
-    <hyperlink ref="L39" r:id="rId35" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L40" r:id="rId36" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L41" r:id="rId37" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L42" r:id="rId38" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L43" r:id="rId39" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L44" r:id="rId40" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L45" r:id="rId41" display="https://aac.asm.org/content/61/12/e01334-17"/>
-    <hyperlink ref="L46" r:id="rId42" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L47" r:id="rId43" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L48" r:id="rId44" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5461879/"/>
-    <hyperlink ref="L49" r:id="rId45" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L50" r:id="rId46" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L51" r:id="rId47" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L52" r:id="rId48" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L53" r:id="rId49" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L54" r:id="rId50" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L55" r:id="rId51" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L56" r:id="rId52" display="https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5854444/"/>
-    <hyperlink ref="L57" r:id="rId53" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L58" r:id="rId54" display="https://www.sciencedirect.com/science/article/pii/S2451945618303295"/>
-    <hyperlink ref="L59" r:id="rId55" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L60" r:id="rId56" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L61" r:id="rId57" display="https://mbio.asm.org/content/10/4/e00663-19"/>
-    <hyperlink ref="L62" r:id="rId58" display="https://msystems.asm.org/content/4/4/e00070-19"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L27" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L28" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L29" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L30" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L31" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L47" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>